--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="310">
   <si>
     <t>IND_50</t>
   </si>
@@ -932,6 +932,24 @@
   </si>
   <si>
     <t>0000000000000215</t>
+  </si>
+  <si>
+    <t>ESITO</t>
+  </si>
+  <si>
+    <t>CAMPO_TEC_1</t>
+  </si>
+  <si>
+    <t>CAMPO_TEC_2</t>
+  </si>
+  <si>
+    <t>CAMPO_TEC_3</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_83_atteso</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_83</t>
   </si>
 </sst>
 </file>
@@ -1128,9 +1146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,12 +1194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1220,10 +1229,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1664,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z200"/>
+  <dimension ref="A3:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,22 +1693,22 @@
     <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="25.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.21875" customWidth="1"/>
-    <col min="17" max="17" width="20.77734375" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" customWidth="1"/>
+    <col min="17" max="18" width="20.77734375" customWidth="1"/>
+    <col min="19" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,14 +1721,14 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1723,13 +1741,11 @@
       <c r="C4" s="2">
         <v>1000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1739,33 +1755,31 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
         <v>-1000</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1777,17 +1791,20 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1797,12 +1814,13 @@
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
@@ -1811,30 +1829,30 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
         <v>-1</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1846,27 +1864,29 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
@@ -1875,107 +1895,99 @@
       <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="28"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="6"/>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
+      <c r="D20" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
@@ -1983,16 +1995,19 @@
       <c r="F20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="44"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2002,139 +2017,135 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>200</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>35</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>500</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>400</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>700</v>
       </c>
-      <c r="I24" s="2">
-        <f>D24/F24</f>
+      <c r="J24" s="2">
+        <f>E24/G24</f>
         <v>0.4</v>
       </c>
-      <c r="J24" s="2">
-        <f>G24/H24</f>
+      <c r="K24" s="2">
+        <f>H24/I24</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K24" s="2">
-        <f>I24/J24</f>
+      <c r="L24" s="2">
+        <f>J24/K24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="6"/>
+      <c r="E25" s="2">
         <v>100</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>25</v>
-      </c>
-      <c r="F25" s="2">
-        <v>200</v>
       </c>
       <c r="G25" s="2">
         <v>200</v>
       </c>
       <c r="H25" s="2">
+        <v>200</v>
+      </c>
+      <c r="I25" s="2">
         <v>500</v>
       </c>
-      <c r="I25" s="2">
-        <f>D25/F25</f>
+      <c r="J25" s="2">
+        <f>E25/G25</f>
         <v>0.5</v>
       </c>
-      <c r="J25" s="2">
-        <f>G25/H25</f>
+      <c r="K25" s="2">
+        <f>H25/I25</f>
         <v>0.4</v>
       </c>
-      <c r="K25" s="2">
-        <f>I25/J25</f>
+      <c r="L25" s="2">
+        <f>J25/K25</f>
         <v>1.25</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="2">
         <v>10</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>200</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2147,53 +2158,57 @@
       <c r="K26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="L26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2">
         <v>-150</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>36</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>200</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>400</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>700</v>
       </c>
-      <c r="I27" s="2">
-        <f>D27/F27</f>
+      <c r="J27" s="2">
+        <f>E27/G27</f>
         <v>-0.75</v>
       </c>
-      <c r="J27" s="2">
-        <f>G27/H27</f>
+      <c r="K27" s="2">
+        <f>H27/I27</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K27" s="2">
-        <f>I27/J27</f>
+      <c r="L27" s="2">
+        <f>J27/K27</f>
         <v>-1.3125</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M27" s="2"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -2204,137 +2219,142 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="2">
-        <f>K31/L31</f>
+        <f>L31/M31</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2">
         <v>1000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>700</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>900</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>800</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>300</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>600</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" s="2">
-        <f>AVERAGE((D31-G31),(E31-H31),(F31-I31))</f>
+      <c r="K31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" s="2">
+        <f>AVERAGE((E31-H31),(F31-I31),(G31-J31))</f>
         <v>300</v>
       </c>
-      <c r="L31" s="2">
-        <f>AVERAGE(D31,E31,F31)</f>
+      <c r="M31" s="2">
+        <f>AVERAGE(E31,F31,G31)</f>
         <v>866.66666666666663</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="2">
-        <f>K32/L32</f>
+        <f>L32/M32</f>
         <v>0.80000000000000016</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
       <c r="F32" s="2">
         <v>0</v>
       </c>
       <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>200</v>
       </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="2">
-        <f>AVERAGE((D32-G32),(E32-H32),(F32-I32))</f>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="2">
+        <f>AVERAGE((E32-H32),(F32-I32),(G32-J32))</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="L32" s="2">
-        <f>AVERAGE(D32,E32,F32)</f>
+      <c r="M32" s="2">
+        <f>AVERAGE(E32,F32,G32)</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>48</v>
@@ -2360,21 +2380,22 @@
       <c r="L33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="M33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>-1000000</v>
       </c>
-      <c r="D34" s="2">
-        <v>0</v>
+      <c r="D34" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2391,442 +2412,453 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" ref="K34" si="0">AVERAGE((D34-G34),(E34-H34),(F34-I34))</f>
-        <v>0</v>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34" si="1">D34/3</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="10" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" ref="L34" si="0">AVERAGE((E34-H34),(F34-I34),(G34-J34))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" ref="M34" si="1">E34/3</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="D35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="2">
         <v>-500</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>200</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <v>-2500</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="2">
-        <f>AVERAGE(-G35,-H35,-I35)</f>
+      <c r="K35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" s="2">
+        <f>AVERAGE(-H35,-I35,-J35)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="M35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="19">
         <v>400</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="19">
         <v>300</v>
       </c>
-      <c r="F36" s="20">
+      <c r="G36" s="19">
         <v>700</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="2">
-        <f>AVERAGE(D36,E36,F36)</f>
+      <c r="H36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="2">
+        <f>AVERAGE(E36,F36,G36)</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="M36" s="20"/>
-      <c r="N36" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" s="20"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2">
         <v>500</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>300</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>600</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>800</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>700</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>900</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="2">
-        <f>AVERAGE((D37-G37),(E37-H37),(F37-I37))</f>
+      <c r="K37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="2">
+        <f>AVERAGE((E37-H37),(F37-I37),(G37-J37))</f>
         <v>-333.33333333333331</v>
       </c>
-      <c r="L37" s="2">
-        <f>AVERAGE(D37,E37,F37)</f>
+      <c r="M37" s="2">
+        <f>AVERAGE(E37,F37,G37)</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="2">
         <v>-500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>300</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>200</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>800</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>700</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>900</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="2">
-        <f>AVERAGE((D38-G38),(E38-H38),(F38-I38))</f>
+      <c r="K38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="2">
+        <f>AVERAGE((E38-H38),(F38-I38),(G38-J38))</f>
         <v>-800</v>
       </c>
-      <c r="L38" s="2">
-        <f>AVERAGE(D38,E38,F38)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="M38" s="2">
+        <f>AVERAGE(E38,F38,G38)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2">
         <v>-500</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>300</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>800</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>700</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>900</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" ref="K39:K44" si="2">AVERAGE((D39-G39),(E39-H39),(F39-I39))</f>
+      <c r="K39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" ref="L39:L44" si="2">AVERAGE((E39-H39),(F39-I39),(G39-J39))</f>
         <v>-833.33333333333337</v>
       </c>
-      <c r="L39" s="2">
-        <f t="shared" ref="L39:L44" si="3">AVERAGE(D39,E39,F39)</f>
+      <c r="M39" s="2">
+        <f t="shared" ref="M39:M44" si="3">AVERAGE(E39,F39,G39)</f>
         <v>-33.333333333333336</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="2">
         <v>-500</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>300</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>100</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>-800</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>200</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>50</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="K40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <f t="shared" si="3"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B41" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="2">
         <v>-500</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>300</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>100</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>600</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>700</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>1000</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="K41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="2">
         <f t="shared" si="2"/>
         <v>-800</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="3"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2">
         <v>-500</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>300</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>100</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>-500</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>300</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>100</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="K42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="3"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2">
         <v>-500</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>300</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>200</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>-800</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>-700</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <v>900</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K43" s="2">
-        <f>AVERAGE((D43-G43),(E43-H43),(F43-I43))</f>
+      <c r="K43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="2">
+        <f>AVERAGE((E43-H43),(F43-I43),(G43-J43))</f>
         <v>200</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>999999</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="2">
         <v>500</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>300</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>100</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>500</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>300</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>100</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L44" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O44" s="20"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N44" s="15"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
@@ -2837,128 +2869,162 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N47" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
+      <c r="R47" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="2">
-        <f>J48/K48</f>
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="D48" s="2">
+        <f>K48/L48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
         <v>2500</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>1500</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>800</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>1700</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>900</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <v>500</v>
       </c>
-      <c r="J48" s="2">
-        <f>AVERAGE((D48-G48),(E48-H48),(F48-I48))</f>
-        <v>566.66666666666663</v>
-      </c>
       <c r="K48" s="2">
-        <f>AVERAGE(D48,E48,F48)</f>
+        <f>AVERAGE(M48,N48,O48)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <f>AVERAGE(E48,F48,G48)</f>
         <v>1600</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
+      <c r="M48" s="2">
+        <f>IF((H48-E48)&lt;0,0,(H48-E48))</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <f>IF((I48-F48)&lt;0,0,(I48-F48))</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <f>IF((J48-G48)&lt;0,0,(J48-G48))</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B49" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="2">
-        <f>J49/K49</f>
-        <v>0.62499999999999989</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
+        <f>K49/L49</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="2">
+        <v>1000</v>
       </c>
       <c r="F49" s="2">
+        <v>700</v>
+      </c>
+      <c r="G49" s="2">
         <v>800</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H49" s="2">
-        <v>300</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>48</v>
+        <v>1500</v>
+      </c>
+      <c r="I49" s="2">
+        <v>800</v>
       </c>
       <c r="J49" s="2">
-        <f>(F49-H49)/3</f>
-        <v>166.66666666666666</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="2">
-        <f>F49/3</f>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="16" t="s">
+        <f>AVERAGE(M49,N49,O49)</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L49" s="2">
+        <f>AVERAGE(E49,F49,G49)</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" ref="M49:M60" si="4">IF((H49-E49)&lt;0,0,(H49-E49))</f>
+        <v>500</v>
+      </c>
+      <c r="N49" s="2">
+        <f>IF((I49-F49)&lt;0,0,(I49-F49))</f>
+        <v>100</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" ref="O49:O60" si="5">IF((J49-G49)&lt;0,0,(J49-G49))</f>
+        <v>400</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>48</v>
+      <c r="D50" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>48</v>
@@ -2978,412 +3044,540 @@
       <c r="J50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="20">
-        <v>0</v>
-      </c>
-      <c r="D51" s="20">
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="19">
         <v>1000</v>
       </c>
-      <c r="E51" s="20">
+      <c r="F51" s="19">
         <v>-600</v>
       </c>
-      <c r="F51" s="20">
+      <c r="G51" s="19">
         <v>-400</v>
       </c>
-      <c r="G51" s="20">
+      <c r="H51" s="5">
         <v>400</v>
       </c>
-      <c r="H51" s="20">
-        <v>-200</v>
-      </c>
-      <c r="I51" s="20">
-        <v>-200</v>
-      </c>
-      <c r="J51" s="2">
-        <f>AVERAGE((D51-G51)+(E51-H51)+(F51-I51))</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <f>AVERAGE(D51,E51,F51)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="20"/>
-      <c r="M51" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="20"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="21" t="s">
+      <c r="I51" s="5">
+        <v>-700</v>
+      </c>
+      <c r="J51" s="5">
+        <v>-500</v>
+      </c>
+      <c r="K51" s="19">
+        <f t="shared" ref="K51:K52" si="6">AVERAGE(M51,N51,O51)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ref="L51:L52" si="7">AVERAGE(E51,F51,G51)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <f>IF((H51-E51)&lt;0,0,(H51-E51))</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ref="N51" si="8">IF((I51-F51)&lt;0,0,(I51-F51))</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="7"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>1000000</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="2">
         <v>-500</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>300</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>200</v>
       </c>
-      <c r="G52" s="2">
-        <v>-800</v>
-      </c>
       <c r="H52" s="2">
-        <v>-700</v>
+        <v>800</v>
       </c>
       <c r="I52" s="2">
+        <v>700</v>
+      </c>
+      <c r="J52" s="2">
         <v>900</v>
       </c>
-      <c r="J52" s="2">
-        <f t="shared" ref="J52:J53" si="4">AVERAGE((D52-G52)+(E52-H52)+(F52-I52))</f>
-        <v>600</v>
-      </c>
-      <c r="K52" s="2">
-        <f>AVERAGE(D52,E52,F52)</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="16" t="s">
+      <c r="K52" s="19">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="L52" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" ref="N52:N60" si="9">IF((I52-F52)&lt;0,0,(I52-F52))</f>
+        <v>400</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="7">
-        <v>-500</v>
+      <c r="D53" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="H53" s="7">
+        <v>500</v>
+      </c>
+      <c r="I53" s="7">
         <v>200</v>
       </c>
-      <c r="I53" s="7">
-        <v>-2500</v>
-      </c>
-      <c r="J53" s="2">
-        <f>AVERAGE(-G53,-H53,-I53)</f>
-        <v>933.33333333333337</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="21" t="s">
+      <c r="J53" s="7">
+        <v>2500</v>
+      </c>
+      <c r="K53" s="2">
+        <f>AVERAGE(H53,I53,J53)</f>
+        <v>1066.6666666666667</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="19">
         <v>400</v>
       </c>
-      <c r="E54" s="20">
+      <c r="F54" s="19">
         <v>300</v>
       </c>
-      <c r="F54" s="20">
+      <c r="G54" s="19">
         <v>700</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K54" s="2">
-        <f>AVERAGE(D54,E54,F54)</f>
+      <c r="H54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="2">
+        <f>AVERAGE(E54,F54,G54)</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16" t="s">
+      <c r="M54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="2">
+        <v>800</v>
+      </c>
+      <c r="F55" s="2">
+        <v>700</v>
+      </c>
+      <c r="G55" s="2">
+        <v>900</v>
+      </c>
+      <c r="H55" s="2">
         <v>500</v>
       </c>
-      <c r="E55" s="2">
+      <c r="I55" s="2">
         <v>300</v>
       </c>
-      <c r="F55" s="2">
+      <c r="J55" s="2">
         <v>600</v>
       </c>
-      <c r="G55" s="2">
+      <c r="K55" s="2">
+        <f>AVERAGE((H55-E55),(I55-F55),(J55-G55))</f>
+        <v>-333.33333333333331</v>
+      </c>
+      <c r="L55" s="2">
+        <f>AVERAGE(E55,F55,G55)</f>
         <v>800</v>
       </c>
-      <c r="H55" s="2">
-        <v>700</v>
-      </c>
-      <c r="I55" s="2">
-        <v>900</v>
-      </c>
-      <c r="J55" s="2">
-        <f>AVERAGE((D55-G55),(E55-H55),(F55-I55))</f>
-        <v>-333.33333333333331</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" ref="K55:K60" si="5">AVERAGE(D55,E55,F55)</f>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="16" t="s">
+      <c r="M55" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="2">
-        <v>-500</v>
+      <c r="D56" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E56" s="2">
+        <v>500</v>
+      </c>
+      <c r="F56" s="2">
+        <v>400</v>
+      </c>
+      <c r="G56" s="2">
+        <v>-900</v>
+      </c>
+      <c r="H56" s="19">
+        <v>600</v>
+      </c>
+      <c r="I56" s="19">
         <v>300</v>
       </c>
-      <c r="F56" s="2">
-        <v>200</v>
-      </c>
-      <c r="G56" s="2">
-        <v>800</v>
-      </c>
-      <c r="H56" s="2">
-        <v>700</v>
-      </c>
-      <c r="I56" s="2">
-        <v>900</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" ref="J56:J60" si="6">AVERAGE((D56-G56),(E56-H56),(F56-I56))</f>
-        <v>-800</v>
+      <c r="J56" s="19">
+        <v>-1000</v>
       </c>
       <c r="K56" s="2">
+        <f>AVERAGE((H56-E56),(I56-F56),(J56-G56))</f>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="L56" s="19">
+        <f t="shared" ref="L56:L60" si="10">AVERAGE(E56,F56,G56)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="7"/>
+    </row>
+    <row r="57" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="2">
         <v>-500</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>300</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G57" s="2">
         <v>100</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>800</v>
       </c>
-      <c r="H57" s="2">
-        <v>700</v>
-      </c>
       <c r="I57" s="2">
-        <v>900</v>
+        <v>-700</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="6"/>
-        <v>-833.33333333333337</v>
+        <v>-900</v>
       </c>
       <c r="K57" s="2">
+        <f>AVERAGE((H57-E57),(I57-F57),(J57-G57))</f>
+        <v>-233.33333333333334</v>
+      </c>
+      <c r="L57" s="19">
+        <f t="shared" si="10"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="19">
+        <v>-500</v>
+      </c>
+      <c r="F58" s="19">
+        <v>300</v>
+      </c>
+      <c r="G58" s="19">
+        <v>100</v>
+      </c>
+      <c r="H58" s="19">
+        <v>800</v>
+      </c>
+      <c r="I58" s="19">
+        <v>200</v>
+      </c>
+      <c r="J58" s="19">
+        <v>50</v>
+      </c>
+      <c r="K58" s="19">
+        <f>AVERAGE((H58-E58),(I58-F58),(J58-G58))</f>
+        <v>383.33333333333331</v>
+      </c>
+      <c r="L58" s="19">
+        <f t="shared" si="10"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="M58" s="2">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D59" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="19">
         <v>-500</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F59" s="19">
         <v>300</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G59" s="19">
         <v>100</v>
       </c>
-      <c r="G58" s="2">
-        <v>-800</v>
-      </c>
-      <c r="H58" s="2">
-        <v>200</v>
-      </c>
-      <c r="I58" s="2">
-        <v>50</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="K58" s="2">
+      <c r="H59" s="19">
+        <v>600</v>
+      </c>
+      <c r="I59" s="19">
+        <v>-700</v>
+      </c>
+      <c r="J59" s="19">
+        <v>-1000</v>
+      </c>
+      <c r="K59" s="19">
+        <f>AVERAGE((H59-E59),(I59-F59),(J59-G59))</f>
+        <v>-333.33333333333331</v>
+      </c>
+      <c r="L59" s="19">
+        <f t="shared" si="10"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="4"/>
+        <v>1100</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
         <f t="shared" si="5"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="2">
-        <v>-500</v>
-      </c>
-      <c r="E59" s="2">
-        <v>300</v>
-      </c>
-      <c r="F59" s="2">
-        <v>100</v>
-      </c>
-      <c r="G59" s="2">
-        <v>600</v>
-      </c>
-      <c r="H59" s="2">
-        <v>700</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" si="6"/>
-        <v>-800</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="5"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="2">
         <v>-500</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>300</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G60" s="2">
         <v>100</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>-500</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>300</v>
       </c>
-      <c r="I60" s="2">
+      <c r="J60" s="2">
         <v>100</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="K60" s="19">
+        <f t="shared" ref="K60" si="11">AVERAGE((H60-E60),(I60-F60),(J60-G60))</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="19">
+        <f t="shared" si="10"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
         <f t="shared" si="5"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="12"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="7"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R61" s="45"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>118</v>
       </c>
@@ -3394,128 +3588,162 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N63" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="16" t="s">
+      <c r="R63" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="2">
-        <f>J64/K64</f>
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="D64" s="2">
+        <f>K64/L64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
         <v>2500</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <v>1500</v>
       </c>
-      <c r="F64" s="2">
+      <c r="G64" s="2">
         <v>800</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>1700</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>900</v>
       </c>
-      <c r="I64" s="2">
+      <c r="J64" s="2">
         <v>500</v>
       </c>
-      <c r="J64" s="2">
-        <f>AVERAGE((D64-G64),(E64-H64),(F64-I64))</f>
-        <v>566.66666666666663</v>
-      </c>
       <c r="K64" s="2">
-        <f>AVERAGE(D64,E64,F64)</f>
+        <f>AVERAGE(M64,N64,O64)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <f>AVERAGE(E64,F64,G64)</f>
         <v>1600</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="M64" s="2">
+        <f>IF((H64-E64)&lt;0,0,(H64-E64))</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <f>IF((I64-F64)&lt;0,0,(I64-F64))</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <f>IF((J64-G64)&lt;0,0,(J64-G64))</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B65" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="2">
-        <f>J65/K65</f>
-        <v>0.62499999999999989</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>48</v>
+        <f>K65/L65</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="2">
+        <v>1000</v>
       </c>
       <c r="F65" s="2">
+        <v>700</v>
+      </c>
+      <c r="G65" s="2">
         <v>800</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H65" s="2">
-        <v>300</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>48</v>
+        <v>1500</v>
+      </c>
+      <c r="I65" s="2">
+        <v>800</v>
       </c>
       <c r="J65" s="2">
-        <f>(F65-H65)/3</f>
-        <v>166.66666666666666</v>
+        <v>1200</v>
       </c>
       <c r="K65" s="2">
-        <f>F65/3</f>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="16" t="s">
+        <f>AVERAGE(M65,N65,O65)</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L65" s="2">
+        <f>AVERAGE(E65,F65,G65)</f>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="M65" s="2">
+        <f>IF((H65-E65)&lt;0,0,(H65-E65))</f>
+        <v>500</v>
+      </c>
+      <c r="N65" s="2">
+        <f>IF((I65-F65)&lt;0,0,(I65-F65))</f>
+        <v>100</v>
+      </c>
+      <c r="O65" s="2">
+        <f>IF((J65-G65)&lt;0,0,(J65-G65))</f>
+        <v>400</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B66" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>48</v>
+      <c r="D66" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>48</v>
@@ -3538,406 +3766,535 @@
       <c r="K66" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
+      <c r="L66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B67" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="20">
-        <v>0</v>
-      </c>
-      <c r="D67" s="20">
+      <c r="C67" s="19">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="19">
         <v>1000</v>
       </c>
-      <c r="E67" s="20">
+      <c r="F67" s="19">
         <v>-600</v>
       </c>
-      <c r="F67" s="20">
+      <c r="G67" s="19">
         <v>-400</v>
       </c>
-      <c r="G67" s="20">
+      <c r="H67" s="5">
         <v>400</v>
       </c>
-      <c r="H67" s="20">
-        <v>-200</v>
-      </c>
-      <c r="I67" s="20">
-        <v>-200</v>
-      </c>
-      <c r="J67" s="2">
-        <f>AVERAGE((D67-G67),(E67-H67),(F67-I67))</f>
-        <v>0</v>
+      <c r="I67" s="5">
+        <v>-700</v>
+      </c>
+      <c r="J67" s="5">
+        <v>-500</v>
       </c>
       <c r="K67" s="2">
-        <f>(D67+E67+F67)/3</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="20"/>
-      <c r="M67" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="16" t="s">
+        <f>AVERAGE((E67-H67),(F67-I67),(G67-J67))</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="L67" s="2">
+        <f>(E67+F67+G67)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" ref="M67:M76" si="12">IF((H67-E67)&lt;0,0,(H67-E67))</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" ref="N67:N76" si="13">IF((I67-F67)&lt;0,0,(I67-F67))</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" ref="O67:O76" si="14">IF((J67-G67)&lt;0,0,(J67-G67))</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="7"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="22">
         <v>1000000</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="2">
         <v>-500</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>300</v>
       </c>
-      <c r="F68" s="2">
+      <c r="G68" s="2">
         <v>200</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
+        <v>800</v>
+      </c>
+      <c r="I68" s="2">
+        <v>700</v>
+      </c>
+      <c r="J68" s="2">
+        <v>900</v>
+      </c>
+      <c r="K68" s="2">
+        <f>AVERAGE((E68-H68),(F68-I68),(G68-J68))</f>
         <v>-800</v>
       </c>
-      <c r="H68" s="2">
-        <v>-700</v>
-      </c>
-      <c r="I68" s="2">
-        <v>900</v>
-      </c>
-      <c r="J68" s="2">
-        <f>AVERAGE((D68-G68),(E68-H68),(F68-I68))</f>
-        <v>200</v>
-      </c>
-      <c r="K68" s="2">
-        <f>(D68+E68+F68)/3</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="16" t="s">
+      <c r="L68" s="2">
+        <f>(E68+F68+G68)/3</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="12"/>
+        <v>1300</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="13"/>
+        <v>400</v>
+      </c>
+      <c r="O68" s="2">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="7">
-        <v>-500</v>
+      <c r="D69" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="H69" s="7">
+        <v>500</v>
+      </c>
+      <c r="I69" s="7">
         <v>200</v>
       </c>
-      <c r="I69" s="7">
-        <v>-2500</v>
-      </c>
       <c r="J69" s="7">
-        <f>AVERAGE(-G69,-H69,-I69)</f>
-        <v>933.33333333333337</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N69" s="20"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="16" t="s">
+        <v>2500</v>
+      </c>
+      <c r="K69" s="7">
+        <f>AVERAGE(-H69,-I69,-J69)</f>
+        <v>-1066.6666666666667</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B70" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="19">
         <v>400</v>
       </c>
-      <c r="E70" s="20">
+      <c r="F70" s="19">
         <v>300</v>
       </c>
-      <c r="F70" s="20">
+      <c r="G70" s="19">
         <v>700</v>
       </c>
-      <c r="G70" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K70" s="20">
-        <f>AVERAGE(D70,E70,F70)</f>
+      <c r="H70" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" s="19">
+        <f>AVERAGE(E70,F70,G70)</f>
         <v>466.66666666666669</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B71" s="16" t="s">
+      <c r="M70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B71" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="2">
+        <v>800</v>
+      </c>
+      <c r="F71" s="2">
+        <v>700</v>
+      </c>
+      <c r="G71" s="2">
+        <v>900</v>
+      </c>
+      <c r="H71" s="2">
         <v>500</v>
       </c>
-      <c r="E71" s="2">
+      <c r="I71" s="2">
         <v>300</v>
       </c>
-      <c r="F71" s="2">
+      <c r="J71" s="2">
         <v>600</v>
       </c>
-      <c r="G71" s="2">
+      <c r="K71" s="2">
+        <f>AVERAGE((E71-H71),(F71-I71),(G71-J71))</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L71" s="19">
+        <f t="shared" ref="L71:L76" si="15">AVERAGE(E71,F71,G71)</f>
         <v>800</v>
       </c>
-      <c r="H71" s="2">
-        <v>700</v>
-      </c>
-      <c r="I71" s="2">
-        <v>900</v>
-      </c>
-      <c r="J71" s="2">
-        <f>AVERAGE((D71-G71),(E71-H71),(F71-I71))</f>
-        <v>-333.33333333333331</v>
-      </c>
-      <c r="K71" s="20">
-        <f t="shared" ref="K71:K76" si="7">AVERAGE(D71,E71,F71)</f>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N71" s="7"/>
-    </row>
-    <row r="72" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="16" t="s">
+      <c r="M71" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="2">
-        <v>-500</v>
+      <c r="D72" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E72" s="2">
+        <v>500</v>
+      </c>
+      <c r="F72" s="2">
+        <v>400</v>
+      </c>
+      <c r="G72" s="2">
+        <v>-900</v>
+      </c>
+      <c r="H72" s="19">
+        <v>600</v>
+      </c>
+      <c r="I72" s="19">
         <v>300</v>
       </c>
-      <c r="F72" s="2">
-        <v>200</v>
-      </c>
-      <c r="G72" s="2">
-        <v>800</v>
-      </c>
-      <c r="H72" s="2">
-        <v>700</v>
-      </c>
-      <c r="I72" s="2">
-        <v>900</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" ref="J72:J76" si="8">AVERAGE((D72-G72),(E72-H72),(F72-I72))</f>
-        <v>-800</v>
-      </c>
-      <c r="K72" s="20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="2"/>
-      <c r="M72" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="16" t="s">
+      <c r="J72" s="19">
+        <v>-1000</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" ref="K72:K76" si="16">AVERAGE((E72-H72),(F72-I72),(G72-J72))</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L72" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="7"/>
+    </row>
+    <row r="73" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="2">
         <v>-500</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>300</v>
       </c>
-      <c r="F73" s="2">
+      <c r="G73" s="2">
         <v>100</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>800</v>
       </c>
-      <c r="H73" s="2">
-        <v>700</v>
-      </c>
       <c r="I73" s="2">
-        <v>900</v>
+        <v>-700</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="8"/>
-        <v>-833.33333333333337</v>
-      </c>
-      <c r="K73" s="20">
-        <f t="shared" si="7"/>
+        <v>-900</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="16"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="L73" s="19">
+        <f t="shared" si="15"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="L73" s="2"/>
-      <c r="M73" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="16" t="s">
+      <c r="M73" s="2">
+        <f t="shared" si="12"/>
+        <v>1300</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="19">
         <v>-500</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="19">
         <v>300</v>
       </c>
-      <c r="F74" s="2">
+      <c r="G74" s="19">
         <v>100</v>
       </c>
-      <c r="G74" s="2">
-        <v>-800</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="H74" s="19">
+        <v>800</v>
+      </c>
+      <c r="I74" s="19">
         <v>200</v>
       </c>
-      <c r="I74" s="2">
+      <c r="J74" s="19">
         <v>50</v>
       </c>
-      <c r="J74" s="2">
-        <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="K74" s="20">
-        <f t="shared" si="7"/>
+      <c r="K74" s="2">
+        <f t="shared" si="16"/>
+        <v>-383.33333333333331</v>
+      </c>
+      <c r="L74" s="19">
+        <f t="shared" si="15"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="12"/>
-    </row>
-    <row r="75" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="16" t="s">
+      <c r="M74" s="2">
+        <f t="shared" si="12"/>
+        <v>1300</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="19">
         <v>-500</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="19">
         <v>300</v>
       </c>
-      <c r="F75" s="2">
+      <c r="G75" s="19">
         <v>100</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="19">
         <v>600</v>
       </c>
-      <c r="H75" s="2">
-        <v>700</v>
-      </c>
-      <c r="I75" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="8"/>
-        <v>-800</v>
-      </c>
-      <c r="K75" s="20">
-        <f t="shared" si="7"/>
+      <c r="I75" s="19">
+        <v>-700</v>
+      </c>
+      <c r="J75" s="19">
+        <v>-1000</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="16"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L75" s="19">
+        <f t="shared" si="15"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="L75" s="2"/>
-      <c r="M75" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="16" t="s">
+      <c r="M75" s="2">
+        <f t="shared" si="12"/>
+        <v>1100</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="2">
         <v>-500</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>300</v>
       </c>
-      <c r="F76" s="2">
+      <c r="G76" s="2">
         <v>100</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>-500</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>300</v>
       </c>
-      <c r="I76" s="2">
+      <c r="J76" s="2">
         <v>100</v>
       </c>
-      <c r="J76" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="20">
-        <f t="shared" si="7"/>
+      <c r="K76" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="19">
+        <f t="shared" si="15"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="12"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M76" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>137</v>
       </c>
@@ -3948,396 +4305,395 @@
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="16" t="s">
+      <c r="O79" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="25"/>
+      <c r="B80" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C80" s="2">
-        <f>J80/K80</f>
+        <f>K80/L80</f>
         <v>1.0529032258064519</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="21"/>
+      <c r="E80" s="2">
         <v>2500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>1500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>800</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>1700</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>900</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>500</v>
       </c>
-      <c r="J80" s="2">
-        <f>G80/D80</f>
+      <c r="K80" s="2">
+        <f>H80/E80</f>
         <v>0.68</v>
       </c>
-      <c r="K80" s="2">
-        <f>AVERAGE(G80,H80,I80)/AVERAGE(D80,E80,F80)</f>
+      <c r="L80" s="2">
+        <f>AVERAGE(H80,I80,J80)/AVERAGE(E80,F80,G80)</f>
         <v>0.64583333333333326</v>
       </c>
-      <c r="L80" s="2"/>
-      <c r="M80" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="29"/>
-    </row>
-    <row r="81" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="16" t="s">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="25"/>
+      <c r="B81" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C81" s="2">
-        <f>J81/K81</f>
+        <f>K81/L81</f>
         <v>0.88541666666666663</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="21"/>
+      <c r="E81" s="2">
         <v>800</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="F81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G81" s="2">
         <v>900</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>500</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>700</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J81" s="2">
-        <f>G81/D81</f>
+      <c r="J81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="2">
+        <f>H81/E81</f>
         <v>0.625</v>
       </c>
-      <c r="K81" s="2">
-        <f>AVERAGE(G81,H81,I81)/AVERAGE(D81,E81,F81)</f>
+      <c r="L81" s="2">
+        <f>AVERAGE(H81,I81,J81)/AVERAGE(E81,F81,G81)</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="L81" s="2"/>
-      <c r="M81" s="22" t="s">
-        <v>48</v>
-      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="29"/>
+      <c r="O81" s="2"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J82" s="2" t="s">
+      <c r="D82" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="19" t="s">
         <v>48</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="20"/>
-      <c r="M82" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="L82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M82" s="19"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="29"/>
+      <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="23">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
+      <c r="C83" s="22">
+        <v>0</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="2">
         <v>400</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>-600</v>
       </c>
-      <c r="F83" s="2">
+      <c r="G83" s="2">
         <v>-200</v>
       </c>
-      <c r="G83" s="2">
-        <v>0</v>
-      </c>
       <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
         <v>300</v>
       </c>
-      <c r="I83" s="2">
+      <c r="J83" s="2">
         <v>-300</v>
       </c>
-      <c r="J83" s="2">
-        <f>G83/D83</f>
-        <v>0</v>
-      </c>
       <c r="K83" s="2">
-        <f>AVERAGE(G83,H83,I83)/AVERAGE(D83,E83,F83)</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="2"/>
-      <c r="M83" s="22" t="s">
-        <v>67</v>
-      </c>
+        <f>H83/E83</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <f>AVERAGE(H83,I83,J83)/AVERAGE(E83,F83,G83)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
-      <c r="O83" s="29"/>
+      <c r="O83" s="7"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E84" s="20">
+      <c r="D84" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="19">
         <v>500</v>
       </c>
-      <c r="F84" s="20">
+      <c r="G84" s="19">
         <v>400</v>
       </c>
-      <c r="G84" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" s="19">
         <v>300</v>
       </c>
-      <c r="I84" s="20">
+      <c r="J84" s="19">
         <v>100</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K84" s="2">
-        <f>AVERAGE(G84,H84,I84)/AVERAGE(D84,E84,F84)</f>
+      <c r="K84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L84" s="2">
+        <f>AVERAGE(H84,I84,J84)/AVERAGE(E84,F84,G84)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="L84" s="2"/>
-      <c r="M84" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="29"/>
+      <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="20">
+      <c r="D85" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="19">
         <v>500</v>
       </c>
-      <c r="F85" s="20">
+      <c r="G85" s="19">
         <v>400</v>
       </c>
-      <c r="G85" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H85" s="20">
+      <c r="H85" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" s="19">
         <v>300</v>
       </c>
-      <c r="I85" s="32">
+      <c r="J85" s="29">
         <v>-300</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K85" s="2">
-        <f>AVERAGE(G85,H85,I85)/AVERAGE(D85,E85,F85)</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="7"/>
-      <c r="M85" s="33" t="s">
-        <v>68</v>
-      </c>
+      <c r="K85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" s="2">
+        <f>AVERAGE(H85,I85,J85)/AVERAGE(E85,F85,G85)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="7"/>
       <c r="N85" s="2"/>
-      <c r="O85" s="29"/>
+      <c r="O85" s="2"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
         <v>135</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="2">
         <v>800</v>
       </c>
-      <c r="E86" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="2">
+      <c r="F86" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="2">
         <v>500</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="I86" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J86" s="2">
-        <f>G86/D86</f>
+      <c r="J86" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86" s="2">
+        <f>H86/E86</f>
         <v>0.625</v>
       </c>
-      <c r="K86" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L86" s="7"/>
-      <c r="M86" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N86" s="20"/>
-      <c r="O86" s="29"/>
+      <c r="L86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="2"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="2">
         <v>800</v>
       </c>
-      <c r="E87" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" s="2">
-        <v>0</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>48</v>
+      <c r="F87" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J87" s="2">
-        <f>G87/D87</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L87" s="7"/>
-      <c r="M87" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N87" s="32"/>
-      <c r="O87" s="29"/>
+      <c r="J87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="2">
+        <f>H87/E87</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="2"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2">
         <v>800</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>500</v>
       </c>
-      <c r="F88" s="2">
+      <c r="G88" s="2">
         <v>300</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>700</v>
       </c>
-      <c r="H88" s="2">
+      <c r="I88" s="2">
         <v>-200</v>
       </c>
-      <c r="I88" s="2">
+      <c r="J88" s="2">
         <v>-500</v>
       </c>
-      <c r="J88" s="2">
-        <f>G88/D88</f>
+      <c r="K88" s="2">
+        <f>H88/E88</f>
         <v>0.875</v>
       </c>
-      <c r="K88" s="2">
-        <f>AVERAGE(G88,H88,I88)/AVERAGE(D88,E88,F88)</f>
-        <v>0</v>
-      </c>
-      <c r="L88" s="2"/>
-      <c r="M88" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="L88" s="2">
+        <f>AVERAGE(H88,I88,J88)/AVERAGE(E88,F88,G88)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
-      <c r="O88" s="29"/>
+      <c r="O88" s="2"/>
     </row>
     <row r="91" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
@@ -4350,58 +4706,61 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="R91" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="S91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="S91" s="2" t="s">
+      <c r="T91" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>184</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="W91" s="47" t="s">
         <v>181</v>
@@ -4415,59 +4774,58 @@
         <v>147</v>
       </c>
       <c r="C92" s="2">
-        <f>AVERAGE(SUM(D92,G92,J92,M92,P92),SUM(E92,H92,K92,N92,Q92),SUM(F92,I92,L92,O92,R92))</f>
+        <f>AVERAGE(SUM(E92,H92,K92,N92,Q92),SUM(F92,I92,L92,O92,R92),SUM(G92,J92,M92,P92,S92))</f>
         <v>3133.3333333333335</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="27"/>
+      <c r="E92" s="2">
         <v>1000</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>1500</v>
       </c>
-      <c r="F92" s="2">
+      <c r="G92" s="2">
         <v>800</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>600</v>
       </c>
-      <c r="H92" s="2">
+      <c r="I92" s="2">
         <v>300</v>
       </c>
-      <c r="I92" s="2">
+      <c r="J92" s="2">
         <v>1000</v>
       </c>
-      <c r="J92" s="2">
+      <c r="K92" s="2">
         <v>400</v>
       </c>
-      <c r="K92" s="2">
+      <c r="L92" s="2">
         <v>300</v>
       </c>
-      <c r="L92" s="2">
+      <c r="M92" s="2">
         <v>200</v>
       </c>
-      <c r="M92" s="2">
+      <c r="N92" s="2">
         <v>800</v>
       </c>
-      <c r="N92" s="2">
+      <c r="O92" s="2">
         <v>700</v>
       </c>
-      <c r="O92" s="2">
+      <c r="P92" s="2">
         <v>600</v>
       </c>
-      <c r="P92" s="30">
+      <c r="Q92" s="27">
         <v>500</v>
       </c>
-      <c r="Q92" s="30">
+      <c r="R92" s="27">
         <v>400</v>
       </c>
-      <c r="R92" s="30">
+      <c r="S92" s="27">
         <v>300</v>
       </c>
-      <c r="S92" s="2"/>
-      <c r="T92" s="30" t="s">
-        <v>48</v>
-      </c>
+      <c r="T92" s="2"/>
       <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
       <c r="W92" s="47"/>
       <c r="X92" s="47"/>
       <c r="Y92" s="47"/>
@@ -4480,8 +4838,8 @@
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>48</v>
+      <c r="D93" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>48</v>
@@ -4516,20 +4874,21 @@
       <c r="O93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P93" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q93" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R93" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="S93" s="2"/>
-      <c r="T93" s="18" t="s">
-        <v>179</v>
-      </c>
+      <c r="P93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q93" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="R93" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S93" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="T93" s="2"/>
       <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
       <c r="W93" s="47"/>
       <c r="X93" s="47"/>
       <c r="Y93" s="47"/>
@@ -4542,61 +4901,65 @@
       <c r="C94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E94" s="2">
         <v>-1000</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>-1500</v>
       </c>
-      <c r="F94" s="2">
+      <c r="G94" s="2">
         <v>800</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>-600</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I94" s="2">
         <v>300</v>
       </c>
-      <c r="I94" s="2">
+      <c r="J94" s="2">
         <v>1000</v>
       </c>
-      <c r="J94" s="2">
+      <c r="K94" s="2">
         <v>-400</v>
       </c>
-      <c r="K94" s="2">
+      <c r="L94" s="2">
         <v>-300</v>
       </c>
-      <c r="L94" s="2">
+      <c r="M94" s="2">
         <v>200</v>
       </c>
-      <c r="M94" s="2">
+      <c r="N94" s="2">
         <v>800</v>
       </c>
-      <c r="N94" s="2">
+      <c r="O94" s="2">
         <v>-700</v>
       </c>
-      <c r="O94" s="2">
+      <c r="P94" s="2">
         <v>600</v>
       </c>
-      <c r="P94" s="30">
+      <c r="Q94" s="27">
         <v>-500</v>
       </c>
-      <c r="Q94" s="30">
+      <c r="R94" s="27">
         <v>-400</v>
       </c>
-      <c r="R94" s="30">
+      <c r="S94" s="27">
         <v>300</v>
       </c>
-      <c r="S94" s="2"/>
-      <c r="T94" s="10" t="s">
-        <v>180</v>
-      </c>
+      <c r="T94" s="2"/>
       <c r="U94" s="2"/>
+      <c r="V94" s="7"/>
       <c r="W94" s="47"/>
       <c r="X94" s="47"/>
       <c r="Y94" s="47"/>
       <c r="Z94" s="47"/>
     </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V95" s="45"/>
+    </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>187</v>
@@ -4608,22 +4971,25 @@
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>189</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -4631,33 +4997,32 @@
         <v>159</v>
       </c>
       <c r="C98" s="2">
-        <f>AVERAGE(D98,E98,F98)</f>
+        <f>AVERAGE(E98,F98,G98)</f>
         <v>383.33333333333331</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
         <v>300</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>500</v>
       </c>
-      <c r="F98" s="2">
+      <c r="G98" s="2">
         <v>350</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H98" s="2"/>
       <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>48</v>
@@ -4665,34 +5030,39 @@
       <c r="F99" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="G99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" s="2"/>
       <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="2">
-        <f>AVERAGE(D100,E100,F100)</f>
-        <v>-366.66666666666669</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="2">
         <v>-1000</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>-500</v>
       </c>
-      <c r="F100" s="2">
+      <c r="G100" s="2">
         <v>400</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="H100" s="2"/>
       <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K101" s="11"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
@@ -4705,37 +5075,40 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -4743,20 +5116,18 @@
         <v>163</v>
       </c>
       <c r="C104" s="2">
-        <f>J104/K104</f>
+        <f>K104/L104</f>
         <v>0.40277777777777773</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
         <v>400</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>500</v>
       </c>
-      <c r="F104" s="2">
+      <c r="G104" s="2">
         <v>550</v>
-      </c>
-      <c r="G104" s="2">
-        <v>1200</v>
       </c>
       <c r="H104" s="2">
         <v>1200</v>
@@ -4764,59 +5135,59 @@
       <c r="I104" s="2">
         <v>1200</v>
       </c>
-      <c r="J104" s="20">
-        <f>AVERAGE(D104,E104,F104)</f>
+      <c r="J104" s="2">
+        <v>1200</v>
+      </c>
+      <c r="K104" s="19">
+        <f>AVERAGE(E104,F104,G104)</f>
         <v>483.33333333333331</v>
       </c>
-      <c r="K104" s="20">
-        <f>AVERAGE(G104,H104,I104)</f>
+      <c r="L104" s="19">
+        <f>AVERAGE(H104,I104,J104)</f>
         <v>1200</v>
       </c>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C105" s="2">
-        <f>J105/K105</f>
+        <f>K105/L105</f>
         <v>0.375</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
         <v>300</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" s="2">
+      <c r="F105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G105" s="2">
         <v>450</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" s="2">
-        <v>1000</v>
+      <c r="H105" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I105" s="2">
         <v>1000</v>
       </c>
-      <c r="J105" s="20">
-        <f>AVERAGE(D105,E105,F105)</f>
+      <c r="J105" s="2">
+        <v>1000</v>
+      </c>
+      <c r="K105" s="19">
+        <f>AVERAGE(E105,F105,G105)</f>
         <v>375</v>
       </c>
-      <c r="K105" s="20">
-        <f>AVERAGE(G105,H105,I105)</f>
+      <c r="L105" s="19">
+        <f>AVERAGE(H105,I105,J105)</f>
         <v>1000</v>
       </c>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
@@ -4825,8 +5196,8 @@
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>48</v>
+      <c r="D106" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>48</v>
@@ -4843,67 +5214,68 @@
       <c r="I106" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J106" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K106" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="J106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L106" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
-    </row>
-    <row r="107" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="16" t="s">
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="36">
+      <c r="C107" s="33">
         <v>999999</v>
       </c>
-      <c r="D107" s="20">
+      <c r="D107" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="19">
         <v>500</v>
       </c>
-      <c r="E107" s="20">
+      <c r="F107" s="19">
         <v>-200</v>
       </c>
-      <c r="F107" s="20">
+      <c r="G107" s="19">
         <v>-300</v>
       </c>
-      <c r="G107" s="35">
-        <v>0</v>
-      </c>
-      <c r="H107" s="35">
-        <v>0</v>
-      </c>
-      <c r="I107" s="35">
-        <v>0</v>
-      </c>
-      <c r="J107" s="20">
-        <f t="shared" ref="J107:J116" si="9">AVERAGE(D107,E107,F107)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="20">
-        <f t="shared" ref="K107:K116" si="10">AVERAGE(G107,H107,I107)</f>
-        <v>0</v>
-      </c>
-      <c r="L107" s="20"/>
-      <c r="M107" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="N107" s="20"/>
-      <c r="O107" s="29"/>
+      <c r="H107" s="32">
+        <v>0</v>
+      </c>
+      <c r="I107" s="32">
+        <v>0</v>
+      </c>
+      <c r="J107" s="32">
+        <v>0</v>
+      </c>
+      <c r="K107" s="19">
+        <f t="shared" ref="K107:K116" si="17">AVERAGE(E107,F107,G107)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="19">
+        <f t="shared" ref="L107:L116" si="18">AVERAGE(H107,I107,J107)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="2"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="28">
         <v>1000000</v>
       </c>
-      <c r="D108" s="2">
-        <v>250</v>
+      <c r="D108" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E108" s="2">
         <v>250</v>
@@ -4911,28 +5283,29 @@
       <c r="F108" s="2">
         <v>250</v>
       </c>
-      <c r="G108" s="34">
-        <v>0</v>
-      </c>
-      <c r="H108" s="34">
-        <v>0</v>
-      </c>
-      <c r="I108" s="34">
-        <v>0</v>
-      </c>
-      <c r="J108" s="20">
-        <f t="shared" si="9"/>
+      <c r="G108" s="2">
         <v>250</v>
       </c>
-      <c r="K108" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="H108" s="31">
+        <v>0</v>
+      </c>
+      <c r="I108" s="31">
+        <v>0</v>
+      </c>
+      <c r="J108" s="31">
+        <v>0</v>
+      </c>
+      <c r="K108" s="19">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="L108" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
@@ -4941,36 +5314,37 @@
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="2">
         <v>100</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>200</v>
       </c>
-      <c r="F109" s="2">
+      <c r="G109" s="2">
         <v>300</v>
       </c>
-      <c r="G109" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I109" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J109" s="35">
-        <f t="shared" si="9"/>
+      <c r="H109" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I109" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109" s="32">
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
-      <c r="K109" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="L109" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
@@ -4979,8 +5353,8 @@
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>48</v>
+      <c r="D110" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>48</v>
@@ -4988,27 +5362,28 @@
       <c r="F110" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G110" s="34">
-        <v>2500</v>
-      </c>
-      <c r="H110" s="37">
+      <c r="G110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H110" s="31">
         <v>2500</v>
       </c>
       <c r="I110" s="34">
         <v>2500</v>
       </c>
-      <c r="J110" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110" s="20">
-        <f t="shared" si="10"/>
+      <c r="J110" s="31">
         <v>2500</v>
       </c>
-      <c r="L110" s="2"/>
-      <c r="M110" s="10" t="s">
-        <v>219</v>
-      </c>
+      <c r="K110" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L110" s="19">
+        <f t="shared" si="18"/>
+        <v>2500</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
@@ -5017,37 +5392,38 @@
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" s="2">
         <v>500</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <v>-600</v>
       </c>
-      <c r="F111" s="2">
+      <c r="G111" s="2">
         <v>-200</v>
       </c>
-      <c r="G111" s="34">
+      <c r="H111" s="31">
         <v>1300</v>
       </c>
-      <c r="H111" s="34">
+      <c r="I111" s="31">
         <v>1300</v>
       </c>
-      <c r="I111" s="34">
+      <c r="J111" s="31">
         <v>1300</v>
       </c>
-      <c r="J111" s="35">
-        <f t="shared" si="9"/>
+      <c r="K111" s="32">
+        <f t="shared" si="17"/>
         <v>-100</v>
       </c>
-      <c r="K111" s="20">
-        <f t="shared" si="10"/>
+      <c r="L111" s="19">
+        <f t="shared" si="18"/>
         <v>1300</v>
       </c>
-      <c r="L111" s="2"/>
-      <c r="M111" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
@@ -5056,37 +5432,38 @@
       <c r="C112" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" s="2">
         <v>500</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <v>-600</v>
       </c>
-      <c r="F112" s="2">
+      <c r="G112" s="2">
         <v>-200</v>
       </c>
-      <c r="G112" s="34">
-        <v>0</v>
-      </c>
-      <c r="H112" s="34">
-        <v>0</v>
-      </c>
-      <c r="I112" s="34">
-        <v>0</v>
-      </c>
-      <c r="J112" s="35">
-        <f t="shared" si="9"/>
+      <c r="H112" s="31">
+        <v>0</v>
+      </c>
+      <c r="I112" s="31">
+        <v>0</v>
+      </c>
+      <c r="J112" s="31">
+        <v>0</v>
+      </c>
+      <c r="K112" s="32">
+        <f t="shared" si="17"/>
         <v>-100</v>
       </c>
-      <c r="K112" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="2"/>
-      <c r="M112" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="L112" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
@@ -5095,37 +5472,38 @@
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E113" s="2">
         <v>500</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>-600</v>
       </c>
-      <c r="F113" s="2">
+      <c r="G113" s="2">
         <v>-200</v>
       </c>
-      <c r="G113" s="34">
+      <c r="H113" s="31">
         <v>-800</v>
       </c>
-      <c r="H113" s="34">
+      <c r="I113" s="31">
         <v>-800</v>
       </c>
-      <c r="I113" s="34">
+      <c r="J113" s="31">
         <v>-800</v>
       </c>
-      <c r="J113" s="35">
-        <f t="shared" si="9"/>
+      <c r="K113" s="32">
+        <f t="shared" si="17"/>
         <v>-100</v>
       </c>
-      <c r="K113" s="20">
-        <f t="shared" si="10"/>
+      <c r="L113" s="19">
+        <f t="shared" si="18"/>
         <v>-800</v>
       </c>
-      <c r="L113" s="2"/>
-      <c r="M113" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
@@ -5134,37 +5512,38 @@
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E114" s="2">
         <v>250</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>350</v>
       </c>
-      <c r="F114" s="2">
+      <c r="G114" s="2">
         <v>450</v>
       </c>
-      <c r="G114" s="34">
+      <c r="H114" s="31">
         <v>-1200</v>
       </c>
-      <c r="H114" s="34">
+      <c r="I114" s="31">
         <v>-1200</v>
       </c>
-      <c r="I114" s="34">
+      <c r="J114" s="31">
         <v>-1200</v>
       </c>
-      <c r="J114" s="35">
-        <f t="shared" si="9"/>
+      <c r="K114" s="32">
+        <f t="shared" si="17"/>
         <v>350</v>
       </c>
-      <c r="K114" s="20">
-        <f t="shared" si="10"/>
+      <c r="L114" s="19">
+        <f t="shared" si="18"/>
         <v>-1200</v>
       </c>
-      <c r="L114" s="2"/>
-      <c r="M114" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
@@ -5173,37 +5552,38 @@
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="20">
-        <v>0</v>
-      </c>
-      <c r="E115" s="20">
-        <v>0</v>
-      </c>
-      <c r="F115" s="20">
-        <v>0</v>
-      </c>
-      <c r="G115" s="34">
+      <c r="D115" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0</v>
+      </c>
+      <c r="F115" s="19">
+        <v>0</v>
+      </c>
+      <c r="G115" s="19">
+        <v>0</v>
+      </c>
+      <c r="H115" s="31">
         <v>-1000</v>
       </c>
-      <c r="H115" s="34">
+      <c r="I115" s="31">
         <v>-1000</v>
       </c>
-      <c r="I115" s="34">
+      <c r="J115" s="31">
         <v>-1000</v>
       </c>
-      <c r="J115" s="35">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="20">
-        <f t="shared" si="10"/>
+      <c r="K115" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="19">
+        <f t="shared" si="18"/>
         <v>-1000</v>
       </c>
-      <c r="L115" s="2"/>
-      <c r="M115" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
@@ -5212,8 +5592,8 @@
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="2">
-        <v>-200</v>
+      <c r="D116" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E116" s="2">
         <v>-200</v>
@@ -5222,7 +5602,7 @@
         <v>-200</v>
       </c>
       <c r="G116" s="2">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="H116" s="2">
         <v>-700</v>
@@ -5231,18 +5611,19 @@
         <v>-700</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="9"/>
+        <v>-700</v>
+      </c>
+      <c r="K116" s="2">
+        <f t="shared" si="17"/>
         <v>-200</v>
       </c>
-      <c r="K116" s="2">
-        <f t="shared" si="10"/>
+      <c r="L116" s="2">
+        <f t="shared" si="18"/>
         <v>-700</v>
       </c>
-      <c r="L116" s="2"/>
-      <c r="M116" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -5255,37 +5636,40 @@
         <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="K119" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="L119" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L119" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>197</v>
+      <c r="M119" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>198</v>
+        <v>309</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -5293,12 +5677,10 @@
         <v>222</v>
       </c>
       <c r="C120" s="2">
-        <f>J120/K120</f>
+        <f>K120/L120</f>
         <v>0.39473684210526311</v>
       </c>
-      <c r="D120" s="2">
-        <v>250</v>
-      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2">
         <v>250</v>
       </c>
@@ -5306,65 +5688,67 @@
         <v>250</v>
       </c>
       <c r="G120" s="2">
+        <v>250</v>
+      </c>
+      <c r="H120" s="2">
         <v>700</v>
       </c>
-      <c r="H120" s="2">
+      <c r="I120" s="2">
         <v>500</v>
       </c>
-      <c r="I120" s="2">
+      <c r="J120" s="2">
         <v>700</v>
       </c>
-      <c r="J120" s="20">
-        <f>AVERAGE(D120,E120,F120)</f>
+      <c r="K120" s="19">
+        <f>AVERAGE(E120,F120,G120)</f>
         <v>250</v>
       </c>
-      <c r="K120" s="20">
-        <f>AVERAGE(G120,H120,I120)</f>
+      <c r="L120" s="19">
+        <f>AVERAGE(H120,I120,J120)</f>
         <v>633.33333333333337</v>
       </c>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C121" s="2">
-        <f>J121/K121</f>
+        <f>K121/L121</f>
         <v>0.2</v>
       </c>
-      <c r="D121" s="2">
-        <v>100</v>
-      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="2">
         <v>100</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G121" s="2">
-        <v>500</v>
+      <c r="F121" s="2">
+        <v>100</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H121" s="2">
         <v>500</v>
       </c>
-      <c r="I121" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J121" s="20">
-        <f>AVERAGE(D121,E121,F121)</f>
+      <c r="I121" s="2">
+        <v>500</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K121" s="19">
+        <f>AVERAGE(E121,F121,G121)</f>
         <v>100</v>
       </c>
-      <c r="K121" s="20">
-        <f>AVERAGE(G121,H121,I121)</f>
+      <c r="L121" s="19">
+        <f>AVERAGE(H121,I121,J121)</f>
         <v>500</v>
       </c>
-      <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
@@ -5373,8 +5757,8 @@
       <c r="C122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>48</v>
+      <c r="D122" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>48</v>
@@ -5391,134 +5775,137 @@
       <c r="I122" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J122" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K122" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L122" s="2"/>
-      <c r="M122" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="J122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K122" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L122" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123" s="27">
         <v>999999</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" s="2">
         <v>-500</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="2">
         <v>300</v>
       </c>
-      <c r="F123" s="2">
+      <c r="G123" s="2">
         <v>200</v>
       </c>
-      <c r="G123" s="2">
+      <c r="H123" s="2">
         <v>-1000</v>
       </c>
-      <c r="H123" s="2">
+      <c r="I123" s="2">
         <v>400</v>
       </c>
-      <c r="I123" s="2">
+      <c r="J123" s="2">
         <v>600</v>
       </c>
-      <c r="J123" s="20">
-        <f t="shared" ref="J123:J132" si="11">AVERAGE(D123,E123,F123)</f>
-        <v>0</v>
-      </c>
-      <c r="K123" s="20">
-        <f t="shared" ref="K123:K124" si="12">AVERAGE(G123,H123,I123)</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="2"/>
-      <c r="M123" s="10" t="s">
-        <v>216</v>
-      </c>
+      <c r="K123" s="19">
+        <f t="shared" ref="K123:K132" si="19">AVERAGE(E123,F123,G123)</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="19">
+        <f t="shared" ref="L123:L124" si="20">AVERAGE(H123,I123,J123)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
-    </row>
-    <row r="124" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="30">
+      <c r="C124" s="27">
         <v>1000000</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D124" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E124" s="19">
         <v>200</v>
       </c>
-      <c r="E124" s="20">
+      <c r="F124" s="19">
         <v>200</v>
       </c>
-      <c r="F124" s="20">
+      <c r="G124" s="19">
         <v>200</v>
       </c>
-      <c r="G124" s="2">
+      <c r="H124" s="2">
         <v>-1000</v>
       </c>
-      <c r="H124" s="2">
+      <c r="I124" s="2">
         <v>400</v>
       </c>
-      <c r="I124" s="2">
+      <c r="J124" s="2">
         <v>600</v>
       </c>
-      <c r="J124" s="20">
-        <f t="shared" si="11"/>
+      <c r="K124" s="19">
+        <f t="shared" si="19"/>
         <v>200</v>
       </c>
-      <c r="K124" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="20"/>
-      <c r="M124" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N124" s="20"/>
-      <c r="O124" s="29"/>
+      <c r="L124" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="2"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E125" s="2">
         <v>350</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="2">
         <v>300</v>
       </c>
-      <c r="F125" s="2">
+      <c r="G125" s="2">
         <v>250</v>
       </c>
-      <c r="G125" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H125" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I125" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J125" s="20">
-        <f t="shared" si="11"/>
+      <c r="H125" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J125" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K125" s="19">
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
-      <c r="K125" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L125" s="2"/>
-      <c r="M125" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="L125" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
@@ -5527,8 +5914,8 @@
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>48</v>
+      <c r="D126" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>48</v>
@@ -5536,27 +5923,28 @@
       <c r="F126" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G126" s="34">
+      <c r="G126" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" s="31">
         <v>250</v>
       </c>
-      <c r="H126" s="34">
+      <c r="I126" s="31">
         <v>300</v>
       </c>
-      <c r="I126" s="34">
+      <c r="J126" s="31">
         <v>700</v>
       </c>
-      <c r="J126" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126" s="20">
-        <f>AVERAGE(G126,H126,I126)</f>
+      <c r="K126" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L126" s="19">
+        <f>AVERAGE(H126,I126,J126)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="L126" s="2"/>
-      <c r="M126" s="10" t="s">
-        <v>219</v>
-      </c>
+      <c r="M126" s="2"/>
       <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
@@ -5565,37 +5953,38 @@
       <c r="C127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E127" s="2">
         <v>250</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="2">
         <v>-500</v>
       </c>
-      <c r="F127" s="2">
+      <c r="G127" s="2">
         <v>-100</v>
       </c>
-      <c r="G127" s="34">
+      <c r="H127" s="31">
         <v>250</v>
       </c>
-      <c r="H127" s="34">
+      <c r="I127" s="31">
         <v>300</v>
       </c>
-      <c r="I127" s="34">
+      <c r="J127" s="31">
         <v>700</v>
       </c>
-      <c r="J127" s="20">
-        <f t="shared" si="11"/>
+      <c r="K127" s="19">
+        <f t="shared" si="19"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="K127" s="20">
-        <f>AVERAGE(G127,H127,I127)</f>
+      <c r="L127" s="19">
+        <f>AVERAGE(H127,I127,J127)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="L127" s="2"/>
-      <c r="M127" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
@@ -5604,86 +5993,88 @@
       <c r="C128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="2">
         <v>250</v>
       </c>
-      <c r="E128" s="2">
+      <c r="F128" s="2">
         <v>-500</v>
       </c>
-      <c r="F128" s="2">
+      <c r="G128" s="2">
         <v>-100</v>
       </c>
-      <c r="G128" s="34">
+      <c r="H128" s="31">
         <v>-350</v>
       </c>
-      <c r="H128" s="34">
+      <c r="I128" s="31">
         <v>300</v>
       </c>
-      <c r="I128" s="34">
+      <c r="J128" s="31">
         <v>50</v>
       </c>
-      <c r="J128" s="20">
-        <f t="shared" si="11"/>
+      <c r="K128" s="19">
+        <f t="shared" si="19"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="K128" s="20">
-        <f>AVERAGE(G128,H128,I128)</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="2"/>
-      <c r="M128" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="L128" s="19">
+        <f>AVERAGE(H128,I128,J128)</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="2"/>
       <c r="N128" s="2"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E129" s="2">
         <v>250</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="2">
         <v>-500</v>
       </c>
-      <c r="F129" s="2">
+      <c r="G129" s="2">
         <v>-100</v>
       </c>
-      <c r="G129" s="34">
+      <c r="H129" s="31">
         <v>-100</v>
       </c>
-      <c r="H129" s="34">
+      <c r="I129" s="31">
         <v>-150</v>
       </c>
-      <c r="I129" s="34">
+      <c r="J129" s="31">
         <v>200</v>
       </c>
-      <c r="J129" s="20">
-        <f t="shared" si="11"/>
+      <c r="K129" s="19">
+        <f t="shared" si="19"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="K129" s="20">
-        <f>AVERAGE(G129,H129,I129)</f>
+      <c r="L129" s="19">
+        <f>AVERAGE(H129,I129,J129)</f>
         <v>-16.666666666666668</v>
       </c>
-      <c r="L129" s="2"/>
-      <c r="M129" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M129" s="2"/>
       <c r="N129" s="2"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>232</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="2">
-        <v>150</v>
+      <c r="D130" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E130" s="2">
         <v>150</v>
@@ -5691,108 +6082,111 @@
       <c r="F130" s="2">
         <v>150</v>
       </c>
-      <c r="G130" s="34">
+      <c r="G130" s="2">
+        <v>150</v>
+      </c>
+      <c r="H130" s="31">
         <v>-200</v>
       </c>
-      <c r="H130" s="34">
+      <c r="I130" s="31">
         <v>500</v>
       </c>
-      <c r="I130" s="34">
+      <c r="J130" s="31">
         <v>-700</v>
       </c>
-      <c r="J130" s="35">
-        <f t="shared" si="11"/>
+      <c r="K130" s="32">
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
-      <c r="K130" s="20">
-        <f>AVERAGE(G130,H130,I130)</f>
+      <c r="L130" s="19">
+        <f>AVERAGE(H130,I130,J130)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="L130" s="2"/>
-      <c r="M130" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" s="2">
         <v>-200</v>
-      </c>
-      <c r="E131" s="2">
-        <v>100</v>
       </c>
       <c r="F131" s="2">
         <v>100</v>
       </c>
-      <c r="G131" s="34">
+      <c r="G131" s="2">
+        <v>100</v>
+      </c>
+      <c r="H131" s="31">
         <v>-200</v>
       </c>
-      <c r="H131" s="34">
+      <c r="I131" s="31">
         <v>500</v>
       </c>
-      <c r="I131" s="34">
+      <c r="J131" s="31">
         <v>-700</v>
       </c>
-      <c r="J131" s="35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K131" s="20">
-        <f t="shared" ref="K131:K132" si="13">AVERAGE(G131,H131,I131)</f>
+      <c r="K131" s="32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="19">
+        <f t="shared" ref="L131:L132" si="21">AVERAGE(H131,I131,J131)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="L131" s="2"/>
-      <c r="M131" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" s="2">
         <v>450</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132" s="2">
         <v>-150</v>
       </c>
-      <c r="F132" s="2">
+      <c r="G132" s="2">
         <v>-550</v>
       </c>
-      <c r="G132" s="34">
+      <c r="H132" s="31">
         <v>-200</v>
       </c>
-      <c r="H132" s="34">
+      <c r="I132" s="31">
         <v>500</v>
       </c>
-      <c r="I132" s="34">
+      <c r="J132" s="31">
         <v>-700</v>
       </c>
-      <c r="J132" s="35">
-        <f t="shared" si="11"/>
+      <c r="K132" s="32">
+        <f t="shared" si="19"/>
         <v>-83.333333333333329</v>
       </c>
-      <c r="K132" s="20">
-        <f t="shared" si="13"/>
+      <c r="L132" s="19">
+        <f t="shared" si="21"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="L132" s="2"/>
-      <c r="M132" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M132" s="2"/>
       <c r="N132" s="2"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O132" s="2"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>235</v>
       </c>
@@ -5803,59 +6197,60 @@
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="J135" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="K135" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="M135" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="19"/>
+      <c r="O135" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" s="18"/>
       <c r="B136" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C136" s="2">
-        <f>J136/K136</f>
+        <f>K136/L136</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="9"/>
+      <c r="E136" s="2">
         <v>340</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136" s="2">
         <v>570</v>
       </c>
-      <c r="F136" s="2">
+      <c r="G136" s="2">
         <v>340</v>
-      </c>
-      <c r="G136" s="2">
-        <v>1000</v>
       </c>
       <c r="H136" s="2">
         <v>1000</v>
@@ -5864,68 +6259,68 @@
         <v>1000</v>
       </c>
       <c r="J136" s="2">
-        <f>AVERAGE(D136,E136,F136)</f>
+        <v>1000</v>
+      </c>
+      <c r="K136" s="2">
+        <f>AVERAGE(E136,F136,G136)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="K136" s="2">
-        <f>AVERAGE(G136,H136,I136)</f>
+      <c r="L136" s="2">
+        <f>AVERAGE(H136,I136,J136)</f>
         <v>1000</v>
       </c>
-      <c r="L136" s="2"/>
-      <c r="M136" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="M136" s="2"/>
       <c r="N136" s="2"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C137" s="2">
-        <f>J137/K137</f>
+        <f>K137/L137</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E137" s="2">
-        <v>300</v>
+      <c r="D137" s="9"/>
+      <c r="E137" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F137" s="2">
         <v>300</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H137" s="2">
-        <v>1300</v>
+      <c r="G137" s="2">
+        <v>300</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I137" s="2">
         <v>1300</v>
       </c>
       <c r="J137" s="2">
-        <f>AVERAGE(D137,E137,F137)</f>
+        <v>1300</v>
+      </c>
+      <c r="K137" s="2">
+        <f>AVERAGE(E137,F137,G137)</f>
         <v>300</v>
       </c>
-      <c r="K137" s="2">
-        <f>AVERAGE(G137,H137,I137)</f>
+      <c r="L137" s="2">
+        <f>AVERAGE(H137,I137,J137)</f>
         <v>1300</v>
       </c>
-      <c r="L137" s="2"/>
-      <c r="M137" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>48</v>
+      <c r="D138" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>48</v>
@@ -5948,60 +6343,62 @@
       <c r="K138" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L138" s="2"/>
-      <c r="M138" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="N138" s="39"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="36"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="27">
         <v>999999</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E139" s="2">
         <v>-200</v>
       </c>
-      <c r="E139" s="2">
+      <c r="F139" s="2">
         <v>350</v>
       </c>
-      <c r="F139" s="2">
+      <c r="G139" s="2">
         <v>-150</v>
       </c>
-      <c r="G139" s="2">
+      <c r="H139" s="2">
         <v>-1300</v>
       </c>
-      <c r="H139" s="2">
+      <c r="I139" s="2">
         <v>1300</v>
       </c>
-      <c r="I139" s="2">
-        <v>0</v>
-      </c>
       <c r="J139" s="2">
-        <f t="shared" ref="J139:J148" si="14">AVERAGE(D139,E139,F139)</f>
         <v>0</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" ref="K139:K148" si="15">AVERAGE(G139,H139,I139)</f>
-        <v>0</v>
-      </c>
-      <c r="L139" s="2"/>
-      <c r="M139" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="N139" s="38"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K139:K148" si="22">AVERAGE(E139,F139,G139)</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="2">
+        <f t="shared" ref="L139:L148" si="23">AVERAGE(H139,I139,J139)</f>
+        <v>0</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="27">
         <v>1000000</v>
       </c>
-      <c r="D140" s="2">
-        <v>200</v>
+      <c r="D140" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E140" s="2">
         <v>200</v>
@@ -6010,37 +6407,38 @@
         <v>200</v>
       </c>
       <c r="G140" s="2">
+        <v>200</v>
+      </c>
+      <c r="H140" s="2">
         <v>-1300</v>
       </c>
-      <c r="H140" s="2">
+      <c r="I140" s="2">
         <v>1300</v>
       </c>
-      <c r="I140" s="2">
-        <v>0</v>
-      </c>
       <c r="J140" s="2">
-        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="K140" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L140" s="2"/>
-      <c r="M140" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N140" s="38"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L140" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="2">
-        <v>300</v>
+      <c r="D141" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="E141" s="2">
         <v>300</v>
@@ -6048,8 +6446,8 @@
       <c r="F141" s="2">
         <v>300</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>48</v>
+      <c r="G141" s="2">
+        <v>300</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>48</v>
@@ -6057,28 +6455,29 @@
       <c r="I141" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J141" s="2">
-        <f t="shared" si="14"/>
+      <c r="J141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K141" s="2">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L141" s="2"/>
-      <c r="M141" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="L141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M141" s="2"/>
       <c r="N141" s="2"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>48</v>
+      <c r="D142" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>48</v>
@@ -6086,8 +6485,8 @@
       <c r="F142" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G142" s="2">
-        <v>1500</v>
+      <c r="G142" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H142" s="2">
         <v>1500</v>
@@ -6095,37 +6494,38 @@
       <c r="I142" s="2">
         <v>1500</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K142" s="2">
-        <f t="shared" si="15"/>
+      <c r="J142" s="2">
         <v>1500</v>
       </c>
-      <c r="L142" s="2"/>
-      <c r="M142" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="K142" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" si="23"/>
+        <v>1500</v>
+      </c>
+      <c r="M142" s="2"/>
       <c r="N142" s="2"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="2">
-        <v>200</v>
+      <c r="D143" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E143" s="2">
         <v>200</v>
       </c>
       <c r="F143" s="2">
+        <v>200</v>
+      </c>
+      <c r="G143" s="2">
         <v>-500</v>
-      </c>
-      <c r="G143" s="2">
-        <v>700</v>
       </c>
       <c r="H143" s="2">
         <v>700</v>
@@ -6134,76 +6534,78 @@
         <v>700</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+      <c r="K143" s="2">
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="K143" s="2">
-        <f t="shared" si="15"/>
+      <c r="L143" s="2">
+        <f t="shared" si="23"/>
         <v>700</v>
       </c>
-      <c r="L143" s="2"/>
-      <c r="M143" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M143" s="2"/>
       <c r="N143" s="2"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>249</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="2">
-        <v>200</v>
+      <c r="D144" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E144" s="2">
         <v>200</v>
       </c>
       <c r="F144" s="2">
+        <v>200</v>
+      </c>
+      <c r="G144" s="2">
         <v>-500</v>
       </c>
-      <c r="G144" s="2">
+      <c r="H144" s="2">
         <v>-700</v>
       </c>
-      <c r="H144" s="2">
+      <c r="I144" s="2">
         <v>700</v>
       </c>
-      <c r="I144" s="2">
-        <v>0</v>
-      </c>
       <c r="J144" s="2">
-        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <f t="shared" si="22"/>
         <v>-33.333333333333336</v>
       </c>
-      <c r="K144" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L144" s="2"/>
-      <c r="M144" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="L144" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="2"/>
       <c r="N144" s="2"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>250</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="2">
         <v>200</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145" s="2">
         <v>100</v>
       </c>
-      <c r="F145" s="2">
+      <c r="G145" s="2">
         <v>-500</v>
-      </c>
-      <c r="G145" s="2">
-        <v>-800</v>
       </c>
       <c r="H145" s="2">
         <v>-800</v>
@@ -6212,28 +6614,29 @@
         <v>-800</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="14"/>
+        <v>-800</v>
+      </c>
+      <c r="K145" s="2">
+        <f t="shared" si="22"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="K145" s="2">
-        <f t="shared" si="15"/>
+      <c r="L145" s="2">
+        <f t="shared" si="23"/>
         <v>-800</v>
       </c>
-      <c r="L145" s="2"/>
-      <c r="M145" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M145" s="2"/>
       <c r="N145" s="2"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="2">
-        <v>100</v>
+      <c r="D146" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E146" s="2">
         <v>100</v>
@@ -6242,7 +6645,7 @@
         <v>100</v>
       </c>
       <c r="G146" s="2">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="H146" s="2">
         <v>-500</v>
@@ -6251,98 +6654,101 @@
         <v>-500</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="14"/>
+        <v>-500</v>
+      </c>
+      <c r="K146" s="2">
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
-      <c r="K146" s="2">
-        <f t="shared" si="15"/>
+      <c r="L146" s="2">
+        <f t="shared" si="23"/>
         <v>-500</v>
       </c>
-      <c r="L146" s="2"/>
-      <c r="M146" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M146" s="2"/>
       <c r="N146" s="2"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" s="2">
         <v>-300</v>
       </c>
-      <c r="E147" s="2">
+      <c r="F147" s="2">
         <v>300</v>
       </c>
-      <c r="F147" s="2">
-        <v>0</v>
-      </c>
       <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
         <v>-2000</v>
-      </c>
-      <c r="H147" s="2">
-        <v>700</v>
       </c>
       <c r="I147" s="2">
         <v>700</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="2">
+        <f t="shared" si="23"/>
         <v>-200</v>
       </c>
-      <c r="L147" s="2"/>
-      <c r="M147" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" s="2">
         <v>200</v>
-      </c>
-      <c r="E148" s="2">
-        <v>-300</v>
       </c>
       <c r="F148" s="2">
         <v>-300</v>
       </c>
       <c r="G148" s="2">
+        <v>-300</v>
+      </c>
+      <c r="H148" s="2">
         <v>-500</v>
       </c>
-      <c r="H148" s="2">
+      <c r="I148" s="2">
         <v>500</v>
       </c>
-      <c r="I148" s="2">
+      <c r="J148" s="2">
         <v>-500</v>
       </c>
-      <c r="J148" s="2">
-        <f t="shared" si="14"/>
+      <c r="K148" s="2">
+        <f t="shared" si="22"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="K148" s="2">
-        <f t="shared" si="15"/>
+      <c r="L148" s="2">
+        <f t="shared" si="23"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148" s="2"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>254</v>
       </c>
@@ -6353,129 +6759,130 @@
         <v>2</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J151" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="K151" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="M151" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="N151" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="19"/>
+      <c r="O151" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A152" s="18"/>
       <c r="B152" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C152" s="2">
-        <f>J152/K152</f>
+        <f>K152/L152</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="9"/>
+      <c r="E152" s="2">
         <v>300</v>
       </c>
-      <c r="E152" s="2">
+      <c r="F152" s="2">
         <v>200</v>
       </c>
-      <c r="F152" s="2">
+      <c r="G152" s="2">
         <v>500</v>
       </c>
-      <c r="G152" s="2">
+      <c r="H152" s="2">
         <v>700</v>
       </c>
-      <c r="H152" s="2">
+      <c r="I152" s="2">
         <v>600</v>
       </c>
-      <c r="I152" s="2">
+      <c r="J152" s="2">
         <v>1200</v>
       </c>
-      <c r="J152" s="2">
-        <f>AVERAGE(D152,E152,F152)</f>
+      <c r="K152" s="2">
+        <f>AVERAGE(E152,F152,G152)</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K152" s="2">
-        <f>AVERAGE(G152,H152,I152)</f>
+      <c r="L152" s="2">
+        <f>AVERAGE(H152,I152,J152)</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="L152" s="2"/>
-      <c r="M152" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="M152" s="2"/>
       <c r="N152" s="2"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C153" s="2">
-        <f>J153/K153</f>
+        <f>K153/L153</f>
         <v>0.42307692307692307</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="D153" s="9"/>
+      <c r="E153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F153" s="2">
         <v>300</v>
       </c>
-      <c r="F153" s="2">
+      <c r="G153" s="2">
         <v>250</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H153" s="2">
+      <c r="H153" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I153" s="2">
         <v>400</v>
       </c>
-      <c r="I153" s="2">
+      <c r="J153" s="2">
         <v>900</v>
       </c>
-      <c r="J153" s="2">
-        <f>AVERAGE(D153,E153,F153)</f>
+      <c r="K153" s="2">
+        <f>AVERAGE(E153,F153,G153)</f>
         <v>275</v>
       </c>
-      <c r="K153" s="2">
-        <f>AVERAGE(G153,H153,I153)</f>
+      <c r="L153" s="2">
+        <f>AVERAGE(H153,I153,J153)</f>
         <v>650</v>
       </c>
-      <c r="L153" s="2"/>
-      <c r="M153" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="M153" s="2"/>
       <c r="N153" s="2"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>48</v>
+      <c r="D154" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>48</v>
@@ -6498,137 +6905,141 @@
       <c r="K154" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L154" s="2"/>
-      <c r="M154" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="N154" s="40"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="37"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C155" s="30">
+      <c r="C155" s="27">
         <v>999999</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E155" s="2">
         <v>700</v>
       </c>
-      <c r="E155" s="2">
+      <c r="F155" s="2">
         <v>-500</v>
       </c>
-      <c r="F155" s="2">
+      <c r="G155" s="2">
         <v>-200</v>
       </c>
-      <c r="G155" s="2">
+      <c r="H155" s="2">
         <v>1000</v>
       </c>
-      <c r="H155" s="2">
+      <c r="I155" s="2">
         <v>-600</v>
       </c>
-      <c r="I155" s="2">
+      <c r="J155" s="2">
         <v>-400</v>
       </c>
-      <c r="J155" s="2">
-        <f t="shared" ref="J155:J164" si="16">AVERAGE(D155,E155,F155)</f>
-        <v>0</v>
-      </c>
       <c r="K155" s="2">
-        <f t="shared" ref="K155:K164" si="17">AVERAGE(G155,H155,I155)</f>
-        <v>0</v>
-      </c>
-      <c r="L155" s="2"/>
-      <c r="M155" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="N155" s="38"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K155:K164" si="24">AVERAGE(E155,F155,G155)</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="2">
+        <f t="shared" ref="L155:L164" si="25">AVERAGE(H155,I155,J155)</f>
+        <v>0</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="35"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C156" s="31">
+      <c r="C156" s="28">
         <v>1000000</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" s="2">
         <v>500</v>
       </c>
-      <c r="E156" s="2">
+      <c r="F156" s="2">
         <v>300</v>
       </c>
-      <c r="F156" s="2">
+      <c r="G156" s="2">
         <v>400</v>
       </c>
-      <c r="G156" s="2">
+      <c r="H156" s="2">
         <v>-1300</v>
       </c>
-      <c r="H156" s="2">
+      <c r="I156" s="2">
         <v>700</v>
       </c>
-      <c r="I156" s="2">
+      <c r="J156" s="2">
         <v>600</v>
       </c>
-      <c r="J156" s="2">
-        <f t="shared" si="16"/>
+      <c r="K156" s="2">
+        <f t="shared" si="24"/>
         <v>400</v>
       </c>
-      <c r="K156" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L156" s="2"/>
-      <c r="M156" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="N156" s="38"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L156" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>260</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E157" s="2">
         <v>100</v>
       </c>
-      <c r="E157" s="2">
+      <c r="F157" s="2">
         <v>700</v>
       </c>
-      <c r="F157" s="2">
+      <c r="G157" s="2">
         <v>300</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="H157" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J157" s="2">
-        <f t="shared" si="16"/>
+      <c r="J157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K157" s="2">
+        <f t="shared" si="24"/>
         <v>366.66666666666669</v>
       </c>
-      <c r="K157" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L157" s="2"/>
-      <c r="M157" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="L157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M157" s="2"/>
       <c r="N157" s="2"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>48</v>
+      <c r="D158" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>48</v>
@@ -6636,154 +7047,158 @@
       <c r="F158" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H158" s="2">
         <v>1000</v>
       </c>
-      <c r="H158" s="2">
+      <c r="I158" s="2">
         <v>500</v>
       </c>
-      <c r="I158" s="2">
+      <c r="J158" s="2">
         <v>800</v>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K158" s="2">
-        <f t="shared" si="17"/>
+      <c r="K158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L158" s="2">
+        <f t="shared" si="25"/>
         <v>766.66666666666663</v>
       </c>
-      <c r="L158" s="2"/>
-      <c r="M158" s="10" t="s">
-        <v>219</v>
-      </c>
+      <c r="M158" s="2"/>
       <c r="N158" s="2"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E159" s="2">
         <v>300</v>
       </c>
-      <c r="E159" s="2">
+      <c r="F159" s="2">
         <v>-700</v>
       </c>
-      <c r="F159" s="2">
+      <c r="G159" s="2">
         <v>-200</v>
       </c>
-      <c r="G159" s="2">
+      <c r="H159" s="2">
         <v>400</v>
       </c>
-      <c r="H159" s="2">
+      <c r="I159" s="2">
         <v>700</v>
       </c>
-      <c r="I159" s="2">
+      <c r="J159" s="2">
         <v>400</v>
       </c>
-      <c r="J159" s="2">
-        <f t="shared" si="16"/>
+      <c r="K159" s="2">
+        <f t="shared" si="24"/>
         <v>-200</v>
       </c>
-      <c r="K159" s="2">
-        <f t="shared" si="17"/>
+      <c r="L159" s="2">
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="L159" s="2"/>
-      <c r="M159" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E160" s="2">
         <v>-200</v>
       </c>
-      <c r="E160" s="2">
+      <c r="F160" s="2">
         <v>500</v>
       </c>
-      <c r="F160" s="2">
+      <c r="G160" s="2">
         <v>-800</v>
       </c>
-      <c r="G160" s="2">
+      <c r="H160" s="2">
         <v>300</v>
       </c>
-      <c r="H160" s="2">
+      <c r="I160" s="2">
         <v>500</v>
       </c>
-      <c r="I160" s="2">
+      <c r="J160" s="2">
         <v>-800</v>
       </c>
-      <c r="J160" s="2">
-        <f t="shared" si="16"/>
+      <c r="K160" s="2">
+        <f t="shared" si="24"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="K160" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L160" s="2"/>
-      <c r="M160" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="L160" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="2"/>
       <c r="N160" s="2"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>264</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" s="2">
         <v>800</v>
       </c>
-      <c r="E161" s="2">
+      <c r="F161" s="2">
         <v>-400</v>
       </c>
-      <c r="F161" s="2">
+      <c r="G161" s="2">
         <v>-1000</v>
       </c>
-      <c r="G161" s="2">
+      <c r="H161" s="2">
         <v>700</v>
       </c>
-      <c r="H161" s="2">
+      <c r="I161" s="2">
         <v>-1000</v>
       </c>
-      <c r="I161" s="2">
+      <c r="J161" s="2">
         <v>-600</v>
       </c>
-      <c r="J161" s="2">
-        <f t="shared" si="16"/>
+      <c r="K161" s="2">
+        <f t="shared" si="24"/>
         <v>-200</v>
       </c>
-      <c r="K161" s="2">
-        <f t="shared" si="17"/>
+      <c r="L161" s="2">
+        <f t="shared" si="25"/>
         <v>-300</v>
       </c>
-      <c r="L161" s="2"/>
-      <c r="M161" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="M161" s="2"/>
       <c r="N161" s="2"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>265</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="2">
-        <v>200</v>
+      <c r="D162" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="E162" s="2">
         <v>200</v>
@@ -6792,108 +7207,111 @@
         <v>200</v>
       </c>
       <c r="G162" s="2">
+        <v>200</v>
+      </c>
+      <c r="H162" s="2">
         <v>1000</v>
       </c>
-      <c r="H162" s="2">
+      <c r="I162" s="2">
         <v>-900</v>
       </c>
-      <c r="I162" s="2">
+      <c r="J162" s="2">
         <v>-300</v>
       </c>
-      <c r="J162" s="2">
-        <f t="shared" si="16"/>
+      <c r="K162" s="2">
+        <f t="shared" si="24"/>
         <v>200</v>
       </c>
-      <c r="K162" s="2">
-        <f t="shared" si="17"/>
+      <c r="L162" s="2">
+        <f t="shared" si="25"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="L162" s="2"/>
-      <c r="M162" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M162" s="2"/>
       <c r="N162" s="2"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O162" s="2"/>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E163" s="2">
         <v>400</v>
       </c>
-      <c r="E163" s="2">
+      <c r="F163" s="2">
         <v>-300</v>
       </c>
-      <c r="F163" s="2">
+      <c r="G163" s="2">
         <v>-100</v>
       </c>
-      <c r="G163" s="2">
+      <c r="H163" s="2">
         <v>900</v>
       </c>
-      <c r="H163" s="2">
+      <c r="I163" s="2">
         <v>-700</v>
       </c>
-      <c r="I163" s="2">
+      <c r="J163" s="2">
         <v>-600</v>
       </c>
-      <c r="J163" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="K163" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="2">
+        <f t="shared" si="25"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="L163" s="2"/>
-      <c r="M163" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M163" s="2"/>
       <c r="N163" s="2"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O163" s="2"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>267</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E164" s="2">
         <v>200</v>
       </c>
-      <c r="E164" s="2">
+      <c r="F164" s="2">
         <v>-300</v>
       </c>
-      <c r="F164" s="2">
+      <c r="G164" s="2">
         <v>-100</v>
       </c>
-      <c r="G164" s="2">
+      <c r="H164" s="2">
         <v>-700</v>
       </c>
-      <c r="H164" s="2">
+      <c r="I164" s="2">
         <v>1500</v>
       </c>
-      <c r="I164" s="2">
+      <c r="J164" s="2">
         <v>-950</v>
       </c>
-      <c r="J164" s="2">
-        <f t="shared" si="16"/>
+      <c r="K164" s="2">
+        <f t="shared" si="24"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="K164" s="2">
-        <f t="shared" si="17"/>
+      <c r="L164" s="2">
+        <f t="shared" si="25"/>
         <v>-50</v>
       </c>
-      <c r="L164" s="2"/>
-      <c r="M164" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="M164" s="2"/>
       <c r="N164" s="2"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="42" t="s">
+      <c r="O164" s="2"/>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" s="39" t="s">
         <v>276</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -6903,37 +7321,38 @@
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J167" s="27"/>
-      <c r="K167" s="13"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="43"/>
-      <c r="B168" s="41" t="s">
+      <c r="J167" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" s="40"/>
+      <c r="B168" s="38" t="s">
         <v>268</v>
       </c>
       <c r="C168" s="2">
-        <f>COUNT(D168,E168,F168)</f>
+        <f>COUNT(E168,F168,G168)</f>
         <v>3</v>
       </c>
-      <c r="D168" s="2">
-        <v>1000</v>
+      <c r="D168" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E168" s="2">
         <v>1000</v>
@@ -6941,76 +7360,73 @@
       <c r="F168" s="2">
         <v>1000</v>
       </c>
-      <c r="G168" s="2"/>
-      <c r="H168" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="G168" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H168" s="2"/>
       <c r="I168" s="2"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="13"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="44"/>
-      <c r="B169" s="41" t="s">
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" s="41"/>
+      <c r="B169" s="38" t="s">
         <v>269</v>
       </c>
       <c r="C169" s="2">
-        <f>COUNT(D169,E169,F169)</f>
+        <f>COUNT(E169,F169,G169)</f>
         <v>2</v>
       </c>
-      <c r="D169" s="2">
-        <v>2000</v>
+      <c r="D169" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E169" s="2">
         <v>2000</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G169" s="2"/>
-      <c r="H169" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="F169" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="13"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="44"/>
-      <c r="B170" s="41" t="s">
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" s="41"/>
+      <c r="B170" s="38" t="s">
         <v>270</v>
       </c>
       <c r="C170" s="2">
-        <f>COUNT(D170,E170,F170)</f>
+        <f>COUNT(E170,F170,G170)</f>
         <v>1</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G170" s="2">
         <v>1000</v>
       </c>
-      <c r="G170" s="2"/>
-      <c r="H170" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I170" s="39"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="13"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="44"/>
-      <c r="B171" s="41" t="s">
+      <c r="H170" s="2"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" s="41"/>
+      <c r="B171" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="C171" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>48</v>
+      <c r="D171" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>48</v>
@@ -7018,22 +7434,21 @@
       <c r="F171" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G171" s="2"/>
-      <c r="H171" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="G171" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H171" s="2"/>
       <c r="I171" s="2"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="13"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I173"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="42" t="s">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" s="39" t="s">
         <v>279</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -7060,10 +7475,13 @@
       <c r="I174" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="43"/>
-      <c r="B175" s="41" t="s">
+      <c r="J174" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" s="40"/>
+      <c r="B175" s="38" t="s">
         <v>280</v>
       </c>
       <c r="C175" s="2">
@@ -7079,14 +7497,13 @@
         <v>0</v>
       </c>
       <c r="G175" s="2"/>
-      <c r="H175" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="H175" s="9"/>
       <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="44"/>
-      <c r="B176" s="41" t="s">
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="41"/>
+      <c r="B176" s="38" t="s">
         <v>281</v>
       </c>
       <c r="C176" s="2">
@@ -7102,14 +7519,13 @@
         <v>1000</v>
       </c>
       <c r="G176" s="2"/>
-      <c r="H176" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="H176" s="9"/>
       <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="44"/>
-      <c r="B177" s="41" t="s">
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="41"/>
+      <c r="B177" s="38" t="s">
         <v>282</v>
       </c>
       <c r="C177" s="2">
@@ -7125,17 +7541,16 @@
         <v>48</v>
       </c>
       <c r="G177" s="2"/>
-      <c r="H177" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="44"/>
-      <c r="B178" s="41" t="s">
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="41"/>
+      <c r="B178" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C178" s="30" t="s">
+      <c r="C178" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -7148,35 +7563,37 @@
         <v>48</v>
       </c>
       <c r="G178" s="2"/>
-      <c r="H178" s="22" t="s">
+      <c r="H178" s="21" t="s">
         <v>193</v>
       </c>
       <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C179" s="30">
-        <v>0</v>
-      </c>
-      <c r="D179" s="20">
+      <c r="C179" s="27">
+        <v>0</v>
+      </c>
+      <c r="D179" s="19">
         <v>-1000</v>
       </c>
-      <c r="E179" s="20">
+      <c r="E179" s="19">
         <v>-100</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="19">
         <v>2000</v>
       </c>
       <c r="G179" s="2"/>
-      <c r="H179" s="17" t="s">
+      <c r="H179" s="16" t="s">
         <v>285</v>
       </c>
       <c r="I179" s="2"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="42" t="s">
+      <c r="J179" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="39" t="s">
         <v>287</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -7186,97 +7603,110 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G182" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="H182" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="43"/>
-      <c r="B183" s="41" t="s">
+      <c r="J182" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="40"/>
+      <c r="B183" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C183" s="5">
-        <v>0</v>
-      </c>
-      <c r="D183" s="5">
+      <c r="C183" s="2">
+        <f>H183</f>
+        <v>0</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="5">
         <v>300</v>
       </c>
-      <c r="E183" s="5">
+      <c r="F183" s="5">
         <v>200</v>
       </c>
-      <c r="F183" s="5">
-        <f>D183/E183</f>
+      <c r="G183" s="2">
+        <f>E183/F183</f>
         <v>1.5</v>
       </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="10" t="s">
-        <v>48</v>
+      <c r="H183" s="2">
+        <f>IF(G183&gt;=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="44"/>
-      <c r="B184" s="41" t="s">
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="41"/>
+      <c r="B184" s="38" t="s">
         <v>288</v>
       </c>
       <c r="C184" s="2">
+        <f>H184</f>
         <v>1</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="9"/>
+      <c r="E184" s="2">
         <v>300</v>
       </c>
-      <c r="E184" s="2">
+      <c r="F184" s="2">
         <v>500</v>
       </c>
-      <c r="F184" s="2">
-        <f>D184/E184</f>
+      <c r="G184" s="2">
+        <f>E184/F184</f>
         <v>0.6</v>
       </c>
-      <c r="G184" s="2"/>
-      <c r="H184" s="10" t="s">
-        <v>48</v>
+      <c r="H184" s="2">
+        <f>IF(G184&gt;=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="44"/>
-      <c r="B185" s="41" t="s">
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="41"/>
+      <c r="B185" s="38" t="s">
         <v>289</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="42" t="s">
+      <c r="J185" s="2"/>
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E186" s="45"/>
+      <c r="K186" s="45"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="39" t="s">
         <v>297</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -7286,136 +7716,191 @@
         <v>2</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="H188" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I188" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="J188" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I188" s="2" t="s">
+      <c r="K188" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L188" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C189" s="2">
+        <f>E189</f>
         <v>1</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="2"/>
+      <c r="E189" s="19">
+        <f>MAX(H189,I189)</f>
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
         <v>300</v>
       </c>
-      <c r="E189" s="2">
+      <c r="G189" s="2">
         <v>200</v>
       </c>
-      <c r="F189" s="2">
+      <c r="H189" s="19">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
         <v>1</v>
       </c>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>291</v>
       </c>
       <c r="C190" s="2">
+        <f>E190</f>
         <v>1</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="2"/>
+      <c r="E190" s="19">
+        <f>MAX(H190,I190)</f>
+        <v>1</v>
+      </c>
+      <c r="F190" s="2">
         <v>300</v>
       </c>
-      <c r="E190" s="2">
+      <c r="G190" s="2">
         <v>500</v>
       </c>
-      <c r="F190" s="2">
-        <v>0</v>
-      </c>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H190" s="19">
+        <v>1</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>48</v>
+        <f>E191</f>
+        <v>0</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="19">
+        <f>MAX(H191,I191)</f>
+        <v>0</v>
       </c>
       <c r="F191" s="2">
-        <v>0</v>
-      </c>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="G191" s="2">
+        <v>500</v>
+      </c>
+      <c r="H191" s="19">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="19">
         <v>1</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F192" s="2">
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G192" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H192" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I192" s="46">
         <v>1</v>
       </c>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>303</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="19"/>
       <c r="F193" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I193" s="2"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F200" s="45"/>
+      <c r="G193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D196" s="12"/>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D197" s="12"/>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D198" s="12"/>
+      <c r="F198" s="5">
+        <f>300/500</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D199" s="12"/>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D200" s="12"/>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D201" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7513,10 +7998,10 @@
       <c r="I5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="26"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -7542,8 +8027,8 @@
       <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="42"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -7569,8 +8054,8 @@
       <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="42"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -7596,8 +8081,8 @@
       <c r="I8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="42"/>
       <c r="O8" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -7619,10 +8104,10 @@
       <c r="F11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -7642,8 +8127,8 @@
       <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="46"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="42"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -7663,8 +8148,8 @@
       <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="42"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -7732,13 +8217,13 @@
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="30" t="s">
+      <c r="H17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>48</v>
       </c>
       <c r="K17" s="2"/>
@@ -7768,13 +8253,13 @@
       <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="30">
+      <c r="H18" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="27">
         <v>1</v>
       </c>
       <c r="K18" s="2"/>
@@ -7804,13 +8289,13 @@
       <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="H19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>48</v>
       </c>
       <c r="K19" s="2"/>

--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="341">
   <si>
     <t>IND_50</t>
   </si>
@@ -301,24 +301,6 @@
     <t>0000000000000103</t>
   </si>
   <si>
-    <t>0000000000000104</t>
-  </si>
-  <si>
-    <t>0000000000000105</t>
-  </si>
-  <si>
-    <t>0000000000000106</t>
-  </si>
-  <si>
-    <t>0000000000000107</t>
-  </si>
-  <si>
-    <t>0000000000000108</t>
-  </si>
-  <si>
-    <t>0000000000000109</t>
-  </si>
-  <si>
     <t>IND_62</t>
   </si>
   <si>
@@ -331,27 +313,6 @@
     <t>CRZER002_2</t>
   </si>
   <si>
-    <t>0000000000000110</t>
-  </si>
-  <si>
-    <t>0000000000000111</t>
-  </si>
-  <si>
-    <t>0000000000000112</t>
-  </si>
-  <si>
-    <t>0000000000000113</t>
-  </si>
-  <si>
-    <t>0000000000000114</t>
-  </si>
-  <si>
-    <t>0000000000000115</t>
-  </si>
-  <si>
-    <t>0000000000000117</t>
-  </si>
-  <si>
     <t>IMP_ACC_PROD_SCAD_M0</t>
   </si>
   <si>
@@ -379,54 +340,6 @@
     <t>ERROR_MSG_IND_63</t>
   </si>
   <si>
-    <t>0000000000000118</t>
-  </si>
-  <si>
-    <t>0000000000000119</t>
-  </si>
-  <si>
-    <t>0000000000000120</t>
-  </si>
-  <si>
-    <t>0000000000000121</t>
-  </si>
-  <si>
-    <t>0000000000000122</t>
-  </si>
-  <si>
-    <t>0000000000000123</t>
-  </si>
-  <si>
-    <t>0000000000000124</t>
-  </si>
-  <si>
-    <t>0000000000000125</t>
-  </si>
-  <si>
-    <t>0000000000000126</t>
-  </si>
-  <si>
-    <t>0000000000000127</t>
-  </si>
-  <si>
-    <t>0000000000000128</t>
-  </si>
-  <si>
-    <t>0000000000000129</t>
-  </si>
-  <si>
-    <t>0000000000000130</t>
-  </si>
-  <si>
-    <t>0000000000000131</t>
-  </si>
-  <si>
-    <t>0000000000000132</t>
-  </si>
-  <si>
-    <t>0000000000000116</t>
-  </si>
-  <si>
     <t>IND_64</t>
   </si>
   <si>
@@ -445,27 +358,12 @@
     <t>IMP_UTIL_TOT_M2</t>
   </si>
   <si>
-    <t>0000000000000133</t>
-  </si>
-  <si>
-    <t>0000000000000134</t>
-  </si>
-  <si>
     <t>0000000000000135</t>
   </si>
   <si>
     <t>0000000000000136</t>
   </si>
   <si>
-    <t>0000000000000138</t>
-  </si>
-  <si>
-    <t>0000000000000139</t>
-  </si>
-  <si>
-    <t>0000000000000140</t>
-  </si>
-  <si>
     <t>IMP_UTIL_TOT_M0</t>
   </si>
   <si>
@@ -493,21 +391,9 @@
     <t>0000000000000143</t>
   </si>
   <si>
-    <t>0000000000000144</t>
-  </si>
-  <si>
     <t>IND_71</t>
   </si>
   <si>
-    <t>0000000000000145</t>
-  </si>
-  <si>
-    <t>0000000000000146</t>
-  </si>
-  <si>
-    <t>0000000000000147</t>
-  </si>
-  <si>
     <t>IMP_SALDO_CC_M0</t>
   </si>
   <si>
@@ -640,30 +526,6 @@
     <t>0000000000000150</t>
   </si>
   <si>
-    <t>0000000000000151</t>
-  </si>
-  <si>
-    <t>0000000000000152</t>
-  </si>
-  <si>
-    <t>0000000000000153</t>
-  </si>
-  <si>
-    <t>0000000000000154</t>
-  </si>
-  <si>
-    <t>0000000000000155</t>
-  </si>
-  <si>
-    <t>0000000000000156</t>
-  </si>
-  <si>
-    <t>0000000000000157</t>
-  </si>
-  <si>
-    <t>0000000000000158</t>
-  </si>
-  <si>
     <t>BILFAM002_1</t>
   </si>
   <si>
@@ -676,51 +538,9 @@
     <t>BILFAM003_2</t>
   </si>
   <si>
-    <t>0000000000000159</t>
-  </si>
-  <si>
     <t>BILFAM004_2</t>
   </si>
   <si>
-    <t>0000000000000160</t>
-  </si>
-  <si>
-    <t>0000000000000161</t>
-  </si>
-  <si>
-    <t>0000000000000162</t>
-  </si>
-  <si>
-    <t>0000000000000163</t>
-  </si>
-  <si>
-    <t>0000000000000164</t>
-  </si>
-  <si>
-    <t>0000000000000165</t>
-  </si>
-  <si>
-    <t>0000000000000166</t>
-  </si>
-  <si>
-    <t>0000000000000167</t>
-  </si>
-  <si>
-    <t>0000000000000168</t>
-  </si>
-  <si>
-    <t>0000000000000169</t>
-  </si>
-  <si>
-    <t>0000000000000170</t>
-  </si>
-  <si>
-    <t>0000000000000171</t>
-  </si>
-  <si>
-    <t>0000000000000172</t>
-  </si>
-  <si>
     <t>IND_84</t>
   </si>
   <si>
@@ -739,99 +559,9 @@
     <t>IMP_PAG_CART_M2</t>
   </si>
   <si>
-    <t>0000000000000173</t>
-  </si>
-  <si>
-    <t>0000000000000174</t>
-  </si>
-  <si>
-    <t>0000000000000175</t>
-  </si>
-  <si>
-    <t>0000000000000176</t>
-  </si>
-  <si>
-    <t>0000000000000177</t>
-  </si>
-  <si>
-    <t>0000000000000178</t>
-  </si>
-  <si>
-    <t>0000000000000179</t>
-  </si>
-  <si>
-    <t>0000000000000180</t>
-  </si>
-  <si>
-    <t>0000000000000181</t>
-  </si>
-  <si>
-    <t>0000000000000182</t>
-  </si>
-  <si>
-    <t>0000000000000183</t>
-  </si>
-  <si>
-    <t>0000000000000184</t>
-  </si>
-  <si>
-    <t>0000000000000185</t>
-  </si>
-  <si>
     <t>IND_85</t>
   </si>
   <si>
-    <t>0000000000000186</t>
-  </si>
-  <si>
-    <t>0000000000000187</t>
-  </si>
-  <si>
-    <t>0000000000000188</t>
-  </si>
-  <si>
-    <t>0000000000000189</t>
-  </si>
-  <si>
-    <t>0000000000000190</t>
-  </si>
-  <si>
-    <t>0000000000000191</t>
-  </si>
-  <si>
-    <t>0000000000000192</t>
-  </si>
-  <si>
-    <t>0000000000000193</t>
-  </si>
-  <si>
-    <t>0000000000000194</t>
-  </si>
-  <si>
-    <t>0000000000000195</t>
-  </si>
-  <si>
-    <t>0000000000000196</t>
-  </si>
-  <si>
-    <t>0000000000000197</t>
-  </si>
-  <si>
-    <t>0000000000000198</t>
-  </si>
-  <si>
-    <t>0000000000000199</t>
-  </si>
-  <si>
-    <t>0000000000000200</t>
-  </si>
-  <si>
-    <t>0000000000000201</t>
-  </si>
-  <si>
-    <t>0000000000000202</t>
-  </si>
-  <si>
     <t>ERROR_MSG_IND_85_atteso</t>
   </si>
   <si>
@@ -856,42 +586,12 @@
     <t>IND_87</t>
   </si>
   <si>
-    <t>0000000000000203</t>
-  </si>
-  <si>
-    <t>0000000000000204</t>
-  </si>
-  <si>
-    <t>0000000000000205</t>
-  </si>
-  <si>
-    <t>0000000000000206</t>
-  </si>
-  <si>
-    <t>0000000000000207</t>
-  </si>
-  <si>
     <t>codice</t>
   </si>
   <si>
-    <t>0000000000000208</t>
-  </si>
-  <si>
     <t>IND_150</t>
   </si>
   <si>
-    <t>0000000000000209</t>
-  </si>
-  <si>
-    <t>0000000000000210</t>
-  </si>
-  <si>
-    <t>0000000000000211</t>
-  </si>
-  <si>
-    <t>0000000000000212</t>
-  </si>
-  <si>
     <t>Calcolo</t>
   </si>
   <si>
@@ -916,18 +616,9 @@
     <t>ERROR_MSG_IND_151</t>
   </si>
   <si>
-    <t>0000000000000213</t>
-  </si>
-  <si>
-    <t>0000000000000214</t>
-  </si>
-  <si>
     <t xml:space="preserve">FLG_SCONF_MAX_NO_AUTOR_89GG </t>
   </si>
   <si>
-    <t>0000000000000215</t>
-  </si>
-  <si>
     <t>ESITO</t>
   </si>
   <si>
@@ -949,9 +640,6 @@
     <t xml:space="preserve">If PRODUCT_MIX non contiene "AC" and CR0_MC_BT_L3M = 0 then CR0_MC_BT_L3M = 999.999 </t>
   </si>
   <si>
-    <t>0000000000000216</t>
-  </si>
-  <si>
     <t>IND_900</t>
   </si>
   <si>
@@ -964,19 +652,403 @@
     <t>CRZER002_3</t>
   </si>
   <si>
-    <t>0000000000000217</t>
-  </si>
-  <si>
-    <t>0000000000000218</t>
-  </si>
-  <si>
-    <t>0000000000000219</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>da modificare la logica dell'errore</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>da rifare le insert</t>
+  </si>
+  <si>
+    <t>NUM_IND_63</t>
+  </si>
+  <si>
+    <t>DEN_IND_63</t>
+  </si>
+  <si>
+    <t>'0000000000000113</t>
+  </si>
+  <si>
+    <t>'0000000000000114</t>
+  </si>
+  <si>
+    <t>'0000000000000115</t>
+  </si>
+  <si>
+    <t>'0000000000000116</t>
+  </si>
+  <si>
+    <t>'0000000000000117</t>
+  </si>
+  <si>
+    <t>'0000000000000118</t>
+  </si>
+  <si>
+    <t>'0000000000000119</t>
+  </si>
+  <si>
+    <t>'0000000000000120</t>
+  </si>
+  <si>
+    <t>'0000000000000121</t>
+  </si>
+  <si>
+    <t>'0000000000000122</t>
+  </si>
+  <si>
+    <t>'0000000000000123</t>
+  </si>
+  <si>
+    <t>'0000000000000124</t>
+  </si>
+  <si>
+    <t>'0000000000000125</t>
+  </si>
+  <si>
+    <t>NUM_IND_62</t>
+  </si>
+  <si>
+    <t>DEN_IND_62</t>
+  </si>
+  <si>
+    <t>'0000000000000100</t>
+  </si>
+  <si>
+    <t>'0000000000000101</t>
+  </si>
+  <si>
+    <t>'0000000000000102</t>
+  </si>
+  <si>
+    <t>'0000000000000103</t>
+  </si>
+  <si>
+    <t>'0000000000000104</t>
+  </si>
+  <si>
+    <t>'0000000000000105</t>
+  </si>
+  <si>
+    <t>'0000000000000106</t>
+  </si>
+  <si>
+    <t>'0000000000000107</t>
+  </si>
+  <si>
+    <t>'0000000000000108</t>
+  </si>
+  <si>
+    <t>'0000000000000109</t>
+  </si>
+  <si>
+    <t>'0000000000000110</t>
+  </si>
+  <si>
+    <t>'0000000000000111</t>
+  </si>
+  <si>
+    <t>'0000000000000112</t>
+  </si>
+  <si>
+    <t>'0000000000000126</t>
+  </si>
+  <si>
+    <t>'0000000000000127</t>
+  </si>
+  <si>
+    <t>'0000000000000128</t>
+  </si>
+  <si>
+    <t>'0000000000000129</t>
+  </si>
+  <si>
+    <t>'0000000000000130</t>
+  </si>
+  <si>
+    <t>'0000000000000131</t>
+  </si>
+  <si>
+    <t>'0000000000000132</t>
+  </si>
+  <si>
+    <t>'0000000000000133</t>
+  </si>
+  <si>
+    <t>'0000000000000134</t>
+  </si>
+  <si>
+    <t>NUM_IND_64</t>
+  </si>
+  <si>
+    <t>CRZER000_11</t>
+  </si>
+  <si>
+    <t>CRZER004_22</t>
+  </si>
+  <si>
+    <t>DEN_IND_64</t>
+  </si>
+  <si>
+    <t>'0000000000000138</t>
+  </si>
+  <si>
+    <t>'0000000000000139</t>
+  </si>
+  <si>
+    <t>'0000000000000140</t>
+  </si>
+  <si>
+    <t>SUM_IND_71_M0</t>
+  </si>
+  <si>
+    <t>SUM_IND_71_M1</t>
+  </si>
+  <si>
+    <t>SUM_IND_71_M2</t>
+  </si>
+  <si>
+    <t>da fare</t>
+  </si>
+  <si>
+    <t>'0000000000000147</t>
+  </si>
+  <si>
+    <t>'0000000000000148</t>
+  </si>
+  <si>
+    <t>'0000000000000149</t>
+  </si>
+  <si>
+    <t>'0000000000000150</t>
+  </si>
+  <si>
+    <t>'0000000000000151</t>
+  </si>
+  <si>
+    <t>'0000000000000152</t>
+  </si>
+  <si>
+    <t>'0000000000000153</t>
+  </si>
+  <si>
+    <t>'0000000000000154</t>
+  </si>
+  <si>
+    <t>'0000000000000155</t>
+  </si>
+  <si>
+    <t>'0000000000000156</t>
+  </si>
+  <si>
+    <t>'0000000000000157</t>
+  </si>
+  <si>
+    <t>'0000000000000158</t>
+  </si>
+  <si>
+    <t>'0000000000000159</t>
+  </si>
+  <si>
+    <t>NUM_IND_82</t>
+  </si>
+  <si>
+    <t>DEN_IND_82</t>
+  </si>
+  <si>
+    <t>'0000000000000173</t>
+  </si>
+  <si>
+    <t>'0000000000000174</t>
+  </si>
+  <si>
+    <t>'0000000000000175</t>
+  </si>
+  <si>
+    <t>'0000000000000176</t>
+  </si>
+  <si>
+    <t>'0000000000000177</t>
+  </si>
+  <si>
+    <t>'0000000000000178</t>
+  </si>
+  <si>
+    <t>'0000000000000179</t>
+  </si>
+  <si>
+    <t>'0000000000000180</t>
+  </si>
+  <si>
+    <t>'0000000000000181</t>
+  </si>
+  <si>
+    <t>'0000000000000182</t>
+  </si>
+  <si>
+    <t>'0000000000000183</t>
+  </si>
+  <si>
+    <t>'0000000000000184</t>
+  </si>
+  <si>
+    <t>'0000000000000185</t>
+  </si>
+  <si>
+    <t>NUM_IND_84</t>
+  </si>
+  <si>
+    <t>DEN_IND_84</t>
+  </si>
+  <si>
+    <t>'0000000000000160</t>
+  </si>
+  <si>
+    <t>'0000000000000161</t>
+  </si>
+  <si>
+    <t>'0000000000000162</t>
+  </si>
+  <si>
+    <t>'0000000000000163</t>
+  </si>
+  <si>
+    <t>'0000000000000164</t>
+  </si>
+  <si>
+    <t>'0000000000000165</t>
+  </si>
+  <si>
+    <t>'0000000000000166</t>
+  </si>
+  <si>
+    <t>'0000000000000167</t>
+  </si>
+  <si>
+    <t>'0000000000000168</t>
+  </si>
+  <si>
+    <t>'0000000000000169</t>
+  </si>
+  <si>
+    <t>'0000000000000170</t>
+  </si>
+  <si>
+    <t>'0000000000000171</t>
+  </si>
+  <si>
+    <t>'0000000000000172</t>
+  </si>
+  <si>
+    <t>NUM_IND_83</t>
+  </si>
+  <si>
+    <t>DEN_IND_83</t>
+  </si>
+  <si>
+    <t>'0000000000000186</t>
+  </si>
+  <si>
+    <t>'0000000000000187</t>
+  </si>
+  <si>
+    <t>'0000000000000188</t>
+  </si>
+  <si>
+    <t>'0000000000000189</t>
+  </si>
+  <si>
+    <t>'0000000000000190</t>
+  </si>
+  <si>
+    <t>'0000000000000191</t>
+  </si>
+  <si>
+    <t>'0000000000000192</t>
+  </si>
+  <si>
+    <t>'0000000000000193</t>
+  </si>
+  <si>
+    <t>'0000000000000194</t>
+  </si>
+  <si>
+    <t>'0000000000000195</t>
+  </si>
+  <si>
+    <t>'0000000000000196</t>
+  </si>
+  <si>
+    <t>'0000000000000197</t>
+  </si>
+  <si>
+    <t>'0000000000000198</t>
+  </si>
+  <si>
+    <t>'0000000000000199</t>
+  </si>
+  <si>
+    <t>'0000000000000200</t>
+  </si>
+  <si>
+    <t>'0000000000000201</t>
+  </si>
+  <si>
+    <t>'0000000000000202</t>
+  </si>
+  <si>
+    <t>'0000000000000203</t>
+  </si>
+  <si>
+    <t>'0000000000000204</t>
+  </si>
+  <si>
+    <t>'0000000000000205</t>
+  </si>
+  <si>
+    <t>'0000000000000206</t>
+  </si>
+  <si>
+    <t>'0000000000000207</t>
+  </si>
+  <si>
+    <t>'0000000000000208</t>
+  </si>
+  <si>
+    <t>'0000000000000209</t>
+  </si>
+  <si>
+    <t>'0000000000000210</t>
+  </si>
+  <si>
+    <t>'0000000000000211</t>
+  </si>
+  <si>
+    <t>'0000000000000212</t>
+  </si>
+  <si>
+    <t>'0000000000000213</t>
+  </si>
+  <si>
+    <t>'0000000000000214</t>
+  </si>
+  <si>
+    <t>'0000000000000215</t>
+  </si>
+  <si>
+    <t>NUM_IND_85</t>
+  </si>
+  <si>
+    <t>DEN_IND_85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,7 +1085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1107,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1236,11 +1326,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,16 +1348,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1704,36 +1826,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z216"/>
+  <dimension ref="A3:AB216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45:N48"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" customWidth="1"/>
-    <col min="17" max="18" width="20.77734375" customWidth="1"/>
-    <col min="19" max="19" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1749,14 +1873,14 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1767,10 +1891,12 @@
       <c r="E4" s="2">
         <v>1000</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1783,27 +1909,35 @@
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>-1000</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="43"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="41"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1819,17 +1953,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H9" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1840,11 +1974,15 @@
       <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
@@ -1857,11 +1995,17 @@
       <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1872,12 +2016,21 @@
       <c r="E12" s="2">
         <v>-1</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1898,19 +2051,19 @@
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>302</v>
+      <c r="J15" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1933,7 +2086,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +2108,7 @@
       <c r="J17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1978,7 +2131,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -2001,14 +2154,14 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2026,10 +2179,10 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D21" s="43"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D21" s="41"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2066,14 +2219,14 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2108,10 +2261,15 @@
         <f>J24/K24</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="48"/>
+      <c r="O24" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
@@ -2146,10 +2304,15 @@
         <f>J25/K25</f>
         <v>1.25</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="48"/>
+      <c r="O25" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
@@ -2183,10 +2346,15 @@
       <c r="L26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48"/>
+      <c r="O26" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
@@ -2223,15 +2391,24 @@
         <f>J27/K27</f>
         <v>-1.3125</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="41"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M27" s="51">
+        <v>1</v>
+      </c>
+      <c r="N27" s="49"/>
+      <c r="O27" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O28" s="11"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2241,7 +2418,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>62</v>
@@ -2271,23 +2448,23 @@
         <v>45</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="O30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>302</v>
+      <c r="Q30" s="50" t="s">
+        <v>199</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="23"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
@@ -2333,10 +2510,10 @@
       <c r="Q31" s="2"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="U31" s="48"/>
+      <c r="U31" s="45"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
@@ -2377,7 +2554,7 @@
         <v>866.66666666666663</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="S32" s="23"/>
@@ -2385,7 +2562,7 @@
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>38</v>
       </c>
@@ -2426,7 +2603,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="S33" s="23"/>
@@ -2434,7 +2611,7 @@
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
@@ -2472,15 +2649,15 @@
         <v>48</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="2"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
@@ -2520,15 +2697,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="58"/>
       <c r="Q35" s="7"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -2567,11 +2744,11 @@
         <v>48</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
@@ -2606,15 +2783,15 @@
         <v>48</v>
       </c>
       <c r="M37" s="2">
-        <f>AVERAGE(F37,G37,H37)</f>
+        <f t="shared" ref="M37:M46" si="0">AVERAGE(F37,G37,H37)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
@@ -2646,19 +2823,19 @@
         <v>900</v>
       </c>
       <c r="L38" s="2">
-        <f>AVERAGE((F38-I38),(G38-J38),(H38-K38))</f>
+        <f t="shared" ref="L38:L46" si="1">AVERAGE((F38-I38),(G38-J38),(H38-K38))</f>
         <v>-333.33333333333331</v>
       </c>
       <c r="M38" s="2">
-        <f>AVERAGE(F38,G38,H38)</f>
+        <f t="shared" si="0"/>
         <v>466.66666666666669</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>76</v>
       </c>
@@ -2690,11 +2867,11 @@
         <v>900</v>
       </c>
       <c r="L39" s="2">
-        <f>AVERAGE((F39-I39),(G39-J39),(H39-K39))</f>
+        <f t="shared" si="1"/>
         <v>-800</v>
       </c>
       <c r="M39" s="2">
-        <f>AVERAGE(F39,G39,H39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="2"/>
@@ -2702,7 +2879,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>77</v>
       </c>
@@ -2734,19 +2911,19 @@
         <v>900</v>
       </c>
       <c r="L40" s="2">
-        <f>AVERAGE((F40-I40),(G40-J40),(H40-K40))</f>
+        <f t="shared" si="1"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="M40" s="2">
-        <f>AVERAGE(F40,G40,H40)</f>
+        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>78</v>
       </c>
@@ -2778,11 +2955,11 @@
         <v>50</v>
       </c>
       <c r="L41" s="2">
-        <f>AVERAGE((F41-I41),(G41-J41),(H41-K41))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="M41" s="2">
-        <f>AVERAGE(F41,G41,H41)</f>
+        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N41" s="2"/>
@@ -2790,7 +2967,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>80</v>
       </c>
@@ -2822,11 +2999,11 @@
         <v>1000</v>
       </c>
       <c r="L42" s="2">
-        <f>AVERAGE((F42-I42),(G42-J42),(H42-K42))</f>
+        <f t="shared" si="1"/>
         <v>-800</v>
       </c>
       <c r="M42" s="2">
-        <f>AVERAGE(F42,G42,H42)</f>
+        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N42" s="2"/>
@@ -2834,7 +3011,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
@@ -2866,11 +3043,11 @@
         <v>100</v>
       </c>
       <c r="L43" s="2">
-        <f>AVERAGE((F43-I43),(G43-J43),(H43-K43))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f>AVERAGE(F43,G43,H43)</f>
+        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N43" s="2"/>
@@ -2878,7 +3055,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>82</v>
       </c>
@@ -2910,11 +3087,11 @@
         <v>900</v>
       </c>
       <c r="L44" s="2">
-        <f>AVERAGE((F44-I44),(G44-J44),(H44-K44))</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="M44" s="2">
-        <f>AVERAGE(F44,G44,H44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N44" s="2"/>
@@ -2922,7 +3099,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>83</v>
       </c>
@@ -2931,10 +3108,10 @@
         <v>999999</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>313</v>
+        <v>208</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>209</v>
       </c>
       <c r="F45" s="7">
         <v>500</v>
@@ -2955,31 +3132,31 @@
         <v>100</v>
       </c>
       <c r="L45" s="7">
-        <f>AVERAGE((F45-I45),(G45-J45),(H45-K45))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M45" s="7">
-        <f>AVERAGE(F45,G45,H45)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N45" s="7">
         <f>IF(AND(D45 &lt;&gt; "AC", (L45/M45)=0),999999,"")</f>
         <v>999999</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="28"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="18"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="19" t="str">
-        <f t="shared" ref="C46:C48" si="0">N46</f>
+        <f t="shared" ref="C46:C48" si="2">N46</f>
         <v/>
       </c>
       <c r="D46" s="14" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>48</v>
@@ -3003,31 +3180,31 @@
         <v>100</v>
       </c>
       <c r="L46" s="2">
-        <f>AVERAGE((F46-I46),(G46-J46),(H46-K46))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <f>AVERAGE(F46,G46,H46)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N46" s="7" t="str">
-        <f t="shared" ref="N46:N48" si="1">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
+        <f t="shared" ref="N46:N48" si="3">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
         <v/>
       </c>
       <c r="O46" s="14"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" s="19" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>48</v>
@@ -3051,31 +3228,31 @@
         <v>600</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" ref="L47:L48" si="2">AVERAGE((F47-I47),(G47-J47),(H47-K47))</f>
+        <f t="shared" ref="L47:L48" si="4">AVERAGE((F47-I47),(G47-J47),(H47-K47))</f>
         <v>300</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" ref="M47:M48" si="3">AVERAGE(F47,G47,H47)</f>
+        <f t="shared" ref="M47:M48" si="5">AVERAGE(F47,G47,H47)</f>
         <v>866.66666666666663</v>
       </c>
       <c r="N47" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" s="14" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>48</v>
@@ -3099,27 +3276,27 @@
         <v>600</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="M48" s="2">
+        <f t="shared" si="5"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="N48" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>866.66666666666663</v>
-      </c>
-      <c r="N48" s="7" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N49" s="7"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -3128,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>85</v>
@@ -3155,27 +3332,31 @@
         <v>45</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="P51" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q51" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="R51" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="S51" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
       <c r="B52" s="19" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="C52" s="2">
         <f>K52/L52</f>
@@ -3220,13 +3401,20 @@
         <f>IF((J52-G52)&lt;0,0,(J52-G52))</f>
         <v>0</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P52" s="2">
+        <v>566.66999999999996</v>
+      </c>
+      <c r="Q52" s="53">
+        <v>1600</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="S52" s="58"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="C53" s="2">
         <f>K53/L53</f>
@@ -3260,7 +3448,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M64" si="4">IF((H53-E53)&lt;0,0,(H53-E53))</f>
+        <f t="shared" ref="M53:M64" si="6">IF((H53-E53)&lt;0,0,(H53-E53))</f>
         <v>500</v>
       </c>
       <c r="N53" s="2">
@@ -3268,16 +3456,23 @@
         <v>100</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" ref="O53:O64" si="5">IF((J53-G53)&lt;0,0,(J53-G53))</f>
+        <f t="shared" ref="O53:O64" si="7">IF((J53-G53)&lt;0,0,(J53-G53))</f>
         <v>400</v>
       </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>833.33</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="58"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -3316,13 +3511,22 @@
       <c r="O54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S54" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
@@ -3349,11 +3553,11 @@
         <v>-500</v>
       </c>
       <c r="K55" s="18">
-        <f t="shared" ref="K55:K56" si="6">AVERAGE(M55,N55,O55)</f>
+        <f t="shared" ref="K55:K56" si="8">AVERAGE(M55,N55,O55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ref="L55:L56" si="7">AVERAGE(E55,F55,G55)</f>
+        <f t="shared" ref="L55:L56" si="9">AVERAGE(E55,F55,G55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2">
@@ -3361,26 +3565,35 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" ref="N55" si="8">IF((I55-F55)&lt;0,0,(I55-F55))</f>
+        <f t="shared" ref="N55" si="10">IF((I55-F55)&lt;0,0,(I55-F55))</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
+        <v>266.67</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S55" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="C56" s="21">
         <v>1000000</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2">
         <v>-500</v>
@@ -3401,32 +3614,41 @@
         <v>900</v>
       </c>
       <c r="K56" s="18">
+        <f t="shared" si="8"/>
+        <v>800</v>
+      </c>
+      <c r="L56" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
         <f t="shared" si="6"/>
-        <v>800</v>
-      </c>
-      <c r="L56" s="18">
+        <v>1300</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" ref="N56:N64" si="11">IF((I56-F56)&lt;0,0,(I56-F56))</f>
+        <v>400</v>
+      </c>
+      <c r="O56" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" ref="N56:N64" si="9">IF((I56-F56)&lt;0,0,(I56-F56))</f>
-        <v>400</v>
-      </c>
-      <c r="O56" s="2">
-        <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P56" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="S56" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>4</v>
@@ -3468,13 +3690,22 @@
       <c r="O57" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S57" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -3516,13 +3747,22 @@
       <c r="O58" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-    </row>
-    <row r="59" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>466.67</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S58" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -3557,24 +3797,31 @@
         <v>800</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>333.33</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>800</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="S59" s="58"/>
+    </row>
+    <row r="60" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -3605,28 +3852,37 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="L60" s="18">
-        <f t="shared" ref="L60:L64" si="10">AVERAGE(E60,F60,G60)</f>
+        <f t="shared" ref="L60:L64" si="12">AVERAGE(E60,F60,G60)</f>
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="7"/>
-    </row>
-    <row r="61" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S60" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -3657,28 +3913,37 @@
         <v>-233.33333333333334</v>
       </c>
       <c r="L61" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>666.67</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S61" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>4</v>
@@ -3709,28 +3974,37 @@
         <v>383.33333333333331</v>
       </c>
       <c r="L62" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="18">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>-33.33</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S62" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>4</v>
@@ -3761,29 +4035,38 @@
         <v>-333.33333333333331</v>
       </c>
       <c r="L63" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="18">
+        <v>700</v>
+      </c>
+      <c r="Q63" s="18">
+        <v>-33.33</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S63" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="14" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -3810,35 +4093,44 @@
         <v>100</v>
       </c>
       <c r="K64" s="18">
-        <f t="shared" ref="K64" si="11">AVERAGE((H64-E64),(I64-F64),(J64-G64))</f>
+        <f t="shared" ref="K64" si="13">AVERAGE((H64-E64),(I64-F64),(J64-G64))</f>
         <v>0</v>
       </c>
       <c r="L64" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="7"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R65" s="44"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S64" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R65" s="42"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -3847,25 +4139,25 @@
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>44</v>
@@ -3874,27 +4166,31 @@
         <v>45</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="P67" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q67" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="R67" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="S67" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="52"/>
+      <c r="B68" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="C68" s="2">
         <f>K68/L68</f>
@@ -3928,24 +4224,31 @@
         <v>1600</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" ref="M68:O69" si="12">IF((H68-E68)&lt;0,0,(H68-E68))</f>
+        <f t="shared" ref="M68:O69" si="14">IF((H68-E68)&lt;0,0,(H68-E68))</f>
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>566.66999999999996</v>
+      </c>
+      <c r="Q68" s="53">
+        <v>1600</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0.35420000000000001</v>
+      </c>
+      <c r="S68" s="58"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2">
         <f>K69/L69</f>
@@ -3979,24 +4282,31 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>120</v>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>833.33</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="58"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -4037,13 +4347,22 @@
       <c r="O70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S70" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="C71" s="18">
         <v>0</v>
@@ -4078,30 +4397,39 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" ref="M71:M80" si="13">IF((H71-E71)&lt;0,0,(H71-E71))</f>
+        <f t="shared" ref="M71:M80" si="15">IF((H71-E71)&lt;0,0,(H71-E71))</f>
         <v>0</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" ref="N71:N80" si="14">IF((I71-F71)&lt;0,0,(I71-F71))</f>
+        <f t="shared" ref="N71:N80" si="16">IF((I71-F71)&lt;0,0,(I71-F71))</f>
         <v>0</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" ref="O71:O80" si="15">IF((J71-G71)&lt;0,0,(J71-G71))</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O71:O80" si="17">IF((J71-G71)&lt;0,0,(J71-G71))</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="18">
+        <v>266.67</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S71" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="C72" s="21">
         <v>1000000</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2">
         <v>-500</v>
@@ -4130,24 +4458,33 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1300</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>700</v>
       </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="53">
+        <v>-1800000</v>
+      </c>
+      <c r="S72" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>4</v>
@@ -4189,13 +4526,22 @@
       <c r="O73" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P73" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q73" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S73" s="58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -4237,13 +4583,22 @@
       <c r="O74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>466.67</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S74" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -4274,28 +4629,35 @@
         <v>333.33333333333331</v>
       </c>
       <c r="L75" s="18">
-        <f t="shared" ref="L75:L80" si="16">AVERAGE(E75,F75,G75)</f>
+        <f t="shared" ref="L75:L80" si="18">AVERAGE(E75,F75,G75)</f>
         <v>800</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O75" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>333.33</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>800</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="S75" s="58"/>
+    </row>
+    <row r="76" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -4322,32 +4684,41 @@
         <v>-1000</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" ref="K76:K80" si="17">AVERAGE((E76-H76),(F76-I76),(G76-J76))</f>
+        <f t="shared" ref="K76:K80" si="19">AVERAGE((E76-H76),(F76-I76),(G76-J76))</f>
         <v>33.333333333333336</v>
       </c>
       <c r="L76" s="18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="N76" s="2">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M76" s="2">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
       <c r="O76" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <v>66.67</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S76" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -4374,32 +4745,41 @@
         <v>-900</v>
       </c>
       <c r="K77" s="2">
+        <f t="shared" si="19"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="L77" s="18">
+        <f t="shared" si="18"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="15"/>
+        <v>1300</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
         <f t="shared" si="17"/>
-        <v>233.33333333333334</v>
-      </c>
-      <c r="L77" s="18">
-        <f t="shared" si="16"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="13"/>
-        <v>1300</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2">
+        <v>666.67</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S77" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -4426,32 +4806,41 @@
         <v>50</v>
       </c>
       <c r="K78" s="2">
+        <f t="shared" si="19"/>
+        <v>-383.33333333333331</v>
+      </c>
+      <c r="L78" s="18">
+        <f t="shared" si="18"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="15"/>
+        <v>1300</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
         <f t="shared" si="17"/>
-        <v>-383.33333333333331</v>
-      </c>
-      <c r="L78" s="18">
-        <f t="shared" si="16"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="13"/>
-        <v>1300</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S78" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -4478,32 +4867,41 @@
         <v>-1000</v>
       </c>
       <c r="K79" s="2">
+        <f t="shared" si="19"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="L79" s="18">
+        <f t="shared" si="18"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="15"/>
+        <v>1100</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
         <f t="shared" si="17"/>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="L79" s="18">
-        <f t="shared" si="16"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="13"/>
-        <v>1100</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-    </row>
-    <row r="80" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>700</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S79" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -4530,32 +4928,41 @@
         <v>100</v>
       </c>
       <c r="K80" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="18">
+        <f t="shared" si="18"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L80" s="18">
-        <f t="shared" si="16"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="M80" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="S80" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -4564,25 +4971,25 @@
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>44</v>
@@ -4590,20 +4997,23 @@
       <c r="L83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M83" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="N83" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="O83" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P83" s="61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="14" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="C84" s="2">
         <f>K84/L84</f>
@@ -4636,14 +5046,21 @@
         <f>AVERAGE(H84,I84,J84)/AVERAGE(E84,F84,G84)</f>
         <v>0.64583333333333326</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M84" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0.64583124999999997</v>
+      </c>
+      <c r="O84" s="2">
+        <v>1.0528999999999999</v>
+      </c>
+      <c r="P84" s="58"/>
+    </row>
+    <row r="85" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="14" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="C85" s="2">
         <f>K85/L85</f>
@@ -4676,13 +5093,20 @@
         <f>AVERAGE(H85,I85,J85)/AVERAGE(E85,F85,G85)</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M85" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0.70588235294099999</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="P85" s="58"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>4</v>
@@ -4714,13 +5138,22 @@
       <c r="L86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M86" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P86" s="58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
@@ -4754,13 +5187,22 @@
         <f>AVERAGE(H87,I87,J87)/AVERAGE(E87,F87,G87)</f>
         <v>0</v>
       </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="7"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -4793,13 +5235,22 @@
         <f>AVERAGE(H88,I88,J88)/AVERAGE(E88,F88,G88)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0.444444444444</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P88" s="58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>4</v>
@@ -4832,13 +5283,22 @@
         <f>AVERAGE(H89,I89,J89)/AVERAGE(E89,F89,G89)</f>
         <v>0</v>
       </c>
-      <c r="M89" s="7"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P89" s="58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>4</v>
@@ -4871,13 +5331,20 @@
       <c r="L90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M90" s="7"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M90" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="N90" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P90" s="58"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>4</v>
@@ -4910,13 +5377,22 @@
       <c r="L91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M91" s="7"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="18">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -4950,13 +5426,22 @@
         <f>AVERAGE(H92,I92,J92)/AVERAGE(E92,F92,G92)</f>
         <v>0</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-    </row>
-    <row r="95" spans="1:26" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M92" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="N92" s="53">
+        <v>0</v>
+      </c>
+      <c r="O92" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P92" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
@@ -4965,72 +5450,78 @@
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="W95" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="X95" s="46"/>
-      <c r="Y95" s="46"/>
+        <v>138</v>
+      </c>
+      <c r="T95" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="U95" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="V95" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="W95" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="X95" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y95" s="46" t="s">
+        <v>141</v>
+      </c>
       <c r="Z95" s="46"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA95" s="46"/>
+      <c r="AB95" s="46"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="C96" s="2">
         <f>AVERAGE(SUM(E96,H96,K96,N96,Q96),SUM(F96,I96,L96,O96,R96),SUM(G96,J96,M96,P96,S96))</f>
@@ -5082,23 +5573,33 @@
       <c r="S96" s="26">
         <v>300</v>
       </c>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="46"/>
-      <c r="X96" s="46"/>
+      <c r="T96" s="54">
+        <v>3300</v>
+      </c>
+      <c r="U96" s="54">
+        <v>3200</v>
+      </c>
+      <c r="V96" s="53">
+        <v>2900</v>
+      </c>
+      <c r="W96" s="53">
+        <v>3133.33</v>
+      </c>
+      <c r="X96" s="2"/>
       <c r="Y96" s="46"/>
       <c r="Z96" s="46"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA96" s="46"/>
+      <c r="AB96" s="46"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>48</v>
@@ -5145,23 +5646,35 @@
       <c r="S97" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="46"/>
-      <c r="X97" s="46"/>
+      <c r="T97" s="26">
+        <v>0</v>
+      </c>
+      <c r="U97" s="26">
+        <v>0</v>
+      </c>
+      <c r="V97" s="2">
+        <v>0</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="Y97" s="46"/>
       <c r="Z97" s="46"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA97" s="46"/>
+      <c r="AB97" s="46"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2">
         <v>-1000</v>
@@ -5208,20 +5721,35 @@
       <c r="S98" s="26">
         <v>300</v>
       </c>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="46"/>
-      <c r="X98" s="46"/>
+      <c r="T98" s="26">
+        <v>800</v>
+      </c>
+      <c r="U98" s="26">
+        <v>300</v>
+      </c>
+      <c r="V98" s="53">
+        <v>2900</v>
+      </c>
+      <c r="W98" s="53">
+        <v>1333.33</v>
+      </c>
+      <c r="X98" s="2"/>
       <c r="Y98" s="46"/>
       <c r="Z98" s="46"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="V99" s="44"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA98" s="46"/>
+      <c r="AB98" s="46"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V99" s="11"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B100" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -5230,30 +5758,31 @@
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="H101" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I101" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="J101" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="52"/>
       <c r="B102" s="8" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C102" s="2">
         <f>AVERAGE(E102,F102,G102)</f>
@@ -5273,15 +5802,15 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>48</v>
@@ -5296,15 +5825,15 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2">
         <v>-1000</v>
@@ -5320,12 +5849,12 @@
       <c r="J104" s="2"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K105" s="11"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -5334,25 +5863,25 @@
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>44</v>
@@ -5360,19 +5889,22 @@
       <c r="L107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M107" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="N107" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="O107" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="P107" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C108" s="2">
         <f>K108/L108</f>
@@ -5405,13 +5937,20 @@
         <f>AVERAGE(H108,I108,J108)</f>
         <v>1200</v>
       </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M108" s="2">
+        <v>483.33</v>
+      </c>
+      <c r="N108" s="53">
+        <v>1200</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="P108" s="58"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="C109" s="2">
         <f>K109/L109</f>
@@ -5444,19 +5983,26 @@
         <f>AVERAGE(H109,I109,J109)</f>
         <v>1000</v>
       </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M109" s="2">
+        <v>375</v>
+      </c>
+      <c r="N109" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="P109" s="58"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>48</v>
@@ -5482,19 +6028,28 @@
       <c r="L110" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P110" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="C111" s="32">
         <v>999999</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="E111" s="18">
         <v>500</v>
@@ -5515,26 +6070,35 @@
         <v>0</v>
       </c>
       <c r="K111" s="18">
-        <f t="shared" ref="K111:K120" si="18">AVERAGE(E111,F111,G111)</f>
+        <f t="shared" ref="K111:K120" si="20">AVERAGE(E111,F111,G111)</f>
         <v>0</v>
       </c>
       <c r="L111" s="18">
-        <f t="shared" ref="L111:L120" si="19">AVERAGE(H111,I111,J111)</f>
-        <v>0</v>
-      </c>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L111:L120" si="21">AVERAGE(H111,I111,J111)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="18">
+        <v>0</v>
+      </c>
+      <c r="N111" s="18">
+        <v>0</v>
+      </c>
+      <c r="O111" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="P111" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C112" s="27">
         <v>1000000</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E112" s="2">
         <v>250</v>
@@ -5555,26 +6119,35 @@
         <v>0</v>
       </c>
       <c r="K112" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>250</v>
       </c>
       <c r="L112" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>250</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P112" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E113" s="2">
         <v>100</v>
@@ -5595,25 +6168,34 @@
         <v>48</v>
       </c>
       <c r="K113" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="L113" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M113" s="2">
+        <v>200</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P113" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>48</v>
@@ -5637,22 +6219,31 @@
         <v>48</v>
       </c>
       <c r="L114" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2500</v>
       </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M114" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N114" s="53">
+        <v>2500</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P114" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E115" s="2">
         <v>500</v>
@@ -5673,26 +6264,35 @@
         <v>1300</v>
       </c>
       <c r="K115" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-100</v>
       </c>
       <c r="L115" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1300</v>
       </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M115" s="2">
+        <v>-100</v>
+      </c>
+      <c r="N115" s="53">
+        <v>1300</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P115" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E116" s="2">
         <v>500</v>
@@ -5713,26 +6313,35 @@
         <v>0</v>
       </c>
       <c r="K116" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-100</v>
       </c>
       <c r="L116" s="18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <v>-100</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P116" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E117" s="2">
         <v>500</v>
@@ -5753,26 +6362,35 @@
         <v>-800</v>
       </c>
       <c r="K117" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-100</v>
       </c>
       <c r="L117" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-800</v>
       </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M117" s="2">
+        <v>-100</v>
+      </c>
+      <c r="N117" s="2">
+        <v>-800</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P117" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E118" s="2">
         <v>250</v>
@@ -5793,26 +6411,35 @@
         <v>-1200</v>
       </c>
       <c r="K118" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>350</v>
       </c>
       <c r="L118" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1200</v>
       </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M118" s="2">
+        <v>350</v>
+      </c>
+      <c r="N118" s="53">
+        <v>-1200</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P118" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E119" s="18">
         <v>0</v>
@@ -5833,26 +6460,35 @@
         <v>-1000</v>
       </c>
       <c r="K119" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L119" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1000</v>
       </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M119" s="2">
+        <v>0</v>
+      </c>
+      <c r="N119" s="53">
+        <v>-1000</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P119" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B120" s="14" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E120" s="2">
         <v>-200</v>
@@ -5873,20 +6509,29 @@
         <v>-700</v>
       </c>
       <c r="K120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-200</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-700</v>
       </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M120" s="2">
+        <v>-200</v>
+      </c>
+      <c r="N120" s="2">
+        <v>-700</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P120" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -5895,25 +6540,25 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>44</v>
@@ -5921,19 +6566,22 @@
       <c r="L123" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="N123" s="2" t="s">
+      <c r="M123" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="O123" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N123" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="O123" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="P123" s="61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C124" s="2">
         <f>K124/L124</f>
@@ -5966,13 +6614,20 @@
         <f>AVERAGE(H124,I124,J124)</f>
         <v>633.33333333333337</v>
       </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M124" s="2">
+        <v>250</v>
+      </c>
+      <c r="N124" s="2">
+        <v>633.33000000000004</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0.3947</v>
+      </c>
+      <c r="P124" s="58"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="C125" s="2">
         <f>K125/L125</f>
@@ -6005,19 +6660,26 @@
         <f>AVERAGE(H125,I125,J125)</f>
         <v>500</v>
       </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M125" s="2">
+        <v>100</v>
+      </c>
+      <c r="N125" s="2">
+        <v>500</v>
+      </c>
+      <c r="O125" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P125" s="58"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>48</v>
@@ -6043,19 +6705,28 @@
       <c r="L126" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M126" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P126" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="C127" s="26">
         <v>999999</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="E127" s="2">
         <v>-500</v>
@@ -6076,26 +6747,35 @@
         <v>600</v>
       </c>
       <c r="K127" s="18">
-        <f t="shared" ref="K127:K136" si="20">AVERAGE(E127,F127,G127)</f>
+        <f t="shared" ref="K127:K136" si="22">AVERAGE(E127,F127,G127)</f>
         <v>0</v>
       </c>
       <c r="L127" s="18">
-        <f t="shared" ref="L127:L128" si="21">AVERAGE(H127,I127,J127)</f>
-        <v>0</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L127:L128" si="23">AVERAGE(H127,I127,J127)</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <v>0</v>
+      </c>
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P127" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="C128" s="26">
         <v>1000000</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E128" s="18">
         <v>200</v>
@@ -6116,26 +6796,35 @@
         <v>600</v>
       </c>
       <c r="K128" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
       <c r="L128" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="18">
+        <v>200</v>
+      </c>
+      <c r="N128" s="18">
+        <v>0</v>
+      </c>
+      <c r="O128" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P128" s="60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E129" s="2">
         <v>350</v>
@@ -6156,25 +6845,34 @@
         <v>48</v>
       </c>
       <c r="K129" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
       <c r="L129" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M129" s="2">
+        <v>300</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O129" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P129" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>48</v>
@@ -6201,19 +6899,28 @@
         <f>AVERAGE(H130,I130,J130)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M130" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N130" s="2">
+        <v>416.67</v>
+      </c>
+      <c r="O130" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="P130" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2">
         <v>250</v>
@@ -6234,26 +6941,35 @@
         <v>700</v>
       </c>
       <c r="K131" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L131" s="18">
         <f>AVERAGE(H131,I131,J131)</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M131" s="2">
+        <v>-116.67</v>
+      </c>
+      <c r="N131" s="2">
+        <v>416.67</v>
+      </c>
+      <c r="O131" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P131" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2">
         <v>250</v>
@@ -6274,26 +6990,35 @@
         <v>50</v>
       </c>
       <c r="K132" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L132" s="18">
         <f>AVERAGE(H132,I132,J132)</f>
         <v>0</v>
       </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M132" s="2">
+        <v>-116.67</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P132" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2">
         <v>250</v>
@@ -6314,26 +7039,35 @@
         <v>200</v>
       </c>
       <c r="K133" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L133" s="18">
         <f>AVERAGE(H133,I133,J133)</f>
         <v>-16.666666666666668</v>
       </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M133" s="2">
+        <v>-116.67</v>
+      </c>
+      <c r="N133" s="2">
+        <v>-16.670000000000002</v>
+      </c>
+      <c r="O133" s="2">
+        <v>6.9988000000000001</v>
+      </c>
+      <c r="P133" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E134" s="2">
         <v>150</v>
@@ -6354,26 +7088,35 @@
         <v>-700</v>
       </c>
       <c r="K134" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>150</v>
       </c>
       <c r="L134" s="18">
         <f>AVERAGE(H134,I134,J134)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M134" s="2">
+        <v>150</v>
+      </c>
+      <c r="N134" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="O134" s="2">
+        <v>-1.125</v>
+      </c>
+      <c r="P134" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E135" s="2">
         <v>-200</v>
@@ -6394,26 +7137,35 @@
         <v>-700</v>
       </c>
       <c r="K135" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L135" s="18">
-        <f t="shared" ref="L135:L136" si="22">AVERAGE(H135,I135,J135)</f>
+        <f t="shared" ref="L135:L136" si="24">AVERAGE(H135,I135,J135)</f>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M135" s="2">
+        <v>0</v>
+      </c>
+      <c r="N135" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="O135" s="2">
+        <v>0</v>
+      </c>
+      <c r="P135" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E136" s="2">
         <v>450</v>
@@ -6434,20 +7186,29 @@
         <v>-700</v>
       </c>
       <c r="K136" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L136" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M136" s="2">
+        <v>-83.33</v>
+      </c>
+      <c r="N136" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="O136" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="P136" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -6456,25 +7217,25 @@
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>44</v>
@@ -6482,20 +7243,23 @@
       <c r="L139" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M139" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O139" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M139" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="N139" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O139" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="P139" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="8" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C140" s="2">
         <f>K140/L140</f>
@@ -6528,13 +7292,20 @@
         <f>AVERAGE(H140,I140,J140)</f>
         <v>1000</v>
       </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M140" s="2">
+        <v>416.67</v>
+      </c>
+      <c r="N140" s="53">
+        <v>1000</v>
+      </c>
+      <c r="O140" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="P140" s="58"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C141" s="2">
         <f>K141/L141</f>
@@ -6567,19 +7338,26 @@
         <f>AVERAGE(H141,I141,J141)</f>
         <v>1300</v>
       </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M141" s="2">
+        <v>300</v>
+      </c>
+      <c r="N141" s="53">
+        <v>1300</v>
+      </c>
+      <c r="O141" s="2">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="P141" s="58"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>48</v>
@@ -6605,19 +7383,28 @@
       <c r="L142" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="35"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M142" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N142" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P142" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="C143" s="26">
         <v>999999</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="E143" s="2">
         <v>-200</v>
@@ -6638,26 +7425,35 @@
         <v>0</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" ref="K143:K152" si="23">AVERAGE(E143,F143,G143)</f>
+        <f t="shared" ref="K143:K152" si="25">AVERAGE(E143,F143,G143)</f>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" ref="L143:L152" si="24">AVERAGE(H143,I143,J143)</f>
-        <v>0</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="34"/>
-      <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L143:L152" si="26">AVERAGE(H143,I143,J143)</f>
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P143" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="C144" s="26">
         <v>1000000</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2">
         <v>200</v>
@@ -6678,26 +7474,35 @@
         <v>0</v>
       </c>
       <c r="K144" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M144" s="2"/>
-      <c r="N144" s="34"/>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="2">
+        <v>200</v>
+      </c>
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P144" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E145" s="2">
         <v>300</v>
@@ -6718,25 +7523,34 @@
         <v>48</v>
       </c>
       <c r="K145" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>300</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M145" s="2">
+        <v>300</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O145" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P145" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>48</v>
@@ -6760,22 +7574,31 @@
         <v>48</v>
       </c>
       <c r="L146" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1500</v>
       </c>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M146" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N146" s="53">
+        <v>1500</v>
+      </c>
+      <c r="O146" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="P146" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2">
         <v>200</v>
@@ -6796,26 +7619,35 @@
         <v>700</v>
       </c>
       <c r="K147" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L147" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>700</v>
       </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M147" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="N147" s="2">
+        <v>700</v>
+      </c>
+      <c r="O147" s="2">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="P147" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2">
         <v>200</v>
@@ -6836,26 +7668,35 @@
         <v>0</v>
       </c>
       <c r="K148" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L148" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M148" s="2">
+        <v>-33.33</v>
+      </c>
+      <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P148" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2">
         <v>200</v>
@@ -6876,26 +7717,35 @@
         <v>-800</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-800</v>
       </c>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M149" s="2">
+        <v>-66.67</v>
+      </c>
+      <c r="N149" s="2">
+        <v>-800</v>
+      </c>
+      <c r="O149" s="2">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="P149" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E150" s="2">
         <v>100</v>
@@ -6916,26 +7766,35 @@
         <v>-500</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-500</v>
       </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M150" s="2">
+        <v>100</v>
+      </c>
+      <c r="N150" s="2">
+        <v>-500</v>
+      </c>
+      <c r="O150" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="P150" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E151" s="2">
         <v>-300</v>
@@ -6956,26 +7815,35 @@
         <v>700</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-200</v>
       </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2">
+        <v>-200</v>
+      </c>
+      <c r="O151" s="2">
+        <v>0</v>
+      </c>
+      <c r="P151" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E152" s="2">
         <v>200</v>
@@ -6996,20 +7864,29 @@
         <v>-500</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M152" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="N152" s="2">
+        <v>-166.67</v>
+      </c>
+      <c r="O152" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="P152" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
@@ -7018,25 +7895,25 @@
         <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>44</v>
@@ -7044,20 +7921,23 @@
       <c r="L155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M155" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M155" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="N155" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="O155" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="P155" s="61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="8" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="C156" s="2">
         <f>K156/L156</f>
@@ -7090,13 +7970,20 @@
         <f>AVERAGE(H156,I156,J156)</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M156" s="2">
+        <v>333.33</v>
+      </c>
+      <c r="N156" s="2">
+        <v>833.33</v>
+      </c>
+      <c r="O156" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P156" s="58"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="C157" s="2">
         <f>K157/L157</f>
@@ -7129,19 +8016,26 @@
         <f>AVERAGE(H157,I157,J157)</f>
         <v>650</v>
       </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M157" s="2">
+        <v>275</v>
+      </c>
+      <c r="N157" s="2">
+        <v>650</v>
+      </c>
+      <c r="O157" s="2">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="P157" s="58"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>48</v>
@@ -7167,19 +8061,28 @@
       <c r="L158" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="36"/>
-      <c r="O158" s="2"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M158" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N158" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P158" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="C159" s="26">
         <v>999999</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2">
         <v>700</v>
@@ -7200,26 +8103,35 @@
         <v>-400</v>
       </c>
       <c r="K159" s="2">
-        <f t="shared" ref="K159:K168" si="25">AVERAGE(E159,F159,G159)</f>
+        <f t="shared" ref="K159:K168" si="27">AVERAGE(E159,F159,G159)</f>
         <v>0</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" ref="L159:L168" si="26">AVERAGE(H159,I159,J159)</f>
-        <v>0</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" s="34"/>
-      <c r="O159" s="2"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L159:L168" si="28">AVERAGE(H159,I159,J159)</f>
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P159" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C160" s="27">
         <v>1000000</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="E160" s="2">
         <v>500</v>
@@ -7240,26 +8152,35 @@
         <v>600</v>
       </c>
       <c r="K160" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" s="34"/>
-      <c r="O160" s="2"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>400</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O160" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P160" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="E161" s="2">
         <v>100</v>
@@ -7280,25 +8201,34 @@
         <v>48</v>
       </c>
       <c r="K161" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M161" s="2">
+        <v>366.67</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O161" s="53">
+        <v>-1000000</v>
+      </c>
+      <c r="P161" s="58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>48</v>
@@ -7322,22 +8252,31 @@
         <v>48</v>
       </c>
       <c r="L162" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>766.66666666666663</v>
       </c>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M162" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N162" s="2">
+        <v>766.67</v>
+      </c>
+      <c r="O162" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="P162" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E163" s="2">
         <v>300</v>
@@ -7358,26 +8297,35 @@
         <v>400</v>
       </c>
       <c r="K163" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-200</v>
       </c>
       <c r="L163" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M163" s="2">
+        <v>-200</v>
+      </c>
+      <c r="N163" s="2">
+        <v>500</v>
+      </c>
+      <c r="O163" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="P163" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E164" s="2">
         <v>-200</v>
@@ -7398,26 +8346,35 @@
         <v>-800</v>
       </c>
       <c r="K164" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L164" s="2">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B165" s="37" t="s">
-        <v>266</v>
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>-166.67</v>
+      </c>
+      <c r="N164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O164" s="53">
+        <v>1000000</v>
+      </c>
+      <c r="P164" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B165" s="35" t="s">
+        <v>318</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="E165" s="2">
         <v>800</v>
@@ -7438,26 +8395,35 @@
         <v>-600</v>
       </c>
       <c r="K165" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-200</v>
       </c>
       <c r="L165" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-300</v>
       </c>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B166" s="37" t="s">
-        <v>267</v>
+      <c r="M165" s="2">
+        <v>-200</v>
+      </c>
+      <c r="N165" s="2">
+        <v>-300</v>
+      </c>
+      <c r="O165" s="2">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="P165" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E166" s="2">
         <v>200</v>
@@ -7478,26 +8444,35 @@
         <v>-300</v>
       </c>
       <c r="K166" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>200</v>
       </c>
       <c r="L166" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B167" s="37" t="s">
-        <v>268</v>
+      <c r="M166" s="2">
+        <v>200</v>
+      </c>
+      <c r="N166" s="2">
+        <v>-66.67</v>
+      </c>
+      <c r="O166" s="2">
+        <v>-2.9998999999999998</v>
+      </c>
+      <c r="P166" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B167" s="35" t="s">
+        <v>320</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E167" s="2">
         <v>400</v>
@@ -7518,26 +8493,35 @@
         <v>-600</v>
       </c>
       <c r="K167" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L167" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B168" s="37" t="s">
-        <v>269</v>
+      <c r="M167" s="2">
+        <v>0</v>
+      </c>
+      <c r="N167" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="O167" s="2">
+        <v>0</v>
+      </c>
+      <c r="P167" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B168" s="35" t="s">
+        <v>321</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E168" s="2">
         <v>200</v>
@@ -7558,20 +8542,32 @@
         <v>-950</v>
       </c>
       <c r="K168" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L168" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-50</v>
       </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A171" s="38" t="s">
-        <v>274</v>
+      <c r="M168" s="2">
+        <v>-66.67</v>
+      </c>
+      <c r="N168" s="2">
+        <v>-50</v>
+      </c>
+      <c r="O168" s="2">
+        <v>1.3333999999999999</v>
+      </c>
+      <c r="P168" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B170" s="56"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -7580,31 +8576,31 @@
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
-      <c r="B172" s="37" t="s">
-        <v>278</v>
+        <v>164</v>
+      </c>
+      <c r="H171" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="I171" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J171" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="37"/>
+      <c r="B172" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="C172" s="2">
         <f>COUNT(E172,F172,G172)</f>
@@ -7622,14 +8618,16 @@
       <c r="G172" s="2">
         <v>1000</v>
       </c>
-      <c r="H172" s="2"/>
+      <c r="H172" s="2">
+        <v>3</v>
+      </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A173" s="40"/>
-      <c r="B173" s="37" t="s">
-        <v>279</v>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="38"/>
+      <c r="B173" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="C173" s="2">
         <f>COUNT(E173,F173,G173)</f>
@@ -7647,14 +8645,16 @@
       <c r="G173" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H173" s="2"/>
+      <c r="H173" s="2">
+        <v>2</v>
+      </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A174" s="40"/>
-      <c r="B174" s="37" t="s">
-        <v>280</v>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="38"/>
+      <c r="B174" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="C174" s="2">
         <f>COUNT(E174,F174,G174)</f>
@@ -7672,20 +8672,22 @@
       <c r="G174" s="2">
         <v>1000</v>
       </c>
-      <c r="H174" s="2"/>
-      <c r="I174" s="35"/>
+      <c r="H174" s="2">
+        <v>1</v>
+      </c>
+      <c r="I174" s="34"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A175" s="40"/>
-      <c r="B175" s="37" t="s">
-        <v>281</v>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="38"/>
+      <c r="B175" s="35" t="s">
+        <v>325</v>
       </c>
       <c r="C175" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>48</v>
@@ -7696,19 +8698,21 @@
       <c r="G175" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H175" s="2"/>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A178" s="38" t="s">
-        <v>277</v>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -7717,31 +8721,29 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
+        <v>164</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H178" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="I178" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="O178"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="37"/>
       <c r="B179" s="8" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7755,15 +8757,19 @@
       <c r="F179" s="2">
         <v>0</v>
       </c>
-      <c r="G179" s="2"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A180" s="40"/>
-      <c r="B180" s="37" t="s">
-        <v>284</v>
+      <c r="G179" s="9"/>
+      <c r="H179" s="2">
+        <v>1</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O179"/>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" s="38"/>
+      <c r="B180" s="35" t="s">
+        <v>327</v>
       </c>
       <c r="C180" s="2">
         <v>1</v>
@@ -7777,15 +8783,17 @@
       <c r="F180" s="2">
         <v>1000</v>
       </c>
-      <c r="G180" s="2"/>
-      <c r="H180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="2">
+        <v>1</v>
+      </c>
       <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" s="40"/>
-      <c r="B181" s="37" t="s">
-        <v>286</v>
+      <c r="O180"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" s="38"/>
+      <c r="B181" s="35" t="s">
+        <v>328</v>
       </c>
       <c r="C181" s="2">
         <v>1</v>
@@ -7800,14 +8808,16 @@
         <v>48</v>
       </c>
       <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="H181" s="2">
+        <v>1</v>
+      </c>
       <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" s="40"/>
-      <c r="B182" s="37" t="s">
-        <v>287</v>
+      <c r="O181"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" s="38"/>
+      <c r="B182" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="C182" s="26" t="s">
         <v>4</v>
@@ -7821,16 +8831,20 @@
       <c r="F182" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G182" s="2"/>
-      <c r="H182" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G182" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O182"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="C183" s="26">
         <v>0</v>
@@ -7844,16 +8858,18 @@
       <c r="F183" s="18">
         <v>2000</v>
       </c>
-      <c r="G183" s="2"/>
-      <c r="H183" s="15" t="s">
-        <v>283</v>
+      <c r="G183" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H183" s="2">
+        <v>1</v>
       </c>
       <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A186" s="38" t="s">
-        <v>285</v>
+      <c r="O183"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -7862,34 +8878,34 @@
         <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K186" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
+        <v>200</v>
+      </c>
+      <c r="I186" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="J186" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="K186" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" s="37"/>
       <c r="B187" s="8" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C187" s="2">
         <f>H187</f>
@@ -7910,14 +8926,16 @@
         <f>IF(G187&gt;=1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="I187" s="2"/>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A188" s="40"/>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" s="38"/>
       <c r="B188" s="8" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="C188" s="2">
         <f>H188</f>
@@ -7938,14 +8956,16 @@
         <f>IF(G188&gt;=1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I188" s="2"/>
+      <c r="I188" s="2">
+        <v>1</v>
+      </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A189" s="40"/>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" s="38"/>
       <c r="B189" s="8" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
@@ -7956,17 +8976,19 @@
         <v>48</v>
       </c>
       <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="I189" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="J189" s="2"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E190" s="44"/>
-      <c r="K190" s="44"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" s="38" t="s">
-        <v>295</v>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E190" s="42"/>
+      <c r="K190" s="42"/>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -7975,36 +8997,36 @@
         <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K192" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L192" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="J192" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K192" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="L192" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C193" s="2">
         <f>E193</f>
@@ -8027,13 +9049,15 @@
       <c r="I193" s="2">
         <v>1</v>
       </c>
-      <c r="J193" s="2"/>
+      <c r="J193" s="2">
+        <v>1</v>
+      </c>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C194" s="2">
         <f>E194</f>
@@ -8056,13 +9080,15 @@
       <c r="I194" s="2">
         <v>0</v>
       </c>
-      <c r="J194" s="2"/>
+      <c r="J194" s="2">
+        <v>1</v>
+      </c>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C195" s="2">
         <f>E195</f>
@@ -8085,38 +9111,42 @@
       <c r="I195" s="2">
         <v>0</v>
       </c>
-      <c r="J195" s="2"/>
+      <c r="J195" s="2">
+        <v>0</v>
+      </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C196" s="18">
         <v>1</v>
       </c>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
-      <c r="F196" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G196" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H196" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="I196" s="45">
+      <c r="F196" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G196" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H196" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I196" s="43">
         <v>1</v>
       </c>
-      <c r="J196" s="2"/>
+      <c r="J196" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>4</v>
@@ -8135,36 +9165,38 @@
       <c r="I197" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J197" s="2"/>
+      <c r="J197" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D200" s="12"/>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D201" s="12"/>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D202" s="12"/>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D203" s="12"/>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D204" s="12"/>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D205" s="12"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" s="5" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="W95:Z98"/>
+    <mergeCell ref="Y95:AB98"/>
   </mergeCells>
   <conditionalFormatting sqref="B143">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
@@ -8215,22 +9247,22 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -8244,13 +9276,13 @@
         <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
@@ -8264,7 +9296,7 @@
       <c r="K5" s="25"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
@@ -8288,10 +9320,10 @@
         <v>48</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="39"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
@@ -8315,10 +9347,10 @@
         <v>48</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="39"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
@@ -8342,12 +9374,12 @@
         <v>48</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="39"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -8356,16 +9388,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="H11" s="25"/>
       <c r="L11" s="5"/>
@@ -8373,9 +9405,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -8388,15 +9420,15 @@
         <v>48</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="39"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -8409,15 +9441,15 @@
         <v>48</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="41"/>
+      <c r="H13" s="39"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -8426,41 +9458,41 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -8494,9 +9526,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -8530,9 +9562,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>

--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="341">
   <si>
     <t>IND_50</t>
   </si>
@@ -442,9 +442,6 @@
     <t>AFI000_1</t>
   </si>
   <si>
-    <t>AFI004_1</t>
-  </si>
-  <si>
     <t>A tutti gli addendi della sommatoria all'interno della media trimestrale deve essere applicato un cap a 0 nel caso di valori negativi</t>
   </si>
   <si>
@@ -517,15 +514,6 @@
     <t>IMP_STIP_PE_M2</t>
   </si>
   <si>
-    <t>0000000000000148</t>
-  </si>
-  <si>
-    <t>0000000000000149</t>
-  </si>
-  <si>
-    <t>0000000000000150</t>
-  </si>
-  <si>
     <t>BILFAM002_1</t>
   </si>
   <si>
@@ -799,9 +787,6 @@
     <t>'0000000000000139</t>
   </si>
   <si>
-    <t>'0000000000000140</t>
-  </si>
-  <si>
     <t>SUM_IND_71_M0</t>
   </si>
   <si>
@@ -1000,9 +985,6 @@
     <t>'0000000000000202</t>
   </si>
   <si>
-    <t>'0000000000000203</t>
-  </si>
-  <si>
     <t>'0000000000000204</t>
   </si>
   <si>
@@ -1033,23 +1015,41 @@
     <t>'0000000000000213</t>
   </si>
   <si>
-    <t>'0000000000000214</t>
-  </si>
-  <si>
-    <t>'0000000000000215</t>
-  </si>
-  <si>
     <t>NUM_IND_85</t>
   </si>
   <si>
     <t>DEN_IND_85</t>
+  </si>
+  <si>
+    <t>cambia la formula hai fatto accordato -utilizzato (è il contrario)</t>
+  </si>
+  <si>
+    <t>0000000000000137</t>
+  </si>
+  <si>
+    <t>non ha molto senso, lasciamo questo caso in sospeso.</t>
+  </si>
+  <si>
+    <t>0000000000000140</t>
+  </si>
+  <si>
+    <t>0000000000000144</t>
+  </si>
+  <si>
+    <t>0000000000000145</t>
+  </si>
+  <si>
+    <t>'0000000000000146</t>
+  </si>
+  <si>
+    <t>0000000000000203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,6 +1080,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1233,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,16 +1359,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,11 +1399,98 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1828,36 +1923,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1873,14 +1968,17 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1895,8 +1993,9 @@
         <v>10</v>
       </c>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1915,8 +2014,9 @@
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1933,11 +2033,12 @@
       <c r="G6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="41"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1953,17 +2054,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1979,10 +2080,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2002,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -2024,13 +2125,13 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2051,19 +2152,19 @@
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="50" t="s">
-        <v>199</v>
+      <c r="J15" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2187,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -2108,7 +2209,7 @@
       <c r="J17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -2131,7 +2232,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -2154,7 +2255,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
@@ -2179,10 +2280,10 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D21" s="41"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2219,14 +2320,14 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="50" t="s">
+      <c r="M23" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2264,12 +2365,12 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-      <c r="N24" s="48"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
@@ -2307,12 +2408,12 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="48"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
@@ -2349,12 +2450,12 @@
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="48"/>
+      <c r="N26" s="46"/>
       <c r="O26" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
@@ -2391,24 +2492,24 @@
         <f>J27/K27</f>
         <v>-1.3125</v>
       </c>
-      <c r="M27" s="51">
+      <c r="M27" s="49">
         <v>1</v>
       </c>
-      <c r="N27" s="49"/>
+      <c r="N27" s="47"/>
       <c r="O27" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2418,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>62</v>
@@ -2448,23 +2549,23 @@
         <v>45</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="O30" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="50" t="s">
+      <c r="P30" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="50" t="s">
-        <v>199</v>
+      <c r="Q30" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
       <c r="V30" s="23"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
@@ -2510,10 +2611,10 @@
       <c r="Q31" s="2"/>
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
-      <c r="U31" s="45"/>
+      <c r="U31" s="44"/>
       <c r="V31" s="23"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
@@ -2554,7 +2655,7 @@
         <v>866.66666666666663</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="58"/>
+      <c r="O32" s="56"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="S32" s="23"/>
@@ -2562,7 +2663,7 @@
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>38</v>
       </c>
@@ -2603,7 +2704,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="58"/>
+      <c r="O33" s="56"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="S33" s="23"/>
@@ -2611,7 +2712,7 @@
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
@@ -2649,15 +2750,15 @@
         <v>48</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
       <c r="Q34" s="2"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
@@ -2697,15 +2798,15 @@
         <v>0</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="58"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="56"/>
       <c r="Q35" s="7"/>
       <c r="S35" s="23"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
       <c r="V35" s="23"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -2744,11 +2845,11 @@
         <v>48</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
@@ -2787,11 +2888,11 @@
         <v>466.66666666666669</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
@@ -2831,11 +2932,11 @@
         <v>466.66666666666669</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>76</v>
       </c>
@@ -2879,7 +2980,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>77</v>
       </c>
@@ -2919,11 +3020,11 @@
         <v>-33.333333333333336</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +3068,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>80</v>
       </c>
@@ -3011,7 +3112,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
@@ -3055,7 +3156,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>82</v>
       </c>
@@ -3099,7 +3200,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
         <v>83</v>
       </c>
@@ -3108,10 +3209,10 @@
         <v>999999</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>205</v>
       </c>
       <c r="F45" s="7">
         <v>500</v>
@@ -3147,7 +3248,7 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>84</v>
       </c>
@@ -3156,7 +3257,7 @@
         <v/>
       </c>
       <c r="D46" s="14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>48</v>
@@ -3195,7 +3296,7 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>91</v>
       </c>
@@ -3204,7 +3305,7 @@
         <v/>
       </c>
       <c r="D47" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>48</v>
@@ -3243,7 +3344,7 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>92</v>
       </c>
@@ -3252,7 +3353,7 @@
         <v/>
       </c>
       <c r="D48" s="14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>48</v>
@@ -3291,10 +3392,10 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N49" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
@@ -3332,31 +3433,31 @@
         <v>45</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P51" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q51" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="R51" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="R51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="S51" s="61" t="s">
+      <c r="S51" s="59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="52"/>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
       <c r="B52" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2">
         <f>K52/L52</f>
@@ -3404,17 +3505,22 @@
       <c r="P52" s="2">
         <v>566.66999999999996</v>
       </c>
-      <c r="Q52" s="53">
+      <c r="Q52" s="51">
         <v>1600</v>
       </c>
       <c r="R52" s="2">
         <v>0.35420000000000001</v>
       </c>
-      <c r="S52" s="58"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S52" s="56"/>
+      <c r="T52" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C53" s="2">
         <f>K53/L53</f>
@@ -3468,11 +3574,11 @@
       <c r="R53" s="2">
         <v>0</v>
       </c>
-      <c r="S53" s="58"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S53" s="56"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B54" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -3512,21 +3618,21 @@
         <v>48</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S54" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S54" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
@@ -3579,15 +3685,15 @@
         <v>0</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S55" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S55" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C56" s="21">
         <v>1000000</v>
@@ -3633,22 +3739,22 @@
         <f t="shared" si="7"/>
         <v>700</v>
       </c>
-      <c r="P56" s="53">
+      <c r="P56" s="51">
         <v>0</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
       </c>
-      <c r="R56" s="53">
+      <c r="R56" s="51">
         <v>-1000000</v>
       </c>
-      <c r="S56" s="58" t="s">
+      <c r="S56" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>4</v>
@@ -3691,21 +3797,21 @@
         <v>48</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S57" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S57" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -3748,21 +3854,21 @@
         <v>48</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q58" s="2">
         <v>466.67</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S58" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S58" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -3817,11 +3923,11 @@
       <c r="R59" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="S59" s="58"/>
-    </row>
-    <row r="60" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="56"/>
+    </row>
+    <row r="60" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -3874,15 +3980,15 @@
         <v>0</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S60" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S60" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -3935,15 +4041,15 @@
         <v>-33.33</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S61" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S61" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>4</v>
@@ -3996,15 +4102,15 @@
         <v>-33.33</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S62" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="S62" s="58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>4</v>
@@ -4057,16 +4163,16 @@
         <v>-33.33</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S63" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="S63" s="58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -4119,16 +4225,16 @@
         <v>-33.33</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S64" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S64" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R65" s="42"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -4166,31 +4272,31 @@
         <v>45</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P67" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q67" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="R67" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P67" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q67" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="R67" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="S67" s="61" t="s">
+      <c r="S67" s="59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="50"/>
       <c r="B68" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" s="2">
         <f>K68/L68</f>
@@ -4238,17 +4344,22 @@
       <c r="P68" s="2">
         <v>566.66999999999996</v>
       </c>
-      <c r="Q68" s="53">
+      <c r="Q68" s="51">
         <v>1600</v>
       </c>
       <c r="R68" s="2">
         <v>0.35420000000000001</v>
       </c>
-      <c r="S68" s="58"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="56"/>
+      <c r="T68" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="U68" s="63"/>
+      <c r="V68" s="63"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C69" s="2">
         <f>K69/L69</f>
@@ -4302,11 +4413,11 @@
       <c r="R69" s="2">
         <v>0</v>
       </c>
-      <c r="S69" s="58"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="56"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B70" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -4348,21 +4459,21 @@
         <v>48</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S70" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S70" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C71" s="18">
         <v>0</v>
@@ -4415,15 +4526,15 @@
         <v>0</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S71" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S71" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C72" s="21">
         <v>1000000</v>
@@ -4475,16 +4586,16 @@
       <c r="Q72" s="2">
         <v>0</v>
       </c>
-      <c r="R72" s="53">
+      <c r="R72" s="51">
         <v>-1800000</v>
       </c>
-      <c r="S72" s="58" t="s">
+      <c r="S72" s="56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>4</v>
@@ -4527,21 +4638,21 @@
         <v>48</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S73" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S73" s="56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -4584,21 +4695,21 @@
         <v>48</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q74" s="2">
         <v>466.67</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S74" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S74" s="56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -4653,11 +4764,11 @@
       <c r="R75" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="S75" s="58"/>
-    </row>
-    <row r="76" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S75" s="56"/>
+    </row>
+    <row r="76" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -4710,15 +4821,15 @@
         <v>0</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="S76" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S76" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -4771,15 +4882,15 @@
         <v>-33.33</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S77" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S77" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -4832,15 +4943,15 @@
         <v>-33.33</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S78" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S78" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -4893,15 +5004,15 @@
         <v>-33.33</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S79" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S79" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -4954,13 +5065,13 @@
         <v>-33.33</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="S80" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S80" s="56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
@@ -4997,23 +5108,23 @@
       <c r="L83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M83" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="N83" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O83" s="50" t="s">
+      <c r="M83" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="N83" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O83" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="P83" s="61" t="s">
+      <c r="P83" s="59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24"/>
       <c r="B84" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C84" s="2">
         <f>K84/L84</f>
@@ -5055,12 +5166,12 @@
       <c r="O84" s="2">
         <v>1.0528999999999999</v>
       </c>
-      <c r="P84" s="58"/>
-    </row>
-    <row r="85" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="56"/>
+    </row>
+    <row r="85" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24"/>
       <c r="B85" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C85" s="2">
         <f>K85/L85</f>
@@ -5102,11 +5213,11 @@
       <c r="O85" s="2">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P85" s="58"/>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P85" s="56"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>4</v>
@@ -5139,21 +5250,21 @@
         <v>48</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P86" s="58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P86" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
@@ -5196,13 +5307,13 @@
       <c r="O87" s="2">
         <v>0</v>
       </c>
-      <c r="P87" s="58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P87" s="56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -5236,21 +5347,21 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N88" s="2">
         <v>0.444444444444</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P88" s="58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P88" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>4</v>
@@ -5284,28 +5395,27 @@
         <v>0</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N89" s="2">
         <v>0</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P89" s="58" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P89" s="56" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>70</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C90" s="7">
+        <f>K90/L90</f>
+        <v>1</v>
+      </c>
+      <c r="D90" s="20"/>
       <c r="E90" s="2">
         <v>800</v>
       </c>
@@ -5328,8 +5438,9 @@
         <f>H90/E90</f>
         <v>0.625</v>
       </c>
-      <c r="L90" s="2" t="s">
-        <v>48</v>
+      <c r="L90" s="2">
+        <f>AVERAGE(H90,I90,J90)/AVERAGE(E90,F90,G90)</f>
+        <v>0.625</v>
       </c>
       <c r="M90" s="2">
         <v>0.62</v>
@@ -5340,416 +5451,375 @@
       <c r="O90" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P90" s="58"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P90" s="56"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="69">
         <v>800</v>
       </c>
-      <c r="F91" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K91" s="2">
-        <f>H91/E91</f>
-        <v>0</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M91" s="2">
-        <v>0</v>
-      </c>
-      <c r="N91" s="18">
-        <v>0</v>
-      </c>
-      <c r="O91" s="2">
-        <v>0</v>
-      </c>
-      <c r="P91" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H91" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I91" s="65">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="65">
+        <v>800</v>
+      </c>
+      <c r="K91" s="65">
+        <v>800</v>
+      </c>
+      <c r="L91" s="65">
+        <f>AVERAGE(H91,I91,J91)/AVERAGE(E91,F91,G91)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="56"/>
+    </row>
+    <row r="92" spans="1:28" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="69">
+        <v>800</v>
+      </c>
+      <c r="G92" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" s="65">
+        <v>100</v>
+      </c>
+      <c r="I92" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L92" s="65">
+        <f>AVERAGE(H92,I92,J92)/AVERAGE(E92,F92,G92)</f>
+        <v>0.125</v>
+      </c>
+      <c r="M92" s="65"/>
+      <c r="N92" s="66"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="67"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E93" s="2">
         <v>800</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F93" s="2">
         <v>500</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G93" s="2">
         <v>300</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H93" s="2">
         <v>700</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I93" s="2">
         <v>-200</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J93" s="2">
         <v>-500</v>
       </c>
-      <c r="K92" s="2">
-        <f>H92/E92</f>
+      <c r="K93" s="2">
+        <f>H93/E93</f>
         <v>0.875</v>
       </c>
-      <c r="L92" s="2">
-        <f>AVERAGE(H92,I92,J92)/AVERAGE(E92,F92,G92)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="2">
+      <c r="L93" s="2">
+        <f>AVERAGE(H93,I93,J93)/AVERAGE(E93,F93,G93)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
         <v>0.88</v>
       </c>
-      <c r="N92" s="53">
-        <v>0</v>
-      </c>
-      <c r="O92" s="53">
+      <c r="N93" s="51">
+        <v>0</v>
+      </c>
+      <c r="O93" s="51">
         <v>1000000</v>
       </c>
-      <c r="P92" s="58" t="s">
+      <c r="P93" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="96" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T96" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="U96" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="V96" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="W96" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="X96" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T95" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="U95" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="V95" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="W95" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="X95" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y95" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z95" s="46"/>
-      <c r="AA95" s="46"/>
-      <c r="AB95" s="46"/>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="2">
-        <f>AVERAGE(SUM(E96,H96,K96,N96,Q96),SUM(F96,I96,L96,O96,R96),SUM(G96,J96,M96,P96,S96))</f>
+      <c r="Y96" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z96" s="61"/>
+      <c r="AA96" s="61"/>
+      <c r="AB96" s="61"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="2">
+        <f>AVERAGE(SUM(E97,H97,K97,N97,Q97),SUM(F97,I97,L97,O97,R97),SUM(G97,J97,M97,P97,S97))</f>
         <v>3133.3333333333335</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="2">
+      <c r="D97" s="26"/>
+      <c r="E97" s="2">
         <v>1000</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F97" s="2">
         <v>1500</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G97" s="2">
         <v>800</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H97" s="2">
         <v>600</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I97" s="2">
         <v>300</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J97" s="2">
         <v>1000</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K97" s="2">
         <v>400</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L97" s="2">
         <v>300</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M97" s="2">
         <v>200</v>
       </c>
-      <c r="N96" s="2">
+      <c r="N97" s="2">
         <v>800</v>
       </c>
-      <c r="O96" s="2">
+      <c r="O97" s="2">
         <v>700</v>
       </c>
-      <c r="P96" s="2">
+      <c r="P97" s="2">
         <v>600</v>
       </c>
-      <c r="Q96" s="26">
+      <c r="Q97" s="26">
         <v>500</v>
       </c>
-      <c r="R96" s="26">
+      <c r="R97" s="26">
         <v>400</v>
       </c>
-      <c r="S96" s="26">
+      <c r="S97" s="26">
         <v>300</v>
       </c>
-      <c r="T96" s="54">
+      <c r="T97" s="52">
         <v>3300</v>
       </c>
-      <c r="U96" s="54">
+      <c r="U97" s="52">
         <v>3200</v>
       </c>
-      <c r="V96" s="53">
+      <c r="V97" s="51">
         <v>2900</v>
       </c>
-      <c r="W96" s="53">
+      <c r="W97" s="51">
         <v>3133.33</v>
       </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="46"/>
-      <c r="Z96" s="46"/>
-      <c r="AA96" s="46"/>
-      <c r="AB96" s="46"/>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q97" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="R97" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="S97" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="T97" s="26">
-        <v>0</v>
-      </c>
-      <c r="U97" s="26">
-        <v>0</v>
-      </c>
-      <c r="V97" s="2">
-        <v>0</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y97" s="46"/>
-      <c r="Z97" s="46"/>
-      <c r="AA97" s="46"/>
-      <c r="AB97" s="46"/>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X97" s="2"/>
+      <c r="Y97" s="61"/>
+      <c r="Z97" s="61"/>
+      <c r="AA97" s="61"/>
+      <c r="AB97" s="61"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="F98" s="2">
-        <v>-1500</v>
-      </c>
-      <c r="G98" s="2">
-        <v>800</v>
-      </c>
-      <c r="H98" s="2">
-        <v>-600</v>
-      </c>
-      <c r="I98" s="2">
-        <v>300</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1000</v>
-      </c>
-      <c r="K98" s="2">
-        <v>-400</v>
-      </c>
-      <c r="L98" s="2">
-        <v>-300</v>
-      </c>
-      <c r="M98" s="2">
-        <v>200</v>
-      </c>
-      <c r="N98" s="2">
-        <v>800</v>
-      </c>
-      <c r="O98" s="2">
-        <v>-700</v>
-      </c>
-      <c r="P98" s="2">
-        <v>600</v>
-      </c>
-      <c r="Q98" s="26">
-        <v>-500</v>
-      </c>
-      <c r="R98" s="26">
-        <v>-400</v>
-      </c>
-      <c r="S98" s="26">
-        <v>300</v>
+        <v>139</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q98" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="R98" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S98" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="T98" s="26">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="U98" s="26">
-        <v>300</v>
-      </c>
-      <c r="V98" s="53">
-        <v>2900</v>
-      </c>
-      <c r="W98" s="53">
-        <v>1333.33</v>
-      </c>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="46"/>
-      <c r="Z98" s="46"/>
-      <c r="AA98" s="46"/>
-      <c r="AB98" s="46"/>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V98" s="2">
+        <v>0</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y98" s="61"/>
+      <c r="Z98" s="61"/>
+      <c r="AA98" s="61"/>
+      <c r="AB98" s="61"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V99" s="11"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B100" s="55" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -5758,31 +5828,31 @@
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I101" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H101" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I101" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="J101" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="52"/>
-      <c r="B102" s="8" t="s">
-        <v>165</v>
+      <c r="J101" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" s="50"/>
+      <c r="B102" s="75" t="s">
+        <v>122</v>
       </c>
       <c r="C102" s="2">
         <f>AVERAGE(E102,F102,G102)</f>
@@ -5802,15 +5872,15 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
-        <v>166</v>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B103" s="75" t="s">
+        <v>337</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>48</v>
@@ -5825,15 +5895,15 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B104" s="14" t="s">
-        <v>167</v>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B104" s="76" t="s">
+        <v>338</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2">
         <v>-1000</v>
@@ -5849,12 +5919,12 @@
       <c r="J104" s="2"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="K105" s="11"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -5863,25 +5933,25 @@
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="J107" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>44</v>
@@ -5889,22 +5959,22 @@
       <c r="L107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M107" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="N107" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="O107" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="P107" s="61" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M107" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="N107" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="O107" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="P107" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="C108" s="2">
         <f>K108/L108</f>
@@ -5940,17 +6010,17 @@
       <c r="M108" s="2">
         <v>483.33</v>
       </c>
-      <c r="N108" s="53">
+      <c r="N108" s="51">
         <v>1200</v>
       </c>
       <c r="O108" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="P108" s="58"/>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P108" s="56"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2">
         <f>K109/L109</f>
@@ -5986,23 +6056,23 @@
       <c r="M109" s="2">
         <v>375</v>
       </c>
-      <c r="N109" s="53">
+      <c r="N109" s="51">
         <v>1000</v>
       </c>
       <c r="O109" s="2">
         <v>0.375</v>
       </c>
-      <c r="P109" s="58"/>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P109" s="56"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>48</v>
@@ -6029,27 +6099,27 @@
         <v>48</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P110" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P110" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C111" s="32">
         <v>999999</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E111" s="18">
         <v>500</v>
@@ -6083,22 +6153,22 @@
       <c r="N111" s="18">
         <v>0</v>
       </c>
-      <c r="O111" s="53">
+      <c r="O111" s="51">
         <v>9999999</v>
       </c>
-      <c r="P111" s="60" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P111" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C112" s="27">
         <v>1000000</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E112" s="2">
         <v>250</v>
@@ -6132,22 +6202,22 @@
       <c r="N112" s="2">
         <v>0</v>
       </c>
-      <c r="O112" s="53">
+      <c r="O112" s="51">
         <v>1000000</v>
       </c>
-      <c r="P112" s="58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P112" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E113" s="2">
         <v>100</v>
@@ -6178,24 +6248,24 @@
         <v>200</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P113" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P113" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>48</v>
@@ -6223,27 +6293,27 @@
         <v>2500</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N114" s="53">
+        <v>208</v>
+      </c>
+      <c r="N114" s="51">
         <v>2500</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P114" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P114" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2">
         <v>500</v>
@@ -6274,25 +6344,25 @@
       <c r="M115" s="2">
         <v>-100</v>
       </c>
-      <c r="N115" s="53">
+      <c r="N115" s="51">
         <v>1300</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P115" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P115" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2">
         <v>500</v>
@@ -6327,21 +6397,21 @@
         <v>0</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P116" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P116" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2">
         <v>500</v>
@@ -6376,21 +6446,21 @@
         <v>-800</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P117" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P117" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E118" s="2">
         <v>250</v>
@@ -6421,25 +6491,25 @@
       <c r="M118" s="2">
         <v>350</v>
       </c>
-      <c r="N118" s="53">
+      <c r="N118" s="51">
         <v>-1200</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P118" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P118" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E119" s="18">
         <v>0</v>
@@ -6470,25 +6540,25 @@
       <c r="M119" s="2">
         <v>0</v>
       </c>
-      <c r="N119" s="53">
+      <c r="N119" s="51">
         <v>-1000</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P119" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B120" s="14" t="s">
-        <v>276</v>
+        <v>208</v>
+      </c>
+      <c r="P119" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E120" s="2">
         <v>-200</v>
@@ -6523,15 +6593,15 @@
         <v>-700</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P120" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="P120" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -6540,25 +6610,25 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="H123" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>44</v>
@@ -6566,22 +6636,22 @@
       <c r="L123" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M123" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="N123" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="O123" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="P123" s="61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
-        <v>294</v>
+      <c r="M123" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="N123" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="O123" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="P123" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B124" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C124" s="2">
         <f>K124/L124</f>
@@ -6623,11 +6693,11 @@
       <c r="O124" s="2">
         <v>0.3947</v>
       </c>
-      <c r="P124" s="58"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>295</v>
+      <c r="P124" s="56"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="C125" s="2">
         <f>K125/L125</f>
@@ -6669,17 +6739,17 @@
       <c r="O125" s="2">
         <v>0.2</v>
       </c>
-      <c r="P125" s="58"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P125" s="56"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>48</v>
@@ -6706,27 +6776,27 @@
         <v>48</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P126" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P126" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C127" s="26">
         <v>999999</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E127" s="2">
         <v>-500</v>
@@ -6760,22 +6830,22 @@
       <c r="N127" s="2">
         <v>0</v>
       </c>
-      <c r="O127" s="53">
+      <c r="O127" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P127" s="58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P127" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C128" s="26">
         <v>1000000</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E128" s="18">
         <v>200</v>
@@ -6809,22 +6879,22 @@
       <c r="N128" s="18">
         <v>0</v>
       </c>
-      <c r="O128" s="53">
+      <c r="O128" s="51">
         <v>1000000</v>
       </c>
-      <c r="P128" s="60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P128" s="58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2">
         <v>350</v>
@@ -6855,24 +6925,24 @@
         <v>300</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O129" s="53">
+        <v>208</v>
+      </c>
+      <c r="O129" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P129" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P129" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>48</v>
@@ -6900,27 +6970,27 @@
         <v>416.66666666666669</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N130" s="2">
         <v>416.67</v>
       </c>
-      <c r="O130" s="53">
+      <c r="O130" s="51">
         <v>9999999</v>
       </c>
-      <c r="P130" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P130" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2">
         <v>250</v>
@@ -6957,19 +7027,19 @@
       <c r="O131" s="2">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P131" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P131" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2">
         <v>250</v>
@@ -7003,22 +7073,22 @@
       <c r="N132" s="2">
         <v>0</v>
       </c>
-      <c r="O132" s="53">
+      <c r="O132" s="51">
         <v>1000000</v>
       </c>
-      <c r="P132" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P132" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2">
         <v>250</v>
@@ -7055,19 +7125,19 @@
       <c r="O133" s="2">
         <v>6.9988000000000001</v>
       </c>
-      <c r="P133" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P133" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E134" s="2">
         <v>150</v>
@@ -7104,19 +7174,19 @@
       <c r="O134" s="2">
         <v>-1.125</v>
       </c>
-      <c r="P134" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P134" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E135" s="2">
         <v>-200</v>
@@ -7153,19 +7223,19 @@
       <c r="O135" s="2">
         <v>0</v>
       </c>
-      <c r="P135" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P135" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E136" s="2">
         <v>450</v>
@@ -7202,13 +7272,13 @@
       <c r="O136" s="2">
         <v>0.625</v>
       </c>
-      <c r="P136" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P136" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1</v>
@@ -7217,25 +7287,25 @@
         <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="H139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>44</v>
@@ -7243,23 +7313,23 @@
       <c r="L139" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M139" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="N139" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="O139" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="P139" s="61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M139" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="N139" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="O139" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="P139" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="8" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C140" s="2">
         <f>K140/L140</f>
@@ -7295,17 +7365,17 @@
       <c r="M140" s="2">
         <v>416.67</v>
       </c>
-      <c r="N140" s="53">
+      <c r="N140" s="51">
         <v>1000</v>
       </c>
       <c r="O140" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P140" s="58"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P140" s="56"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C141" s="2">
         <f>K141/L141</f>
@@ -7341,23 +7411,23 @@
       <c r="M141" s="2">
         <v>300</v>
       </c>
-      <c r="N141" s="53">
+      <c r="N141" s="51">
         <v>1300</v>
       </c>
       <c r="O141" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="P141" s="58"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P141" s="56"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>48</v>
@@ -7384,27 +7454,27 @@
         <v>48</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N142" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P142" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P142" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C143" s="26">
         <v>999999</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E143" s="2">
         <v>-200</v>
@@ -7438,22 +7508,22 @@
       <c r="N143" s="2">
         <v>0</v>
       </c>
-      <c r="O143" s="53">
+      <c r="O143" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P143" s="58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P143" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C144" s="26">
         <v>1000000</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E144" s="2">
         <v>200</v>
@@ -7487,22 +7557,22 @@
       <c r="N144" s="2">
         <v>0</v>
       </c>
-      <c r="O144" s="53">
+      <c r="O144" s="51">
         <v>1000000</v>
       </c>
-      <c r="P144" s="58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P144" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2">
         <v>300</v>
@@ -7533,24 +7603,24 @@
         <v>300</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O145" s="53">
+        <v>208</v>
+      </c>
+      <c r="O145" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P145" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P145" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>48</v>
@@ -7578,27 +7648,27 @@
         <v>1500</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N146" s="53">
+        <v>208</v>
+      </c>
+      <c r="N146" s="51">
         <v>1500</v>
       </c>
-      <c r="O146" s="53">
+      <c r="O146" s="51">
         <v>9999999</v>
       </c>
-      <c r="P146" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P146" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2">
         <v>200</v>
@@ -7635,19 +7705,19 @@
       <c r="O147" s="2">
         <v>-4.7600000000000003E-2</v>
       </c>
-      <c r="P147" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P147" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2">
         <v>200</v>
@@ -7681,22 +7751,22 @@
       <c r="N148" s="2">
         <v>0</v>
       </c>
-      <c r="O148" s="53">
+      <c r="O148" s="51">
         <v>1000000</v>
       </c>
-      <c r="P148" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P148" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2">
         <v>200</v>
@@ -7733,19 +7803,19 @@
       <c r="O149" s="2">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="P149" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P149" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E150" s="2">
         <v>100</v>
@@ -7782,19 +7852,19 @@
       <c r="O150" s="2">
         <v>-0.2</v>
       </c>
-      <c r="P150" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P150" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E151" s="2">
         <v>-300</v>
@@ -7831,19 +7901,19 @@
       <c r="O151" s="2">
         <v>0</v>
       </c>
-      <c r="P151" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P151" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E152" s="2">
         <v>200</v>
@@ -7880,13 +7950,13 @@
       <c r="O152" s="2">
         <v>0.8</v>
       </c>
-      <c r="P152" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P152" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>1</v>
@@ -7895,25 +7965,25 @@
         <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H155" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I155" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="J155" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>44</v>
@@ -7921,23 +7991,23 @@
       <c r="L155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M155" s="50" t="s">
-        <v>339</v>
-      </c>
-      <c r="N155" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="O155" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="P155" s="61" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M155" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="N155" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O155" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="P155" s="59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="17"/>
       <c r="B156" s="8" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C156" s="2">
         <f>K156/L156</f>
@@ -7979,11 +8049,11 @@
       <c r="O156" s="2">
         <v>0.4</v>
       </c>
-      <c r="P156" s="58"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P156" s="56"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C157" s="2">
         <f>K157/L157</f>
@@ -8025,17 +8095,17 @@
       <c r="O157" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="P157" s="58"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P157" s="56"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>48</v>
@@ -8062,27 +8132,27 @@
         <v>48</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N158" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P158" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="P158" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C159" s="26">
         <v>999999</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E159" s="2">
         <v>700</v>
@@ -8116,22 +8186,22 @@
       <c r="N159" s="2">
         <v>0</v>
       </c>
-      <c r="O159" s="53">
+      <c r="O159" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P159" s="58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P159" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C160" s="27">
         <v>1000000</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E160" s="2">
         <v>500</v>
@@ -8165,22 +8235,22 @@
       <c r="N160" s="2">
         <v>0</v>
       </c>
-      <c r="O160" s="53">
+      <c r="O160" s="51">
         <v>1000000</v>
       </c>
-      <c r="P160" s="58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P160" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E161" s="2">
         <v>100</v>
@@ -8211,24 +8281,24 @@
         <v>366.67</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O161" s="53">
+        <v>208</v>
+      </c>
+      <c r="O161" s="51">
         <v>-1000000</v>
       </c>
-      <c r="P161" s="58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P161" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>48</v>
@@ -8256,27 +8326,27 @@
         <v>766.66666666666663</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N162" s="2">
         <v>766.67</v>
       </c>
-      <c r="O162" s="53">
+      <c r="O162" s="51">
         <v>9999999</v>
       </c>
-      <c r="P162" s="58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P162" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E163" s="2">
         <v>300</v>
@@ -8313,19 +8383,19 @@
       <c r="O163" s="2">
         <v>-0.4</v>
       </c>
-      <c r="P163" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P163" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E164" s="2">
         <v>-200</v>
@@ -8359,22 +8429,22 @@
       <c r="N164" s="2">
         <v>0</v>
       </c>
-      <c r="O164" s="53">
+      <c r="O164" s="51">
         <v>1000000</v>
       </c>
-      <c r="P164" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B165" s="35" t="s">
-        <v>318</v>
+      <c r="P164" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E165" s="2">
         <v>800</v>
@@ -8411,19 +8481,19 @@
       <c r="O165" s="2">
         <v>0.66669999999999996</v>
       </c>
-      <c r="P165" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="35" t="s">
-        <v>319</v>
+      <c r="P165" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B166" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E166" s="2">
         <v>200</v>
@@ -8460,19 +8530,19 @@
       <c r="O166" s="2">
         <v>-2.9998999999999998</v>
       </c>
-      <c r="P166" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B167" s="35" t="s">
-        <v>320</v>
+      <c r="P166" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2">
         <v>400</v>
@@ -8509,19 +8579,19 @@
       <c r="O167" s="2">
         <v>0</v>
       </c>
-      <c r="P167" s="58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B168" s="35" t="s">
-        <v>321</v>
+      <c r="P167" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2">
         <v>200</v>
@@ -8558,16 +8628,16 @@
       <c r="O168" s="2">
         <v>1.3333999999999999</v>
       </c>
-      <c r="P168" s="58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B170" s="56"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P168" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B170" s="54"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="36" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -8576,39 +8646,37 @@
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H171" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="I171" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="J171" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H171" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="I171" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="J171" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="37"/>
-      <c r="B172" s="35" t="s">
-        <v>322</v>
+      <c r="B172" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C172" s="2">
         <f>COUNT(E172,F172,G172)</f>
         <v>3</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D172" s="9"/>
       <c r="E172" s="2">
         <v>1000</v>
       </c>
@@ -8624,18 +8692,16 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="38"/>
       <c r="B173" s="35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C173" s="2">
         <f>COUNT(E173,F173,G173)</f>
         <v>2</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D173" s="9"/>
       <c r="E173" s="2">
         <v>2000</v>
       </c>
@@ -8651,18 +8717,16 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="38"/>
       <c r="B174" s="35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C174" s="2">
         <f>COUNT(E174,F174,G174)</f>
         <v>1</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="D174" s="9"/>
       <c r="E174" s="2" t="s">
         <v>48</v>
       </c>
@@ -8678,16 +8742,16 @@
       <c r="I174" s="34"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="38"/>
       <c r="B175" s="35" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C175" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>48</v>
@@ -8704,15 +8768,15 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -8721,109 +8785,109 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H178" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="I178" s="50" t="s">
-        <v>185</v>
+      <c r="H178" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I178" s="48" t="s">
+        <v>181</v>
       </c>
       <c r="O178"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="37"/>
-      <c r="B179" s="8" t="s">
-        <v>326</v>
+      <c r="B179" s="75" t="s">
+        <v>320</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
       </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
+      <c r="D179" s="9"/>
       <c r="E179" s="2">
         <v>0</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
       </c>
-      <c r="G179" s="9"/>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
       <c r="H179" s="2">
         <v>1</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O179"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="38"/>
-      <c r="B180" s="35" t="s">
-        <v>327</v>
+      <c r="B180" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="C180" s="2">
         <v>1</v>
       </c>
-      <c r="D180" s="2">
-        <v>1000</v>
-      </c>
+      <c r="D180" s="9"/>
       <c r="E180" s="2">
         <v>1000</v>
       </c>
       <c r="F180" s="2">
         <v>1000</v>
       </c>
-      <c r="G180" s="9"/>
+      <c r="G180" s="2">
+        <v>1000</v>
+      </c>
       <c r="H180" s="2">
         <v>1</v>
       </c>
       <c r="I180" s="2"/>
       <c r="O180"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="38"/>
       <c r="B181" s="35" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C181" s="2">
         <v>1</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2">
         <v>1000</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H181" s="2">
         <v>1</v>
       </c>
       <c r="I181" s="2"/>
       <c r="O181"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="38"/>
       <c r="B182" s="35" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C182" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>48</v>
+      <c r="D182" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>48</v>
@@ -8831,45 +8895,51 @@
       <c r="F182" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G182" s="20" t="s">
-        <v>153</v>
+      <c r="G182" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O182"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B183" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C183" s="26">
-        <v>0</v>
-      </c>
-      <c r="D183" s="18">
+    <row r="183" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="81" t="s">
+        <v>323</v>
+      </c>
+      <c r="C183" s="70">
+        <v>0</v>
+      </c>
+      <c r="D183" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="66">
         <v>-1000</v>
       </c>
-      <c r="E183" s="18">
+      <c r="F183" s="66">
         <v>-100</v>
       </c>
-      <c r="F183" s="18">
+      <c r="G183" s="66">
         <v>2000</v>
       </c>
-      <c r="G183" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H183" s="2">
+      <c r="H183" s="65">
         <v>1</v>
       </c>
-      <c r="I183" s="2"/>
-      <c r="O183"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I183" s="65"/>
+      <c r="J183" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="K183" s="74"/>
+      <c r="L183" s="72"/>
+      <c r="M183" s="72"/>
+      <c r="N183" s="72"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -8878,34 +8948,34 @@
         <v>2</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I186" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J186" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I186" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="J186" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="K186" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K186" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="37"/>
-      <c r="B187" s="8" t="s">
-        <v>331</v>
+      <c r="B187" s="75" t="s">
+        <v>324</v>
       </c>
       <c r="C187" s="2">
         <f>H187</f>
@@ -8932,10 +9002,10 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="B188" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C188" s="2">
         <f>H188</f>
@@ -8962,10 +9032,10 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
       <c r="B189" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
@@ -8977,18 +9047,18 @@
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J189" s="2"/>
       <c r="K189" s="7"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E190" s="42"/>
       <c r="K190" s="42"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>1</v>
@@ -8997,36 +9067,36 @@
         <v>2</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="F192" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J192" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J192" s="50" t="s">
+      <c r="K192" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="L192" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="K192" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="L192" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C193" s="2">
         <f>E193</f>
@@ -9055,9 +9125,9 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C194" s="2">
         <f>E194</f>
@@ -9086,9 +9156,9 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C195" s="2">
         <f>E195</f>
@@ -9117,122 +9187,123 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" s="78" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C196" s="18">
-        <v>1</v>
-      </c>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G196" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H196" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="I196" s="43">
-        <v>1</v>
-      </c>
-      <c r="J196" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C196" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-    </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B197" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C197" s="2" t="s">
+      <c r="D196" s="79"/>
+      <c r="E196" s="79"/>
+      <c r="F196" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G196" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H196" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I196" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="J196" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H197" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I197" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-    </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K196" s="79"/>
+      <c r="L196" s="79"/>
+      <c r="M196" s="77"/>
+      <c r="N196" s="77"/>
+      <c r="O196" s="77"/>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B197" s="41"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="80"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="80"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="42"/>
+      <c r="K197" s="42"/>
+      <c r="L197" s="42"/>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D200" s="12"/>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D201" s="12"/>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D202" s="12"/>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D203" s="12"/>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D204" s="12"/>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D205" s="12"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J216" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Y95:AB98"/>
+  <mergeCells count="4">
+    <mergeCell ref="Y96:AB98"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="J183:K183"/>
   </mergeCells>
-  <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B144:B148">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="B145:B149">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B160:B164">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  <conditionalFormatting sqref="B161:B165">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B183">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <conditionalFormatting sqref="B179">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B188">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B181:B183">
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180 B173:B175">
+    <cfRule type="duplicateValues" dxfId="7" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:B136 B140 B142:B143">
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B141">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B166:B168 B172">
+    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150:B152 B156 B158:B159">
+    <cfRule type="duplicateValues" dxfId="3" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B157">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B189 B193:B197">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B187">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B165:B168">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180:B182">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140:B142 B133:B136">
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:B158 B149:B152">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179 B172:B175">
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B188:B189 B193:B197">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9244,25 +9315,25 @@
   <dimension ref="A5:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -9296,7 +9367,7 @@
       <c r="K5" s="25"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
@@ -9323,7 +9394,7 @@
       <c r="K6" s="39"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
@@ -9350,7 +9421,7 @@
       <c r="K7" s="39"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
@@ -9377,7 +9448,7 @@
       <c r="K8" s="39"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>120</v>
       </c>
@@ -9405,9 +9476,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -9426,9 +9497,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>113</v>
+        <v>334</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -9447,9 +9518,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -9458,41 +9529,41 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -9526,9 +9597,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -9562,9 +9633,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>

--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="333">
   <si>
     <t>IND_50</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>k.o</t>
+  </si>
+  <si>
+    <t>NUM_IND_61</t>
+  </si>
+  <si>
+    <t>DEN_IND_61</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1075,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,9 +1278,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1329,9 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,25 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1413,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="J41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1950,8 @@
     <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1938,13 +1976,13 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="42" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1995,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2">
@@ -2012,7 +2050,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="39"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2030,13 +2068,13 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="42" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2104,7 +2142,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2128,13 +2166,13 @@
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="42" t="s">
         <v>195</v>
       </c>
       <c r="K15" s="12"/>
@@ -2254,7 +2292,7 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2279,10 +2317,10 @@
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D21" s="39"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="47"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2321,18 +2359,18 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="44" t="s">
+      <c r="N23" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
@@ -2370,10 +2408,10 @@
       <c r="M24" s="5">
         <v>1</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
@@ -2413,7 +2451,7 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="18"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
@@ -2452,7 +2490,7 @@
       <c r="M26" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2493,10 +2531,10 @@
         <f>J27/K27</f>
         <v>-1.3125</v>
       </c>
-      <c r="M27" s="18">
-        <v>0</v>
-      </c>
-      <c r="N27" s="79" t="s">
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="71" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2504,12 +2542,12 @@
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="41" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2551,32 +2589,35 @@
       <c r="N30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q30" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="P30" s="44" t="s">
+      <c r="R30" s="52" t="s">
         <v>63</v>
-      </c>
-      <c r="Q30" s="44" t="s">
-        <v>195</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="22"/>
+      <c r="V30" s="21"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="77">
         <f>L31/M31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="78" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="2">
@@ -2609,23 +2650,24 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="22"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="77">
         <f>L32/M32</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="77" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="2">
@@ -2655,26 +2697,27 @@
         <v>866.66666666666663</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="51"/>
+      <c r="O32" s="49"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="77">
         <f>L33/M33</f>
         <v>0.80000000000000016</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="78" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="2">
@@ -2704,25 +2747,26 @@
         <v>333.33333333333331</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="51"/>
+      <c r="O33" s="49"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2750,25 +2794,26 @@
         <v>48</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
       <c r="Q34" s="2"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="80">
         <v>-1000000</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="78" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="2">
@@ -2798,26 +2843,27 @@
         <v>0</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="51"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="49"/>
       <c r="Q35" s="7"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>68</v>
+      <c r="D36" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>65</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>48</v>
@@ -2837,74 +2883,76 @@
       <c r="K36" s="2">
         <v>-2500</v>
       </c>
-      <c r="L36" s="2">
-        <f>AVERAGE(-I36,-J36,-K36)</f>
-        <v>933.33333333333337</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>48</v>
+      <c r="L36" s="2" t="e">
+        <f>AVERAGE((F36-I36),(G36-J36),(H36-K36))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="2" t="e">
+        <f>AVERAGE(F36,G36,H36)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
       <c r="Q36" s="2"/>
+      <c r="R36" s="49"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="D37" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <v>400</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <v>300</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <v>700</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>48</v>
+      <c r="I37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="2" t="e">
+        <f t="shared" ref="L37:L48" si="0">AVERAGE((F37-I37),(G37-J37),(H37-K37))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" ref="M37:M46" si="0">AVERAGE(F37,G37,H37)</f>
+        <f t="shared" ref="M37:M48" si="1">AVERAGE(F37,G37,H37)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
       <c r="Q37" s="2"/>
+      <c r="R37" s="49"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C38" s="43">
+        <v>0</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="64"/>
       <c r="F38" s="2">
         <v>500</v>
       </c>
@@ -2924,29 +2972,36 @@
         <v>900</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" ref="L38:L46" si="1">AVERAGE((F38-I38),(G38-J38),(H38-K38))</f>
+        <f t="shared" si="0"/>
         <v>-333.33333333333331</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>466.66666666666669</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="2"/>
+      <c r="O38" s="82">
+        <v>0</v>
+      </c>
+      <c r="P38" s="82">
+        <v>466</v>
+      </c>
+      <c r="Q38" s="43">
+        <v>0</v>
+      </c>
+      <c r="R38" s="82"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="64" t="s">
         <v>71</v>
       </c>
       <c r="F39" s="2">
@@ -2968,29 +3023,38 @@
         <v>900</v>
       </c>
       <c r="L39" s="2">
+        <f t="shared" si="0"/>
+        <v>-800</v>
+      </c>
+      <c r="M39" s="2">
         <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="O39" s="43">
+        <v>0</v>
+      </c>
+      <c r="P39" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="83">
+        <v>-1000000</v>
+      </c>
+      <c r="R39" s="81" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="64" t="s">
         <v>71</v>
       </c>
       <c r="F40" s="2">
@@ -3012,29 +3076,38 @@
         <v>900</v>
       </c>
       <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>-833.33333333333337</v>
+      </c>
+      <c r="M40" s="2">
         <f t="shared" si="1"/>
-        <v>-833.33333333333337</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="7"/>
+      <c r="O40" s="82">
+        <v>0</v>
+      </c>
+      <c r="P40" s="82">
+        <v>-33</v>
+      </c>
+      <c r="Q40" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="R40" s="82" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="78" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="2">
@@ -3056,29 +3129,30 @@
         <v>50</v>
       </c>
       <c r="L41" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
+      <c r="R41" s="49"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="78" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="2">
@@ -3099,30 +3173,39 @@
       <c r="K42" s="2">
         <v>1000</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="43">
+        <f t="shared" si="0"/>
+        <v>-800</v>
+      </c>
+      <c r="M42" s="43">
         <f t="shared" si="1"/>
-        <v>-800</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="O42" s="43">
+        <v>0</v>
+      </c>
+      <c r="P42" s="43">
+        <v>-33</v>
+      </c>
+      <c r="Q42" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="R42" s="81" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="78" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="2">
@@ -3144,29 +3227,30 @@
         <v>100</v>
       </c>
       <c r="L43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="0"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
+      <c r="R43" s="49"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="78" t="s">
         <v>79</v>
       </c>
       <c r="F44" s="2">
@@ -3187,31 +3271,40 @@
       <c r="K44" s="2">
         <v>900</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="43">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="M44" s="43">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="O44" s="43">
+        <v>433</v>
+      </c>
+      <c r="P44" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="83">
+        <v>1000000</v>
+      </c>
+      <c r="R44" s="81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="85">
         <f>N45</f>
         <v>999999</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="86" t="s">
         <v>205</v>
       </c>
       <c r="F45" s="7">
@@ -3232,12 +3325,12 @@
       <c r="K45" s="7">
         <v>100</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="N45" s="7">
@@ -3245,21 +3338,21 @@
         <v>999999</v>
       </c>
       <c r="O45" s="14"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="17"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="51"/>
+    </row>
+    <row r="46" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="19" t="str">
-        <f t="shared" ref="C46:C48" si="2">N46</f>
-        <v/>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="85">
+        <v>0</v>
+      </c>
+      <c r="D46" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="78" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="2">
@@ -3281,122 +3374,123 @@
         <v>100</v>
       </c>
       <c r="L46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+        <v>300</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" ref="N46:N48" si="2">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="51"/>
+    </row>
+    <row r="47" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="85">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="2">
+        <v>700</v>
+      </c>
+      <c r="H47" s="2">
+        <v>900</v>
+      </c>
+      <c r="I47" s="2">
+        <v>800</v>
+      </c>
+      <c r="J47" s="2">
+        <v>300</v>
+      </c>
+      <c r="K47" s="2">
+        <v>600</v>
+      </c>
+      <c r="L47" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="N46" s="7" t="str">
-        <f t="shared" ref="N46:N48" si="3">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
-        <v/>
-      </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="19" t="str">
+      <c r="M47" s="2">
+        <f t="shared" si="1"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="N47" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G47" s="2">
-        <v>700</v>
-      </c>
-      <c r="H47" s="2">
-        <v>900</v>
-      </c>
-      <c r="I47" s="2">
-        <v>800</v>
-      </c>
-      <c r="J47" s="2">
-        <v>300</v>
-      </c>
-      <c r="K47" s="2">
-        <v>600</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" ref="L47:L48" si="4">AVERAGE((F47-I47),(G47-J47),(H47-K47))</f>
-        <v>300</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" ref="M47:M48" si="5">AVERAGE(F47,G47,H47)</f>
-        <v>866.66666666666663</v>
-      </c>
-      <c r="N47" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="O47" s="14"/>
-      <c r="P47" s="18"/>
+      <c r="P47" s="17"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="51"/>
+    </row>
+    <row r="48" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="14" t="str">
+      <c r="C48" s="80">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="2">
+        <v>700</v>
+      </c>
+      <c r="H48" s="2">
+        <v>900</v>
+      </c>
+      <c r="I48" s="2">
+        <v>800</v>
+      </c>
+      <c r="J48" s="2">
+        <v>300</v>
+      </c>
+      <c r="K48" s="2">
+        <v>600</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="1"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="N48" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="2">
-        <v>700</v>
-      </c>
-      <c r="H48" s="2">
-        <v>900</v>
-      </c>
-      <c r="I48" s="2">
-        <v>800</v>
-      </c>
-      <c r="J48" s="2">
-        <v>300</v>
-      </c>
-      <c r="K48" s="2">
-        <v>600</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="5"/>
-        <v>866.66666666666663</v>
-      </c>
-      <c r="N48" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
       <c r="O48" s="14"/>
-      <c r="P48" s="18"/>
+      <c r="P48" s="17"/>
       <c r="Q48" s="2"/>
+      <c r="R48" s="51"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
+      <c r="B50" s="47"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -3444,29 +3538,29 @@
       <c r="O51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P51" s="44" t="s">
+      <c r="P51" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="Q51" s="44" t="s">
+      <c r="Q51" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="R51" s="44" t="s">
+      <c r="R51" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="S51" s="54" t="s">
+      <c r="S51" s="52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="16"/>
+      <c r="B52" s="18" t="s">
         <v>222</v>
       </c>
       <c r="C52" s="2">
         <f>K52/L52</f>
         <v>0</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="2">
         <v>2500</v>
       </c>
@@ -3508,18 +3602,18 @@
       <c r="P52" s="2">
         <v>0</v>
       </c>
-      <c r="Q52" s="47">
+      <c r="Q52" s="45">
         <v>1600</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
-      <c r="S52" s="51"/>
-      <c r="T52" s="67" t="s">
+      <c r="S52" s="49"/>
+      <c r="T52" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
@@ -3529,7 +3623,7 @@
         <f>K53/L53</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="2">
         <v>1000</v>
       </c>
@@ -3557,7 +3651,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M60" si="6">IF((H53-E53)&lt;0,0,(H53-E53))</f>
+        <f t="shared" ref="M53:M60" si="3">IF((H53-E53)&lt;0,0,(H53-E53))</f>
         <v>500</v>
       </c>
       <c r="N53" s="2">
@@ -3565,7 +3659,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" ref="O53:O60" si="7">IF((J53-G53)&lt;0,0,(J53-G53))</f>
+        <f t="shared" ref="O53:O60" si="4">IF((J53-G53)&lt;0,0,(J53-G53))</f>
         <v>400</v>
       </c>
       <c r="P53" s="2">
@@ -3577,16 +3671,16 @@
       <c r="R53" s="2">
         <v>0.4</v>
       </c>
-      <c r="S53" s="51"/>
+      <c r="S53" s="49"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="49" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -3629,7 +3723,7 @@
       <c r="R54" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S54" s="51" t="s">
+      <c r="S54" s="49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3637,19 +3731,19 @@
       <c r="B55" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="18">
-        <v>0</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="17">
+        <v>0</v>
+      </c>
+      <c r="D55" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="17">
         <v>1000</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="17">
         <v>-600</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="17">
         <v>-400</v>
       </c>
       <c r="H55" s="5">
@@ -3661,12 +3755,12 @@
       <c r="J55" s="5">
         <v>-500</v>
       </c>
-      <c r="K55" s="18">
-        <f t="shared" ref="K55:K56" si="8">AVERAGE(M55,N55,O55)</f>
+      <c r="K55" s="17">
+        <f t="shared" ref="K55:K56" si="5">AVERAGE(M55,N55,O55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ref="L55:L56" si="9">AVERAGE(E55,F55,G55)</f>
+        <f t="shared" ref="L55:L56" si="6">AVERAGE(E55,F55,G55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2">
@@ -3674,23 +3768,23 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" ref="N55" si="10">IF((I55-F55)&lt;0,0,(I55-F55))</f>
+        <f t="shared" ref="N55" si="7">IF((I55-F55)&lt;0,0,(I55-F55))</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17">
         <v>0</v>
       </c>
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="51" t="s">
+      <c r="S55" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3698,10 +3792,10 @@
       <c r="B56" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>1000000</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="49" t="s">
         <v>96</v>
       </c>
       <c r="E56" s="2">
@@ -3722,37 +3816,37 @@
       <c r="J56" s="2">
         <v>900</v>
       </c>
-      <c r="K56" s="18">
-        <f t="shared" si="8"/>
+      <c r="K56" s="17">
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="L56" s="18">
-        <f t="shared" si="9"/>
+      <c r="L56" s="17">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1300</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" ref="N56:N60" si="11">IF((I56-F56)&lt;0,0,(I56-F56))</f>
+        <f t="shared" ref="N56:N60" si="8">IF((I56-F56)&lt;0,0,(I56-F56))</f>
         <v>400</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="P56" s="47">
+      <c r="P56" s="45">
         <v>800</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
       </c>
-      <c r="R56" s="47">
+      <c r="R56" s="45">
         <v>1000000</v>
       </c>
-      <c r="S56" s="51" t="s">
-        <v>79</v>
+      <c r="S56" s="49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -3762,16 +3856,16 @@
       <c r="C57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="D57" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H57" s="7">
@@ -3808,36 +3902,36 @@
       <c r="R57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S57" s="51" t="s">
+      <c r="S57" s="49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="17">
         <v>400</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="17">
         <v>300</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="17">
         <v>700</v>
       </c>
-      <c r="H58" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J58" s="18" t="s">
+      <c r="H58" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="17" t="s">
         <v>48</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -3865,80 +3959,80 @@
       <c r="R58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S58" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="17">
         <v>-500</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="17">
         <v>300</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="17">
         <v>100</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="17">
         <v>600</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="17">
         <v>-700</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="17">
         <v>-1000</v>
       </c>
-      <c r="K59" s="18">
+      <c r="K59" s="17">
         <f>AVERAGE((H59-E59),(I59-F59),(J59-G59))</f>
         <v>-333.33333333333331</v>
       </c>
-      <c r="L59" s="18">
-        <f t="shared" ref="L59:L60" si="12">AVERAGE(E59,F59,G59)</f>
+      <c r="L59" s="17">
+        <f t="shared" ref="L59:L60" si="9">AVERAGE(E59,F59,G59)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="17">
         <v>366.67</v>
       </c>
-      <c r="Q59" s="18">
+      <c r="Q59" s="17">
         <v>-33.33</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S59" s="53" t="s">
+      <c r="S59" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+    <row r="60" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
       <c r="B60" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="2">
@@ -3959,24 +4053,24 @@
       <c r="J60" s="2">
         <v>100</v>
       </c>
-      <c r="K60" s="18">
-        <f t="shared" ref="K60" si="13">AVERAGE((H60-E60),(I60-F60),(J60-G60))</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="18">
-        <f t="shared" si="12"/>
+      <c r="K60" s="17">
+        <f t="shared" ref="K60" si="10">AVERAGE((H60-E60),(I60-F60),(J60-G60))</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
+        <f t="shared" si="9"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P60" s="2">
@@ -3988,15 +4082,15 @@
       <c r="R60" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="S60" s="51" t="s">
+      <c r="S60" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="R61" s="40"/>
+      <c r="R61" s="39"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="49"/>
+      <c r="B62" s="47"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -4044,29 +4138,29 @@
       <c r="O63" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P63" s="44" t="s">
+      <c r="P63" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="Q63" s="44" t="s">
+      <c r="Q63" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="R63" s="44" t="s">
+      <c r="R63" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="S63" s="54" t="s">
+      <c r="S63" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="19" t="s">
+      <c r="A64" s="16"/>
+      <c r="B64" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C64" s="2">
         <f>K64/L64</f>
         <v>0</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="49"/>
       <c r="E64" s="2">
         <v>2500</v>
       </c>
@@ -4094,32 +4188,32 @@
         <v>1600</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" ref="M64:O65" si="14">IF((H64-E64)&lt;0,0,(H64-E64))</f>
+        <f t="shared" ref="M64:O65" si="11">IF((H64-E64)&lt;0,0,(H64-E64))</f>
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P64" s="2">
         <v>0</v>
       </c>
-      <c r="Q64" s="47">
+      <c r="Q64" s="45">
         <v>1600</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
       </c>
-      <c r="S64" s="51"/>
-      <c r="T64" s="67" t="s">
+      <c r="S64" s="49"/>
+      <c r="T64" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="U64" s="68"/>
-      <c r="V64" s="68"/>
+      <c r="U64" s="74"/>
+      <c r="V64" s="74"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
@@ -4129,7 +4223,7 @@
         <f>K65/L65</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D65" s="9"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="2">
         <v>1000</v>
       </c>
@@ -4157,15 +4251,15 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="P65" s="2">
@@ -4177,16 +4271,16 @@
       <c r="R65" s="2">
         <v>0.4</v>
       </c>
-      <c r="S65" s="51"/>
+      <c r="S65" s="49"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="49" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4231,7 +4325,7 @@
       <c r="R66" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S66" s="51" t="s">
+      <c r="S66" s="49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4239,19 +4333,19 @@
       <c r="B67" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="18">
-        <v>0</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="17">
+        <v>0</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>1000</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="17">
         <v>-600</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="17">
         <v>-400</v>
       </c>
       <c r="H67" s="5">
@@ -4272,18 +4366,18 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" ref="M67:M72" si="15">IF((H67-E67)&lt;0,0,(H67-E67))</f>
+        <f t="shared" ref="M67:M72" si="12">IF((H67-E67)&lt;0,0,(H67-E67))</f>
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" ref="N67:N72" si="16">IF((I67-F67)&lt;0,0,(I67-F67))</f>
+        <f t="shared" ref="N67:N72" si="13">IF((I67-F67)&lt;0,0,(I67-F67))</f>
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O72" si="17">IF((J67-G67)&lt;0,0,(J67-G67))</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="18">
+        <f t="shared" ref="O67:O72" si="14">IF((J67-G67)&lt;0,0,(J67-G67))</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="17">
         <v>0</v>
       </c>
       <c r="Q67" s="2">
@@ -4292,7 +4386,7 @@
       <c r="R67" s="7">
         <v>0</v>
       </c>
-      <c r="S67" s="51" t="s">
+      <c r="S67" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4300,10 +4394,10 @@
       <c r="B68" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="20">
         <v>1000000</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="49" t="s">
         <v>96</v>
       </c>
       <c r="E68" s="2">
@@ -4333,15 +4427,15 @@
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1300</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>700</v>
       </c>
       <c r="P68" s="2">
@@ -4350,11 +4444,11 @@
       <c r="Q68" s="2">
         <v>0</v>
       </c>
-      <c r="R68" s="47">
+      <c r="R68" s="45">
         <v>1000000</v>
       </c>
-      <c r="S68" s="51" t="s">
-        <v>79</v>
+      <c r="S68" s="49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -4364,16 +4458,16 @@
       <c r="C69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="D69" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H69" s="7">
@@ -4404,13 +4498,13 @@
       <c r="P69" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="Q69" s="18" t="s">
+      <c r="Q69" s="17" t="s">
         <v>207</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S69" s="51" t="s">
+      <c r="S69" s="49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4421,31 +4515,31 @@
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="17">
         <v>400</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="17">
         <v>300</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="17">
         <v>700</v>
       </c>
-      <c r="H70" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="18" t="s">
+      <c r="H70" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="17" t="s">
         <v>48</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L70" s="18">
+      <c r="L70" s="17">
         <f>AVERAGE(E70,F70,G70)</f>
         <v>466.66666666666669</v>
       </c>
@@ -4467,56 +4561,56 @@
       <c r="R70" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S70" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S70" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>-500</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="17">
         <v>300</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="17">
         <v>100</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="17">
         <v>600</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="17">
         <v>-700</v>
       </c>
-      <c r="J71" s="18">
+      <c r="J71" s="17">
         <v>-1000</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" ref="K71:K72" si="18">AVERAGE((E71-H71),(F71-I71),(G71-J71))</f>
+        <f t="shared" ref="K71:K72" si="15">AVERAGE((E71-H71),(F71-I71),(G71-J71))</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="L71" s="18">
-        <f t="shared" ref="L71:L72" si="19">AVERAGE(E71,F71,G71)</f>
+      <c r="L71" s="17">
+        <f t="shared" ref="L71:L72" si="16">AVERAGE(E71,F71,G71)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1100</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71" s="2">
@@ -4528,18 +4622,18 @@
       <c r="R71" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S71" s="51" t="s">
+      <c r="S71" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E72" s="2">
@@ -4561,23 +4655,23 @@
         <v>100</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="17">
+        <f t="shared" si="16"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P72" s="2">
@@ -4589,12 +4683,12 @@
       <c r="R72" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="S72" s="51" t="s">
+      <c r="S72" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
+      <c r="B74" s="47"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -4633,21 +4727,21 @@
       <c r="L75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M75" s="44" t="s">
+      <c r="M75" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="N75" s="44" t="s">
+      <c r="N75" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="O75" s="44" t="s">
+      <c r="O75" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="P75" s="54" t="s">
+      <c r="P75" s="52" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+    <row r="76" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
       <c r="B76" s="14" t="s">
         <v>231</v>
       </c>
@@ -4655,7 +4749,7 @@
         <f>K76/L76</f>
         <v>1.0529032258064519</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="2">
         <v>2500</v>
       </c>
@@ -4691,10 +4785,10 @@
       <c r="O76" s="2">
         <v>1.0528999999999999</v>
       </c>
-      <c r="P76" s="51"/>
-    </row>
-    <row r="77" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="P76" s="49"/>
+    </row>
+    <row r="77" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
       <c r="B77" s="14" t="s">
         <v>232</v>
       </c>
@@ -4702,7 +4796,7 @@
         <f>K77/L77</f>
         <v>0.88541666666666663</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="2">
         <v>800</v>
       </c>
@@ -4738,34 +4832,34 @@
       <c r="O77" s="2">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P77" s="51"/>
+      <c r="P77" s="49"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J78" s="18" t="s">
+      <c r="E78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="17" t="s">
         <v>48</v>
       </c>
       <c r="K78" s="2" t="s">
@@ -4774,7 +4868,7 @@
       <c r="L78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M78" s="18" t="s">
+      <c r="M78" s="17" t="s">
         <v>207</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -4783,7 +4877,7 @@
       <c r="O78" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P78" s="51" t="s">
+      <c r="P78" s="49" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4791,10 +4885,10 @@
       <c r="B79" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="21">
-        <v>0</v>
-      </c>
-      <c r="D79" s="20" t="s">
+      <c r="C79" s="20">
+        <v>0</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E79" s="2">
@@ -4820,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ref="L79:L83" si="20">AVERAGE(H79,I79,J79)/AVERAGE(E79,F79,G79)</f>
+        <f t="shared" ref="L79:L83" si="17">AVERAGE(H79,I79,J79)/AVERAGE(E79,F79,G79)</f>
         <v>0</v>
       </c>
       <c r="M79" s="2">
@@ -4832,7 +4926,7 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" s="51" t="s">
+      <c r="P79" s="49" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4843,32 +4937,32 @@
       <c r="C80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" s="18">
+      <c r="E80" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="17">
         <v>500</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="17">
         <v>400</v>
       </c>
-      <c r="H80" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" s="18">
+      <c r="H80" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="17">
         <v>300</v>
       </c>
-      <c r="J80" s="18">
+      <c r="J80" s="17">
         <v>100</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="M80" s="2" t="s">
@@ -4880,7 +4974,7 @@
       <c r="O80" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P80" s="51" t="s">
+      <c r="P80" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4891,32 +4985,32 @@
       <c r="C81" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="18">
+      <c r="E81" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="17">
         <v>500</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="17">
         <v>400</v>
       </c>
-      <c r="H81" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="18">
+      <c r="H81" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="17">
         <v>300</v>
       </c>
-      <c r="J81" s="27">
+      <c r="J81" s="26">
         <v>-300</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M81" s="2" t="s">
@@ -4928,7 +5022,7 @@
       <c r="O81" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P81" s="51" t="s">
+      <c r="P81" s="49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4940,14 +5034,14 @@
         <f>K82/L82</f>
         <v>1</v>
       </c>
-      <c r="D82" s="20"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="2">
         <v>800</v>
       </c>
-      <c r="F82" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G82" s="19" t="s">
+      <c r="F82" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H82" s="2">
@@ -4964,19 +5058,19 @@
         <v>0.625</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.625</v>
       </c>
       <c r="M82" s="2">
         <v>0.62</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N82" s="17">
         <v>0.625</v>
       </c>
       <c r="O82" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P82" s="51"/>
+      <c r="P82" s="49"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
@@ -5011,19 +5105,19 @@
         <v>0.875</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M83" s="2">
         <v>0.88</v>
       </c>
-      <c r="N83" s="47">
-        <v>0</v>
-      </c>
-      <c r="O83" s="47">
+      <c r="N83" s="45">
+        <v>0</v>
+      </c>
+      <c r="O83" s="45">
         <v>1000000</v>
       </c>
-      <c r="P83" s="51" t="s">
+      <c r="P83" s="49" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5085,27 +5179,27 @@
       <c r="S86" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T86" s="44" t="s">
+      <c r="T86" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="U86" s="44" t="s">
+      <c r="U86" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="V86" s="44" t="s">
+      <c r="V86" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="W86" s="44" t="s">
+      <c r="W86" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="X86" s="44" t="s">
+      <c r="X86" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="Y86" s="66" t="s">
+      <c r="Y86" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="Z86" s="66"/>
-      <c r="AA86" s="66"/>
-      <c r="AB86" s="66"/>
+      <c r="Z86" s="72"/>
+      <c r="AA86" s="72"/>
+      <c r="AB86" s="72"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
@@ -5115,7 +5209,7 @@
         <f>AVERAGE(SUM(E87,H87,K87,N87,Q87),SUM(F87,I87,L87,O87,R87),SUM(G87,J87,M87,P87,S87))</f>
         <v>3133.3333333333335</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="2">
         <v>1000</v>
       </c>
@@ -5152,32 +5246,32 @@
       <c r="P87" s="2">
         <v>600</v>
       </c>
-      <c r="Q87" s="25">
+      <c r="Q87" s="24">
         <v>500</v>
       </c>
-      <c r="R87" s="25">
+      <c r="R87" s="24">
         <v>400</v>
       </c>
-      <c r="S87" s="25">
+      <c r="S87" s="24">
         <v>300</v>
       </c>
-      <c r="T87" s="48">
+      <c r="T87" s="46">
         <v>3300</v>
       </c>
-      <c r="U87" s="48">
+      <c r="U87" s="46">
         <v>3200</v>
       </c>
-      <c r="V87" s="47">
+      <c r="V87" s="45">
         <v>2900</v>
       </c>
-      <c r="W87" s="47">
+      <c r="W87" s="45">
         <v>3133.33</v>
       </c>
       <c r="X87" s="2"/>
-      <c r="Y87" s="66"/>
-      <c r="Z87" s="66"/>
-      <c r="AA87" s="66"/>
-      <c r="AB87" s="66"/>
+      <c r="Y87" s="72"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
@@ -5225,19 +5319,19 @@
       <c r="P88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q88" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R88" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S88" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="T88" s="25">
-        <v>0</v>
-      </c>
-      <c r="U88" s="25">
+      <c r="Q88" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R88" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S88" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T88" s="24">
+        <v>0</v>
+      </c>
+      <c r="U88" s="24">
         <v>0</v>
       </c>
       <c r="V88" s="2">
@@ -5249,16 +5343,16 @@
       <c r="X88" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Y88" s="66"/>
-      <c r="Z88" s="66"/>
-      <c r="AA88" s="66"/>
-      <c r="AB88" s="66"/>
+      <c r="Y88" s="72"/>
+      <c r="Z88" s="72"/>
+      <c r="AA88" s="72"/>
+      <c r="AB88" s="72"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="V89" s="11"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B90" s="49"/>
+      <c r="B90" s="47"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -5282,19 +5376,19 @@
       <c r="G91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="44" t="s">
+      <c r="H91" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="J91" s="44" t="s">
+      <c r="J91" s="42" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="61" t="s">
+      <c r="A92" s="44"/>
+      <c r="B92" s="59" t="s">
         <v>122</v>
       </c>
       <c r="C92" s="2">
@@ -5320,7 +5414,7 @@
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="59" t="s">
         <v>323</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -5349,28 +5443,28 @@
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="C94" s="45" t="s">
+      <c r="C94" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="71" t="s">
+      <c r="D94" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="43">
         <v>-1000</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="43">
         <v>-500</v>
       </c>
-      <c r="G94" s="45">
+      <c r="G94" s="43">
         <v>400</v>
       </c>
-      <c r="H94" s="45">
+      <c r="H94" s="43">
         <v>-366</v>
       </c>
-      <c r="I94" s="45" t="s">
+      <c r="I94" s="43" t="s">
         <v>153</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -5418,16 +5512,16 @@
       <c r="L97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M97" s="44" t="s">
+      <c r="M97" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="N97" s="44" t="s">
+      <c r="N97" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="O97" s="44" t="s">
+      <c r="O97" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="P97" s="54" t="s">
+      <c r="P97" s="52" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5458,24 +5552,24 @@
       <c r="J98" s="2">
         <v>1200</v>
       </c>
-      <c r="K98" s="18">
+      <c r="K98" s="17">
         <f>AVERAGE(E98,F98,G98)</f>
         <v>483.33333333333331</v>
       </c>
-      <c r="L98" s="18">
+      <c r="L98" s="17">
         <f>AVERAGE(H98,I98,J98)</f>
         <v>1200</v>
       </c>
       <c r="M98" s="2">
         <v>483.33</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="45">
         <v>1200</v>
       </c>
       <c r="O98" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="P98" s="51"/>
+      <c r="P98" s="49"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
@@ -5504,24 +5598,24 @@
       <c r="J99" s="2">
         <v>1000</v>
       </c>
-      <c r="K99" s="18">
+      <c r="K99" s="17">
         <f>AVERAGE(E99,F99,G99)</f>
         <v>375</v>
       </c>
-      <c r="L99" s="18">
+      <c r="L99" s="17">
         <f>AVERAGE(H99,I99,J99)</f>
         <v>1000</v>
       </c>
       <c r="M99" s="2">
         <v>375</v>
       </c>
-      <c r="N99" s="47">
+      <c r="N99" s="45">
         <v>1000</v>
       </c>
       <c r="O99" s="2">
         <v>0.375</v>
       </c>
-      <c r="P99" s="51"/>
+      <c r="P99" s="49"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
@@ -5551,10 +5645,10 @@
       <c r="J100" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K100" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L100" s="18" t="s">
+      <c r="K100" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L100" s="17" t="s">
         <v>48</v>
       </c>
       <c r="M100" s="2" t="s">
@@ -5566,56 +5660,56 @@
       <c r="O100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P100" s="51" t="s">
+      <c r="P100" s="49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="73">
+      <c r="C101" s="65">
         <v>999999</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="17">
         <v>500</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="17">
         <v>-200</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="17">
         <v>-300</v>
       </c>
-      <c r="H101" s="30">
-        <v>0</v>
-      </c>
-      <c r="I101" s="30">
-        <v>0</v>
-      </c>
-      <c r="J101" s="30">
-        <v>0</v>
-      </c>
-      <c r="K101" s="18">
-        <f t="shared" ref="K101:K110" si="21">AVERAGE(E101,F101,G101)</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="18">
-        <f t="shared" ref="L101:L110" si="22">AVERAGE(H101,I101,J101)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="18">
-        <v>0</v>
-      </c>
-      <c r="N101" s="18">
-        <v>0</v>
-      </c>
-      <c r="O101" s="47">
+      <c r="H101" s="29">
+        <v>0</v>
+      </c>
+      <c r="I101" s="29">
+        <v>0</v>
+      </c>
+      <c r="J101" s="29">
+        <v>0</v>
+      </c>
+      <c r="K101" s="17">
+        <f t="shared" ref="K101:K110" si="18">AVERAGE(E101,F101,G101)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="17">
+        <f t="shared" ref="L101:L110" si="19">AVERAGE(H101,I101,J101)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="17">
+        <v>0</v>
+      </c>
+      <c r="N101" s="17">
+        <v>0</v>
+      </c>
+      <c r="O101" s="45">
         <v>999999</v>
       </c>
-      <c r="P101" s="53" t="s">
+      <c r="P101" s="51" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5623,7 +5717,7 @@
       <c r="B102" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="25">
+      <c r="C102" s="24">
         <v>1000000</v>
       </c>
       <c r="D102" s="9" t="s">
@@ -5638,21 +5732,21 @@
       <c r="G102" s="2">
         <v>250</v>
       </c>
-      <c r="H102" s="29">
-        <v>0</v>
-      </c>
-      <c r="I102" s="29">
-        <v>0</v>
-      </c>
-      <c r="J102" s="29">
-        <v>0</v>
-      </c>
-      <c r="K102" s="18">
-        <f t="shared" si="21"/>
+      <c r="H102" s="28">
+        <v>0</v>
+      </c>
+      <c r="I102" s="28">
+        <v>0</v>
+      </c>
+      <c r="J102" s="28">
+        <v>0</v>
+      </c>
+      <c r="K102" s="17">
+        <f t="shared" si="18"/>
         <v>250</v>
       </c>
-      <c r="L102" s="18">
-        <f t="shared" si="22"/>
+      <c r="L102" s="17">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M102" s="2">
@@ -5661,10 +5755,10 @@
       <c r="N102" s="2">
         <v>0</v>
       </c>
-      <c r="O102" s="47">
+      <c r="O102" s="45">
         <v>1000000</v>
       </c>
-      <c r="P102" s="51" t="s">
+      <c r="P102" s="49" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5687,20 +5781,20 @@
       <c r="G103" s="2">
         <v>300</v>
       </c>
-      <c r="H103" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J103" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K103" s="30">
-        <f t="shared" si="21"/>
+      <c r="H103" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103" s="29">
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
-      <c r="L103" s="18" t="s">
+      <c r="L103" s="17" t="s">
         <v>48</v>
       </c>
       <c r="M103" s="2">
@@ -5712,7 +5806,7 @@
       <c r="O103" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P103" s="51" t="s">
+      <c r="P103" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5735,32 +5829,32 @@
       <c r="G104" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H104" s="29">
+      <c r="H104" s="28">
         <v>2500</v>
       </c>
-      <c r="I104" s="31">
+      <c r="I104" s="30">
         <v>2500</v>
       </c>
-      <c r="J104" s="29">
+      <c r="J104" s="28">
         <v>2500</v>
       </c>
-      <c r="K104" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L104" s="18">
-        <f t="shared" si="22"/>
+      <c r="K104" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L104" s="17">
+        <f t="shared" si="19"/>
         <v>2500</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N104" s="47">
+      <c r="N104" s="45">
         <v>2500</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P104" s="51" t="s">
+      <c r="P104" s="49" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5783,33 +5877,33 @@
       <c r="G105" s="2">
         <v>-200</v>
       </c>
-      <c r="H105" s="29">
+      <c r="H105" s="28">
         <v>1300</v>
       </c>
-      <c r="I105" s="29">
+      <c r="I105" s="28">
         <v>1300</v>
       </c>
-      <c r="J105" s="29">
+      <c r="J105" s="28">
         <v>1300</v>
       </c>
-      <c r="K105" s="30">
-        <f t="shared" si="21"/>
+      <c r="K105" s="29">
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-      <c r="L105" s="18">
-        <f t="shared" si="22"/>
+      <c r="L105" s="17">
+        <f t="shared" si="19"/>
         <v>1300</v>
       </c>
       <c r="M105" s="2">
         <v>-100</v>
       </c>
-      <c r="N105" s="47">
+      <c r="N105" s="45">
         <v>1300</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P105" s="51" t="s">
+      <c r="P105" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5832,21 +5926,21 @@
       <c r="G106" s="2">
         <v>-200</v>
       </c>
-      <c r="H106" s="29">
-        <v>0</v>
-      </c>
-      <c r="I106" s="29">
-        <v>0</v>
-      </c>
-      <c r="J106" s="29">
-        <v>0</v>
-      </c>
-      <c r="K106" s="30">
-        <f t="shared" si="21"/>
+      <c r="H106" s="28">
+        <v>0</v>
+      </c>
+      <c r="I106" s="28">
+        <v>0</v>
+      </c>
+      <c r="J106" s="28">
+        <v>0</v>
+      </c>
+      <c r="K106" s="29">
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-      <c r="L106" s="18">
-        <f t="shared" si="22"/>
+      <c r="L106" s="17">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M106" s="2">
@@ -5858,7 +5952,7 @@
       <c r="O106" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P106" s="51" t="s">
+      <c r="P106" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5881,21 +5975,21 @@
       <c r="G107" s="2">
         <v>-200</v>
       </c>
-      <c r="H107" s="29">
+      <c r="H107" s="28">
         <v>-800</v>
       </c>
-      <c r="I107" s="29">
+      <c r="I107" s="28">
         <v>-800</v>
       </c>
-      <c r="J107" s="29">
+      <c r="J107" s="28">
         <v>-800</v>
       </c>
-      <c r="K107" s="30">
-        <f t="shared" si="21"/>
+      <c r="K107" s="29">
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
-      <c r="L107" s="18">
-        <f t="shared" si="22"/>
+      <c r="L107" s="17">
+        <f t="shared" si="19"/>
         <v>-800</v>
       </c>
       <c r="M107" s="2">
@@ -5907,7 +6001,7 @@
       <c r="O107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P107" s="51" t="s">
+      <c r="P107" s="49" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5930,33 +6024,33 @@
       <c r="G108" s="2">
         <v>450</v>
       </c>
-      <c r="H108" s="29">
+      <c r="H108" s="28">
         <v>-1200</v>
       </c>
-      <c r="I108" s="29">
+      <c r="I108" s="28">
         <v>-1200</v>
       </c>
-      <c r="J108" s="29">
+      <c r="J108" s="28">
         <v>-1200</v>
       </c>
-      <c r="K108" s="30">
-        <f t="shared" si="21"/>
+      <c r="K108" s="29">
+        <f t="shared" si="18"/>
         <v>350</v>
       </c>
-      <c r="L108" s="18">
-        <f t="shared" si="22"/>
+      <c r="L108" s="17">
+        <f t="shared" si="19"/>
         <v>-1200</v>
       </c>
       <c r="M108" s="2">
         <v>350</v>
       </c>
-      <c r="N108" s="47">
+      <c r="N108" s="45">
         <v>-1200</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P108" s="51" t="s">
+      <c r="P108" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5970,42 +6064,42 @@
       <c r="D109" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E109" s="18">
-        <v>0</v>
-      </c>
-      <c r="F109" s="18">
-        <v>0</v>
-      </c>
-      <c r="G109" s="18">
-        <v>0</v>
-      </c>
-      <c r="H109" s="29">
+      <c r="E109" s="17">
+        <v>0</v>
+      </c>
+      <c r="F109" s="17">
+        <v>0</v>
+      </c>
+      <c r="G109" s="17">
+        <v>0</v>
+      </c>
+      <c r="H109" s="28">
         <v>-1000</v>
       </c>
-      <c r="I109" s="29">
+      <c r="I109" s="28">
         <v>-1000</v>
       </c>
-      <c r="J109" s="29">
+      <c r="J109" s="28">
         <v>-1000</v>
       </c>
-      <c r="K109" s="30">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="18">
-        <f t="shared" si="22"/>
+      <c r="K109" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="17">
+        <f t="shared" si="19"/>
         <v>-1000</v>
       </c>
       <c r="M109" s="2">
         <v>0</v>
       </c>
-      <c r="N109" s="47">
+      <c r="N109" s="45">
         <v>-1000</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P109" s="51" t="s">
+      <c r="P109" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6038,11 +6132,11 @@
         <v>-700</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>-200</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>-700</v>
       </c>
       <c r="M110" s="2">
@@ -6054,12 +6148,12 @@
       <c r="O110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P110" s="51" t="s">
+      <c r="P110" s="49" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="49"/>
+      <c r="B112" s="47"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -6098,21 +6192,21 @@
       <c r="L113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M113" s="44" t="s">
+      <c r="M113" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="N113" s="44" t="s">
+      <c r="N113" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="O113" s="44" t="s">
+      <c r="O113" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="P113" s="54" t="s">
+      <c r="P113" s="52" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="66"/>
       <c r="B114" s="14" t="s">
         <v>257</v>
       </c>
@@ -6139,11 +6233,11 @@
       <c r="J114" s="2">
         <v>700</v>
       </c>
-      <c r="K114" s="18">
+      <c r="K114" s="17">
         <f>AVERAGE(E114,F114,G114)</f>
         <v>250</v>
       </c>
-      <c r="L114" s="18">
+      <c r="L114" s="17">
         <f>AVERAGE(H114,I114,J114)</f>
         <v>633.33333333333337</v>
       </c>
@@ -6156,7 +6250,7 @@
       <c r="O114" s="2">
         <v>0.3947</v>
       </c>
-      <c r="P114" s="51"/>
+      <c r="P114" s="49"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
@@ -6185,11 +6279,11 @@
       <c r="J115" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K115" s="17">
         <f>AVERAGE(E115,F115,G115)</f>
         <v>100</v>
       </c>
-      <c r="L115" s="18">
+      <c r="L115" s="17">
         <f>AVERAGE(H115,I115,J115)</f>
         <v>500</v>
       </c>
@@ -6202,7 +6296,7 @@
       <c r="O115" s="2">
         <v>0.2</v>
       </c>
-      <c r="P115" s="51"/>
+      <c r="P115" s="49"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
@@ -6232,10 +6326,10 @@
       <c r="J116" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K116" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L116" s="18" t="s">
+      <c r="K116" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L116" s="17" t="s">
         <v>48</v>
       </c>
       <c r="M116" s="2" t="s">
@@ -6247,7 +6341,7 @@
       <c r="O116" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P116" s="51" t="s">
+      <c r="P116" s="49" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6255,7 +6349,7 @@
       <c r="B117" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C117" s="25">
+      <c r="C117" s="24">
         <v>999999</v>
       </c>
       <c r="D117" s="9" t="s">
@@ -6279,12 +6373,12 @@
       <c r="J117" s="2">
         <v>600</v>
       </c>
-      <c r="K117" s="18">
-        <f t="shared" ref="K117:K126" si="23">AVERAGE(E117,F117,G117)</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="18">
-        <f t="shared" ref="L117:L118" si="24">AVERAGE(H117,I117,J117)</f>
+      <c r="K117" s="17">
+        <f t="shared" ref="K117:K126" si="20">AVERAGE(E117,F117,G117)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="17">
+        <f t="shared" ref="L117:L118" si="21">AVERAGE(H117,I117,J117)</f>
         <v>0</v>
       </c>
       <c r="M117" s="2">
@@ -6293,30 +6387,30 @@
       <c r="N117" s="2">
         <v>0</v>
       </c>
-      <c r="O117" s="47">
+      <c r="O117" s="45">
         <v>999999</v>
       </c>
-      <c r="P117" s="51" t="s">
+      <c r="P117" s="49" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C118" s="25">
+      <c r="C118" s="24">
         <v>1000000</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="17">
         <v>200</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="17">
         <v>200</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="17">
         <v>200</v>
       </c>
       <c r="H118" s="2">
@@ -6328,24 +6422,24 @@
       <c r="J118" s="2">
         <v>600</v>
       </c>
-      <c r="K118" s="18">
-        <f t="shared" si="23"/>
+      <c r="K118" s="17">
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
-      <c r="L118" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="18">
+      <c r="L118" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="17">
         <v>200</v>
       </c>
-      <c r="N118" s="18">
-        <v>0</v>
-      </c>
-      <c r="O118" s="47">
+      <c r="N118" s="17">
+        <v>0</v>
+      </c>
+      <c r="O118" s="45">
         <v>1000000</v>
       </c>
-      <c r="P118" s="53" t="s">
+      <c r="P118" s="51" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6353,7 +6447,7 @@
       <c r="B119" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="9" t="s">
@@ -6368,20 +6462,20 @@
       <c r="G119" s="2">
         <v>250</v>
       </c>
-      <c r="H119" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I119" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J119" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K119" s="18">
-        <f t="shared" si="23"/>
+      <c r="H119" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119" s="17">
+        <f t="shared" si="20"/>
         <v>300</v>
       </c>
-      <c r="L119" s="18" t="s">
+      <c r="L119" s="17" t="s">
         <v>48</v>
       </c>
       <c r="M119" s="2">
@@ -6390,10 +6484,10 @@
       <c r="N119" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="O119" s="47" t="s">
+      <c r="O119" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P119" s="51" t="s">
+      <c r="P119" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6416,19 +6510,19 @@
       <c r="G120" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H120" s="29">
+      <c r="H120" s="28">
         <v>250</v>
       </c>
-      <c r="I120" s="29">
+      <c r="I120" s="28">
         <v>300</v>
       </c>
-      <c r="J120" s="29">
+      <c r="J120" s="28">
         <v>700</v>
       </c>
-      <c r="K120" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L120" s="18">
+      <c r="K120" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L120" s="17">
         <f>AVERAGE(H120,I120,J120)</f>
         <v>416.66666666666669</v>
       </c>
@@ -6438,10 +6532,10 @@
       <c r="N120" s="2">
         <v>416.67</v>
       </c>
-      <c r="O120" s="47" t="s">
+      <c r="O120" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P120" s="51" t="s">
+      <c r="P120" s="49" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6464,20 +6558,20 @@
       <c r="G121" s="2">
         <v>-100</v>
       </c>
-      <c r="H121" s="29">
+      <c r="H121" s="28">
         <v>250</v>
       </c>
-      <c r="I121" s="29">
+      <c r="I121" s="28">
         <v>300</v>
       </c>
-      <c r="J121" s="29">
+      <c r="J121" s="28">
         <v>700</v>
       </c>
-      <c r="K121" s="18">
-        <f t="shared" si="23"/>
+      <c r="K121" s="17">
+        <f t="shared" si="20"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="L121" s="18">
+      <c r="L121" s="17">
         <f>AVERAGE(H121,I121,J121)</f>
         <v>416.66666666666669</v>
       </c>
@@ -6490,7 +6584,7 @@
       <c r="O121" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P121" s="51" t="s">
+      <c r="P121" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6513,20 +6607,20 @@
       <c r="G122" s="2">
         <v>-100</v>
       </c>
-      <c r="H122" s="29">
+      <c r="H122" s="28">
         <v>-350</v>
       </c>
-      <c r="I122" s="29">
+      <c r="I122" s="28">
         <v>300</v>
       </c>
-      <c r="J122" s="29">
+      <c r="J122" s="28">
         <v>50</v>
       </c>
-      <c r="K122" s="18">
-        <f t="shared" si="23"/>
+      <c r="K122" s="17">
+        <f t="shared" si="20"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="L122" s="18">
+      <c r="L122" s="17">
         <f>AVERAGE(H122,I122,J122)</f>
         <v>0</v>
       </c>
@@ -6536,10 +6630,10 @@
       <c r="N122" s="2">
         <v>0</v>
       </c>
-      <c r="O122" s="47" t="s">
+      <c r="O122" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P122" s="51" t="s">
+      <c r="P122" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6562,20 +6656,20 @@
       <c r="G123" s="2">
         <v>-100</v>
       </c>
-      <c r="H123" s="29">
+      <c r="H123" s="28">
         <v>-100</v>
       </c>
-      <c r="I123" s="29">
+      <c r="I123" s="28">
         <v>-150</v>
       </c>
-      <c r="J123" s="29">
+      <c r="J123" s="28">
         <v>200</v>
       </c>
-      <c r="K123" s="18">
-        <f t="shared" si="23"/>
+      <c r="K123" s="17">
+        <f t="shared" si="20"/>
         <v>-116.66666666666667</v>
       </c>
-      <c r="L123" s="18">
+      <c r="L123" s="17">
         <f>AVERAGE(H123,I123,J123)</f>
         <v>-16.666666666666668</v>
       </c>
@@ -6588,7 +6682,7 @@
       <c r="O123" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P123" s="51" t="s">
+      <c r="P123" s="49" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6611,20 +6705,20 @@
       <c r="G124" s="2">
         <v>150</v>
       </c>
-      <c r="H124" s="29">
+      <c r="H124" s="28">
         <v>-200</v>
       </c>
-      <c r="I124" s="29">
+      <c r="I124" s="28">
         <v>500</v>
       </c>
-      <c r="J124" s="29">
+      <c r="J124" s="28">
         <v>-700</v>
       </c>
-      <c r="K124" s="30">
-        <f t="shared" si="23"/>
+      <c r="K124" s="29">
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
-      <c r="L124" s="18">
+      <c r="L124" s="17">
         <f>AVERAGE(H124,I124,J124)</f>
         <v>-133.33333333333334</v>
       </c>
@@ -6637,7 +6731,7 @@
       <c r="O124" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P124" s="51" t="s">
+      <c r="P124" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6660,21 +6754,21 @@
       <c r="G125" s="2">
         <v>100</v>
       </c>
-      <c r="H125" s="29">
+      <c r="H125" s="28">
         <v>-200</v>
       </c>
-      <c r="I125" s="29">
+      <c r="I125" s="28">
         <v>500</v>
       </c>
-      <c r="J125" s="29">
+      <c r="J125" s="28">
         <v>-700</v>
       </c>
-      <c r="K125" s="30">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="18">
-        <f t="shared" ref="L125:L126" si="25">AVERAGE(H125,I125,J125)</f>
+      <c r="K125" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="17">
+        <f t="shared" ref="L125:L126" si="22">AVERAGE(H125,I125,J125)</f>
         <v>-133.33333333333334</v>
       </c>
       <c r="M125" s="2">
@@ -6686,7 +6780,7 @@
       <c r="O125" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P125" s="51" t="s">
+      <c r="P125" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6694,55 +6788,55 @@
       <c r="B126" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="17">
         <v>450</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="17">
         <v>-150</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G126" s="17">
         <v>-550</v>
       </c>
-      <c r="H126" s="30">
+      <c r="H126" s="29">
         <v>-200</v>
       </c>
-      <c r="I126" s="30">
+      <c r="I126" s="29">
         <v>500</v>
       </c>
-      <c r="J126" s="30">
+      <c r="J126" s="29">
         <v>-700</v>
       </c>
-      <c r="K126" s="30">
-        <f t="shared" si="23"/>
+      <c r="K126" s="29">
+        <f t="shared" si="20"/>
         <v>-83.333333333333329</v>
       </c>
-      <c r="L126" s="18">
-        <f t="shared" si="25"/>
+      <c r="L126" s="17">
+        <f t="shared" si="22"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="M126" s="30">
-        <f t="shared" ref="M126" si="26">AVERAGE(G126,H126,I126)</f>
+      <c r="M126" s="29">
+        <f t="shared" ref="M126" si="23">AVERAGE(G126,H126,I126)</f>
         <v>-83.333333333333329</v>
       </c>
-      <c r="N126" s="18">
-        <f t="shared" ref="N126" si="27">AVERAGE(J126,K126,L126)</f>
+      <c r="N126" s="17">
+        <f t="shared" ref="N126" si="24">AVERAGE(J126,K126,L126)</f>
         <v>-305.5555555555556</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P126" s="53" t="s">
+      <c r="P126" s="51" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B128" s="49"/>
+      <c r="B128" s="47"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -6781,21 +6875,21 @@
       <c r="L129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M129" s="44" t="s">
+      <c r="M129" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="N129" s="44" t="s">
+      <c r="N129" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="O129" s="44" t="s">
+      <c r="O129" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="P129" s="54" t="s">
+      <c r="P129" s="52" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="8" t="s">
         <v>287</v>
       </c>
@@ -6833,13 +6927,13 @@
       <c r="M130" s="2">
         <v>416.67</v>
       </c>
-      <c r="N130" s="47">
+      <c r="N130" s="45">
         <v>1000</v>
       </c>
       <c r="O130" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P130" s="51"/>
+      <c r="P130" s="49"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
@@ -6879,13 +6973,13 @@
       <c r="M131" s="2">
         <v>300</v>
       </c>
-      <c r="N131" s="47">
+      <c r="N131" s="45">
         <v>1300</v>
       </c>
       <c r="O131" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="P131" s="51"/>
+      <c r="P131" s="49"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
@@ -6924,13 +7018,13 @@
       <c r="M132" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N132" s="32" t="s">
+      <c r="N132" s="31" t="s">
         <v>207</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P132" s="51" t="s">
+      <c r="P132" s="49" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6938,7 +7032,7 @@
       <c r="B133" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C133" s="25">
+      <c r="C133" s="24">
         <v>999999</v>
       </c>
       <c r="D133" s="9" t="s">
@@ -6963,11 +7057,11 @@
         <v>0</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" ref="K133:K142" si="28">AVERAGE(E133,F133,G133)</f>
+        <f t="shared" ref="K133:K142" si="25">AVERAGE(E133,F133,G133)</f>
         <v>0</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" ref="L133:L142" si="29">AVERAGE(H133,I133,J133)</f>
+        <f t="shared" ref="L133:L142" si="26">AVERAGE(H133,I133,J133)</f>
         <v>0</v>
       </c>
       <c r="M133" s="2">
@@ -6976,10 +7070,10 @@
       <c r="N133" s="2">
         <v>0</v>
       </c>
-      <c r="O133" s="47">
+      <c r="O133" s="45">
         <v>999999</v>
       </c>
-      <c r="P133" s="51" t="s">
+      <c r="P133" s="49" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6987,7 +7081,7 @@
       <c r="B134" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C134" s="25">
+      <c r="C134" s="24">
         <v>1000000</v>
       </c>
       <c r="D134" s="9" t="s">
@@ -7012,11 +7106,11 @@
         <v>0</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M134" s="2">
@@ -7025,10 +7119,10 @@
       <c r="N134" s="2">
         <v>0</v>
       </c>
-      <c r="O134" s="47">
+      <c r="O134" s="45">
         <v>1000000</v>
       </c>
-      <c r="P134" s="51" t="s">
+      <c r="P134" s="49" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7061,7 +7155,7 @@
         <v>48</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>300</v>
       </c>
       <c r="L135" s="2" t="s">
@@ -7073,10 +7167,10 @@
       <c r="N135" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="O135" s="47" t="s">
+      <c r="O135" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P135" s="51" t="s">
+      <c r="P135" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7112,19 +7206,19 @@
         <v>48</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1500</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N136" s="47">
+      <c r="N136" s="45">
         <v>1500</v>
       </c>
-      <c r="O136" s="47" t="s">
+      <c r="O136" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P136" s="51" t="s">
+      <c r="P136" s="49" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7157,11 +7251,11 @@
         <v>700</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L137" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>700</v>
       </c>
       <c r="M137" s="2">
@@ -7173,7 +7267,7 @@
       <c r="O137" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P137" s="51" t="s">
+      <c r="P137" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7206,11 +7300,11 @@
         <v>0</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M138" s="2">
@@ -7219,10 +7313,10 @@
       <c r="N138" s="2">
         <v>0</v>
       </c>
-      <c r="O138" s="47" t="s">
+      <c r="O138" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P138" s="51" t="s">
+      <c r="P138" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7255,11 +7349,11 @@
         <v>-800</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-800</v>
       </c>
       <c r="M139" s="2">
@@ -7271,7 +7365,7 @@
       <c r="O139" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P139" s="51" t="s">
+      <c r="P139" s="49" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7304,11 +7398,11 @@
         <v>-500</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-500</v>
       </c>
       <c r="M140" s="2">
@@ -7320,7 +7414,7 @@
       <c r="O140" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P140" s="51" t="s">
+      <c r="P140" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7353,11 +7447,11 @@
         <v>700</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>-200</v>
       </c>
       <c r="M141" s="2">
@@ -7369,7 +7463,7 @@
       <c r="O141" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P141" s="51" t="s">
+      <c r="P141" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7377,48 +7471,48 @@
       <c r="B142" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="D142" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>200</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>-300</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="17">
         <v>-300</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="17">
         <v>-500</v>
       </c>
-      <c r="I142" s="18">
+      <c r="I142" s="17">
         <v>500</v>
       </c>
-      <c r="J142" s="18">
+      <c r="J142" s="17">
         <v>-500</v>
       </c>
-      <c r="K142" s="18">
-        <f t="shared" si="28"/>
+      <c r="K142" s="17">
+        <f t="shared" si="25"/>
         <v>-133.33333333333334</v>
       </c>
-      <c r="L142" s="18">
-        <f t="shared" si="29"/>
+      <c r="L142" s="17">
+        <f t="shared" si="26"/>
         <v>-166.66666666666666</v>
       </c>
-      <c r="M142" s="18">
+      <c r="M142" s="17">
         <v>-133.33000000000001</v>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="17">
         <v>-166.67</v>
       </c>
-      <c r="O142" s="18" t="s">
+      <c r="O142" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="P142" s="53" t="s">
+      <c r="P142" s="51" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7459,21 +7553,21 @@
       <c r="L145" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M145" s="44" t="s">
+      <c r="M145" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="N145" s="44" t="s">
+      <c r="N145" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="O145" s="44" t="s">
+      <c r="O145" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="P145" s="54" t="s">
+      <c r="P145" s="52" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="8" t="s">
         <v>272</v>
       </c>
@@ -7517,7 +7611,7 @@
       <c r="O146" s="2">
         <v>0.4</v>
       </c>
-      <c r="P146" s="51"/>
+      <c r="P146" s="49"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
@@ -7563,7 +7657,7 @@
       <c r="O147" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="P147" s="51"/>
+      <c r="P147" s="49"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
@@ -7602,13 +7696,13 @@
       <c r="M148" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N148" s="32" t="s">
+      <c r="N148" s="31" t="s">
         <v>207</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P148" s="51" t="s">
+      <c r="P148" s="49" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7616,7 +7710,7 @@
       <c r="B149" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C149" s="25">
+      <c r="C149" s="24">
         <v>999999</v>
       </c>
       <c r="D149" s="9" t="s">
@@ -7641,11 +7735,11 @@
         <v>-400</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" ref="K149:K158" si="30">AVERAGE(E149,F149,G149)</f>
+        <f t="shared" ref="K149:K158" si="27">AVERAGE(E149,F149,G149)</f>
         <v>0</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" ref="L149:L158" si="31">AVERAGE(H149,I149,J149)</f>
+        <f t="shared" ref="L149:L158" si="28">AVERAGE(H149,I149,J149)</f>
         <v>0</v>
       </c>
       <c r="M149" s="2">
@@ -7654,10 +7748,10 @@
       <c r="N149" s="2">
         <v>0</v>
       </c>
-      <c r="O149" s="47">
+      <c r="O149" s="45">
         <v>999999</v>
       </c>
-      <c r="P149" s="51" t="s">
+      <c r="P149" s="49" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7665,7 +7759,7 @@
       <c r="B150" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="26">
+      <c r="C150" s="25">
         <v>1000000</v>
       </c>
       <c r="D150" s="9" t="s">
@@ -7690,11 +7784,11 @@
         <v>600</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M150" s="2">
@@ -7703,10 +7797,10 @@
       <c r="N150" s="2">
         <v>0</v>
       </c>
-      <c r="O150" s="47">
+      <c r="O150" s="45">
         <v>1000000</v>
       </c>
-      <c r="P150" s="51" t="s">
+      <c r="P150" s="49" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7739,7 +7833,7 @@
         <v>48</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L151" s="2" t="s">
@@ -7751,10 +7845,10 @@
       <c r="N151" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="O151" s="47" t="s">
+      <c r="O151" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P151" s="51" t="s">
+      <c r="P151" s="49" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7790,7 +7884,7 @@
         <v>48</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>766.66666666666663</v>
       </c>
       <c r="M152" s="2" t="s">
@@ -7799,10 +7893,10 @@
       <c r="N152" s="2">
         <v>766.67</v>
       </c>
-      <c r="O152" s="47" t="s">
+      <c r="O152" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P152" s="51" t="s">
+      <c r="P152" s="49" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7835,11 +7929,11 @@
         <v>400</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>-200</v>
       </c>
       <c r="L153" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>500</v>
       </c>
       <c r="M153" s="2">
@@ -7851,7 +7945,7 @@
       <c r="O153" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P153" s="51" t="s">
+      <c r="P153" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7884,11 +7978,11 @@
         <v>-800</v>
       </c>
       <c r="K154" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M154" s="2">
@@ -7897,10 +7991,10 @@
       <c r="N154" s="2">
         <v>0</v>
       </c>
-      <c r="O154" s="47" t="s">
+      <c r="O154" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P154" s="51" t="s">
+      <c r="P154" s="49" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7933,11 +8027,11 @@
         <v>-600</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>-200</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>-300</v>
       </c>
       <c r="M155" s="2">
@@ -7949,7 +8043,7 @@
       <c r="O155" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P155" s="51" t="s">
+      <c r="P155" s="49" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7982,11 +8076,11 @@
         <v>-300</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>200</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="M156" s="2">
@@ -7998,7 +8092,7 @@
       <c r="O156" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P156" s="51" t="s">
+      <c r="P156" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8031,11 +8125,11 @@
         <v>-600</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M157" s="2">
@@ -8047,7 +8141,7 @@
       <c r="O157" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P157" s="51" t="s">
+      <c r="P157" s="49" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8080,11 +8174,11 @@
         <v>-950</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>-50</v>
       </c>
       <c r="M158" s="2">
@@ -8096,15 +8190,15 @@
       <c r="O158" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P158" s="51" t="s">
+      <c r="P158" s="49" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B160" s="49"/>
+      <c r="B160" s="47"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" s="34" t="s">
+      <c r="A161" s="33" t="s">
         <v>180</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -8125,18 +8219,18 @@
       <c r="G161" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H161" s="44" t="s">
+      <c r="H161" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="I161" s="44" t="s">
+      <c r="I161" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="J161" s="44" t="s">
+      <c r="J161" s="42" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="8" t="s">
         <v>302</v>
       </c>
@@ -8163,8 +8257,8 @@
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" s="36"/>
-      <c r="B163" s="33" t="s">
+      <c r="A163" s="35"/>
+      <c r="B163" s="32" t="s">
         <v>303</v>
       </c>
       <c r="C163" s="2">
@@ -8190,8 +8284,8 @@
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="33" t="s">
+      <c r="A164" s="35"/>
+      <c r="B164" s="32" t="s">
         <v>304</v>
       </c>
       <c r="C164" s="2">
@@ -8211,17 +8305,17 @@
       <c r="H164" s="2">
         <v>3</v>
       </c>
-      <c r="I164" s="32"/>
+      <c r="I164" s="31"/>
       <c r="J164" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" s="36"/>
-      <c r="B165" s="33" t="s">
+      <c r="A165" s="35"/>
+      <c r="B165" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="9" t="s">
@@ -8253,7 +8347,7 @@
       <c r="I167"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="34" t="s">
+      <c r="A168" s="33" t="s">
         <v>183</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -8274,17 +8368,17 @@
       <c r="G168" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H168" s="44" t="s">
+      <c r="H168" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="I168" s="44" t="s">
+      <c r="I168" s="42" t="s">
         <v>181</v>
       </c>
       <c r="O168"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="61" t="s">
+      <c r="A169" s="34"/>
+      <c r="B169" s="59" t="s">
         <v>306</v>
       </c>
       <c r="C169" s="2">
@@ -8309,7 +8403,7 @@
       <c r="O169"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="36"/>
+      <c r="A170" s="35"/>
       <c r="B170" s="8" t="s">
         <v>326</v>
       </c>
@@ -8333,8 +8427,8 @@
       <c r="O170"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="36"/>
-      <c r="B171" s="33" t="s">
+      <c r="A171" s="35"/>
+      <c r="B171" s="32" t="s">
         <v>307</v>
       </c>
       <c r="C171" s="2">
@@ -8357,14 +8451,14 @@
       <c r="O171"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="36"/>
-      <c r="B172" s="33" t="s">
+      <c r="A172" s="35"/>
+      <c r="B172" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="20" t="s">
+      <c r="D172" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -8376,45 +8470,45 @@
       <c r="G172" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H172" s="25" t="s">
+      <c r="H172" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="20" t="s">
+      <c r="I172" s="19" t="s">
         <v>152</v>
       </c>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="75" t="s">
+    <row r="173" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="C173" s="58">
-        <v>0</v>
-      </c>
-      <c r="D173" s="59" t="s">
+      <c r="C173" s="56">
+        <v>0</v>
+      </c>
+      <c r="D173" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="E173" s="57">
+      <c r="E173" s="55">
         <v>-1000</v>
       </c>
-      <c r="F173" s="57">
+      <c r="F173" s="55">
         <v>-100</v>
       </c>
-      <c r="G173" s="57">
+      <c r="G173" s="55">
         <v>2000</v>
       </c>
-      <c r="H173" s="76"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="69" t="s">
+      <c r="H173" s="68"/>
+      <c r="I173" s="69"/>
+      <c r="J173" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="K173" s="70"/>
-      <c r="L173" s="60"/>
-      <c r="M173" s="60"/>
-      <c r="N173" s="60"/>
+      <c r="K173" s="76"/>
+      <c r="L173" s="58"/>
+      <c r="M173" s="58"/>
+      <c r="N173" s="58"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="34" t="s">
+      <c r="A176" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -8438,19 +8532,19 @@
       <c r="H176" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I176" s="44" t="s">
+      <c r="I176" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="J176" s="44" t="s">
+      <c r="J176" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="K176" s="44" t="s">
+      <c r="K176" s="42" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="35"/>
-      <c r="B177" s="61" t="s">
+      <c r="A177" s="34"/>
+      <c r="B177" s="59" t="s">
         <v>310</v>
       </c>
       <c r="C177" s="2">
@@ -8481,7 +8575,7 @@
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
+      <c r="A178" s="35"/>
       <c r="B178" s="8" t="s">
         <v>311</v>
       </c>
@@ -8513,7 +8607,7 @@
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
+      <c r="A179" s="35"/>
       <c r="B179" s="8" t="s">
         <v>312</v>
       </c>
@@ -8535,11 +8629,11 @@
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E180" s="40"/>
-      <c r="K180" s="40"/>
+      <c r="E180" s="39"/>
+      <c r="K180" s="39"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="34" t="s">
+      <c r="A182" s="33" t="s">
         <v>191</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -8566,13 +8660,13 @@
       <c r="I182" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J182" s="44" t="s">
+      <c r="J182" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="K182" s="44" t="s">
+      <c r="K182" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="L182" s="44" t="s">
+      <c r="L182" s="42" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8585,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2"/>
-      <c r="E183" s="18">
+      <c r="E183" s="17">
         <f>MAX(H183,I183)</f>
         <v>1</v>
       </c>
@@ -8595,7 +8689,7 @@
       <c r="G183" s="2">
         <v>200</v>
       </c>
-      <c r="H183" s="18">
+      <c r="H183" s="17">
         <v>0</v>
       </c>
       <c r="I183" s="2">
@@ -8618,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2"/>
-      <c r="E184" s="18">
+      <c r="E184" s="17">
         <f>MAX(H184,I184)</f>
         <v>1</v>
       </c>
@@ -8628,7 +8722,7 @@
       <c r="G184" s="2">
         <v>500</v>
       </c>
-      <c r="H184" s="18">
+      <c r="H184" s="17">
         <v>1</v>
       </c>
       <c r="I184" s="2">
@@ -8651,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="D185" s="2"/>
-      <c r="E185" s="18">
+      <c r="E185" s="17">
         <f>MAX(H185,I185)</f>
         <v>0</v>
       </c>
@@ -8661,7 +8755,7 @@
       <c r="G185" s="2">
         <v>500</v>
       </c>
-      <c r="H185" s="18">
+      <c r="H185" s="17">
         <v>0</v>
       </c>
       <c r="I185" s="2">
@@ -8675,50 +8769,50 @@
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:15" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="64" t="s">
+      <c r="C186" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="64"/>
-      <c r="E186" s="64"/>
-      <c r="F186" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G186" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="H186" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="I186" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="J186" s="64" t="s">
+      <c r="D186" s="62"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G186" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I186" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186" s="62" t="s">
         <v>4</v>
       </c>
       <c r="K186" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L186" s="64"/>
-      <c r="M186" s="62"/>
-      <c r="N186" s="62"/>
-      <c r="O186" s="62"/>
+      <c r="L186" s="62"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
+      <c r="O186" s="60"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B187" s="39"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="40"/>
-      <c r="E187" s="65"/>
-      <c r="F187" s="40"/>
-      <c r="G187" s="40"/>
-      <c r="H187" s="65"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="39"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="63"/>
+      <c r="F187" s="39"/>
+      <c r="G187" s="39"/>
+      <c r="H187" s="63"/>
+      <c r="I187" s="39"/>
+      <c r="J187" s="39"/>
+      <c r="K187" s="39"/>
+      <c r="L187" s="39"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D190" s="12"/>
@@ -8805,7 +8899,7 @@
   <dimension ref="A5:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8854,7 +8948,7 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="23"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8881,7 +8975,7 @@
         <v>48</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -8908,7 +9002,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="37"/>
+      <c r="K7" s="36"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -8935,7 +9029,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="36"/>
       <c r="O8" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8960,7 +9054,7 @@
       <c r="G11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -8981,7 +9075,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="36"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -9002,7 +9096,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="37"/>
+      <c r="H13" s="36"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -9070,13 +9164,13 @@
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="H17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>48</v>
       </c>
       <c r="K17" s="2"/>
@@ -9106,13 +9200,13 @@
       <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="25">
+      <c r="H18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="24">
         <v>1</v>
       </c>
       <c r="K18" s="2"/>
@@ -9142,13 +9236,13 @@
       <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="25" t="s">
+      <c r="H19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>48</v>
       </c>
       <c r="K19" s="2"/>

--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="335">
   <si>
     <t>IND_50</t>
   </si>
@@ -235,9 +235,6 @@
     <t>CRZER003_2</t>
   </si>
   <si>
-    <t>CRZER004_1</t>
-  </si>
-  <si>
     <t>0000000000000091</t>
   </si>
   <si>
@@ -1019,12 +1016,21 @@
   </si>
   <si>
     <t>DEN_IND_61</t>
+  </si>
+  <si>
+    <t>CAMPO_TEC_4</t>
+  </si>
+  <si>
+    <t>uguale alla riga 40, lo possiamo eliminare</t>
+  </si>
+  <si>
+    <t>mi da missing, no 1000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1075,7 +1081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,6 +1133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,7 +1350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,6 +1425,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1429,43 +1468,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1620,6 +1640,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1930,37 +1955,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S59" sqref="S59"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1976,17 +2001,17 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H3" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -2002,10 +2027,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2025,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2046,13 +2071,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" s="38"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2068,17 +2093,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2094,10 +2119,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2117,10 +2142,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -2138,13 +2163,13 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2166,19 +2191,19 @@
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="42" t="s">
-        <v>195</v>
+      <c r="J15" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -2200,12 +2225,12 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -2227,11 +2252,11 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -2253,12 +2278,12 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -2280,12 +2305,12 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
@@ -2311,18 +2336,18 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D21" s="38"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="46"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2359,17 +2384,17 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="41" t="s">
         <v>37</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="8" t="s">
         <v>43</v>
@@ -2413,7 +2438,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
@@ -2453,7 +2478,7 @@
       </c>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
@@ -2488,13 +2513,13 @@
         <v>48</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>41</v>
       </c>
@@ -2534,20 +2559,20 @@
       <c r="M27" s="17">
         <v>0</v>
       </c>
-      <c r="N27" s="71" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N27" s="70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2557,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>62</v>
@@ -2587,37 +2612,45 @@
         <v>45</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O30" s="42" t="s">
+      <c r="P30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R30" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="S30" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="P30" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q30" s="42" t="s">
+      <c r="T30" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="R30" s="52" t="s">
+      <c r="U30" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="21"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V30" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="77">
+      <c r="C31" s="71">
         <f>L31/M31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="78" t="s">
+      <c r="D31" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="2">
@@ -2639,7 +2672,7 @@
         <v>900</v>
       </c>
       <c r="L31" s="2">
-        <f>AVERAGE((F31-I31),(G31-J31),(H31-K31))</f>
+        <f>AVERAGE(O31,P31,Q31)</f>
         <v>0</v>
       </c>
       <c r="M31" s="2">
@@ -2647,27 +2680,36 @@
         <v>866.66666666666663</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="21"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O31" s="2">
+        <f>IF((F31-I31)&lt;0, 0,(F31-I31))</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <f>IF((G31-J31)&lt;0,0,(G31-J31))</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>IF((H31-K31)&lt;0,0,(H31-K31))</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="71">
         <f>L32/M32</f>
         <v>0.34615384615384615</v>
       </c>
-      <c r="D32" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="77" t="s">
+      <c r="D32" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="71" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="2">
@@ -2689,7 +2731,7 @@
         <v>600</v>
       </c>
       <c r="L32" s="2">
-        <f>AVERAGE((F32-I32),(G32-J32),(H32-K32))</f>
+        <f t="shared" ref="L32:L33" si="0">AVERAGE(O32,P32,Q32)</f>
         <v>300</v>
       </c>
       <c r="M32" s="2">
@@ -2697,27 +2739,36 @@
         <v>866.66666666666663</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O32" s="2">
+        <f t="shared" ref="O32:O48" si="1">IF((F32-I32)&lt;0, 0,(F32-I32))</f>
+        <v>200</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" ref="P32:P48" si="2">IF((G32-J32)&lt;0,0,(G32-J32))</f>
+        <v>400</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" ref="Q32:Q48" si="3">IF((H32-K32)&lt;0,0,(H32-K32))</f>
+        <v>300</v>
+      </c>
+      <c r="R32" s="48"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="71">
         <f>L33/M33</f>
         <v>0.80000000000000016</v>
       </c>
-      <c r="D33" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="78" t="s">
+      <c r="D33" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="2">
@@ -2739,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>AVERAGE((F33-I33),(G33-J33),(H33-K33))</f>
+        <f t="shared" si="0"/>
         <v>266.66666666666669</v>
       </c>
       <c r="M33" s="2">
@@ -2747,26 +2798,35 @@
         <v>333.33333333333331</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O33" s="2">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="48"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="79" t="s">
+      <c r="D34" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="73" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2794,26 +2854,32 @@
         <v>48</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="74">
         <v>-1000000</v>
       </c>
-      <c r="D35" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="78" t="s">
+      <c r="D35" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="72" t="s">
         <v>67</v>
       </c>
       <c r="F35" s="2">
@@ -2839,30 +2905,39 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <f>F35/3</f>
+        <f>AVERAGE(F35,G35,H35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="7"/>
+      <c r="O35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="49"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S35" s="48"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="78" t="s">
+      <c r="D36" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="87" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="14" t="s">
@@ -2883,31 +2958,39 @@
       <c r="K36" s="2">
         <v>-2500</v>
       </c>
-      <c r="L36" s="2" t="e">
-        <f>AVERAGE((F36-I36),(G36-J36),(H36-K36))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" s="2" t="e">
-        <f>AVERAGE(F36,G36,H36)</f>
-        <v>#DIV/0!</v>
+      <c r="L36" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" s="86" t="s">
+        <v>48</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="49"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="78" t="s">
+      <c r="D37" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="87" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="17">
@@ -2928,187 +3011,241 @@
       <c r="K37" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="2" t="e">
-        <f t="shared" ref="L37:L48" si="0">AVERAGE((F37-I37),(G37-J37),(H37-K37))</f>
-        <v>#VALUE!</v>
+      <c r="L37" s="86" t="s">
+        <v>48</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" ref="M37:M48" si="1">AVERAGE(F37,G37,H37)</f>
+        <f t="shared" ref="M37:M48" si="4">AVERAGE(F37,G37,H37)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="49"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17">
+        <v>500</v>
+      </c>
+      <c r="G38" s="17">
+        <v>300</v>
+      </c>
+      <c r="H38" s="17">
+        <v>600</v>
+      </c>
+      <c r="I38" s="17">
+        <v>800</v>
+      </c>
+      <c r="J38" s="17">
+        <v>700</v>
+      </c>
+      <c r="K38" s="17">
+        <v>900</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" ref="L38:L48" si="5">AVERAGE(O38,P38,Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" si="4"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="64">
+        <v>0</v>
+      </c>
+      <c r="S38" s="64">
+        <v>466</v>
+      </c>
+      <c r="T38" s="17">
+        <v>0</v>
+      </c>
+      <c r="U38" s="64"/>
+      <c r="V38" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="43">
-        <v>0</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="2">
-        <v>500</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="C39" s="14">
+        <v>-1000000</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="17">
+        <v>-500</v>
+      </c>
+      <c r="G39" s="17">
         <v>300</v>
       </c>
-      <c r="H38" s="2">
-        <v>600</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="H39" s="17">
+        <v>200</v>
+      </c>
+      <c r="I39" s="17">
         <v>800</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J39" s="17">
         <v>700</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K39" s="17">
         <v>900</v>
       </c>
-      <c r="L38" s="2">
-        <f t="shared" si="0"/>
-        <v>-333.33333333333331</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L39" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17">
         <f t="shared" si="1"/>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="82">
-        <v>0</v>
-      </c>
-      <c r="P38" s="82">
-        <v>466</v>
-      </c>
-      <c r="Q38" s="43">
-        <v>0</v>
-      </c>
-      <c r="R38" s="82"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="17">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <v>0</v>
+      </c>
+      <c r="T39" s="90">
+        <v>-1000000</v>
+      </c>
+      <c r="U39" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="V39" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="17">
         <v>-500</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G40" s="17">
         <v>300</v>
       </c>
-      <c r="H39" s="2">
-        <v>200</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="H40" s="17">
+        <v>100</v>
+      </c>
+      <c r="I40" s="17">
         <v>800</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J40" s="17">
         <v>700</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="17">
         <v>900</v>
       </c>
-      <c r="L39" s="2">
-        <f t="shared" si="0"/>
-        <v>-800</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="L40" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" si="4"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="43">
-        <v>0</v>
-      </c>
-      <c r="P39" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="83">
-        <v>-1000000</v>
-      </c>
-      <c r="R39" s="81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="P40" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="64">
+        <v>0</v>
+      </c>
+      <c r="S40" s="64">
+        <v>-33</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="U40" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="V40" s="50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C41" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-500</v>
-      </c>
-      <c r="G40" s="2">
-        <v>300</v>
-      </c>
-      <c r="H40" s="2">
-        <v>100</v>
-      </c>
-      <c r="I40" s="2">
-        <v>800</v>
-      </c>
-      <c r="J40" s="2">
-        <v>700</v>
-      </c>
-      <c r="K40" s="2">
-        <v>900</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="0"/>
-        <v>-833.33333333333337</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="1"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="82">
-        <v>0</v>
-      </c>
-      <c r="P40" s="82">
-        <v>-33</v>
-      </c>
-      <c r="Q40" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="R40" s="82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="78" t="s">
-        <v>74</v>
+      <c r="D41" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="F41" s="2">
         <v>-500</v>
@@ -3128,32 +3265,45 @@
       <c r="K41" s="2">
         <v>50</v>
       </c>
-      <c r="L41" s="2">
-        <f t="shared" si="0"/>
+      <c r="L41" s="86">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="M41" s="2">
+        <f t="shared" si="4"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2">
         <f t="shared" si="1"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="49"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q41" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>74</v>
+      <c r="D42" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="F42" s="2">
         <v>-500</v>
@@ -3173,40 +3323,57 @@
       <c r="K42" s="2">
         <v>1000</v>
       </c>
-      <c r="L42" s="43">
-        <f t="shared" si="0"/>
-        <v>-800</v>
-      </c>
-      <c r="M42" s="43">
+      <c r="L42" s="86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="42">
+        <f t="shared" si="4"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2">
         <f t="shared" si="1"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="43">
-        <v>0</v>
-      </c>
-      <c r="P42" s="43">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="42">
+        <v>0</v>
+      </c>
+      <c r="S42" s="42">
         <v>-33</v>
       </c>
-      <c r="Q42" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="R42" s="81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T42" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="U42" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="V42" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>74</v>
+      <c r="D43" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="F43" s="2">
         <v>-500</v>
@@ -3226,32 +3393,49 @@
       <c r="K43" s="2">
         <v>100</v>
       </c>
-      <c r="L43" s="2">
-        <f t="shared" si="0"/>
+      <c r="L43" s="86">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
+        <f t="shared" si="4"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2">
         <f t="shared" si="1"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="49"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="W43" s="89"/>
+      <c r="X43" s="89"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>79</v>
+      <c r="D44" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="F44" s="2">
         <v>-500</v>
@@ -3271,41 +3455,58 @@
       <c r="K44" s="2">
         <v>900</v>
       </c>
-      <c r="L44" s="43">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="M44" s="43">
+      <c r="L44" s="86">
+        <f t="shared" si="5"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M44" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="43">
+        <v>300</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="Q44" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="42">
         <v>433</v>
       </c>
-      <c r="P44" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="83">
+      <c r="S44" s="42">
+        <v>0</v>
+      </c>
+      <c r="T44" s="76">
         <v>1000000</v>
       </c>
-      <c r="R44" s="81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="V44" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+    </row>
+    <row r="45" spans="2:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="85">
+        <v>82</v>
+      </c>
+      <c r="C45" s="77">
         <f>N45</f>
         <v>999999</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="78" t="s">
         <v>204</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>205</v>
       </c>
       <c r="F45" s="7">
         <v>500</v>
@@ -3326,33 +3527,46 @@
         <v>100</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L39:L48" si="6">AVERAGE((F45-I45),(G45-J45),(H45-K45))</f>
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="N45" s="7">
         <f>IF(AND(D45 &lt;&gt; "AC", (L45/M45)=0),999999,"")</f>
         <v>999999</v>
       </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="51"/>
-    </row>
-    <row r="46" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="14"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+    </row>
+    <row r="46" spans="2:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="85">
-        <v>0</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E46" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="77">
+        <v>0</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F46" s="2">
@@ -3374,33 +3588,46 @@
         <v>100</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M46" s="2">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" ref="N46:N48" si="7">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="2">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="N46" s="7" t="str">
-        <f t="shared" ref="N46:N48" si="2">IF(AND(D46 &lt;&gt; "AC", (L46/M46)=0),999999,"")</f>
-        <v/>
-      </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="51"/>
-    </row>
-    <row r="47" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="14"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+    </row>
+    <row r="47" spans="2:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="85">
+        <v>90</v>
+      </c>
+      <c r="C47" s="77">
         <v>0.34639999999999999</v>
       </c>
-      <c r="D47" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="E47" s="78" t="s">
+      <c r="D47" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F47" s="2">
@@ -3422,33 +3649,46 @@
         <v>600</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="M47" s="2">
+        <f t="shared" si="4"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O47" s="2">
         <f t="shared" si="1"/>
-        <v>866.66666666666663</v>
-      </c>
-      <c r="N47" s="7" t="str">
+        <v>200</v>
+      </c>
+      <c r="P47" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="51"/>
-    </row>
-    <row r="48" spans="2:22" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="R47" s="14"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="50"/>
+    </row>
+    <row r="48" spans="2:24" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="80">
+        <v>91</v>
+      </c>
+      <c r="C48" s="74">
         <v>0.34639999999999999</v>
       </c>
-      <c r="D48" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="78" t="s">
+      <c r="D48" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F48" s="2">
@@ -3470,31 +3710,44 @@
         <v>600</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="M48" s="2">
+        <f t="shared" si="4"/>
+        <v>866.66666666666663</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O48" s="2">
         <f t="shared" si="1"/>
-        <v>866.66666666666663</v>
-      </c>
-      <c r="N48" s="7" t="str">
+        <v>200</v>
+      </c>
+      <c r="P48" s="2">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="51"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="Q48" s="2">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="R48" s="14"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="47"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="46"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -3503,25 +3756,25 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>44</v>
@@ -3530,37 +3783,37 @@
         <v>45</v>
       </c>
       <c r="M51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O51" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P51" s="42" t="s">
+      <c r="P51" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q51" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="Q51" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="R51" s="42" t="s">
+      <c r="R51" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="S51" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="S51" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="2">
         <f>K52/L52</f>
         <v>0</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="2">
         <v>2500</v>
       </c>
@@ -3602,28 +3855,28 @@
       <c r="P52" s="2">
         <v>0</v>
       </c>
-      <c r="Q52" s="45">
+      <c r="Q52" s="44">
         <v>1600</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
-      <c r="S52" s="49"/>
-      <c r="T52" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="U52" s="74"/>
-      <c r="V52" s="74"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S52" s="48"/>
+      <c r="T52" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="2">
         <f>K53/L53</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D53" s="49"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="2">
         <v>1000</v>
       </c>
@@ -3651,7 +3904,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M60" si="3">IF((H53-E53)&lt;0,0,(H53-E53))</f>
+        <f t="shared" ref="M53:M60" si="8">IF((H53-E53)&lt;0,0,(H53-E53))</f>
         <v>500</v>
       </c>
       <c r="N53" s="2">
@@ -3659,7 +3912,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" ref="O53:O60" si="4">IF((J53-G53)&lt;0,0,(J53-G53))</f>
+        <f>IF((J53-G53)&lt;0,0,(J53-G53))</f>
         <v>400</v>
       </c>
       <c r="P53" s="2">
@@ -3671,16 +3924,16 @@
       <c r="R53" s="2">
         <v>0.4</v>
       </c>
-      <c r="S53" s="49"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S53" s="48"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="48" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -3715,26 +3968,26 @@
         <v>48</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S54" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S54" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="17">
         <v>0</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E55" s="17">
@@ -3756,11 +4009,11 @@
         <v>-500</v>
       </c>
       <c r="K55" s="17">
-        <f t="shared" ref="K55:K56" si="5">AVERAGE(M55,N55,O55)</f>
+        <f>AVERAGE(M55,N55,O55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ref="L55:L56" si="6">AVERAGE(E55,F55,G55)</f>
+        <f t="shared" ref="L55:L56" si="9">AVERAGE(E55,F55,G55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="2">
@@ -3768,11 +4021,11 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" ref="N55" si="7">IF((I55-F55)&lt;0,0,(I55-F55))</f>
+        <f t="shared" ref="N55" si="10">IF((I55-F55)&lt;0,0,(I55-F55))</f>
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="4"/>
+        <f>IF((J55-G55)&lt;0,0,(J55-G55))</f>
         <v>0</v>
       </c>
       <c r="P55" s="17">
@@ -3784,19 +4037,19 @@
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="49" t="s">
+      <c r="S55" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" s="20">
         <v>1000000</v>
       </c>
-      <c r="D56" s="49" t="s">
-        <v>96</v>
+      <c r="D56" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="E56" s="2">
         <v>-500</v>
@@ -3817,46 +4070,46 @@
         <v>900</v>
       </c>
       <c r="K56" s="17">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(M56,N56,O56)</f>
         <v>800</v>
       </c>
       <c r="L56" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1300</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" ref="N56:N60" si="8">IF((I56-F56)&lt;0,0,(I56-F56))</f>
+        <f t="shared" ref="N56:N60" si="11">IF((I56-F56)&lt;0,0,(I56-F56))</f>
         <v>400</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="4"/>
+        <f>IF((J56-G56)&lt;0,0,(J56-G56))</f>
         <v>700</v>
       </c>
-      <c r="P56" s="45">
+      <c r="P56" s="44">
         <v>800</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
       </c>
-      <c r="R56" s="45">
+      <c r="R56" s="44">
         <v>1000000</v>
       </c>
-      <c r="S56" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S56" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="48" t="s">
         <v>65</v>
       </c>
       <c r="E57" s="18" t="s">
@@ -3894,26 +4147,26 @@
         <v>48</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S57" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S57" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="48" t="s">
         <v>70</v>
       </c>
       <c r="E58" s="17">
@@ -3951,27 +4204,27 @@
         <v>48</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q58" s="2">
         <v>466.67</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S58" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S58" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="49" t="s">
-        <v>74</v>
+      <c r="D59" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="E59" s="17">
         <v>-500</v>
@@ -3996,19 +4249,19 @@
         <v>-333.33333333333331</v>
       </c>
       <c r="L59" s="17">
-        <f t="shared" ref="L59:L60" si="9">AVERAGE(E59,F59,G59)</f>
+        <f t="shared" ref="L59:L60" si="12">AVERAGE(E59,F59,G59)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="4"/>
+        <f>IF((J59-G59)&lt;0,0,(J59-G59))</f>
         <v>0</v>
       </c>
       <c r="P59" s="17">
@@ -4018,22 +4271,22 @@
         <v>-33.33</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S59" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="S59" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="49" t="s">
-        <v>74</v>
+      <c r="D60" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="E60" s="2">
         <v>-500</v>
@@ -4054,23 +4307,23 @@
         <v>100</v>
       </c>
       <c r="K60" s="17">
-        <f t="shared" ref="K60" si="10">AVERAGE((H60-E60),(I60-F60),(J60-G60))</f>
+        <f t="shared" ref="K60" si="13">AVERAGE((H60-E60),(I60-F60),(J60-G60))</f>
         <v>0</v>
       </c>
       <c r="L60" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="4"/>
+        <f>IF((J60-G60)&lt;0,0,(J60-G60))</f>
         <v>0</v>
       </c>
       <c r="P60" s="2">
@@ -4080,21 +4333,21 @@
         <v>-33.33</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="S60" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="S60" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R61" s="39"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="47"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B62" s="46"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -4103,25 +4356,25 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>44</v>
@@ -4130,37 +4383,37 @@
         <v>45</v>
       </c>
       <c r="M63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P63" s="42" t="s">
+      <c r="P63" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q63" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="Q63" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="R63" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="S63" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R63" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="S63" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2">
         <f>K64/L64</f>
         <v>0</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="2">
         <v>2500</v>
       </c>
@@ -4188,42 +4441,42 @@
         <v>1600</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" ref="M64:O65" si="11">IF((H64-E64)&lt;0,0,(H64-E64))</f>
+        <f t="shared" ref="M64:N65" si="14">IF((H64-E64)&lt;0,0,(H64-E64))</f>
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="11"/>
+        <f>IF((J64-G64)&lt;0,0,(J64-G64))</f>
         <v>0</v>
       </c>
       <c r="P64" s="2">
         <v>0</v>
       </c>
-      <c r="Q64" s="45">
+      <c r="Q64" s="44">
         <v>1600</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
       </c>
-      <c r="S64" s="49"/>
-      <c r="T64" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="U64" s="74"/>
-      <c r="V64" s="74"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S64" s="48"/>
+      <c r="T64" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="U64" s="83"/>
+      <c r="V64" s="83"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C65" s="2">
         <f>K65/L65</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="2">
         <v>1000</v>
       </c>
@@ -4251,15 +4504,15 @@
         <v>833.33333333333337</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="11"/>
+        <f>IF((J65-G65)&lt;0,0,(J65-G65))</f>
         <v>400</v>
       </c>
       <c r="P65" s="2">
@@ -4271,16 +4524,16 @@
       <c r="R65" s="2">
         <v>0.4</v>
       </c>
-      <c r="S65" s="49"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="48"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B66" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="49" t="s">
+      <c r="D66" s="48" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -4317,26 +4570,26 @@
         <v>48</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S66" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S66" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="17">
         <v>0</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E67" s="17">
@@ -4366,15 +4619,15 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" ref="M67:M72" si="12">IF((H67-E67)&lt;0,0,(H67-E67))</f>
+        <f t="shared" ref="M67:M72" si="15">IF((H67-E67)&lt;0,0,(H67-E67))</f>
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" ref="N67:N72" si="13">IF((I67-F67)&lt;0,0,(I67-F67))</f>
+        <f t="shared" ref="N67:N72" si="16">IF((I67-F67)&lt;0,0,(I67-F67))</f>
         <v>0</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O72" si="14">IF((J67-G67)&lt;0,0,(J67-G67))</f>
+        <f t="shared" ref="O67:O72" si="17">IF((J67-G67)&lt;0,0,(J67-G67))</f>
         <v>0</v>
       </c>
       <c r="P67" s="17">
@@ -4386,19 +4639,19 @@
       <c r="R67" s="7">
         <v>0</v>
       </c>
-      <c r="S67" s="49" t="s">
+      <c r="S67" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C68" s="20">
         <v>1000000</v>
       </c>
-      <c r="D68" s="49" t="s">
-        <v>96</v>
+      <c r="D68" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="E68" s="2">
         <v>-500</v>
@@ -4427,15 +4680,15 @@
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1300</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>700</v>
       </c>
       <c r="P68" s="2">
@@ -4444,21 +4697,21 @@
       <c r="Q68" s="2">
         <v>0</v>
       </c>
-      <c r="R68" s="45">
+      <c r="R68" s="44">
         <v>1000000</v>
       </c>
-      <c r="S68" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="49" t="s">
+      <c r="D69" s="48" t="s">
         <v>65</v>
       </c>
       <c r="E69" s="18" t="s">
@@ -4496,26 +4749,26 @@
         <v>48</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S69" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S69" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="48" t="s">
         <v>70</v>
       </c>
       <c r="E70" s="17">
@@ -4553,27 +4806,27 @@
         <v>48</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q70" s="2">
         <v>466.67</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S70" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="S70" s="48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>74</v>
+      <c r="D71" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="E71" s="17">
         <v>-500</v>
@@ -4594,23 +4847,23 @@
         <v>-1000</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" ref="K71:K72" si="15">AVERAGE((E71-H71),(F71-I71),(G71-J71))</f>
+        <f t="shared" ref="K71:K72" si="18">AVERAGE((E71-H71),(F71-I71),(G71-J71))</f>
         <v>333.33333333333331</v>
       </c>
       <c r="L71" s="17">
-        <f t="shared" ref="L71:L72" si="16">AVERAGE(E71,F71,G71)</f>
+        <f t="shared" ref="L71:L72" si="19">AVERAGE(E71,F71,G71)</f>
         <v>-33.333333333333336</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1100</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P71" s="2">
@@ -4620,21 +4873,21 @@
         <v>-33.33</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S71" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="S71" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>74</v>
+      <c r="D72" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="E72" s="2">
         <v>-500</v>
@@ -4655,23 +4908,23 @@
         <v>100</v>
       </c>
       <c r="K72" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="17">
+        <f t="shared" si="19"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="M72" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L72" s="17">
+      <c r="N72" s="2">
         <f t="shared" si="16"/>
-        <v>-33.333333333333336</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P72" s="2">
@@ -4681,18 +4934,18 @@
         <v>-33.33</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="S72" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B74" s="47"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="S72" s="48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B74" s="46"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1</v>
@@ -4701,25 +4954,25 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>44</v>
@@ -4727,23 +4980,23 @@
       <c r="L75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M75" s="42" t="s">
+      <c r="M75" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="N75" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="N75" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="O75" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="P75" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="P75" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
       <c r="B76" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="2">
         <f>K76/L76</f>
@@ -4785,12 +5038,12 @@
       <c r="O76" s="2">
         <v>1.0528999999999999</v>
       </c>
-      <c r="P76" s="49"/>
-    </row>
-    <row r="77" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="48"/>
+    </row>
+    <row r="77" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="22"/>
       <c r="B77" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2">
         <f>K77/L77</f>
@@ -4832,11 +5085,11 @@
       <c r="O77" s="2">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P77" s="49"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P77" s="48"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>4</v>
@@ -4869,21 +5122,21 @@
         <v>48</v>
       </c>
       <c r="M78" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P78" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="P78" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="20">
         <v>0</v>
@@ -4914,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ref="L79:L83" si="17">AVERAGE(H79,I79,J79)/AVERAGE(E79,F79,G79)</f>
+        <f t="shared" ref="L79:L83" si="20">AVERAGE(H79,I79,J79)/AVERAGE(E79,F79,G79)</f>
         <v>0</v>
       </c>
       <c r="M79" s="2">
@@ -4926,13 +5179,13 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" s="49" t="s">
+      <c r="P79" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -4962,25 +5215,25 @@
         <v>48</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N80" s="2">
         <v>0.444444444444</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P80" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="P80" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>4</v>
@@ -5010,25 +5263,25 @@
         <v>48</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N81" s="2">
         <v>0</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P81" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="P81" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82" s="7">
         <f>K82/L82</f>
@@ -5058,7 +5311,7 @@
         <v>0.625</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.625</v>
       </c>
       <c r="M82" s="2">
@@ -5070,17 +5323,17 @@
       <c r="O82" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P82" s="49"/>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P82" s="48"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2">
         <v>800</v>
@@ -5105,25 +5358,25 @@
         <v>0.875</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M83" s="2">
         <v>0.88</v>
       </c>
-      <c r="N83" s="45">
-        <v>0</v>
-      </c>
-      <c r="O83" s="45">
+      <c r="N83" s="44">
+        <v>0</v>
+      </c>
+      <c r="O83" s="44">
         <v>1000000</v>
       </c>
-      <c r="P83" s="49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
@@ -5132,78 +5385,78 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T86" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="U86" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="V86" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="W86" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="X86" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T86" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="U86" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="V86" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="W86" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="X86" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y86" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z86" s="72"/>
-      <c r="AA86" s="72"/>
-      <c r="AB86" s="72"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y86" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z86" s="81"/>
+      <c r="AA86" s="81"/>
+      <c r="AB86" s="81"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" s="2">
         <f>AVERAGE(SUM(E87,H87,K87,N87,Q87),SUM(F87,I87,L87,O87,R87),SUM(G87,J87,M87,P87,S87))</f>
@@ -5255,33 +5508,33 @@
       <c r="S87" s="24">
         <v>300</v>
       </c>
-      <c r="T87" s="46">
+      <c r="T87" s="45">
         <v>3300</v>
       </c>
-      <c r="U87" s="46">
+      <c r="U87" s="45">
         <v>3200</v>
       </c>
-      <c r="V87" s="45">
+      <c r="V87" s="44">
         <v>2900</v>
       </c>
-      <c r="W87" s="45">
+      <c r="W87" s="44">
         <v>3133.33</v>
       </c>
       <c r="X87" s="2"/>
-      <c r="Y87" s="72"/>
-      <c r="Z87" s="72"/>
-      <c r="AA87" s="72"/>
-      <c r="AB87" s="72"/>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y87" s="81"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="81"/>
+      <c r="AB87" s="81"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>48</v>
@@ -5338,25 +5591,25 @@
         <v>0</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y88" s="72"/>
-      <c r="Z88" s="72"/>
-      <c r="AA88" s="72"/>
-      <c r="AB88" s="72"/>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="Y88" s="81"/>
+      <c r="Z88" s="81"/>
+      <c r="AA88" s="81"/>
+      <c r="AB88" s="81"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="V89" s="11"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B90" s="47"/>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B90" s="46"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -5365,31 +5618,31 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H91" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I91" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H91" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="J91" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="59" t="s">
-        <v>122</v>
+      <c r="J91" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="58" t="s">
+        <v>121</v>
       </c>
       <c r="C92" s="2">
         <f>AVERAGE(E92,F92,G92)</f>
@@ -5410,18 +5663,18 @@
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B93" s="59" t="s">
-        <v>323</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B93" s="58" t="s">
+        <v>322</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>48</v>
@@ -5436,48 +5689,48 @@
         <v>4</v>
       </c>
       <c r="I93" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B94" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B94" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="C94" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="E94" s="43">
+      <c r="E94" s="42">
         <v>-1000</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="42">
         <v>-500</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="42">
         <v>400</v>
       </c>
-      <c r="H94" s="43">
+      <c r="H94" s="42">
         <v>-366</v>
       </c>
-      <c r="I94" s="43" t="s">
-        <v>153</v>
+      <c r="I94" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="K95" s="11"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
@@ -5486,25 +5739,25 @@
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>44</v>
@@ -5512,22 +5765,22 @@
       <c r="L97" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M97" s="42" t="s">
+      <c r="M97" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="N97" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="N97" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="O97" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="P97" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O97" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="P97" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C98" s="2">
         <f>K98/L98</f>
@@ -5563,17 +5816,17 @@
       <c r="M98" s="2">
         <v>483.33</v>
       </c>
-      <c r="N98" s="45">
+      <c r="N98" s="44">
         <v>1200</v>
       </c>
       <c r="O98" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="P98" s="49"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P98" s="48"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="2">
         <f>K99/L99</f>
@@ -5609,23 +5862,23 @@
       <c r="M99" s="2">
         <v>375</v>
       </c>
-      <c r="N99" s="45">
+      <c r="N99" s="44">
         <v>1000</v>
       </c>
       <c r="O99" s="2">
         <v>0.375</v>
       </c>
-      <c r="P99" s="49"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P99" s="48"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>48</v>
@@ -5652,27 +5905,27 @@
         <v>48</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P100" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P100" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C101" s="65">
+        <v>246</v>
+      </c>
+      <c r="C101" s="64">
         <v>999999</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E101" s="17">
         <v>500</v>
@@ -5693,11 +5946,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="17">
-        <f t="shared" ref="K101:K110" si="18">AVERAGE(E101,F101,G101)</f>
+        <f t="shared" ref="K101:K110" si="21">AVERAGE(E101,F101,G101)</f>
         <v>0</v>
       </c>
       <c r="L101" s="17">
-        <f t="shared" ref="L101:L110" si="19">AVERAGE(H101,I101,J101)</f>
+        <f t="shared" ref="L101:L110" si="22">AVERAGE(H101,I101,J101)</f>
         <v>0</v>
       </c>
       <c r="M101" s="17">
@@ -5706,22 +5959,22 @@
       <c r="N101" s="17">
         <v>0</v>
       </c>
-      <c r="O101" s="45">
+      <c r="O101" s="44">
         <v>999999</v>
       </c>
-      <c r="P101" s="51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P101" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C102" s="24">
         <v>1000000</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E102" s="2">
         <v>250</v>
@@ -5742,11 +5995,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>250</v>
       </c>
       <c r="L102" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M102" s="2">
@@ -5755,22 +6008,22 @@
       <c r="N102" s="2">
         <v>0</v>
       </c>
-      <c r="O102" s="45">
+      <c r="O102" s="44">
         <v>1000000</v>
       </c>
-      <c r="P102" s="49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P102" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E103" s="2">
         <v>100</v>
@@ -5791,7 +6044,7 @@
         <v>48</v>
       </c>
       <c r="K103" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="L103" s="17" t="s">
@@ -5801,24 +6054,24 @@
         <v>200</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P103" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P103" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>48</v>
@@ -5842,31 +6095,31 @@
         <v>48</v>
       </c>
       <c r="L104" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2500</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N104" s="45">
+        <v>206</v>
+      </c>
+      <c r="N104" s="44">
         <v>2500</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P104" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P104" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2">
         <v>500</v>
@@ -5887,35 +6140,35 @@
         <v>1300</v>
       </c>
       <c r="K105" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-100</v>
       </c>
       <c r="L105" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1300</v>
       </c>
       <c r="M105" s="2">
         <v>-100</v>
       </c>
-      <c r="N105" s="45">
+      <c r="N105" s="44">
         <v>1300</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P105" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P105" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2">
         <v>500</v>
@@ -5936,11 +6189,11 @@
         <v>0</v>
       </c>
       <c r="K106" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-100</v>
       </c>
       <c r="L106" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M106" s="2">
@@ -5950,21 +6203,21 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P106" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P106" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E107" s="2">
         <v>500</v>
@@ -5985,11 +6238,11 @@
         <v>-800</v>
       </c>
       <c r="K107" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-100</v>
       </c>
       <c r="L107" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-800</v>
       </c>
       <c r="M107" s="2">
@@ -5999,21 +6252,21 @@
         <v>-800</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P107" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P107" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E108" s="2">
         <v>250</v>
@@ -6034,35 +6287,35 @@
         <v>-1200</v>
       </c>
       <c r="K108" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>350</v>
       </c>
       <c r="L108" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1200</v>
       </c>
       <c r="M108" s="2">
         <v>350</v>
       </c>
-      <c r="N108" s="45">
+      <c r="N108" s="44">
         <v>-1200</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P108" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P108" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E109" s="17">
         <v>0</v>
@@ -6083,35 +6336,35 @@
         <v>-1000</v>
       </c>
       <c r="K109" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L109" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1000</v>
       </c>
       <c r="M109" s="2">
         <v>0</v>
       </c>
-      <c r="N109" s="45">
+      <c r="N109" s="44">
         <v>-1000</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P109" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P109" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E110" s="2">
         <v>-200</v>
@@ -6132,11 +6385,11 @@
         <v>-700</v>
       </c>
       <c r="K110" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-200</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-700</v>
       </c>
       <c r="M110" s="2">
@@ -6146,18 +6399,18 @@
         <v>-700</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P110" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="47"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P110" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B112" s="46"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -6166,25 +6419,25 @@
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>44</v>
@@ -6192,23 +6445,23 @@
       <c r="L113" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M113" s="42" t="s">
+      <c r="M113" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="N113" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="N113" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="O113" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="P113" s="52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="66"/>
+      <c r="O113" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="P113" s="51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="65"/>
       <c r="B114" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C114" s="2">
         <f>K114/L114</f>
@@ -6250,11 +6503,11 @@
       <c r="O114" s="2">
         <v>0.3947</v>
       </c>
-      <c r="P114" s="49"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P114" s="48"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C115" s="2">
         <f>K115/L115</f>
@@ -6296,17 +6549,17 @@
       <c r="O115" s="2">
         <v>0.2</v>
       </c>
-      <c r="P115" s="49"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P115" s="48"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>48</v>
@@ -6333,27 +6586,27 @@
         <v>48</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P116" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P116" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="24">
         <v>999999</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="2">
         <v>-500</v>
@@ -6374,11 +6627,11 @@
         <v>600</v>
       </c>
       <c r="K117" s="17">
-        <f t="shared" ref="K117:K126" si="20">AVERAGE(E117,F117,G117)</f>
+        <f t="shared" ref="K117:K126" si="23">AVERAGE(E117,F117,G117)</f>
         <v>0</v>
       </c>
       <c r="L117" s="17">
-        <f t="shared" ref="L117:L118" si="21">AVERAGE(H117,I117,J117)</f>
+        <f t="shared" ref="L117:L118" si="24">AVERAGE(H117,I117,J117)</f>
         <v>0</v>
       </c>
       <c r="M117" s="2">
@@ -6387,22 +6640,22 @@
       <c r="N117" s="2">
         <v>0</v>
       </c>
-      <c r="O117" s="45">
+      <c r="O117" s="44">
         <v>999999</v>
       </c>
-      <c r="P117" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P117" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C118" s="24">
         <v>1000000</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E118" s="17">
         <v>200</v>
@@ -6423,11 +6676,11 @@
         <v>600</v>
       </c>
       <c r="K118" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>200</v>
       </c>
       <c r="L118" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M118" s="17">
@@ -6436,22 +6689,22 @@
       <c r="N118" s="17">
         <v>0</v>
       </c>
-      <c r="O118" s="45">
+      <c r="O118" s="44">
         <v>1000000</v>
       </c>
-      <c r="P118" s="51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P118" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E119" s="2">
         <v>350</v>
@@ -6472,7 +6725,7 @@
         <v>48</v>
       </c>
       <c r="K119" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>300</v>
       </c>
       <c r="L119" s="17" t="s">
@@ -6482,24 +6735,24 @@
         <v>300</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O119" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P119" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="O119" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P119" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>48</v>
@@ -6527,27 +6780,27 @@
         <v>416.66666666666669</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N120" s="2">
         <v>416.67</v>
       </c>
-      <c r="O120" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P120" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O120" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P120" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2">
         <v>250</v>
@@ -6568,7 +6821,7 @@
         <v>700</v>
       </c>
       <c r="K121" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L121" s="17">
@@ -6582,21 +6835,21 @@
         <v>416.67</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P121" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P121" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2">
         <v>250</v>
@@ -6617,7 +6870,7 @@
         <v>50</v>
       </c>
       <c r="K122" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L122" s="17">
@@ -6630,22 +6883,22 @@
       <c r="N122" s="2">
         <v>0</v>
       </c>
-      <c r="O122" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P122" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O122" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P122" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E123" s="2">
         <v>250</v>
@@ -6666,7 +6919,7 @@
         <v>200</v>
       </c>
       <c r="K123" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L123" s="17">
@@ -6680,21 +6933,21 @@
         <v>-16.670000000000002</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P123" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P123" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E124" s="2">
         <v>150</v>
@@ -6715,7 +6968,7 @@
         <v>-700</v>
       </c>
       <c r="K124" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>150</v>
       </c>
       <c r="L124" s="17">
@@ -6729,21 +6982,21 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P124" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P124" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E125" s="2">
         <v>-200</v>
@@ -6764,11 +7017,11 @@
         <v>-700</v>
       </c>
       <c r="K125" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L125" s="17">
-        <f t="shared" ref="L125:L126" si="22">AVERAGE(H125,I125,J125)</f>
+        <f t="shared" ref="L125:L126" si="25">AVERAGE(H125,I125,J125)</f>
         <v>-133.33333333333334</v>
       </c>
       <c r="M125" s="2">
@@ -6778,21 +7031,21 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P125" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P125" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B126" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E126" s="17">
         <v>450</v>
@@ -6813,34 +7066,34 @@
         <v>-700</v>
       </c>
       <c r="K126" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L126" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M126" s="29">
-        <f t="shared" ref="M126" si="23">AVERAGE(G126,H126,I126)</f>
+        <f t="shared" ref="M126" si="26">AVERAGE(G126,H126,I126)</f>
         <v>-83.333333333333329</v>
       </c>
       <c r="N126" s="17">
-        <f t="shared" ref="N126" si="24">AVERAGE(J126,K126,L126)</f>
+        <f t="shared" ref="N126" si="27">AVERAGE(J126,K126,L126)</f>
         <v>-305.5555555555556</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P126" s="51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B128" s="47"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P126" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B128" s="46"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -6849,25 +7102,25 @@
         <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H129" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>44</v>
@@ -6875,23 +7128,23 @@
       <c r="L129" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M129" s="42" t="s">
+      <c r="M129" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="N129" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="N129" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="O129" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="P129" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
+      <c r="O129" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="P129" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="65"/>
       <c r="B130" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C130" s="2">
         <f>K130/L130</f>
@@ -6927,17 +7180,17 @@
       <c r="M130" s="2">
         <v>416.67</v>
       </c>
-      <c r="N130" s="45">
+      <c r="N130" s="44">
         <v>1000</v>
       </c>
       <c r="O130" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P130" s="49"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P130" s="48"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C131" s="2">
         <f>K131/L131</f>
@@ -6973,23 +7226,23 @@
       <c r="M131" s="2">
         <v>300</v>
       </c>
-      <c r="N131" s="45">
+      <c r="N131" s="44">
         <v>1300</v>
       </c>
       <c r="O131" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="P131" s="49"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P131" s="48"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>48</v>
@@ -7016,27 +7269,27 @@
         <v>48</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N132" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P132" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P132" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C133" s="24">
         <v>999999</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2">
         <v>-200</v>
@@ -7057,11 +7310,11 @@
         <v>0</v>
       </c>
       <c r="K133" s="2">
-        <f t="shared" ref="K133:K142" si="25">AVERAGE(E133,F133,G133)</f>
+        <f t="shared" ref="K133:K142" si="28">AVERAGE(E133,F133,G133)</f>
         <v>0</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" ref="L133:L142" si="26">AVERAGE(H133,I133,J133)</f>
+        <f t="shared" ref="L133:L142" si="29">AVERAGE(H133,I133,J133)</f>
         <v>0</v>
       </c>
       <c r="M133" s="2">
@@ -7070,22 +7323,22 @@
       <c r="N133" s="2">
         <v>0</v>
       </c>
-      <c r="O133" s="45">
+      <c r="O133" s="44">
         <v>999999</v>
       </c>
-      <c r="P133" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P133" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C134" s="24">
         <v>1000000</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E134" s="2">
         <v>200</v>
@@ -7106,11 +7359,11 @@
         <v>0</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>200</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M134" s="2">
@@ -7119,22 +7372,22 @@
       <c r="N134" s="2">
         <v>0</v>
       </c>
-      <c r="O134" s="45">
+      <c r="O134" s="44">
         <v>1000000</v>
       </c>
-      <c r="P134" s="49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P134" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E135" s="2">
         <v>300</v>
@@ -7155,7 +7408,7 @@
         <v>48</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>300</v>
       </c>
       <c r="L135" s="2" t="s">
@@ -7165,24 +7418,24 @@
         <v>300</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O135" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P135" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="O135" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P135" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>48</v>
@@ -7206,31 +7459,31 @@
         <v>48</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1500</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N136" s="45">
+        <v>206</v>
+      </c>
+      <c r="N136" s="44">
         <v>1500</v>
       </c>
-      <c r="O136" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P136" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O136" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P136" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2">
         <v>200</v>
@@ -7251,11 +7504,11 @@
         <v>700</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L137" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>700</v>
       </c>
       <c r="M137" s="2">
@@ -7265,21 +7518,21 @@
         <v>700</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P137" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P137" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2">
         <v>200</v>
@@ -7300,11 +7553,11 @@
         <v>0</v>
       </c>
       <c r="K138" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M138" s="2">
@@ -7313,22 +7566,22 @@
       <c r="N138" s="2">
         <v>0</v>
       </c>
-      <c r="O138" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P138" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O138" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P138" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E139" s="2">
         <v>200</v>
@@ -7349,11 +7602,11 @@
         <v>-800</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-800</v>
       </c>
       <c r="M139" s="2">
@@ -7363,21 +7616,21 @@
         <v>-800</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P139" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P139" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E140" s="2">
         <v>100</v>
@@ -7398,11 +7651,11 @@
         <v>-500</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-500</v>
       </c>
       <c r="M140" s="2">
@@ -7412,21 +7665,21 @@
         <v>-500</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P140" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P140" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" s="2">
         <v>-300</v>
@@ -7447,11 +7700,11 @@
         <v>700</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-200</v>
       </c>
       <c r="M141" s="2">
@@ -7461,21 +7714,21 @@
         <v>-200</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P141" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P141" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E142" s="17">
         <v>200</v>
@@ -7496,11 +7749,11 @@
         <v>-500</v>
       </c>
       <c r="K142" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="L142" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="M142" s="17">
@@ -7510,15 +7763,15 @@
         <v>-166.67</v>
       </c>
       <c r="O142" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="P142" s="51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P142" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1</v>
@@ -7527,25 +7780,25 @@
         <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="J145" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>44</v>
@@ -7553,23 +7806,23 @@
       <c r="L145" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M145" s="42" t="s">
+      <c r="M145" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="N145" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="N145" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="O145" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="P145" s="52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O145" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="P145" s="51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
       <c r="B146" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C146" s="2">
         <f>K146/L146</f>
@@ -7611,11 +7864,11 @@
       <c r="O146" s="2">
         <v>0.4</v>
       </c>
-      <c r="P146" s="49"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P146" s="48"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C147" s="2">
         <f>K147/L147</f>
@@ -7657,17 +7910,17 @@
       <c r="O147" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="P147" s="49"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P147" s="48"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>48</v>
@@ -7694,27 +7947,27 @@
         <v>48</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N148" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P148" s="49" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P148" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C149" s="24">
         <v>999999</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2">
         <v>700</v>
@@ -7735,11 +7988,11 @@
         <v>-400</v>
       </c>
       <c r="K149" s="2">
-        <f t="shared" ref="K149:K158" si="27">AVERAGE(E149,F149,G149)</f>
+        <f t="shared" ref="K149:K158" si="30">AVERAGE(E149,F149,G149)</f>
         <v>0</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" ref="L149:L158" si="28">AVERAGE(H149,I149,J149)</f>
+        <f t="shared" ref="L149:L158" si="31">AVERAGE(H149,I149,J149)</f>
         <v>0</v>
       </c>
       <c r="M149" s="2">
@@ -7748,22 +8001,22 @@
       <c r="N149" s="2">
         <v>0</v>
       </c>
-      <c r="O149" s="45">
+      <c r="O149" s="44">
         <v>999999</v>
       </c>
-      <c r="P149" s="49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P149" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" s="25">
         <v>1000000</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2">
         <v>500</v>
@@ -7784,11 +8037,11 @@
         <v>600</v>
       </c>
       <c r="K150" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M150" s="2">
@@ -7797,22 +8050,22 @@
       <c r="N150" s="2">
         <v>0</v>
       </c>
-      <c r="O150" s="45">
+      <c r="O150" s="44">
         <v>1000000</v>
       </c>
-      <c r="P150" s="49" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P150" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E151" s="2">
         <v>100</v>
@@ -7833,7 +8086,7 @@
         <v>48</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L151" s="2" t="s">
@@ -7843,24 +8096,24 @@
         <v>366.67</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O151" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P151" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="O151" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P151" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>48</v>
@@ -7884,31 +8137,31 @@
         <v>48</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>766.66666666666663</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N152" s="2">
         <v>766.67</v>
       </c>
-      <c r="O152" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P152" s="49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O152" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P152" s="48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2">
         <v>300</v>
@@ -7929,11 +8182,11 @@
         <v>400</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-200</v>
       </c>
       <c r="L153" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>500</v>
       </c>
       <c r="M153" s="2">
@@ -7943,21 +8196,21 @@
         <v>500</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P153" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P153" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2">
         <v>-200</v>
@@ -7978,11 +8231,11 @@
         <v>-800</v>
       </c>
       <c r="K154" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M154" s="2">
@@ -7991,22 +8244,22 @@
       <c r="N154" s="2">
         <v>0</v>
       </c>
-      <c r="O154" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="P154" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O154" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="P154" s="48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E155" s="2">
         <v>800</v>
@@ -8027,11 +8280,11 @@
         <v>-600</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-200</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-300</v>
       </c>
       <c r="M155" s="2">
@@ -8041,21 +8294,21 @@
         <v>-300</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P155" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P155" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E156" s="2">
         <v>200</v>
@@ -8076,11 +8329,11 @@
         <v>-300</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="M156" s="2">
@@ -8090,21 +8343,21 @@
         <v>-66.67</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P156" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P156" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E157" s="2">
         <v>400</v>
@@ -8125,11 +8378,11 @@
         <v>-600</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M157" s="2">
@@ -8139,21 +8392,21 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P157" s="49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P157" s="48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E158" s="2">
         <v>200</v>
@@ -8174,11 +8427,11 @@
         <v>-950</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-50</v>
       </c>
       <c r="M158" s="2">
@@ -8188,18 +8441,18 @@
         <v>-50</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P158" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B160" s="47"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="P158" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B160" s="46"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
@@ -8208,31 +8461,31 @@
         <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H161" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H161" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I161" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="J161" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I161" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J161" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="34"/>
       <c r="B162" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C162" s="2">
         <f>COUNT(E162,F162,G162)</f>
@@ -8253,13 +8506,13 @@
       </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="35"/>
       <c r="B163" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C163" s="2">
         <f>COUNT(E163,F163,G163)</f>
@@ -8280,13 +8533,13 @@
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="35"/>
       <c r="B164" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C164" s="2">
         <f>COUNT(E164,F164,G164)</f>
@@ -8307,19 +8560,19 @@
       </c>
       <c r="I164" s="31"/>
       <c r="J164" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="35"/>
       <c r="B165" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C165" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>48</v>
@@ -8331,24 +8584,24 @@
         <v>48</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -8357,29 +8610,29 @@
         <v>2</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H168" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H168" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I168" s="42" t="s">
-        <v>181</v>
+      <c r="I168" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="O168"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="34"/>
-      <c r="B169" s="59" t="s">
-        <v>306</v>
+      <c r="B169" s="58" t="s">
+        <v>305</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -8398,14 +8651,14 @@
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O169"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="35"/>
       <c r="B170" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C170" s="2">
         <v>1</v>
@@ -8426,10 +8679,10 @@
       <c r="I170" s="2"/>
       <c r="O170"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="35"/>
       <c r="B171" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -8450,16 +8703,16 @@
       <c r="I171" s="2"/>
       <c r="O171"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="35"/>
       <c r="B172" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C172" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>48</v>
@@ -8474,42 +8727,42 @@
         <v>4</v>
       </c>
       <c r="I172" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="C173" s="56">
-        <v>0</v>
-      </c>
-      <c r="D173" s="57" t="s">
+    <row r="173" spans="1:15" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="55">
+        <v>0</v>
+      </c>
+      <c r="D173" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E173" s="54">
+        <v>-1000</v>
+      </c>
+      <c r="F173" s="54">
+        <v>-100</v>
+      </c>
+      <c r="G173" s="54">
+        <v>2000</v>
+      </c>
+      <c r="H173" s="67"/>
+      <c r="I173" s="68"/>
+      <c r="J173" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="K173" s="85"/>
+      <c r="L173" s="57"/>
+      <c r="M173" s="57"/>
+      <c r="N173" s="57"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" s="33" t="s">
         <v>184</v>
-      </c>
-      <c r="E173" s="55">
-        <v>-1000</v>
-      </c>
-      <c r="F173" s="55">
-        <v>-100</v>
-      </c>
-      <c r="G173" s="55">
-        <v>2000</v>
-      </c>
-      <c r="H173" s="68"/>
-      <c r="I173" s="69"/>
-      <c r="J173" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="K173" s="76"/>
-      <c r="L173" s="58"/>
-      <c r="M173" s="58"/>
-      <c r="N173" s="58"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="33" t="s">
-        <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -8518,34 +8771,34 @@
         <v>2</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I176" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J176" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I176" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="J176" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="K176" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K176" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="34"/>
-      <c r="B177" s="59" t="s">
-        <v>310</v>
+      <c r="B177" s="58" t="s">
+        <v>309</v>
       </c>
       <c r="C177" s="2">
         <f>H177</f>
@@ -8571,13 +8824,13 @@
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="35"/>
       <c r="B178" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C178" s="2">
         <f>H178</f>
@@ -8603,13 +8856,13 @@
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="35"/>
       <c r="B179" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
@@ -8621,20 +8874,20 @@
       </c>
       <c r="H179" s="2"/>
       <c r="I179" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E180" s="39"/>
       <c r="K180" s="39"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -8643,36 +8896,36 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J182" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="K182" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I182" s="1" t="s">
+      <c r="L182" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="J182" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="K182" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="L182" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C183" s="2">
         <f>E183</f>
@@ -8699,13 +8952,13 @@
         <v>1</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C184" s="2">
         <f>E184</f>
@@ -8732,13 +8985,13 @@
         <v>1</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C185" s="2">
         <f>E185</f>
@@ -8765,84 +9018,87 @@
         <v>0</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C186" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="62"/>
-      <c r="E186" s="62"/>
-      <c r="F186" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="G186" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="H186" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I186" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="J186" s="62" t="s">
+      <c r="D186" s="61"/>
+      <c r="E186" s="61"/>
+      <c r="F186" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G186" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I186" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186" s="61" t="s">
         <v>4</v>
       </c>
       <c r="K186" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L186" s="62"/>
-      <c r="M186" s="60"/>
-      <c r="N186" s="60"/>
-      <c r="O186" s="60"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="L186" s="61"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="59"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B187" s="38"/>
       <c r="C187" s="39"/>
       <c r="D187" s="39"/>
-      <c r="E187" s="63"/>
+      <c r="E187" s="62"/>
       <c r="F187" s="39"/>
       <c r="G187" s="39"/>
-      <c r="H187" s="63"/>
+      <c r="H187" s="62"/>
       <c r="I187" s="39"/>
       <c r="J187" s="39"/>
       <c r="K187" s="39"/>
       <c r="L187" s="39"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D191" s="12"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D195" s="12"/>
     </row>
-    <row r="206" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J206" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="Y86:AB88"/>
     <mergeCell ref="T52:V52"/>
     <mergeCell ref="T64:V64"/>
     <mergeCell ref="J173:K173"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="V44:X44"/>
   </mergeCells>
   <conditionalFormatting sqref="B134">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
@@ -8902,22 +9158,22 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -8931,13 +9187,13 @@
         <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
@@ -8951,7 +9207,7 @@
       <c r="K5" s="23"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
@@ -8978,7 +9234,7 @@
       <c r="K6" s="36"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
@@ -9005,7 +9261,7 @@
       <c r="K7" s="36"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
@@ -9032,9 +9288,9 @@
       <c r="K8" s="36"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -9043,16 +9299,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="H11" s="23"/>
       <c r="L11" s="5"/>
@@ -9060,9 +9316,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -9081,9 +9337,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -9102,9 +9358,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -9113,41 +9369,41 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -9181,9 +9437,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -9217,9 +9473,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>

--- a/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/test_Ind_Statistici_RETAIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Table" sheetId="1" r:id="rId1"/>
     <sheet name="Analysis Unit" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="339">
   <si>
     <t>IND_50</t>
   </si>
@@ -256,15 +256,9 @@
     <t>CRZER004_3</t>
   </si>
   <si>
-    <t>0000000000000099</t>
-  </si>
-  <si>
     <t>0000000000000100</t>
   </si>
   <si>
-    <t>0000000000000101</t>
-  </si>
-  <si>
     <t>IMP_ACC_REV_M0</t>
   </si>
   <si>
@@ -283,12 +277,6 @@
     <t>IMP_UTIL_REV_M2</t>
   </si>
   <si>
-    <t>0000000000000102</t>
-  </si>
-  <si>
-    <t>0000000000000103</t>
-  </si>
-  <si>
     <t>IND_62</t>
   </si>
   <si>
@@ -346,9 +334,6 @@
     <t>IMP_UTIL_TOT_M2</t>
   </si>
   <si>
-    <t>0000000000000135</t>
-  </si>
-  <si>
     <t>0000000000000136</t>
   </si>
   <si>
@@ -814,12 +799,6 @@
     <t>'0000000000000183</t>
   </si>
   <si>
-    <t>'0000000000000184</t>
-  </si>
-  <si>
-    <t>'0000000000000185</t>
-  </si>
-  <si>
     <t>NUM_IND_84</t>
   </si>
   <si>
@@ -862,9 +841,6 @@
     <t>'0000000000000171</t>
   </si>
   <si>
-    <t>'0000000000000172</t>
-  </si>
-  <si>
     <t>NUM_IND_83</t>
   </si>
   <si>
@@ -904,21 +880,12 @@
     <t>'0000000000000196</t>
   </si>
   <si>
-    <t>'0000000000000197</t>
-  </si>
-  <si>
-    <t>'0000000000000198</t>
-  </si>
-  <si>
     <t>'0000000000000199</t>
   </si>
   <si>
     <t>'0000000000000200</t>
   </si>
   <si>
-    <t>'0000000000000201</t>
-  </si>
-  <si>
     <t>'0000000000000202</t>
   </si>
   <si>
@@ -931,27 +898,12 @@
     <t>'0000000000000206</t>
   </si>
   <si>
-    <t>'0000000000000207</t>
-  </si>
-  <si>
     <t>'0000000000000208</t>
   </si>
   <si>
     <t>'0000000000000209</t>
   </si>
   <si>
-    <t>'0000000000000210</t>
-  </si>
-  <si>
-    <t>'0000000000000211</t>
-  </si>
-  <si>
-    <t>'0000000000000212</t>
-  </si>
-  <si>
-    <t>'0000000000000213</t>
-  </si>
-  <si>
     <t>NUM_IND_85</t>
   </si>
   <si>
@@ -970,9 +922,6 @@
     <t>0000000000000145</t>
   </si>
   <si>
-    <t>'0000000000000146</t>
-  </si>
-  <si>
     <t>0000000000000203</t>
   </si>
   <si>
@@ -982,12 +931,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>E0001</t>
-  </si>
-  <si>
-    <t>k.o</t>
-  </si>
-  <si>
     <t>NUM_IND_61</t>
   </si>
   <si>
@@ -997,12 +940,6 @@
     <t>CAMPO_TEC_4</t>
   </si>
   <si>
-    <t>codice (E0001)</t>
-  </si>
-  <si>
-    <t>Codice (E0001)</t>
-  </si>
-  <si>
     <t>CAMPO_TEC_5</t>
   </si>
   <si>
@@ -1046,13 +983,67 @@
   </si>
   <si>
     <t>'0000000000000217</t>
+  </si>
+  <si>
+    <t>XRA004_2</t>
+  </si>
+  <si>
+    <t>BILFAM004_3</t>
+  </si>
+  <si>
+    <t>000000000000097</t>
+  </si>
+  <si>
+    <t>000000000000098</t>
+  </si>
+  <si>
+    <t>000000000000099</t>
+  </si>
+  <si>
+    <t>0000000000000134</t>
+  </si>
+  <si>
+    <t>0000000000000172</t>
+  </si>
+  <si>
+    <t>0000000000000184</t>
+  </si>
+  <si>
+    <t>0000000000000185</t>
+  </si>
+  <si>
+    <t>0000000000000197</t>
+  </si>
+  <si>
+    <t>0000000000000198</t>
+  </si>
+  <si>
+    <t>0000000000000201</t>
+  </si>
+  <si>
+    <t>0000000000000202</t>
+  </si>
+  <si>
+    <t>0000000000000210</t>
+  </si>
+  <si>
+    <t>0000000000000211</t>
+  </si>
+  <si>
+    <t>0000000000000212</t>
+  </si>
+  <si>
+    <t>0000000000000213</t>
+  </si>
+  <si>
+    <t>0000000000000214</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1092,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF336699"/>
+      <name val="RotisSansSerif55"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1129,13 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,9 +1316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1332,10 +1331,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,9 +1360,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,20 +1370,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,14 +1417,203 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1926,47 +2101,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="27" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="25.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="25.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="29" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.21875" customWidth="1"/>
+    <col min="25" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
     <col min="31" max="31" width="17" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" customWidth="1"/>
-    <col min="35" max="37" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="35" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+    <col min="39" max="39" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1982,18 +2157,18 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
@@ -2008,11 +2183,11 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2031,15 +2206,15 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2">
@@ -2052,13 +2227,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="35"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2074,18 +2249,18 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="H9" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
@@ -2100,11 +2275,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="80" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2123,11 +2298,11 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2"/>
@@ -2144,13 +2319,13 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="39"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2172,20 +2347,20 @@
       <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="37" t="s">
-        <v>189</v>
+      <c r="J15" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:12">
+      <c r="B16" s="80" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5">
@@ -2206,13 +2381,13 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:22">
+      <c r="B17" s="80" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -2233,12 +2408,12 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
+    <row r="18" spans="1:22">
+      <c r="B18" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
@@ -2259,13 +2434,13 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:22">
+      <c r="B19" s="80" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
@@ -2286,19 +2461,19 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:22">
+      <c r="B20" s="80" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2317,18 +2492,18 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D21" s="35"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="42"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="B22" s="39"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2365,22 +2540,22 @@
       <c r="L23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="M23" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="37" t="s">
-        <v>189</v>
+      <c r="O23" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="15"/>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="80" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="5">
@@ -2419,14 +2594,14 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:22">
+      <c r="B25" s="80" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
@@ -2465,11 +2640,11 @@
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="B26" s="80" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2503,69 +2678,69 @@
         <v>48</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N26" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="B27" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="73">
-        <v>0</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="73">
-        <v>36</v>
-      </c>
-      <c r="F27" s="73">
+      <c r="C27" s="67">
+        <v>0</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="66">
+        <v>-36</v>
+      </c>
+      <c r="F27" s="67">
         <v>-150</v>
       </c>
-      <c r="G27" s="73">
-        <v>200</v>
-      </c>
-      <c r="H27" s="73">
+      <c r="G27" s="66">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="67">
         <v>-400</v>
       </c>
-      <c r="I27" s="73">
-        <v>700</v>
-      </c>
-      <c r="J27" s="73">
-        <f>F27/G27</f>
-        <v>-0.75</v>
-      </c>
-      <c r="K27" s="73">
+      <c r="I27" s="66">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="67">
+        <f xml:space="preserve"> F27/G27</f>
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="67">
         <f>H27/I27</f>
-        <v>-0.5714285714285714</v>
-      </c>
-      <c r="L27" s="73">
-        <f t="shared" ref="L26:L27" si="0">MAX(J27,K27)</f>
-        <v>-0.5714285714285714</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L27" s="67">
+        <f t="shared" ref="L27" si="0">MAX(J27,K27)</f>
+        <v>0.75</v>
       </c>
       <c r="M27" s="16">
         <v>0</v>
       </c>
-      <c r="N27" s="64" t="s">
-        <v>320</v>
+      <c r="N27" s="58" t="s">
+        <v>321</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="42"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
+      <c r="B29" s="39"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
@@ -2576,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>61</v>
@@ -2606,36 +2781,36 @@
         <v>45</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="R30" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="S30" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="T30" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="T30" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="46" t="s">
+      <c r="U30" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="V30" s="46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>52</v>
+      <c r="V30" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="B31" s="80" t="s">
+        <v>51</v>
       </c>
       <c r="C31" s="16">
         <f>L31/M31</f>
@@ -2647,19 +2822,19 @@
       <c r="E31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="16">
         <v>1000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="16">
         <v>700</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="16">
         <v>900</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="16">
         <v>1000</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="16">
         <v>700</v>
       </c>
       <c r="K31" s="2">
@@ -2689,14 +2864,14 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>65</v>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="B32" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="16">
         <f>L32/M32</f>
@@ -2747,17 +2922,17 @@
         <f t="shared" ref="Q32:Q46" si="4">IF((H32-K32)&lt;0,0,(H32-K32))</f>
         <v>300</v>
       </c>
-      <c r="R32" s="43"/>
+      <c r="R32" s="40"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>38</v>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="16">
         <f>L33/M33</f>
@@ -2808,17 +2983,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="43"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
-        <v>68</v>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="80" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>4</v>
@@ -2826,7 +3001,7 @@
       <c r="D34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="61" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -2863,17 +3038,17 @@
       <c r="Q34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>38</v>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="80" t="s">
+        <v>68</v>
       </c>
       <c r="C35" s="14">
         <v>-1000000</v>
@@ -2923,17 +3098,17 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="44"/>
-      <c r="S35" s="43"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="40"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
-        <v>70</v>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="80" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>4</v>
@@ -2978,17 +3153,17 @@
       <c r="Q36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
-        <v>71</v>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" s="80" t="s">
+        <v>70</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>4</v>
@@ -3034,17 +3209,17 @@
       <c r="Q37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>73</v>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" s="80" t="s">
+        <v>71</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -3092,23 +3267,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R38" s="59">
-        <v>0</v>
-      </c>
-      <c r="S38" s="59">
+      <c r="R38" s="54">
+        <v>0</v>
+      </c>
+      <c r="S38" s="54">
         <v>466</v>
       </c>
       <c r="T38" s="16">
         <v>0</v>
       </c>
-      <c r="U38" s="59"/>
-      <c r="V38" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>74</v>
+      <c r="U38" s="54"/>
+      <c r="V38" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" s="80" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="14">
         <v>-1000000</v>
@@ -3164,19 +3339,19 @@
       <c r="S39" s="16">
         <v>0</v>
       </c>
-      <c r="T39" s="66">
+      <c r="T39" s="60">
         <v>-1000000</v>
       </c>
-      <c r="U39" s="45" t="s">
+      <c r="U39" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="V39" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
-        <v>75</v>
+      <c r="V39" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>4</v>
@@ -3226,25 +3401,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R40" s="59">
-        <v>0</v>
-      </c>
-      <c r="S40" s="59">
+      <c r="R40" s="54">
+        <v>0</v>
+      </c>
+      <c r="S40" s="54">
         <v>-33</v>
       </c>
       <c r="T40" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="U40" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="U40" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="V40" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
-        <v>76</v>
+      <c r="V40" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="B41" s="80" t="s">
+        <v>75</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>4</v>
@@ -3255,22 +3430,22 @@
       <c r="E41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="16">
         <v>-500</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="16">
         <v>300</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="16">
         <v>100</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="16">
         <v>-800</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="16">
         <v>200</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="16">
         <v>50</v>
       </c>
       <c r="L41" s="16">
@@ -3297,14 +3472,14 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
-        <v>78</v>
+      <c r="U41" s="40"/>
+      <c r="V41" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="B42" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>4</v>
@@ -3315,22 +3490,22 @@
       <c r="E42" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="16">
         <v>-500</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="16">
         <v>300</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="16">
         <v>200</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="16">
         <v>-800</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="16">
         <v>-700</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="16">
         <v>900</v>
       </c>
       <c r="L42" s="16">
@@ -3360,48 +3535,48 @@
       <c r="S42" s="16">
         <v>0</v>
       </c>
-      <c r="T42" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="U42" s="45" t="s">
+      <c r="T42" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="U42" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="V42" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-    </row>
-    <row r="43" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
-        <v>79</v>
+      <c r="V42" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+    </row>
+    <row r="43" spans="2:24" s="15" customFormat="1">
+      <c r="B43" s="82" t="s">
+        <v>323</v>
       </c>
       <c r="C43" s="17">
         <f>N43</f>
         <v>999999</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="7">
+        <v>193</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="24">
         <v>500</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="24">
         <v>300</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="24">
         <v>100</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="24">
         <v>500</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="24">
         <v>300</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="24">
         <v>100</v>
       </c>
       <c r="L43" s="2">
@@ -3430,41 +3605,41 @@
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="16"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>80</v>
+      <c r="T43" s="59"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" s="15" customFormat="1">
+      <c r="B44" s="80" t="s">
+        <v>324</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="16">
         <v>500</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="16">
         <v>300</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="16">
         <v>100</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="16">
         <v>500</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="16">
         <v>300</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="16">
         <v>100</v>
       </c>
       <c r="L44" s="2">
@@ -3494,40 +3669,40 @@
       <c r="R44" s="14"/>
       <c r="S44" s="16"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>87</v>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" s="15" customFormat="1">
+      <c r="B45" s="80" t="s">
+        <v>325</v>
       </c>
       <c r="C45" s="17">
         <v>0.34639999999999999</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="16">
         <v>1000</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="16">
         <v>700</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="16">
         <v>900</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="16">
         <v>800</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="16">
         <v>300</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="16">
         <v>600</v>
       </c>
       <c r="L45" s="2">
@@ -3557,40 +3732,40 @@
       <c r="R45" s="14"/>
       <c r="S45" s="16"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>88</v>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" s="15" customFormat="1">
+      <c r="B46" s="80" t="s">
+        <v>78</v>
       </c>
       <c r="C46" s="14">
         <v>0.34639999999999999</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="16">
         <v>1000</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="16">
         <v>700</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="16">
         <v>900</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="16">
         <v>800</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="16">
         <v>300</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="16">
         <v>600</v>
       </c>
       <c r="L46" s="2">
@@ -3620,20 +3795,20 @@
       <c r="R46" s="14"/>
       <c r="S46" s="16"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="U46" s="42"/>
+      <c r="V46" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24">
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B48" s="42"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:24">
+      <c r="B48" s="39"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -3642,25 +3817,25 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>44</v>
@@ -3669,40 +3844,40 @@
         <v>45</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P49" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="R49" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="S49" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="T49" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="S49" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="15"/>
-      <c r="B50" s="17" t="s">
-        <v>215</v>
+      <c r="B50" s="82" t="s">
+        <v>210</v>
       </c>
       <c r="C50" s="2">
         <f>K50/L50</f>
         <v>0</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="2">
         <v>2500</v>
       </c>
@@ -3744,28 +3919,28 @@
       <c r="P50" s="2">
         <v>0</v>
       </c>
-      <c r="Q50" s="40">
+      <c r="Q50" s="37">
         <v>1600</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
       </c>
-      <c r="S50" s="43"/>
+      <c r="S50" s="40"/>
       <c r="T50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="U50" s="69"/>
-      <c r="V50" s="69"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>216</v>
+        <v>195</v>
+      </c>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="B51" s="80" t="s">
+        <v>211</v>
       </c>
       <c r="C51" s="2">
         <f>K51/L51</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D51" s="43"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="2">
         <v>1000</v>
       </c>
@@ -3813,19 +3988,19 @@
       <c r="R51" s="2">
         <v>0.4</v>
       </c>
-      <c r="S51" s="43"/>
+      <c r="S51" s="40"/>
       <c r="T51" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
-        <v>217</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="B52" s="82" t="s">
+        <v>212</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -3860,29 +4035,29 @@
         <v>48</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S52" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S52" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="14" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="B53" s="80" t="s">
+        <v>213</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="16">
@@ -3932,22 +4107,22 @@
       <c r="R53" s="7">
         <v>0</v>
       </c>
-      <c r="S53" s="43" t="s">
+      <c r="S53" s="40" t="s">
         <v>66</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="14" t="s">
-        <v>219</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="B54" s="80" t="s">
+        <v>214</v>
       </c>
       <c r="C54" s="19">
         <v>1000000</v>
       </c>
-      <c r="D54" s="43" t="s">
-        <v>92</v>
+      <c r="D54" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="E54" s="2">
         <v>-500</v>
@@ -3987,30 +4162,30 @@
         <f>IF((J54-G54)&lt;0,0,(J54-G54))</f>
         <v>700</v>
       </c>
-      <c r="P54" s="40">
+      <c r="P54" s="37">
         <v>800</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
       </c>
-      <c r="R54" s="40">
+      <c r="R54" s="37">
         <v>1000000</v>
       </c>
-      <c r="S54" s="43" t="s">
-        <v>92</v>
+      <c r="S54" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="14" t="s">
-        <v>220</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="B55" s="80" t="s">
+        <v>215</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E55" s="17" t="s">
@@ -4048,29 +4223,29 @@
         <v>48</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S55" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S55" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>221</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="20" customFormat="1">
+      <c r="B56" s="80" t="s">
+        <v>216</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="16">
@@ -4108,29 +4283,29 @@
         <v>48</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q56" s="2">
         <v>466.67</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S56" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S56" s="40" t="s">
         <v>69</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="14" t="s">
-        <v>222</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="21" customFormat="1">
+      <c r="B57" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E57" s="16">
@@ -4178,24 +4353,24 @@
         <v>-33.33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S57" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S57" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="20" customFormat="1">
       <c r="A58" s="21"/>
-      <c r="B58" s="14" t="s">
-        <v>223</v>
+      <c r="B58" s="80" t="s">
+        <v>218</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E58" s="2">
@@ -4243,24 +4418,24 @@
         <v>-33.33</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="S58" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S58" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R59" s="36"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="42"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="B60" s="39"/>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
@@ -4269,25 +4444,25 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>44</v>
@@ -4296,40 +4471,40 @@
         <v>45</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="P61" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q61" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="R61" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="S61" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="T61" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="S61" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="15"/>
-      <c r="B62" s="17" t="s">
-        <v>204</v>
+      <c r="B62" s="82" t="s">
+        <v>199</v>
       </c>
       <c r="C62" s="2">
         <f>K62/L62</f>
         <v>0</v>
       </c>
-      <c r="D62" s="43"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="2">
         <v>2500</v>
       </c>
@@ -4371,28 +4546,28 @@
       <c r="P62" s="2">
         <v>0</v>
       </c>
-      <c r="Q62" s="40">
+      <c r="Q62" s="37">
         <v>1600</v>
       </c>
       <c r="R62" s="2">
         <v>0</v>
       </c>
-      <c r="S62" s="43"/>
+      <c r="S62" s="40"/>
       <c r="T62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="B63" s="80" t="s">
         <v>200</v>
-      </c>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="C63" s="2">
         <f>K63/L63</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="40"/>
       <c r="E63" s="2">
         <v>1000</v>
       </c>
@@ -4440,19 +4615,19 @@
       <c r="R63" s="2">
         <v>0.4</v>
       </c>
-      <c r="S63" s="43"/>
+      <c r="S63" s="40"/>
       <c r="T63" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="17" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="B64" s="82" t="s">
+        <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -4489,29 +4664,29 @@
         <v>48</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S64" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S64" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="B65" s="80" t="s">
+        <v>202</v>
       </c>
       <c r="C65" s="16">
         <v>0</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E65" s="16">
@@ -4561,22 +4736,22 @@
       <c r="R65" s="7">
         <v>0</v>
       </c>
-      <c r="S65" s="43" t="s">
+      <c r="S65" s="40" t="s">
         <v>66</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
-        <v>208</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="B66" s="80" t="s">
+        <v>203</v>
       </c>
       <c r="C66" s="19">
         <v>1000000</v>
       </c>
-      <c r="D66" s="43" t="s">
-        <v>92</v>
+      <c r="D66" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="E66" s="2">
         <v>-500</v>
@@ -4622,24 +4797,24 @@
       <c r="Q66" s="2">
         <v>0</v>
       </c>
-      <c r="R66" s="40">
+      <c r="R66" s="37">
         <v>1000000</v>
       </c>
-      <c r="S66" s="43" t="s">
-        <v>92</v>
+      <c r="S66" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>209</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="B67" s="80" t="s">
+        <v>204</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="40" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="17" t="s">
@@ -4677,29 +4852,29 @@
         <v>48</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S67" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S67" s="40" t="s">
         <v>64</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="B68" s="80" t="s">
+        <v>205</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="40" t="s">
         <v>69</v>
       </c>
       <c r="E68" s="16">
@@ -4737,29 +4912,29 @@
         <v>48</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q68" s="2">
         <v>466.67</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S68" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S68" s="40" t="s">
         <v>69</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
-        <v>211</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="20" customFormat="1">
+      <c r="B69" s="80" t="s">
+        <v>206</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E69" s="16">
@@ -4807,23 +4982,23 @@
         <v>-33.33</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S69" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S69" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="20" customFormat="1">
+      <c r="B70" s="80" t="s">
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="2">
@@ -4871,21 +5046,21 @@
         <v>-33.33</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="S70" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S70" s="40" t="s">
         <v>72</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B72" s="42"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="B72" s="39"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -4894,25 +5069,25 @@
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>44</v>
@@ -4920,26 +5095,26 @@
       <c r="L73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M73" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="N73" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="O73" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P73" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q73" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M73" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="20" customFormat="1">
       <c r="A74" s="21"/>
-      <c r="B74" s="14" t="s">
-        <v>224</v>
+      <c r="B74" s="80" t="s">
+        <v>219</v>
       </c>
       <c r="C74" s="2">
         <f>K74/L74</f>
@@ -4981,15 +5156,15 @@
       <c r="O74" s="2">
         <v>1.0528999999999999</v>
       </c>
-      <c r="P74" s="43"/>
+      <c r="P74" s="40"/>
       <c r="Q74" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="20" customFormat="1">
       <c r="A75" s="21"/>
-      <c r="B75" s="14" t="s">
-        <v>225</v>
+      <c r="B75" s="80" t="s">
+        <v>220</v>
       </c>
       <c r="C75" s="2">
         <f>K75/L75</f>
@@ -5031,14 +5206,14 @@
       <c r="O75" s="2">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P75" s="43"/>
+      <c r="P75" s="40"/>
       <c r="Q75" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B76" s="14" t="s">
-        <v>226</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="B76" s="80" t="s">
+        <v>221</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>4</v>
@@ -5071,24 +5246,24 @@
         <v>48</v>
       </c>
       <c r="M76" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P76" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P76" s="40" t="s">
         <v>64</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B77" s="14" t="s">
-        <v>227</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="B77" s="80" t="s">
+        <v>222</v>
       </c>
       <c r="C77" s="19">
         <v>0</v>
@@ -5131,16 +5306,16 @@
       <c r="O77" s="2">
         <v>0</v>
       </c>
-      <c r="P77" s="43" t="s">
+      <c r="P77" s="40" t="s">
         <v>66</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B78" s="14" t="s">
-        <v>228</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="B78" s="80" t="s">
+        <v>223</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -5174,24 +5349,24 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N78" s="2">
         <v>0.444444444444</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P78" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P78" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B79" s="8" t="s">
-        <v>229</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="B79" s="80" t="s">
+        <v>224</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
@@ -5225,24 +5400,24 @@
         <v>0</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P79" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P79" s="40" t="s">
         <v>67</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B80" s="8" t="s">
-        <v>230</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="B80" s="80" t="s">
+        <v>225</v>
       </c>
       <c r="C80" s="7">
         <f>K80/L80</f>
@@ -5284,14 +5459,14 @@
       <c r="O80" s="2">
         <v>0.99199999999999999</v>
       </c>
-      <c r="P80" s="43"/>
+      <c r="P80" s="40"/>
       <c r="Q80" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
-        <v>108</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40">
+      <c r="B81" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -5328,22 +5503,22 @@
       <c r="M81" s="2">
         <v>0.88</v>
       </c>
-      <c r="N81" s="40">
-        <v>0</v>
-      </c>
-      <c r="O81" s="40">
+      <c r="N81" s="37">
+        <v>0</v>
+      </c>
+      <c r="O81" s="37">
         <v>1000000</v>
       </c>
-      <c r="P81" s="43" t="s">
+      <c r="P81" s="40" t="s">
         <v>77</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:40" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" ht="19.149999999999999" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -5352,120 +5527,120 @@
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="S84" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R84" s="1" t="s">
+      <c r="T84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB84" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD84" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE84" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI84" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ84" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK84" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL84" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM84" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="S84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W84" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y84" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z84" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB84" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD84" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AE84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI84" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ84" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK84" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL84" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM84" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN84" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B85" s="8" t="s">
-        <v>233</v>
+      <c r="AN84" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40">
+      <c r="B85" s="80" t="s">
+        <v>228</v>
       </c>
       <c r="C85" s="2">
         <f>AVERAGE(SUM(T85,W85,Z85,AC85,AF85),SUM(U85,X85,AA85,AD85,AG85),SUM(V85,Y85,AB85,AE85,AH85))</f>
@@ -5517,92 +5692,92 @@
       <c r="S85" s="22">
         <v>300</v>
       </c>
-      <c r="T85" s="71">
-        <f>IF(E85&lt;0,0,E85)</f>
+      <c r="T85" s="65">
+        <f t="shared" ref="T85:AH89" si="22">IF(E85&lt;0,0,E85)</f>
         <v>1000</v>
       </c>
-      <c r="U85" s="71">
-        <f>IF(F85&lt;0,0,F85)</f>
+      <c r="U85" s="65">
+        <f t="shared" si="22"/>
         <v>1500</v>
       </c>
-      <c r="V85" s="71">
-        <f>IF(G85&lt;0,0,G85)</f>
+      <c r="V85" s="65">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="W85" s="71">
-        <f>IF(H85&lt;0,0,H85)</f>
+      <c r="W85" s="65">
+        <f t="shared" si="22"/>
         <v>600</v>
       </c>
-      <c r="X85" s="71">
-        <f>IF(I85&lt;0,0,I85)</f>
+      <c r="X85" s="65">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="Y85" s="71">
-        <f>IF(J85&lt;0,0,J85)</f>
+      <c r="Y85" s="65">
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
-      <c r="Z85" s="71">
-        <f>IF(K85&lt;0,0,K85)</f>
+      <c r="Z85" s="65">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="AA85" s="71">
-        <f>IF(L85&lt;0,0,L85)</f>
+      <c r="AA85" s="65">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="AB85" s="71">
-        <f>IF(M85&lt;0,0,M85)</f>
+      <c r="AB85" s="65">
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="AC85" s="71">
-        <f>IF(N85&lt;0,0,N85)</f>
+      <c r="AC85" s="65">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="AD85" s="71">
-        <f>IF(O85&lt;0,0,O85)</f>
+      <c r="AD85" s="65">
+        <f t="shared" si="22"/>
         <v>700</v>
       </c>
-      <c r="AE85" s="71">
-        <f>IF(P85&lt;0,0,P85)</f>
+      <c r="AE85" s="65">
+        <f t="shared" si="22"/>
         <v>600</v>
       </c>
-      <c r="AF85" s="71">
-        <f>IF(Q85&lt;0,0,Q85)</f>
+      <c r="AF85" s="65">
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
-      <c r="AG85" s="71">
-        <f>IF(R85&lt;0,0,R85)</f>
+      <c r="AG85" s="65">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="AH85" s="71">
-        <f>IF(S85&lt;0,0,S85)</f>
+      <c r="AH85" s="65">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="AI85" s="41">
+      <c r="AI85" s="38">
         <v>3300</v>
       </c>
-      <c r="AJ85" s="41">
+      <c r="AJ85" s="38">
         <v>3200</v>
       </c>
-      <c r="AK85" s="40">
+      <c r="AK85" s="37">
         <v>2900</v>
       </c>
-      <c r="AL85" s="40">
+      <c r="AL85" s="37">
         <v>3133.33</v>
       </c>
       <c r="AM85" s="2"/>
       <c r="AN85" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B86" s="8" t="s">
-        <v>234</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40">
+      <c r="B86" s="80" t="s">
+        <v>229</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>48</v>
@@ -5649,64 +5824,64 @@
       <c r="S86" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="71" t="str">
-        <f>IF(E86&lt;0,0,E86)</f>
+      <c r="T86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="U86" s="71" t="str">
-        <f>IF(F86&lt;0,0,F86)</f>
+      <c r="U86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="V86" s="71" t="str">
-        <f>IF(G86&lt;0,0,G86)</f>
+      <c r="V86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="W86" s="71" t="str">
-        <f>IF(H86&lt;0,0,H86)</f>
+      <c r="W86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X86" s="71" t="str">
-        <f>IF(I86&lt;0,0,I86)</f>
+      <c r="X86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="Y86" s="71" t="str">
-        <f>IF(J86&lt;0,0,J86)</f>
+      <c r="Y86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="Z86" s="71" t="str">
-        <f>IF(K86&lt;0,0,K86)</f>
+      <c r="Z86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AA86" s="71" t="str">
-        <f>IF(L86&lt;0,0,L86)</f>
+      <c r="AA86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AB86" s="71" t="str">
-        <f>IF(M86&lt;0,0,M86)</f>
+      <c r="AB86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AC86" s="71" t="str">
-        <f>IF(N86&lt;0,0,N86)</f>
+      <c r="AC86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AD86" s="71" t="str">
-        <f>IF(O86&lt;0,0,O86)</f>
+      <c r="AD86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AE86" s="71" t="str">
-        <f>IF(P86&lt;0,0,P86)</f>
+      <c r="AE86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AF86" s="71" t="str">
-        <f>IF(Q86&lt;0,0,Q86)</f>
+      <c r="AF86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AG86" s="71" t="str">
-        <f>IF(R86&lt;0,0,R86)</f>
+      <c r="AG86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AH86" s="71" t="str">
-        <f>IF(S86&lt;0,0,S86)</f>
+      <c r="AH86" s="65" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
       <c r="AI86" s="22">
@@ -5719,387 +5894,411 @@
         <v>0</v>
       </c>
       <c r="AL86" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AM86" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AN86" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" s="45" customFormat="1">
+      <c r="B87" s="81" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="75">
+        <v>3050</v>
+      </c>
+      <c r="D87" s="68"/>
+      <c r="E87" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="67">
+        <v>1500</v>
+      </c>
+      <c r="G87" s="67">
+        <v>800</v>
+      </c>
+      <c r="H87" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="67">
+        <v>300</v>
+      </c>
+      <c r="J87" s="67">
+        <v>1000</v>
+      </c>
+      <c r="K87" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="L87" s="67">
+        <v>300</v>
+      </c>
+      <c r="M87" s="67">
         <v>200</v>
       </c>
-    </row>
-    <row r="87" spans="1:40" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="C87" s="73">
-        <f>AVERAGE(SUM(T87,W87,Z87,AC87,AF87),SUM(U87,X87,AA87,AD87,AG87),SUM(V87,Y87,AB87,AE87,AH87))</f>
-        <v>2033.3333333333333</v>
-      </c>
-      <c r="D87" s="74"/>
-      <c r="E87" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="73">
+      <c r="N87" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="67">
+        <v>700</v>
+      </c>
+      <c r="P87" s="67">
+        <v>600</v>
+      </c>
+      <c r="Q87" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="R87" s="47">
+        <v>400</v>
+      </c>
+      <c r="S87" s="47">
+        <v>300</v>
+      </c>
+      <c r="T87" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="U87" s="69">
+        <f t="shared" si="22"/>
         <v>1500</v>
       </c>
-      <c r="G87" s="73">
+      <c r="V87" s="69">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="H87" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="I87" s="73">
+      <c r="W87" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="X87" s="69">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="J87" s="73">
+      <c r="Y87" s="69">
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
-      <c r="K87" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="L87" s="73">
+      <c r="Z87" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AA87" s="69">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="M87" s="73">
+      <c r="AB87" s="69">
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="N87" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="O87" s="73">
+      <c r="AC87" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AD87" s="69">
+        <f t="shared" si="22"/>
         <v>700</v>
       </c>
-      <c r="P87" s="73">
+      <c r="AE87" s="69">
+        <f t="shared" si="22"/>
         <v>600</v>
       </c>
-      <c r="Q87" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="R87" s="50">
+      <c r="AF87" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AG87" s="69">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="S87" s="50">
+      <c r="AH87" s="69">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="T87" s="75" t="str">
-        <f>IF(E87&lt;0,0,E87)</f>
+      <c r="AI87" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ87" s="74">
+        <v>3200</v>
+      </c>
+      <c r="AK87" s="75">
+        <v>2900</v>
+      </c>
+      <c r="AL87" s="75">
+        <v>3050</v>
+      </c>
+      <c r="AM87" s="67"/>
+      <c r="AN87" s="67"/>
+    </row>
+    <row r="88" spans="1:40" s="45" customFormat="1">
+      <c r="B88" s="81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="75">
+        <v>2400</v>
+      </c>
+      <c r="D88" s="68"/>
+      <c r="E88" s="67">
+        <v>100</v>
+      </c>
+      <c r="F88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H88" s="67">
+        <v>600</v>
+      </c>
+      <c r="I88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" s="67">
+        <v>400</v>
+      </c>
+      <c r="L88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="M88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="N88" s="67">
+        <v>800</v>
+      </c>
+      <c r="O88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="P88" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q88" s="47">
+        <v>500</v>
+      </c>
+      <c r="R88" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="S88" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="T88" s="69">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="U88" s="69" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="U87" s="75">
-        <f>IF(F87&lt;0,0,F87)</f>
-        <v>1500</v>
-      </c>
-      <c r="V87" s="75">
-        <f>IF(G87&lt;0,0,G87)</f>
+      <c r="V88" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="W88" s="69">
+        <f t="shared" si="22"/>
+        <v>600</v>
+      </c>
+      <c r="X88" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="Y88" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="Z88" s="69">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="AA88" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AB88" s="69" t="str">
+        <f t="shared" si="22"/>
+        <v>-</v>
+      </c>
+      <c r="AC88" s="69">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="W87" s="75" t="str">
-        <f>IF(H87&lt;0,0,H87)</f>
+      <c r="AD88" s="69" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="X87" s="75">
-        <f>IF(I87&lt;0,0,I87)</f>
-        <v>300</v>
-      </c>
-      <c r="Y87" s="75">
-        <f>IF(J87&lt;0,0,J87)</f>
-        <v>1000</v>
-      </c>
-      <c r="Z87" s="75" t="str">
-        <f>IF(K87&lt;0,0,K87)</f>
+      <c r="AE88" s="69" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AA87" s="75">
-        <f>IF(L87&lt;0,0,L87)</f>
-        <v>300</v>
-      </c>
-      <c r="AB87" s="75">
-        <f>IF(M87&lt;0,0,M87)</f>
-        <v>200</v>
-      </c>
-      <c r="AC87" s="75" t="str">
-        <f>IF(N87&lt;0,0,N87)</f>
+      <c r="AF88" s="69">
+        <f t="shared" si="22"/>
+        <v>500</v>
+      </c>
+      <c r="AG88" s="69" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AD87" s="75">
-        <f>IF(O87&lt;0,0,O87)</f>
-        <v>700</v>
-      </c>
-      <c r="AE87" s="75">
-        <f>IF(P87&lt;0,0,P87)</f>
-        <v>600</v>
-      </c>
-      <c r="AF87" s="75" t="str">
-        <f>IF(Q87&lt;0,0,Q87)</f>
+      <c r="AH88" s="69" t="str">
+        <f t="shared" si="22"/>
         <v>-</v>
       </c>
-      <c r="AG87" s="75">
-        <f>IF(R87&lt;0,0,R87)</f>
-        <v>400</v>
-      </c>
-      <c r="AH87" s="75">
-        <f>IF(S87&lt;0,0,S87)</f>
-        <v>300</v>
-      </c>
-      <c r="AI87" s="50"/>
-      <c r="AJ87" s="50"/>
-      <c r="AK87" s="73"/>
-      <c r="AL87" s="73"/>
-      <c r="AM87" s="73"/>
-      <c r="AN87" s="73"/>
-    </row>
-    <row r="88" spans="1:40" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="C88" s="73">
-        <f>AVERAGE(SUM(T88,W88,Z88,AC88,AF88),SUM(U88,X88,AA88,AD88,AG88),SUM(V88,Y88,AB88,AE88,AH88))</f>
-        <v>800</v>
-      </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="73">
-        <v>100</v>
-      </c>
-      <c r="F88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="G88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="73">
-        <v>600</v>
-      </c>
-      <c r="I88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="K88" s="73">
-        <v>400</v>
-      </c>
-      <c r="L88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="M88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="N88" s="73">
-        <v>800</v>
-      </c>
-      <c r="O88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="P88" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q88" s="50">
-        <v>500</v>
-      </c>
-      <c r="R88" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="S88" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="T88" s="75">
-        <f>IF(E88&lt;0,0,E88)</f>
-        <v>100</v>
-      </c>
-      <c r="U88" s="75" t="str">
-        <f>IF(F88&lt;0,0,F88)</f>
-        <v>-</v>
-      </c>
-      <c r="V88" s="75" t="str">
-        <f>IF(G88&lt;0,0,G88)</f>
-        <v>-</v>
-      </c>
-      <c r="W88" s="75">
-        <f>IF(H88&lt;0,0,H88)</f>
-        <v>600</v>
-      </c>
-      <c r="X88" s="75" t="str">
-        <f>IF(I88&lt;0,0,I88)</f>
-        <v>-</v>
-      </c>
-      <c r="Y88" s="75" t="str">
-        <f>IF(J88&lt;0,0,J88)</f>
-        <v>-</v>
-      </c>
-      <c r="Z88" s="75">
-        <f>IF(K88&lt;0,0,K88)</f>
-        <v>400</v>
-      </c>
-      <c r="AA88" s="75" t="str">
-        <f>IF(L88&lt;0,0,L88)</f>
-        <v>-</v>
-      </c>
-      <c r="AB88" s="75" t="str">
-        <f>IF(M88&lt;0,0,M88)</f>
-        <v>-</v>
-      </c>
-      <c r="AC88" s="75">
-        <f>IF(N88&lt;0,0,N88)</f>
-        <v>800</v>
-      </c>
-      <c r="AD88" s="75" t="str">
-        <f>IF(O88&lt;0,0,O88)</f>
-        <v>-</v>
-      </c>
-      <c r="AE88" s="75" t="str">
-        <f>IF(P88&lt;0,0,P88)</f>
-        <v>-</v>
-      </c>
-      <c r="AF88" s="75">
-        <f>IF(Q88&lt;0,0,Q88)</f>
-        <v>500</v>
-      </c>
-      <c r="AG88" s="75" t="str">
-        <f>IF(R88&lt;0,0,R88)</f>
-        <v>-</v>
-      </c>
-      <c r="AH88" s="75" t="str">
-        <f>IF(S88&lt;0,0,S88)</f>
-        <v>-</v>
-      </c>
-      <c r="AI88" s="50"/>
-      <c r="AJ88" s="50"/>
-      <c r="AK88" s="73"/>
-      <c r="AL88" s="73"/>
-      <c r="AM88" s="73"/>
-      <c r="AN88" s="73"/>
-    </row>
-    <row r="89" spans="1:40" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="C89" s="73">
+      <c r="AI88" s="74">
+        <v>2400</v>
+      </c>
+      <c r="AJ88" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK88" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL88" s="75">
+        <v>2400</v>
+      </c>
+      <c r="AM88" s="67"/>
+      <c r="AN88" s="67"/>
+    </row>
+    <row r="89" spans="1:40" s="45" customFormat="1">
+      <c r="B89" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="C89" s="67">
         <f>AVERAGE(SUM(T89,W89,Z89,AC89,AF89),SUM(U89,X89,AA89,AD89,AG89),SUM(V89,Y89,AB89,AE89,AH89))</f>
         <v>2100</v>
       </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="73">
+      <c r="D89" s="68"/>
+      <c r="E89" s="67">
         <v>1000</v>
       </c>
-      <c r="F89" s="73">
+      <c r="F89" s="67">
         <v>-1500</v>
       </c>
-      <c r="G89" s="73">
+      <c r="G89" s="67">
         <v>800</v>
       </c>
-      <c r="H89" s="73">
+      <c r="H89" s="67">
         <v>-600</v>
       </c>
-      <c r="I89" s="73">
+      <c r="I89" s="67">
         <v>300</v>
       </c>
-      <c r="J89" s="73">
+      <c r="J89" s="67">
         <v>1000</v>
       </c>
-      <c r="K89" s="73">
+      <c r="K89" s="67">
         <v>400</v>
       </c>
-      <c r="L89" s="73">
+      <c r="L89" s="67">
         <v>-300</v>
       </c>
-      <c r="M89" s="73">
+      <c r="M89" s="67">
         <v>200</v>
       </c>
-      <c r="N89" s="73">
+      <c r="N89" s="67">
         <v>800</v>
       </c>
-      <c r="O89" s="73">
+      <c r="O89" s="67">
         <v>-700</v>
       </c>
-      <c r="P89" s="73">
+      <c r="P89" s="67">
         <v>600</v>
       </c>
-      <c r="Q89" s="50">
+      <c r="Q89" s="47">
         <v>500</v>
       </c>
-      <c r="R89" s="50">
+      <c r="R89" s="47">
         <v>400</v>
       </c>
-      <c r="S89" s="50">
+      <c r="S89" s="47">
         <v>300</v>
       </c>
-      <c r="T89" s="75">
-        <f>IF(E89&lt;0,0,E89)</f>
+      <c r="T89" s="69">
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
-      <c r="U89" s="75">
-        <f>IF(F89&lt;0,0,F89)</f>
-        <v>0</v>
-      </c>
-      <c r="V89" s="75">
-        <f>IF(G89&lt;0,0,G89)</f>
+      <c r="U89" s="69">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="69">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="W89" s="75">
-        <f>IF(H89&lt;0,0,H89)</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="75">
-        <f>IF(I89&lt;0,0,I89)</f>
+      <c r="W89" s="69">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X89" s="69">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="Y89" s="75">
-        <f>IF(J89&lt;0,0,J89)</f>
+      <c r="Y89" s="69">
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
-      <c r="Z89" s="75">
-        <f>IF(K89&lt;0,0,K89)</f>
+      <c r="Z89" s="69">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="AA89" s="75">
-        <f>IF(L89&lt;0,0,L89)</f>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="75">
-        <f>IF(M89&lt;0,0,M89)</f>
+      <c r="AA89" s="69">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="69">
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
-      <c r="AC89" s="75">
-        <f>IF(N89&lt;0,0,N89)</f>
+      <c r="AC89" s="69">
+        <f t="shared" si="22"/>
         <v>800</v>
       </c>
-      <c r="AD89" s="75">
-        <f>IF(O89&lt;0,0,O89)</f>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="75">
-        <f>IF(P89&lt;0,0,P89)</f>
+      <c r="AD89" s="69">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="69">
+        <f t="shared" si="22"/>
         <v>600</v>
       </c>
-      <c r="AF89" s="75">
-        <f>IF(Q89&lt;0,0,Q89)</f>
+      <c r="AF89" s="69">
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
-      <c r="AG89" s="75">
-        <f>IF(R89&lt;0,0,R89)</f>
+      <c r="AG89" s="69">
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
-      <c r="AH89" s="75">
-        <f>IF(S89&lt;0,0,S89)</f>
+      <c r="AH89" s="69">
+        <f t="shared" si="22"/>
         <v>300</v>
       </c>
-      <c r="AI89" s="50"/>
-      <c r="AJ89" s="50"/>
-      <c r="AK89" s="73"/>
-      <c r="AL89" s="73"/>
-      <c r="AM89" s="73"/>
-      <c r="AN89" s="73"/>
-    </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AI89" s="73">
+        <v>2700</v>
+      </c>
+      <c r="AJ89" s="56">
+        <v>700</v>
+      </c>
+      <c r="AK89" s="72">
+        <v>2900</v>
+      </c>
+      <c r="AL89" s="72">
+        <v>2100</v>
+      </c>
+      <c r="AM89" s="67"/>
+      <c r="AN89" s="57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40">
       <c r="V90" s="11"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B91" s="42"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:40">
+      <c r="B91" s="39"/>
+    </row>
+    <row r="92" spans="1:40">
       <c r="A92" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
@@ -6108,31 +6307,31 @@
         <v>2</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H92" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="I92" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="J92" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="53" t="s">
-        <v>118</v>
+      <c r="H92" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I92" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="A93" s="15"/>
+      <c r="B93" s="83" t="s">
+        <v>113</v>
       </c>
       <c r="C93" s="2">
         <f>AVERAGE(E93,F93,G93)</f>
@@ -6153,97 +6352,101 @@
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B94" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C94" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="B94" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H94" s="2" t="s">
+      <c r="D94" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="9" t="s">
-        <v>147</v>
+      <c r="I94" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B95" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="B95" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="38">
+      <c r="D95" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="16">
         <v>-1000</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="16">
         <v>-500</v>
       </c>
-      <c r="G95" s="38">
+      <c r="G95" s="16">
         <v>400</v>
       </c>
-      <c r="H95" s="38">
+      <c r="H95" s="16">
         <v>-366</v>
       </c>
-      <c r="I95" s="38" t="s">
-        <v>148</v>
+      <c r="I95" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="B96" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C96" s="49">
+    <row r="96" spans="1:40">
+      <c r="B96" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" s="46">
         <f>AVERAGE(E96,F96,G96)</f>
         <v>266.66666666666669</v>
       </c>
-      <c r="D96" s="76"/>
-      <c r="E96" s="49">
+      <c r="D96" s="70"/>
+      <c r="E96" s="46">
         <v>500</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="46">
         <v>-700</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G96" s="46">
         <v>1000</v>
       </c>
-      <c r="H96" s="16"/>
+      <c r="H96" s="16">
+        <v>266.67</v>
+      </c>
       <c r="I96" s="16"/>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="K97" s="11"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
@@ -6252,25 +6455,25 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="I99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>44</v>
@@ -6278,25 +6481,25 @@
       <c r="L99" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M99" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="N99" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="O99" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="P99" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q99" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
-        <v>316</v>
+      <c r="M99" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="N99" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O99" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="P99" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q99" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="B100" s="80" t="s">
+        <v>233</v>
       </c>
       <c r="C100" s="2">
         <f>K100/L100</f>
@@ -6332,20 +6535,20 @@
       <c r="M100" s="2">
         <v>483.33</v>
       </c>
-      <c r="N100" s="40">
+      <c r="N100" s="37">
         <v>1200</v>
       </c>
       <c r="O100" s="2">
         <v>0.40279999999999999</v>
       </c>
-      <c r="P100" s="43"/>
+      <c r="P100" s="40"/>
       <c r="Q100" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B101" s="8" t="s">
-        <v>238</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="B101" s="80" t="s">
+        <v>234</v>
       </c>
       <c r="C101" s="2">
         <f>K101/L101</f>
@@ -6381,26 +6584,26 @@
       <c r="M101" s="2">
         <v>375</v>
       </c>
-      <c r="N101" s="40">
+      <c r="N101" s="37">
         <v>1000</v>
       </c>
       <c r="O101" s="2">
         <v>0.375</v>
       </c>
-      <c r="P101" s="43"/>
+      <c r="P101" s="40"/>
       <c r="Q101" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B102" s="8" t="s">
-        <v>239</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="B102" s="80" t="s">
+        <v>235</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>48</v>
@@ -6427,30 +6630,30 @@
         <v>48</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P102" s="43" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="P102" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C103" s="59">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="15" customFormat="1">
+      <c r="B103" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="54">
         <v>999999</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E103" s="16">
         <v>500</v>
@@ -6471,11 +6674,11 @@
         <v>0</v>
       </c>
       <c r="K103" s="16">
-        <f t="shared" ref="K103:K112" si="22">AVERAGE(E103,F103,G103)</f>
+        <f t="shared" ref="K103:K112" si="23">AVERAGE(E103,F103,G103)</f>
         <v>0</v>
       </c>
       <c r="L103" s="16">
-        <f t="shared" ref="L103:L112" si="23">AVERAGE(H103,I103,J103)</f>
+        <f t="shared" ref="L103:L112" si="24">AVERAGE(H103,I103,J103)</f>
         <v>0</v>
       </c>
       <c r="M103" s="16">
@@ -6484,25 +6687,25 @@
       <c r="N103" s="16">
         <v>0</v>
       </c>
-      <c r="O103" s="40">
+      <c r="O103" s="37">
         <v>999999</v>
       </c>
-      <c r="P103" s="45" t="s">
-        <v>159</v>
+      <c r="P103" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B104" s="8" t="s">
-        <v>241</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="B104" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="C104" s="22">
         <v>1000000</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2">
         <v>250</v>
@@ -6523,11 +6726,11 @@
         <v>0</v>
       </c>
       <c r="K104" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>250</v>
       </c>
       <c r="L104" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M104" s="2">
@@ -6536,25 +6739,25 @@
       <c r="N104" s="2">
         <v>0</v>
       </c>
-      <c r="O104" s="40">
+      <c r="O104" s="37">
         <v>1000000</v>
       </c>
-      <c r="P104" s="43" t="s">
-        <v>160</v>
+      <c r="P104" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B105" s="8" t="s">
-        <v>242</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="B105" s="80" t="s">
+        <v>238</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2">
         <v>100</v>
@@ -6575,7 +6778,7 @@
         <v>48</v>
       </c>
       <c r="K105" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>200</v>
       </c>
       <c r="L105" s="16" t="s">
@@ -6585,27 +6788,27 @@
         <v>200</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P105" s="43" t="s">
-        <v>161</v>
+        <v>196</v>
+      </c>
+      <c r="P105" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B106" s="8" t="s">
-        <v>243</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="B106" s="80" t="s">
+        <v>239</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>48</v>
@@ -6629,34 +6832,34 @@
         <v>48</v>
       </c>
       <c r="L106" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2500</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N106" s="40">
+        <v>196</v>
+      </c>
+      <c r="N106" s="37">
         <v>2500</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P106" s="43" t="s">
-        <v>162</v>
+        <v>196</v>
+      </c>
+      <c r="P106" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B107" s="8" t="s">
-        <v>244</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="B107" s="80" t="s">
+        <v>240</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2">
         <v>500</v>
@@ -6677,38 +6880,38 @@
         <v>1300</v>
       </c>
       <c r="K107" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-100</v>
       </c>
       <c r="L107" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1300</v>
       </c>
       <c r="M107" s="2">
         <v>-100</v>
       </c>
-      <c r="N107" s="40">
+      <c r="N107" s="37">
         <v>1300</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P107" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="P107" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B108" s="8" t="s">
-        <v>245</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="80" t="s">
+        <v>241</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2">
         <v>500</v>
@@ -6729,11 +6932,11 @@
         <v>0</v>
       </c>
       <c r="K108" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-100</v>
       </c>
       <c r="L108" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M108" s="2">
@@ -6743,24 +6946,24 @@
         <v>0</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P108" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="P108" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B109" s="8" t="s">
-        <v>246</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="80" t="s">
+        <v>242</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E109" s="2">
         <v>500</v>
@@ -6781,11 +6984,11 @@
         <v>-800</v>
       </c>
       <c r="K109" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-100</v>
       </c>
       <c r="L109" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-800</v>
       </c>
       <c r="M109" s="2">
@@ -6795,24 +6998,24 @@
         <v>-800</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P109" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P109" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B110" s="8" t="s">
-        <v>247</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="80" t="s">
+        <v>243</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E110" s="2">
         <v>250</v>
@@ -6833,38 +7036,38 @@
         <v>-1200</v>
       </c>
       <c r="K110" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>350</v>
       </c>
       <c r="L110" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1200</v>
       </c>
       <c r="M110" s="2">
         <v>350</v>
       </c>
-      <c r="N110" s="40">
+      <c r="N110" s="37">
         <v>-1200</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P110" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P110" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B111" s="8" t="s">
-        <v>248</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="B111" s="80" t="s">
+        <v>244</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E111" s="16">
         <v>0</v>
@@ -6885,38 +7088,38 @@
         <v>-1000</v>
       </c>
       <c r="K111" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L111" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1000</v>
       </c>
       <c r="M111" s="2">
         <v>0</v>
       </c>
-      <c r="N111" s="40">
+      <c r="N111" s="37">
         <v>-1000</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P111" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P111" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B112" s="8" t="s">
-        <v>249</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="B112" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E112" s="2">
         <v>-200</v>
@@ -6937,11 +7140,11 @@
         <v>-700</v>
       </c>
       <c r="K112" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-200</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-700</v>
       </c>
       <c r="M112" s="2">
@@ -6951,21 +7154,21 @@
         <v>-700</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P112" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P112" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B114" s="42"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="B114" s="39"/>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -6974,25 +7177,25 @@
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>44</v>
@@ -7000,26 +7203,26 @@
       <c r="L115" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M115" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="N115" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="O115" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="P115" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q115" s="37" t="s">
+      <c r="M115" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="N115" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O115" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="P115" s="43" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="60"/>
-      <c r="B116" s="14" t="s">
-        <v>250</v>
+      <c r="Q115" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="55"/>
+      <c r="B116" s="80" t="s">
+        <v>261</v>
       </c>
       <c r="C116" s="2">
         <f>K116/L116</f>
@@ -7061,14 +7264,14 @@
       <c r="O116" s="2">
         <v>0.3947</v>
       </c>
-      <c r="P116" s="43"/>
+      <c r="P116" s="40"/>
       <c r="Q116" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B117" s="14" t="s">
-        <v>268</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="B117" s="80" t="s">
+        <v>262</v>
       </c>
       <c r="C117" s="2">
         <f>K117/L117</f>
@@ -7110,20 +7313,20 @@
       <c r="O117" s="2">
         <v>0.2</v>
       </c>
-      <c r="P117" s="43"/>
+      <c r="P117" s="40"/>
       <c r="Q117" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B118" s="8" t="s">
-        <v>269</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="B118" s="80" t="s">
+        <v>263</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>48</v>
@@ -7150,30 +7353,30 @@
         <v>48</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P118" s="43" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="P118" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B119" s="8" t="s">
-        <v>270</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="B119" s="80" t="s">
+        <v>264</v>
       </c>
       <c r="C119" s="22">
         <v>999999</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E119" s="2">
         <v>-500</v>
@@ -7194,11 +7397,11 @@
         <v>600</v>
       </c>
       <c r="K119" s="16">
-        <f t="shared" ref="K119:K128" si="24">AVERAGE(E119,F119,G119)</f>
+        <f t="shared" ref="K119:K128" si="25">AVERAGE(E119,F119,G119)</f>
         <v>0</v>
       </c>
       <c r="L119" s="16">
-        <f t="shared" ref="L119:L120" si="25">AVERAGE(H119,I119,J119)</f>
+        <f t="shared" ref="L119:L120" si="26">AVERAGE(H119,I119,J119)</f>
         <v>0</v>
       </c>
       <c r="M119" s="2">
@@ -7207,25 +7410,25 @@
       <c r="N119" s="2">
         <v>0</v>
       </c>
-      <c r="O119" s="40">
+      <c r="O119" s="37">
         <v>999999</v>
       </c>
-      <c r="P119" s="43" t="s">
-        <v>159</v>
+      <c r="P119" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="8" t="s">
-        <v>271</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="15" customFormat="1">
+      <c r="B120" s="80" t="s">
+        <v>265</v>
       </c>
       <c r="C120" s="22">
         <v>1000000</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E120" s="16">
         <v>200</v>
@@ -7246,11 +7449,11 @@
         <v>600</v>
       </c>
       <c r="K120" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="L120" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M120" s="16">
@@ -7259,25 +7462,25 @@
       <c r="N120" s="16">
         <v>0</v>
       </c>
-      <c r="O120" s="40">
+      <c r="O120" s="37">
         <v>1000000</v>
       </c>
-      <c r="P120" s="45" t="s">
-        <v>160</v>
+      <c r="P120" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B121" s="8" t="s">
-        <v>272</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="B121" s="80" t="s">
+        <v>266</v>
       </c>
       <c r="C121" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E121" s="2">
         <v>350</v>
@@ -7298,7 +7501,7 @@
         <v>48</v>
       </c>
       <c r="K121" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>300</v>
       </c>
       <c r="L121" s="16" t="s">
@@ -7308,27 +7511,27 @@
         <v>300</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O121" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P121" s="43" t="s">
-        <v>161</v>
+        <v>196</v>
+      </c>
+      <c r="O121" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P121" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B122" s="8" t="s">
-        <v>273</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="B122" s="80" t="s">
+        <v>267</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>48</v>
@@ -7356,30 +7559,30 @@
         <v>416.66666666666669</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N122" s="2">
         <v>416.67</v>
       </c>
-      <c r="O122" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P122" s="43" t="s">
-        <v>162</v>
+      <c r="O122" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P122" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B123" s="8" t="s">
-        <v>274</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="B123" s="80" t="s">
+        <v>268</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E123" s="2">
         <v>250</v>
@@ -7400,7 +7603,7 @@
         <v>700</v>
       </c>
       <c r="K123" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L123" s="16">
@@ -7414,24 +7617,24 @@
         <v>416.67</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P123" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="P123" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q123" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B124" s="8" t="s">
-        <v>275</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="B124" s="80" t="s">
+        <v>269</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E124" s="2">
         <v>250</v>
@@ -7452,7 +7655,7 @@
         <v>50</v>
       </c>
       <c r="K124" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L124" s="16">
@@ -7465,25 +7668,25 @@
       <c r="N124" s="2">
         <v>0</v>
       </c>
-      <c r="O124" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P124" s="43" t="s">
-        <v>148</v>
+      <c r="O124" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P124" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B125" s="8" t="s">
-        <v>276</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="B125" s="80" t="s">
+        <v>270</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E125" s="2">
         <v>250</v>
@@ -7504,7 +7707,7 @@
         <v>200</v>
       </c>
       <c r="K125" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-116.66666666666667</v>
       </c>
       <c r="L125" s="16">
@@ -7518,24 +7721,24 @@
         <v>-16.670000000000002</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P125" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P125" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q125" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
-        <v>277</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="B126" s="80" t="s">
+        <v>271</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2">
         <v>150</v>
@@ -7556,7 +7759,7 @@
         <v>-700</v>
       </c>
       <c r="K126" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="L126" s="16">
@@ -7570,24 +7773,24 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P126" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P126" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B127" s="8" t="s">
-        <v>278</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="B127" s="80" t="s">
+        <v>272</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2">
         <v>-200</v>
@@ -7608,11 +7811,11 @@
         <v>-700</v>
       </c>
       <c r="K127" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" ref="L127:L128" si="26">AVERAGE(H127,I127,J127)</f>
+        <f t="shared" ref="L127:L128" si="27">AVERAGE(H127,I127,J127)</f>
         <v>-133.33333333333334</v>
       </c>
       <c r="M127" s="2">
@@ -7622,24 +7825,24 @@
         <v>-133.33000000000001</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P127" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P127" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B128" s="14" t="s">
-        <v>279</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="B128" s="80" t="s">
+        <v>327</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E128" s="16">
         <v>450</v>
@@ -7660,37 +7863,37 @@
         <v>-700</v>
       </c>
       <c r="K128" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-83.333333333333329</v>
       </c>
       <c r="L128" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="M128" s="27">
-        <f t="shared" ref="M128" si="27">AVERAGE(G128,H128,I128)</f>
+        <f t="shared" ref="M128" si="28">AVERAGE(G128,H128,I128)</f>
         <v>-83.333333333333329</v>
       </c>
       <c r="N128" s="16">
-        <f t="shared" ref="N128" si="28">AVERAGE(J128,K128,L128)</f>
+        <f t="shared" ref="N128" si="29">AVERAGE(J128,K128,L128)</f>
         <v>-305.5555555555556</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P128" s="45" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P128" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="Q128" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B130" s="42"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="B130" s="39"/>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>1</v>
@@ -7699,25 +7902,25 @@
         <v>2</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>44</v>
@@ -7725,26 +7928,26 @@
       <c r="L131" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M131" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="N131" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="O131" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="P131" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q131" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A132" s="60"/>
-      <c r="B132" s="8" t="s">
-        <v>280</v>
+      <c r="M131" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="N131" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O131" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="P131" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q131" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="55"/>
+      <c r="B132" s="80" t="s">
+        <v>248</v>
       </c>
       <c r="C132" s="2">
         <f>K132/L132</f>
@@ -7780,20 +7983,20 @@
       <c r="M132" s="2">
         <v>416.67</v>
       </c>
-      <c r="N132" s="40">
+      <c r="N132" s="37">
         <v>1000</v>
       </c>
       <c r="O132" s="2">
         <v>0.41670000000000001</v>
       </c>
-      <c r="P132" s="43"/>
+      <c r="P132" s="40"/>
       <c r="Q132" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B133" s="8" t="s">
-        <v>253</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="B133" s="80" t="s">
+        <v>249</v>
       </c>
       <c r="C133" s="2">
         <f>K133/L133</f>
@@ -7829,26 +8032,26 @@
       <c r="M133" s="2">
         <v>300</v>
       </c>
-      <c r="N133" s="40">
+      <c r="N133" s="37">
         <v>1300</v>
       </c>
       <c r="O133" s="2">
         <v>0.23080000000000001</v>
       </c>
-      <c r="P133" s="43"/>
+      <c r="P133" s="40"/>
       <c r="Q133" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B134" s="8" t="s">
-        <v>254</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="B134" s="80" t="s">
+        <v>250</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>48</v>
@@ -7875,30 +8078,30 @@
         <v>48</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N134" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P134" s="43" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="P134" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B135" s="8" t="s">
-        <v>255</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="80" t="s">
+        <v>251</v>
       </c>
       <c r="C135" s="22">
         <v>999999</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E135" s="2">
         <v>-200</v>
@@ -7919,11 +8122,11 @@
         <v>0</v>
       </c>
       <c r="K135" s="2">
-        <f t="shared" ref="K135:K144" si="29">AVERAGE(E135,F135,G135)</f>
+        <f t="shared" ref="K135:K144" si="30">AVERAGE(E135,F135,G135)</f>
         <v>0</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" ref="L135:L144" si="30">AVERAGE(H135,I135,J135)</f>
+        <f t="shared" ref="L135:L144" si="31">AVERAGE(H135,I135,J135)</f>
         <v>0</v>
       </c>
       <c r="M135" s="2">
@@ -7932,25 +8135,25 @@
       <c r="N135" s="2">
         <v>0</v>
       </c>
-      <c r="O135" s="40">
+      <c r="O135" s="37">
         <v>999999</v>
       </c>
-      <c r="P135" s="43" t="s">
-        <v>159</v>
+      <c r="P135" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B136" s="8" t="s">
-        <v>256</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="80" t="s">
+        <v>252</v>
       </c>
       <c r="C136" s="22">
         <v>1000000</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E136" s="2">
         <v>200</v>
@@ -7971,11 +8174,11 @@
         <v>0</v>
       </c>
       <c r="K136" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M136" s="2">
@@ -7984,25 +8187,25 @@
       <c r="N136" s="2">
         <v>0</v>
       </c>
-      <c r="O136" s="40">
+      <c r="O136" s="37">
         <v>1000000</v>
       </c>
-      <c r="P136" s="43" t="s">
-        <v>160</v>
+      <c r="P136" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B137" s="8" t="s">
-        <v>257</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="B137" s="80" t="s">
+        <v>253</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E137" s="2">
         <v>300</v>
@@ -8023,7 +8226,7 @@
         <v>48</v>
       </c>
       <c r="K137" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="L137" s="2" t="s">
@@ -8033,27 +8236,27 @@
         <v>300</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O137" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P137" s="43" t="s">
-        <v>161</v>
+        <v>196</v>
+      </c>
+      <c r="O137" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P137" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="Q137" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B138" s="8" t="s">
-        <v>258</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="B138" s="80" t="s">
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>48</v>
@@ -8077,34 +8280,34 @@
         <v>48</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1500</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="N138" s="40">
+        <v>196</v>
+      </c>
+      <c r="N138" s="37">
         <v>1500</v>
       </c>
-      <c r="O138" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P138" s="43" t="s">
-        <v>162</v>
+      <c r="O138" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P138" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B139" s="8" t="s">
-        <v>259</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="80" t="s">
+        <v>255</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E139" s="2">
         <v>200</v>
@@ -8125,11 +8328,11 @@
         <v>700</v>
       </c>
       <c r="K139" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>700</v>
       </c>
       <c r="M139" s="2">
@@ -8139,24 +8342,24 @@
         <v>700</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P139" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="P139" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B140" s="8" t="s">
-        <v>260</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="B140" s="80" t="s">
+        <v>256</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E140" s="2">
         <v>200</v>
@@ -8177,11 +8380,11 @@
         <v>0</v>
       </c>
       <c r="K140" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-33.333333333333336</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M140" s="2">
@@ -8190,25 +8393,25 @@
       <c r="N140" s="2">
         <v>0</v>
       </c>
-      <c r="O140" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P140" s="43" t="s">
-        <v>148</v>
+      <c r="O140" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P140" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B141" s="8" t="s">
-        <v>261</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="B141" s="80" t="s">
+        <v>257</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E141" s="2">
         <v>200</v>
@@ -8229,11 +8432,11 @@
         <v>-800</v>
       </c>
       <c r="K141" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-66.666666666666671</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-800</v>
       </c>
       <c r="M141" s="2">
@@ -8243,24 +8446,24 @@
         <v>-800</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P141" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P141" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B142" s="8" t="s">
-        <v>262</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="B142" s="80" t="s">
+        <v>258</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E142" s="2">
         <v>100</v>
@@ -8281,11 +8484,11 @@
         <v>-500</v>
       </c>
       <c r="K142" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-500</v>
       </c>
       <c r="M142" s="2">
@@ -8295,24 +8498,24 @@
         <v>-500</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P142" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P142" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q142" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B143" s="8" t="s">
-        <v>263</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="B143" s="80" t="s">
+        <v>328</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E143" s="2">
         <v>-300</v>
@@ -8333,11 +8536,11 @@
         <v>700</v>
       </c>
       <c r="K143" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-200</v>
       </c>
       <c r="M143" s="2">
@@ -8347,24 +8550,24 @@
         <v>-200</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P143" s="43" t="s">
-        <v>163</v>
+        <v>196</v>
+      </c>
+      <c r="P143" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="Q143" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B144" s="14" t="s">
-        <v>264</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="B144" s="80" t="s">
+        <v>329</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E144" s="16">
         <v>200</v>
@@ -8385,11 +8588,11 @@
         <v>-500</v>
       </c>
       <c r="K144" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-133.33333333333334</v>
       </c>
       <c r="L144" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="M144" s="16">
@@ -8399,18 +8602,18 @@
         <v>-166.67</v>
       </c>
       <c r="O144" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="P144" s="45" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P144" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -8419,25 +8622,25 @@
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>44</v>
@@ -8445,26 +8648,26 @@
       <c r="L147" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M147" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="N147" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="O147" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="P147" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q147" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M147" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="N147" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O147" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="P147" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q147" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="15"/>
-      <c r="B148" s="8" t="s">
-        <v>265</v>
+      <c r="B148" s="80" t="s">
+        <v>275</v>
       </c>
       <c r="C148" s="2">
         <f>K148/L148</f>
@@ -8506,14 +8709,14 @@
       <c r="O148" s="2">
         <v>0.4</v>
       </c>
-      <c r="P148" s="43"/>
+      <c r="P148" s="40"/>
       <c r="Q148" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B149" s="8" t="s">
-        <v>283</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="B149" s="80" t="s">
+        <v>276</v>
       </c>
       <c r="C149" s="2">
         <f>K149/L149</f>
@@ -8555,20 +8758,20 @@
       <c r="O149" s="2">
         <v>0.42309999999999998</v>
       </c>
-      <c r="P149" s="43"/>
+      <c r="P149" s="40"/>
       <c r="Q149" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B150" s="8" t="s">
-        <v>284</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="B150" s="80" t="s">
+        <v>277</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>48</v>
@@ -8595,30 +8798,30 @@
         <v>48</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N150" s="29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P150" s="43" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="P150" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B151" s="8" t="s">
-        <v>285</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="B151" s="80" t="s">
+        <v>278</v>
       </c>
       <c r="C151" s="22">
         <v>999999</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2">
         <v>700</v>
@@ -8639,11 +8842,11 @@
         <v>-400</v>
       </c>
       <c r="K151" s="2">
-        <f t="shared" ref="K151:K160" si="31">AVERAGE(E151,F151,G151)</f>
+        <f t="shared" ref="K151:K160" si="32">AVERAGE(E151,F151,G151)</f>
         <v>0</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" ref="L151:L160" si="32">AVERAGE(H151,I151,J151)</f>
+        <f t="shared" ref="L151:L160" si="33">AVERAGE(H151,I151,J151)</f>
         <v>0</v>
       </c>
       <c r="M151" s="2">
@@ -8652,25 +8855,25 @@
       <c r="N151" s="2">
         <v>0</v>
       </c>
-      <c r="O151" s="40">
+      <c r="O151" s="37">
         <v>999999</v>
       </c>
-      <c r="P151" s="43" t="s">
-        <v>159</v>
+      <c r="P151" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B152" s="8" t="s">
-        <v>286</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="B152" s="80" t="s">
+        <v>279</v>
       </c>
       <c r="C152" s="23">
         <v>1000000</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E152" s="2">
         <v>500</v>
@@ -8691,11 +8894,11 @@
         <v>600</v>
       </c>
       <c r="K152" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>400</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M152" s="2">
@@ -8704,25 +8907,25 @@
       <c r="N152" s="2">
         <v>0</v>
       </c>
-      <c r="O152" s="40">
+      <c r="O152" s="37">
         <v>1000000</v>
       </c>
-      <c r="P152" s="43" t="s">
-        <v>160</v>
+      <c r="P152" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B153" s="8" t="s">
-        <v>287</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="B153" s="80" t="s">
+        <v>280</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E153" s="2">
         <v>100</v>
@@ -8743,7 +8946,7 @@
         <v>48</v>
       </c>
       <c r="K153" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>366.66666666666669</v>
       </c>
       <c r="L153" s="2" t="s">
@@ -8753,27 +8956,27 @@
         <v>366.67</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O153" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P153" s="43" t="s">
-        <v>161</v>
+        <v>196</v>
+      </c>
+      <c r="O153" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P153" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B154" s="8" t="s">
-        <v>288</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="B154" s="80" t="s">
+        <v>281</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>48</v>
@@ -8797,34 +9000,34 @@
         <v>48</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>766.66666666666663</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N154" s="2">
         <v>766.67</v>
       </c>
-      <c r="O154" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P154" s="43" t="s">
-        <v>162</v>
+      <c r="O154" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P154" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B155" s="8" t="s">
-        <v>289</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="B155" s="80" t="s">
+        <v>282</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E155" s="2">
         <v>300</v>
@@ -8845,11 +9048,11 @@
         <v>400</v>
       </c>
       <c r="K155" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-200</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>500</v>
       </c>
       <c r="M155" s="2">
@@ -8859,24 +9062,24 @@
         <v>500</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P155" s="43" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="P155" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B156" s="8" t="s">
-        <v>290</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="B156" s="80" t="s">
+        <v>283</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E156" s="2">
         <v>-200</v>
@@ -8897,11 +9100,11 @@
         <v>-800</v>
       </c>
       <c r="K156" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-166.66666666666666</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M156" s="2">
@@ -8910,25 +9113,25 @@
       <c r="N156" s="2">
         <v>0</v>
       </c>
-      <c r="O156" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="P156" s="43" t="s">
-        <v>148</v>
+      <c r="O156" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P156" s="40" t="s">
+        <v>143</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B157" s="8" t="s">
-        <v>291</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="B157" s="80" t="s">
+        <v>284</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E157" s="2">
         <v>800</v>
@@ -8949,11 +9152,11 @@
         <v>-600</v>
       </c>
       <c r="K157" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-200</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-300</v>
       </c>
       <c r="M157" s="2">
@@ -8963,24 +9166,24 @@
         <v>-300</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P157" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P157" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B158" s="8" t="s">
-        <v>292</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="B158" s="80" t="s">
+        <v>285</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E158" s="2">
         <v>200</v>
@@ -9001,115 +9204,115 @@
         <v>-300</v>
       </c>
       <c r="K158" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>200</v>
       </c>
       <c r="L158" s="2">
+        <f t="shared" si="33"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="M158" s="2">
+        <v>200</v>
+      </c>
+      <c r="N158" s="2">
+        <v>-66.67</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P158" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E159" s="2">
+        <v>400</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G159" s="2">
+        <v>-100</v>
+      </c>
+      <c r="H159" s="2">
+        <v>900</v>
+      </c>
+      <c r="I159" s="2">
+        <v>-700</v>
+      </c>
+      <c r="J159" s="2">
+        <v>-600</v>
+      </c>
+      <c r="K159" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <f t="shared" si="33"/>
+        <v>-133.33333333333334</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>-133.33000000000001</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P159" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E160" s="2">
+        <v>200</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-300</v>
+      </c>
+      <c r="G160" s="2">
+        <v>-100</v>
+      </c>
+      <c r="H160" s="2">
+        <v>-700</v>
+      </c>
+      <c r="I160" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J160" s="2">
+        <v>-950</v>
+      </c>
+      <c r="K160" s="2">
         <f t="shared" si="32"/>
         <v>-66.666666666666671</v>
       </c>
-      <c r="M158" s="2">
-        <v>200</v>
-      </c>
-      <c r="N158" s="2">
-        <v>-66.67</v>
-      </c>
-      <c r="O158" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P158" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q158" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B159" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E159" s="2">
-        <v>400</v>
-      </c>
-      <c r="F159" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G159" s="2">
-        <v>-100</v>
-      </c>
-      <c r="H159" s="2">
-        <v>900</v>
-      </c>
-      <c r="I159" s="2">
-        <v>-700</v>
-      </c>
-      <c r="J159" s="2">
-        <v>-600</v>
-      </c>
-      <c r="K159" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="L159" s="2">
-        <f t="shared" si="32"/>
-        <v>-133.33333333333334</v>
-      </c>
-      <c r="M159" s="2">
-        <v>0</v>
-      </c>
-      <c r="N159" s="2">
-        <v>-133.33000000000001</v>
-      </c>
-      <c r="O159" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P159" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q159" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B160" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E160" s="2">
-        <v>200</v>
-      </c>
-      <c r="F160" s="2">
-        <v>-300</v>
-      </c>
-      <c r="G160" s="2">
-        <v>-100</v>
-      </c>
-      <c r="H160" s="2">
-        <v>-700</v>
-      </c>
-      <c r="I160" s="2">
-        <v>1500</v>
-      </c>
-      <c r="J160" s="2">
-        <v>-950</v>
-      </c>
-      <c r="K160" s="2">
-        <f t="shared" si="31"/>
-        <v>-66.666666666666671</v>
-      </c>
       <c r="L160" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-50</v>
       </c>
       <c r="M160" s="2">
@@ -9119,21 +9322,21 @@
         <v>-50</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="P160" s="43" t="s">
-        <v>318</v>
+        <v>196</v>
+      </c>
+      <c r="P160" s="40" t="s">
+        <v>301</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B162" s="42"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163" s="31" t="s">
-        <v>175</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="B162" s="39"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -9142,31 +9345,31 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H163" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="I163" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="J163" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
-      <c r="B164" s="8" t="s">
-        <v>295</v>
+        <v>153</v>
+      </c>
+      <c r="H163" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="I163" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J163" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="31"/>
+      <c r="B164" s="84" t="s">
+        <v>286</v>
       </c>
       <c r="C164" s="2">
         <f>COUNT(E164,F164,G164)</f>
@@ -9187,13 +9390,13 @@
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A165" s="33"/>
-      <c r="B165" s="30" t="s">
-        <v>296</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="32"/>
+      <c r="B165" s="84" t="s">
+        <v>287</v>
       </c>
       <c r="C165" s="2">
         <f>COUNT(E165,F165,G165)</f>
@@ -9214,13 +9417,13 @@
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A166" s="33"/>
-      <c r="B166" s="30" t="s">
-        <v>297</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="32"/>
+      <c r="B166" s="84" t="s">
+        <v>332</v>
       </c>
       <c r="C166" s="2">
         <f>COUNT(E166,F166,G166)</f>
@@ -9241,19 +9444,19 @@
       </c>
       <c r="I166" s="29"/>
       <c r="J166" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A167" s="33"/>
-      <c r="B167" s="30" t="s">
-        <v>298</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="32"/>
+      <c r="B167" s="84" t="s">
+        <v>333</v>
       </c>
       <c r="C167" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>48</v>
@@ -9265,24 +9468,24 @@
         <v>48</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="I168"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15">
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A170" s="31" t="s">
-        <v>178</v>
+    <row r="170" spans="1:15">
+      <c r="A170" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
@@ -9291,32 +9494,32 @@
         <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H170" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="I170" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J170" s="37" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="H170" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I170" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J170" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="O170"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A171" s="32"/>
-      <c r="B171" s="53" t="s">
-        <v>299</v>
+    <row r="171" spans="1:15">
+      <c r="A171" s="31"/>
+      <c r="B171" s="83" t="s">
+        <v>288</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -9335,17 +9538,17 @@
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O171"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15">
       <c r="A172" s="20"/>
-      <c r="B172" s="8" t="s">
-        <v>317</v>
+      <c r="B172" s="80" t="s">
+        <v>300</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
@@ -9365,14 +9568,14 @@
       </c>
       <c r="I172" s="2"/>
       <c r="J172" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O172"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15">
       <c r="A173" s="20"/>
-      <c r="B173" s="8" t="s">
-        <v>300</v>
+      <c r="B173" s="80" t="s">
+        <v>289</v>
       </c>
       <c r="C173" s="2">
         <v>1</v>
@@ -9392,20 +9595,20 @@
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O173"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15">
       <c r="A174" s="20"/>
-      <c r="B174" s="8" t="s">
-        <v>301</v>
+      <c r="B174" s="80" t="s">
+        <v>290</v>
       </c>
       <c r="C174" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>48</v>
@@ -9420,45 +9623,52 @@
         <v>4</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O174"/>
     </row>
-    <row r="175" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="72" t="s">
+    <row r="175" spans="1:15" s="45" customFormat="1">
+      <c r="B175" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="C175" s="47">
+        <v>0</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="E175" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="F175" s="46">
+        <v>-100</v>
+      </c>
+      <c r="G175" s="46">
+        <v>-2000</v>
+      </c>
+      <c r="H175" s="56">
+        <v>0</v>
+      </c>
+      <c r="I175" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="J175" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C175" s="50">
-        <v>0</v>
-      </c>
-      <c r="D175" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="E175" s="49">
-        <v>-1000</v>
-      </c>
-      <c r="F175" s="49">
-        <v>-100</v>
-      </c>
-      <c r="G175" s="49">
-        <v>-2000</v>
-      </c>
-      <c r="H175" s="61"/>
-      <c r="I175" s="62"/>
-      <c r="J175" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K175" s="70"/>
-      <c r="L175" s="52"/>
-      <c r="M175" s="52"/>
-      <c r="N175" s="52"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A178" s="31" t="s">
-        <v>179</v>
+      <c r="K175" s="64"/>
+      <c r="L175" s="49"/>
+      <c r="M175" s="49"/>
+      <c r="N175" s="49"/>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="L177" s="78"/>
+    </row>
+    <row r="178" spans="1:15" ht="18.75">
+      <c r="A178" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
@@ -9467,34 +9677,35 @@
         <v>2</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I178" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I178" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="J178" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J178" s="37" t="s">
+      <c r="K178" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="K178" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A179" s="32"/>
-      <c r="B179" s="53" t="s">
-        <v>303</v>
+      <c r="L178" s="79"/>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="31"/>
+      <c r="B179" s="83" t="s">
+        <v>292</v>
       </c>
       <c r="C179" s="2">
         <f>H179</f>
@@ -9520,13 +9731,13 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A180" s="33"/>
-      <c r="B180" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="32"/>
+      <c r="B180" s="80" t="s">
+        <v>293</v>
       </c>
       <c r="C180" s="2">
         <f>H180</f>
@@ -9552,13 +9763,13 @@
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A181" s="33"/>
-      <c r="B181" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="32"/>
+      <c r="B181" s="80" t="s">
+        <v>334</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -9570,20 +9781,20 @@
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E182" s="36"/>
-      <c r="K182" s="36"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A184" s="31" t="s">
-        <v>185</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="E182" s="35"/>
+      <c r="K182" s="35"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="30" t="s">
+        <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -9592,36 +9803,36 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G184" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J184" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K184" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J184" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="K184" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="L184" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B185" s="8" t="s">
-        <v>306</v>
+      <c r="L184" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="B185" s="80" t="s">
+        <v>335</v>
       </c>
       <c r="C185" s="2">
         <f>E185</f>
@@ -9648,15 +9859,15 @@
         <v>1</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B186" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="B186" s="80" t="s">
+        <v>336</v>
       </c>
       <c r="C186" s="2">
         <f>E186</f>
@@ -9683,15 +9894,15 @@
         <v>1</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B187" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="B187" s="80" t="s">
+        <v>337</v>
       </c>
       <c r="C187" s="2">
         <f>E187</f>
@@ -9718,133 +9929,145 @@
         <v>0</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C188" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="51" customFormat="1">
+      <c r="B188" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="C188" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D188" s="56"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G188" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="H188" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="I188" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J188" s="56" t="s">
+      <c r="D188" s="52"/>
+      <c r="E188" s="52"/>
+      <c r="F188" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G188" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I188" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="J188" s="52" t="s">
         <v>4</v>
       </c>
       <c r="K188" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="M188" s="54"/>
-      <c r="N188" s="54"/>
-      <c r="O188" s="54"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B189" s="35"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="36"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="57"/>
-      <c r="I189" s="36"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-      <c r="L189" s="36"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="M188" s="50"/>
+      <c r="N188" s="50"/>
+      <c r="O188" s="50"/>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="B189" s="34"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="35"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="35"/>
+      <c r="G189" s="35"/>
+      <c r="H189" s="53"/>
+      <c r="I189" s="35"/>
+      <c r="J189" s="35"/>
+      <c r="K189" s="35"/>
+      <c r="L189" s="35"/>
+    </row>
+    <row r="192" spans="1:15">
       <c r="D192" s="12"/>
     </row>
-    <row r="193" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:10">
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:10">
       <c r="D194" s="12"/>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:10">
       <c r="D195" s="12"/>
     </row>
-    <row r="196" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:10">
       <c r="D196" s="12"/>
     </row>
-    <row r="197" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:10">
       <c r="D197" s="12"/>
     </row>
-    <row r="208" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:10">
       <c r="J208" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B141">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="B136:B141">
+    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:B157">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  <conditionalFormatting sqref="B152:B157">
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B173:B175">
-    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B172 B165:B167">
-    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+  <conditionalFormatting sqref="B172 B164:B167">
+    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:B128 B132 B134:B135">
-    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
+  <conditionalFormatting sqref="B126:B128 B132:B135">
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:B160 B164">
-    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
+  <conditionalFormatting sqref="B164 B157:B160">
+    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B142:B144 B148 B150:B151">
-    <cfRule type="duplicateValues" dxfId="5" priority="33"/>
+  <conditionalFormatting sqref="B141:B144 B148:B151">
+    <cfRule type="duplicateValues" dxfId="8" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181 B185:B189">
-    <cfRule type="duplicateValues" dxfId="3" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B89">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B135">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B132">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B148">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9859,22 +10082,22 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -9888,13 +10111,13 @@
         <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>49</v>
@@ -9905,12 +10128,12 @@
       <c r="J5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="37" t="s">
-        <v>189</v>
+      <c r="K5" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
@@ -9939,11 +10162,11 @@
         <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
@@ -9972,11 +10195,11 @@
         <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
@@ -10005,13 +10228,13 @@
         <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -10020,28 +10243,28 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>189</v>
+        <v>110</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -10057,16 +10280,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="B13" s="8" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -10082,16 +10305,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -10100,43 +10323,43 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>189</v>
+        <v>134</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15">
       <c r="B17" s="8" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -10172,13 +10395,13 @@
         <v>48</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15">
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -10214,13 +10437,13 @@
         <v>48</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15">
       <c r="B19" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -10256,7 +10479,7 @@
         <v>48</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O19" s="5"/>
     </row>
